--- a/zonas_verdes.xlsx
+++ b/zonas_verdes.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34644\Documents\Fuentes\Seminario-Fuentes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BC89AC-DBB0-4C22-84FD-564C8F6F00CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Ciudad</t>
   </si>
@@ -23,9 +32,6 @@
   </si>
   <si>
     <t>Total (km²)</t>
-  </si>
-  <si>
-    <t>Vitoria</t>
   </si>
   <si>
     <t>León</t>
@@ -46,16 +52,7 @@
     <t>Santander</t>
   </si>
   <si>
-    <t>Llerida</t>
-  </si>
-  <si>
     <t>Zaragoza</t>
-  </si>
-  <si>
-    <t>San Sebastián</t>
-  </si>
-  <si>
-    <t>Gijón</t>
   </si>
   <si>
     <t>Ourense</t>
@@ -79,19 +76,10 @@
     <t>Badajoz</t>
   </si>
   <si>
-    <t>La Coruña</t>
-  </si>
-  <si>
     <t>Jaén</t>
   </si>
   <si>
     <t>Almería</t>
-  </si>
-  <si>
-    <t>Alicante</t>
-  </si>
-  <si>
-    <t>Cartagena</t>
   </si>
   <si>
     <t>Bilbao</t>
@@ -101,12 +89,6 @@
   </si>
   <si>
     <t>Córdoba</t>
-  </si>
-  <si>
-    <t>Tenerife</t>
-  </si>
-  <si>
-    <t>Las Palmas</t>
   </si>
   <si>
     <t>Valencia</t>
@@ -130,19 +112,43 @@
     <t>Burgos</t>
   </si>
   <si>
-    <t>Castellón</t>
+    <t>Cádiz</t>
   </si>
   <si>
-    <t>Cádiz</t>
+    <t>Castellón/Castelló</t>
+  </si>
+  <si>
+    <t>Palmas, Las</t>
+  </si>
+  <si>
+    <t>Santa Cruz de Tenerife</t>
+  </si>
+  <si>
+    <t>Alicante/Alacant</t>
+  </si>
+  <si>
+    <t>Coruña, A</t>
+  </si>
+  <si>
+    <t>Lleida</t>
+  </si>
+  <si>
+    <t>Araba/Álava</t>
+  </si>
+  <si>
+    <t>Gipuzkoa</t>
+  </si>
+  <si>
+    <t>Asturias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -150,28 +156,30 @@
     <font>
       <b/>
       <i/>
-      <sz val="15.0"/>
+      <sz val="15"/>
       <color rgb="FF333333"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Times New Roman"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="15.0"/>
+      <sz val="15"/>
       <color rgb="FF333333"/>
       <name val="Times New Roman"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Times New Roman"/>
     </font>
@@ -181,11 +189,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FFF2F2F2"/>
@@ -199,45 +213,49 @@
       <bottom style="thin">
         <color rgb="FFF2F2F2"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -427,20 +445,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,12 +499,12 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B2" s="5">
-        <v>246976.0</v>
+        <v>246976</v>
       </c>
       <c r="C2" s="6">
         <v>26.76</v>
@@ -512,12 +535,12 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="5">
-        <v>125317.0</v>
+        <v>125317</v>
       </c>
       <c r="C3" s="6">
         <v>17.96</v>
@@ -548,12 +571,12 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="5">
-        <v>3182981.0</v>
+        <v>3182981</v>
       </c>
       <c r="C4" s="6">
         <v>15.78</v>
@@ -584,12 +607,12 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="5">
-        <v>197138.0</v>
+        <v>197138</v>
       </c>
       <c r="C5" s="6">
         <v>12.29</v>
@@ -620,12 +643,12 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="5">
-        <v>689434.0</v>
+        <v>689434</v>
       </c>
       <c r="C6" s="6">
         <v>11.27</v>
@@ -656,15 +679,15 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="5">
-        <v>299715.0</v>
+        <v>299715</v>
       </c>
       <c r="C7" s="6">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D7" s="6">
         <v>3.3</v>
@@ -692,12 +715,12 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="5">
-        <v>171951.0</v>
+        <v>171951</v>
       </c>
       <c r="C8" s="6">
         <v>10.62</v>
@@ -728,12 +751,12 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5">
-        <v>138144.0</v>
+        <v>138144</v>
       </c>
       <c r="C9" s="6">
         <v>10.1</v>
@@ -764,18 +787,18 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5">
-        <v>664938.0</v>
+        <v>664938</v>
       </c>
       <c r="C10" s="6">
         <v>9.02</v>
       </c>
       <c r="D10" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -800,12 +823,12 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B11" s="5">
-        <v>186370.0</v>
+        <v>186370</v>
       </c>
       <c r="C11" s="6">
         <v>8.17</v>
@@ -836,12 +859,12 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B12" s="5">
-        <v>272365.0</v>
+        <v>272365</v>
       </c>
       <c r="C12" s="6">
         <v>7.85</v>
@@ -872,12 +895,12 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>105893.0</v>
+        <v>105893</v>
       </c>
       <c r="C13" s="6">
         <v>7.45</v>
@@ -908,12 +931,12 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>232770.0</v>
+        <v>232770</v>
       </c>
       <c r="C14" s="6">
         <v>7.39</v>
@@ -944,12 +967,12 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>145115.0</v>
+        <v>145115</v>
       </c>
       <c r="C15" s="6">
         <v>7.39</v>
@@ -980,12 +1003,12 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B16" s="5">
-        <v>220301.0</v>
+        <v>220301</v>
       </c>
       <c r="C16" s="6">
         <v>7.31</v>
@@ -1016,12 +1039,12 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>172816.0</v>
+        <v>172816</v>
       </c>
       <c r="C17" s="6">
         <v>7.16</v>
@@ -1052,12 +1075,12 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>144436.0</v>
+        <v>144436</v>
       </c>
       <c r="C18" s="6">
         <v>7.12</v>
@@ -1088,12 +1111,12 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>150543.0</v>
+        <v>150543</v>
       </c>
       <c r="C19" s="6">
         <v>6.75</v>
@@ -1124,12 +1147,12 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B20" s="5">
-        <v>244099.0</v>
+        <v>244099</v>
       </c>
       <c r="C20" s="6">
         <v>6.58</v>
@@ -1160,12 +1183,12 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B21" s="5">
-        <v>114238.0</v>
+        <v>114238</v>
       </c>
       <c r="C21" s="6">
         <v>6.55</v>
@@ -1196,12 +1219,12 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B22" s="5">
-        <v>195389.0</v>
+        <v>195389</v>
       </c>
       <c r="C22" s="6">
         <v>6.5</v>
@@ -1232,12 +1255,12 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B23" s="5">
-        <v>329988.0</v>
+        <v>329988</v>
       </c>
       <c r="C23" s="6">
         <v>6.12</v>
@@ -1268,12 +1291,12 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" s="5">
-        <v>214177.0</v>
+        <v>214177</v>
       </c>
       <c r="C24" s="6">
         <v>5.97</v>
@@ -1304,12 +1327,12 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B25" s="5">
-        <v>345110.0</v>
+        <v>345110</v>
       </c>
       <c r="C25" s="6">
         <v>5.73</v>
@@ -1340,18 +1363,18 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B26" s="5">
-        <v>1620809.0</v>
+        <v>1620809</v>
       </c>
       <c r="C26" s="6">
         <v>5.53</v>
       </c>
       <c r="D26" s="6">
-        <v>8.96</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1376,12 +1399,12 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B27" s="5">
-        <v>325916.0</v>
+        <v>325916</v>
       </c>
       <c r="C27" s="6">
         <v>5.34</v>
@@ -1412,15 +1435,15 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28" s="5">
-        <v>203692.0</v>
+        <v>203692</v>
       </c>
       <c r="C28" s="6">
-        <v>4.39</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="D28" s="6">
         <v>0.89</v>
@@ -1448,15 +1471,15 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" s="5">
-        <v>377650.0</v>
+        <v>377650</v>
       </c>
       <c r="C29" s="6">
-        <v>4.31</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="D29" s="6">
         <v>1.63</v>
@@ -1484,12 +1507,12 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B30" s="5">
-        <v>787808.0</v>
+        <v>787808</v>
       </c>
       <c r="C30" s="6">
         <v>4.18</v>
@@ -1520,12 +1543,12 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B31" s="5">
-        <v>131507.0</v>
+        <v>131507</v>
       </c>
       <c r="C31" s="6">
         <v>4.01</v>
@@ -1556,12 +1579,12 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B32" s="5">
-        <v>292986.0</v>
+        <v>292986</v>
       </c>
       <c r="C32" s="6">
         <v>3.64</v>
@@ -1592,12 +1615,12 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B33" s="5">
-        <v>406492.0</v>
+        <v>406492</v>
       </c>
       <c r="C33" s="6">
         <v>3.42</v>
@@ -1628,12 +1651,12 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B34" s="5">
-        <v>443243.0</v>
+        <v>443243</v>
       </c>
       <c r="C34" s="6">
         <v>3.38</v>
@@ -1664,12 +1687,12 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B35" s="5">
-        <v>569002.0</v>
+        <v>569002</v>
       </c>
       <c r="C35" s="6">
         <v>2.92</v>
@@ -1700,12 +1723,12 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A36" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B36" s="5">
-        <v>175623.0</v>
+        <v>175623</v>
       </c>
       <c r="C36" s="6">
         <v>2.8</v>
@@ -1736,12 +1759,12 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B37" s="5">
-        <v>169498.0</v>
+        <v>169498</v>
       </c>
       <c r="C37" s="6">
         <v>2.73</v>
@@ -1772,12 +1795,12 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A38" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B38" s="5">
-        <v>118048.0</v>
+        <v>118048</v>
       </c>
       <c r="C38" s="6">
         <v>1.8</v>
@@ -1808,7 +1831,7 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1836,7 +1859,7 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1864,7 +1887,7 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1892,7 +1915,7 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1920,7 +1943,7 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1948,7 +1971,7 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1976,7 +1999,7 @@
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2004,7 +2027,7 @@
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2032,7 +2055,7 @@
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2060,7 +2083,7 @@
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2088,7 +2111,7 @@
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2116,7 +2139,7 @@
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2144,7 +2167,7 @@
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2172,7 +2195,7 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2200,7 +2223,7 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2228,7 +2251,7 @@
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2256,7 +2279,7 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2284,7 +2307,7 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2312,7 +2335,7 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2340,7 +2363,7 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2368,7 +2391,7 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2396,7 +2419,7 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2424,7 +2447,7 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2452,7 +2475,7 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2480,7 +2503,7 @@
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2508,7 +2531,7 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2536,7 +2559,7 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2564,7 +2587,7 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2592,7 +2615,7 @@
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2620,7 +2643,7 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2648,7 +2671,7 @@
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2676,7 +2699,7 @@
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2704,7 +2727,7 @@
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2732,7 +2755,7 @@
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2760,7 +2783,7 @@
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2788,7 +2811,7 @@
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2816,7 +2839,7 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2844,7 +2867,7 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2872,7 +2895,7 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2900,7 +2923,7 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2928,7 +2951,7 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2956,7 +2979,7 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2984,7 +3007,7 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -3012,7 +3035,7 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -3040,7 +3063,7 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -3068,7 +3091,7 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -3096,7 +3119,7 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -3124,7 +3147,7 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3152,7 +3175,7 @@
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -3180,7 +3203,7 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3208,7 +3231,7 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3236,7 +3259,7 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3264,7 +3287,7 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3292,7 +3315,7 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3320,7 +3343,7 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3348,7 +3371,7 @@
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3376,7 +3399,7 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3404,7 +3427,7 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3432,7 +3455,7 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3460,7 +3483,7 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3488,7 +3511,7 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3516,7 +3539,7 @@
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3544,7 +3567,7 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -3572,7 +3595,7 @@
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -3600,7 +3623,7 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -3628,7 +3651,7 @@
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -3656,7 +3679,7 @@
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -3684,7 +3707,7 @@
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -3712,7 +3735,7 @@
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3740,7 +3763,7 @@
       <c r="Y107" s="3"/>
       <c r="Z107" s="3"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -3768,7 +3791,7 @@
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -3796,7 +3819,7 @@
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -3824,7 +3847,7 @@
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -3852,7 +3875,7 @@
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -3880,7 +3903,7 @@
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -3908,7 +3931,7 @@
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -3936,7 +3959,7 @@
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -3964,7 +3987,7 @@
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -3992,7 +4015,7 @@
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -4020,7 +4043,7 @@
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -4048,7 +4071,7 @@
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -4076,7 +4099,7 @@
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -4104,7 +4127,7 @@
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -4132,7 +4155,7 @@
       <c r="Y121" s="3"/>
       <c r="Z121" s="3"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -4160,7 +4183,7 @@
       <c r="Y122" s="3"/>
       <c r="Z122" s="3"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -4188,7 +4211,7 @@
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -4216,7 +4239,7 @@
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -4244,7 +4267,7 @@
       <c r="Y125" s="3"/>
       <c r="Z125" s="3"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -4272,7 +4295,7 @@
       <c r="Y126" s="3"/>
       <c r="Z126" s="3"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -4300,7 +4323,7 @@
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -4328,7 +4351,7 @@
       <c r="Y128" s="3"/>
       <c r="Z128" s="3"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -4356,7 +4379,7 @@
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -4384,7 +4407,7 @@
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -4412,7 +4435,7 @@
       <c r="Y131" s="3"/>
       <c r="Z131" s="3"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -4440,7 +4463,7 @@
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -4468,7 +4491,7 @@
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -4496,7 +4519,7 @@
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -4524,7 +4547,7 @@
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -4552,7 +4575,7 @@
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -4580,7 +4603,7 @@
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -4608,7 +4631,7 @@
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -4636,7 +4659,7 @@
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -4664,7 +4687,7 @@
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -4692,7 +4715,7 @@
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -4720,7 +4743,7 @@
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -4748,7 +4771,7 @@
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -4776,7 +4799,7 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -4804,7 +4827,7 @@
       <c r="Y145" s="3"/>
       <c r="Z145" s="3"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -4832,7 +4855,7 @@
       <c r="Y146" s="3"/>
       <c r="Z146" s="3"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -4860,7 +4883,7 @@
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -4888,7 +4911,7 @@
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -4916,7 +4939,7 @@
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -4944,7 +4967,7 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -4972,7 +4995,7 @@
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -5000,7 +5023,7 @@
       <c r="Y152" s="3"/>
       <c r="Z152" s="3"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -5028,7 +5051,7 @@
       <c r="Y153" s="3"/>
       <c r="Z153" s="3"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -5056,7 +5079,7 @@
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -5084,7 +5107,7 @@
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -5112,7 +5135,7 @@
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -5140,7 +5163,7 @@
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -5168,7 +5191,7 @@
       <c r="Y158" s="3"/>
       <c r="Z158" s="3"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -5196,7 +5219,7 @@
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -5224,7 +5247,7 @@
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -5252,7 +5275,7 @@
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -5280,7 +5303,7 @@
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -5308,7 +5331,7 @@
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -5336,7 +5359,7 @@
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -5364,7 +5387,7 @@
       <c r="Y165" s="3"/>
       <c r="Z165" s="3"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -5392,7 +5415,7 @@
       <c r="Y166" s="3"/>
       <c r="Z166" s="3"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -5420,7 +5443,7 @@
       <c r="Y167" s="3"/>
       <c r="Z167" s="3"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -5448,7 +5471,7 @@
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -5476,7 +5499,7 @@
       <c r="Y169" s="3"/>
       <c r="Z169" s="3"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -5504,7 +5527,7 @@
       <c r="Y170" s="3"/>
       <c r="Z170" s="3"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -5532,7 +5555,7 @@
       <c r="Y171" s="3"/>
       <c r="Z171" s="3"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -5560,7 +5583,7 @@
       <c r="Y172" s="3"/>
       <c r="Z172" s="3"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -5588,7 +5611,7 @@
       <c r="Y173" s="3"/>
       <c r="Z173" s="3"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -5616,7 +5639,7 @@
       <c r="Y174" s="3"/>
       <c r="Z174" s="3"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -5644,7 +5667,7 @@
       <c r="Y175" s="3"/>
       <c r="Z175" s="3"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -5672,7 +5695,7 @@
       <c r="Y176" s="3"/>
       <c r="Z176" s="3"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -5700,7 +5723,7 @@
       <c r="Y177" s="3"/>
       <c r="Z177" s="3"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -5728,7 +5751,7 @@
       <c r="Y178" s="3"/>
       <c r="Z178" s="3"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -5756,7 +5779,7 @@
       <c r="Y179" s="3"/>
       <c r="Z179" s="3"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -5784,7 +5807,7 @@
       <c r="Y180" s="3"/>
       <c r="Z180" s="3"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -5812,7 +5835,7 @@
       <c r="Y181" s="3"/>
       <c r="Z181" s="3"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -5840,7 +5863,7 @@
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -5868,7 +5891,7 @@
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -5896,7 +5919,7 @@
       <c r="Y184" s="3"/>
       <c r="Z184" s="3"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -5924,7 +5947,7 @@
       <c r="Y185" s="3"/>
       <c r="Z185" s="3"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -5952,7 +5975,7 @@
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -5980,7 +6003,7 @@
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -6008,7 +6031,7 @@
       <c r="Y188" s="3"/>
       <c r="Z188" s="3"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -6036,7 +6059,7 @@
       <c r="Y189" s="3"/>
       <c r="Z189" s="3"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -6064,7 +6087,7 @@
       <c r="Y190" s="3"/>
       <c r="Z190" s="3"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -6092,7 +6115,7 @@
       <c r="Y191" s="3"/>
       <c r="Z191" s="3"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -6120,7 +6143,7 @@
       <c r="Y192" s="3"/>
       <c r="Z192" s="3"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -6148,7 +6171,7 @@
       <c r="Y193" s="3"/>
       <c r="Z193" s="3"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -6176,7 +6199,7 @@
       <c r="Y194" s="3"/>
       <c r="Z194" s="3"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -6204,7 +6227,7 @@
       <c r="Y195" s="3"/>
       <c r="Z195" s="3"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -6232,7 +6255,7 @@
       <c r="Y196" s="3"/>
       <c r="Z196" s="3"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -6260,7 +6283,7 @@
       <c r="Y197" s="3"/>
       <c r="Z197" s="3"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -6288,7 +6311,7 @@
       <c r="Y198" s="3"/>
       <c r="Z198" s="3"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -6316,7 +6339,7 @@
       <c r="Y199" s="3"/>
       <c r="Z199" s="3"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -6344,7 +6367,7 @@
       <c r="Y200" s="3"/>
       <c r="Z200" s="3"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -6372,7 +6395,7 @@
       <c r="Y201" s="3"/>
       <c r="Z201" s="3"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -6400,7 +6423,7 @@
       <c r="Y202" s="3"/>
       <c r="Z202" s="3"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -6428,7 +6451,7 @@
       <c r="Y203" s="3"/>
       <c r="Z203" s="3"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -6456,7 +6479,7 @@
       <c r="Y204" s="3"/>
       <c r="Z204" s="3"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -6484,7 +6507,7 @@
       <c r="Y205" s="3"/>
       <c r="Z205" s="3"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -6512,7 +6535,7 @@
       <c r="Y206" s="3"/>
       <c r="Z206" s="3"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -6540,7 +6563,7 @@
       <c r="Y207" s="3"/>
       <c r="Z207" s="3"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -6568,7 +6591,7 @@
       <c r="Y208" s="3"/>
       <c r="Z208" s="3"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -6596,7 +6619,7 @@
       <c r="Y209" s="3"/>
       <c r="Z209" s="3"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -6624,7 +6647,7 @@
       <c r="Y210" s="3"/>
       <c r="Z210" s="3"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -6652,7 +6675,7 @@
       <c r="Y211" s="3"/>
       <c r="Z211" s="3"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -6680,7 +6703,7 @@
       <c r="Y212" s="3"/>
       <c r="Z212" s="3"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -6708,7 +6731,7 @@
       <c r="Y213" s="3"/>
       <c r="Z213" s="3"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -6736,7 +6759,7 @@
       <c r="Y214" s="3"/>
       <c r="Z214" s="3"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -6764,7 +6787,7 @@
       <c r="Y215" s="3"/>
       <c r="Z215" s="3"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -6792,7 +6815,7 @@
       <c r="Y216" s="3"/>
       <c r="Z216" s="3"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -6820,7 +6843,7 @@
       <c r="Y217" s="3"/>
       <c r="Z217" s="3"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -6848,7 +6871,7 @@
       <c r="Y218" s="3"/>
       <c r="Z218" s="3"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -6876,7 +6899,7 @@
       <c r="Y219" s="3"/>
       <c r="Z219" s="3"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -6904,7 +6927,7 @@
       <c r="Y220" s="3"/>
       <c r="Z220" s="3"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -6932,7 +6955,7 @@
       <c r="Y221" s="3"/>
       <c r="Z221" s="3"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -6960,7 +6983,7 @@
       <c r="Y222" s="3"/>
       <c r="Z222" s="3"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -6988,7 +7011,7 @@
       <c r="Y223" s="3"/>
       <c r="Z223" s="3"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -7016,7 +7039,7 @@
       <c r="Y224" s="3"/>
       <c r="Z224" s="3"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -7044,7 +7067,7 @@
       <c r="Y225" s="3"/>
       <c r="Z225" s="3"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -7072,7 +7095,7 @@
       <c r="Y226" s="3"/>
       <c r="Z226" s="3"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -7100,7 +7123,7 @@
       <c r="Y227" s="3"/>
       <c r="Z227" s="3"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -7128,7 +7151,7 @@
       <c r="Y228" s="3"/>
       <c r="Z228" s="3"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -7156,7 +7179,7 @@
       <c r="Y229" s="3"/>
       <c r="Z229" s="3"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -7184,7 +7207,7 @@
       <c r="Y230" s="3"/>
       <c r="Z230" s="3"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -7212,7 +7235,7 @@
       <c r="Y231" s="3"/>
       <c r="Z231" s="3"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -7240,7 +7263,7 @@
       <c r="Y232" s="3"/>
       <c r="Z232" s="3"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -7268,7 +7291,7 @@
       <c r="Y233" s="3"/>
       <c r="Z233" s="3"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -7296,7 +7319,7 @@
       <c r="Y234" s="3"/>
       <c r="Z234" s="3"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -7324,7 +7347,7 @@
       <c r="Y235" s="3"/>
       <c r="Z235" s="3"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -7352,7 +7375,7 @@
       <c r="Y236" s="3"/>
       <c r="Z236" s="3"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -7380,7 +7403,7 @@
       <c r="Y237" s="3"/>
       <c r="Z237" s="3"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -7408,7 +7431,7 @@
       <c r="Y238" s="3"/>
       <c r="Z238" s="3"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -7436,7 +7459,7 @@
       <c r="Y239" s="3"/>
       <c r="Z239" s="3"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -7464,7 +7487,7 @@
       <c r="Y240" s="3"/>
       <c r="Z240" s="3"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -7492,7 +7515,7 @@
       <c r="Y241" s="3"/>
       <c r="Z241" s="3"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -7520,7 +7543,7 @@
       <c r="Y242" s="3"/>
       <c r="Z242" s="3"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -7548,7 +7571,7 @@
       <c r="Y243" s="3"/>
       <c r="Z243" s="3"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -7576,7 +7599,7 @@
       <c r="Y244" s="3"/>
       <c r="Z244" s="3"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -7604,7 +7627,7 @@
       <c r="Y245" s="3"/>
       <c r="Z245" s="3"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -7632,7 +7655,7 @@
       <c r="Y246" s="3"/>
       <c r="Z246" s="3"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -7660,7 +7683,7 @@
       <c r="Y247" s="3"/>
       <c r="Z247" s="3"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -7688,7 +7711,7 @@
       <c r="Y248" s="3"/>
       <c r="Z248" s="3"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -7716,7 +7739,7 @@
       <c r="Y249" s="3"/>
       <c r="Z249" s="3"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -7744,7 +7767,7 @@
       <c r="Y250" s="3"/>
       <c r="Z250" s="3"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -7772,7 +7795,7 @@
       <c r="Y251" s="3"/>
       <c r="Z251" s="3"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -7800,7 +7823,7 @@
       <c r="Y252" s="3"/>
       <c r="Z252" s="3"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -7828,7 +7851,7 @@
       <c r="Y253" s="3"/>
       <c r="Z253" s="3"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -7856,7 +7879,7 @@
       <c r="Y254" s="3"/>
       <c r="Z254" s="3"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -7884,7 +7907,7 @@
       <c r="Y255" s="3"/>
       <c r="Z255" s="3"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -7912,7 +7935,7 @@
       <c r="Y256" s="3"/>
       <c r="Z256" s="3"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -7940,7 +7963,7 @@
       <c r="Y257" s="3"/>
       <c r="Z257" s="3"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -7968,7 +7991,7 @@
       <c r="Y258" s="3"/>
       <c r="Z258" s="3"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -7996,7 +8019,7 @@
       <c r="Y259" s="3"/>
       <c r="Z259" s="3"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -8024,7 +8047,7 @@
       <c r="Y260" s="3"/>
       <c r="Z260" s="3"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -8052,7 +8075,7 @@
       <c r="Y261" s="3"/>
       <c r="Z261" s="3"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -8080,7 +8103,7 @@
       <c r="Y262" s="3"/>
       <c r="Z262" s="3"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -8108,7 +8131,7 @@
       <c r="Y263" s="3"/>
       <c r="Z263" s="3"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -8136,7 +8159,7 @@
       <c r="Y264" s="3"/>
       <c r="Z264" s="3"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -8164,7 +8187,7 @@
       <c r="Y265" s="3"/>
       <c r="Z265" s="3"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -8192,7 +8215,7 @@
       <c r="Y266" s="3"/>
       <c r="Z266" s="3"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -8220,7 +8243,7 @@
       <c r="Y267" s="3"/>
       <c r="Z267" s="3"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -8248,7 +8271,7 @@
       <c r="Y268" s="3"/>
       <c r="Z268" s="3"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -8276,7 +8299,7 @@
       <c r="Y269" s="3"/>
       <c r="Z269" s="3"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -8304,7 +8327,7 @@
       <c r="Y270" s="3"/>
       <c r="Z270" s="3"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -8332,7 +8355,7 @@
       <c r="Y271" s="3"/>
       <c r="Z271" s="3"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -8360,7 +8383,7 @@
       <c r="Y272" s="3"/>
       <c r="Z272" s="3"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -8388,7 +8411,7 @@
       <c r="Y273" s="3"/>
       <c r="Z273" s="3"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -8416,7 +8439,7 @@
       <c r="Y274" s="3"/>
       <c r="Z274" s="3"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -8444,7 +8467,7 @@
       <c r="Y275" s="3"/>
       <c r="Z275" s="3"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -8472,7 +8495,7 @@
       <c r="Y276" s="3"/>
       <c r="Z276" s="3"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -8500,7 +8523,7 @@
       <c r="Y277" s="3"/>
       <c r="Z277" s="3"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -8528,7 +8551,7 @@
       <c r="Y278" s="3"/>
       <c r="Z278" s="3"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -8556,7 +8579,7 @@
       <c r="Y279" s="3"/>
       <c r="Z279" s="3"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -8584,7 +8607,7 @@
       <c r="Y280" s="3"/>
       <c r="Z280" s="3"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -8612,7 +8635,7 @@
       <c r="Y281" s="3"/>
       <c r="Z281" s="3"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -8640,7 +8663,7 @@
       <c r="Y282" s="3"/>
       <c r="Z282" s="3"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -8668,7 +8691,7 @@
       <c r="Y283" s="3"/>
       <c r="Z283" s="3"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -8696,7 +8719,7 @@
       <c r="Y284" s="3"/>
       <c r="Z284" s="3"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -8724,7 +8747,7 @@
       <c r="Y285" s="3"/>
       <c r="Z285" s="3"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -8752,7 +8775,7 @@
       <c r="Y286" s="3"/>
       <c r="Z286" s="3"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -8780,7 +8803,7 @@
       <c r="Y287" s="3"/>
       <c r="Z287" s="3"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -8808,7 +8831,7 @@
       <c r="Y288" s="3"/>
       <c r="Z288" s="3"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -8836,7 +8859,7 @@
       <c r="Y289" s="3"/>
       <c r="Z289" s="3"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -8864,7 +8887,7 @@
       <c r="Y290" s="3"/>
       <c r="Z290" s="3"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -8892,7 +8915,7 @@
       <c r="Y291" s="3"/>
       <c r="Z291" s="3"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -8920,7 +8943,7 @@
       <c r="Y292" s="3"/>
       <c r="Z292" s="3"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -8948,7 +8971,7 @@
       <c r="Y293" s="3"/>
       <c r="Z293" s="3"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -8976,7 +8999,7 @@
       <c r="Y294" s="3"/>
       <c r="Z294" s="3"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -9004,7 +9027,7 @@
       <c r="Y295" s="3"/>
       <c r="Z295" s="3"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -9032,7 +9055,7 @@
       <c r="Y296" s="3"/>
       <c r="Z296" s="3"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -9060,7 +9083,7 @@
       <c r="Y297" s="3"/>
       <c r="Z297" s="3"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -9088,7 +9111,7 @@
       <c r="Y298" s="3"/>
       <c r="Z298" s="3"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -9116,7 +9139,7 @@
       <c r="Y299" s="3"/>
       <c r="Z299" s="3"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -9144,7 +9167,7 @@
       <c r="Y300" s="3"/>
       <c r="Z300" s="3"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -9172,7 +9195,7 @@
       <c r="Y301" s="3"/>
       <c r="Z301" s="3"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -9200,7 +9223,7 @@
       <c r="Y302" s="3"/>
       <c r="Z302" s="3"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -9228,7 +9251,7 @@
       <c r="Y303" s="3"/>
       <c r="Z303" s="3"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -9256,7 +9279,7 @@
       <c r="Y304" s="3"/>
       <c r="Z304" s="3"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -9284,7 +9307,7 @@
       <c r="Y305" s="3"/>
       <c r="Z305" s="3"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -9312,7 +9335,7 @@
       <c r="Y306" s="3"/>
       <c r="Z306" s="3"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -9340,7 +9363,7 @@
       <c r="Y307" s="3"/>
       <c r="Z307" s="3"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -9368,7 +9391,7 @@
       <c r="Y308" s="3"/>
       <c r="Z308" s="3"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -9396,7 +9419,7 @@
       <c r="Y309" s="3"/>
       <c r="Z309" s="3"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -9424,7 +9447,7 @@
       <c r="Y310" s="3"/>
       <c r="Z310" s="3"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -9452,7 +9475,7 @@
       <c r="Y311" s="3"/>
       <c r="Z311" s="3"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -9480,7 +9503,7 @@
       <c r="Y312" s="3"/>
       <c r="Z312" s="3"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -9508,7 +9531,7 @@
       <c r="Y313" s="3"/>
       <c r="Z313" s="3"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -9536,7 +9559,7 @@
       <c r="Y314" s="3"/>
       <c r="Z314" s="3"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -9564,7 +9587,7 @@
       <c r="Y315" s="3"/>
       <c r="Z315" s="3"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -9592,7 +9615,7 @@
       <c r="Y316" s="3"/>
       <c r="Z316" s="3"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -9620,7 +9643,7 @@
       <c r="Y317" s="3"/>
       <c r="Z317" s="3"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -9648,7 +9671,7 @@
       <c r="Y318" s="3"/>
       <c r="Z318" s="3"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -9676,7 +9699,7 @@
       <c r="Y319" s="3"/>
       <c r="Z319" s="3"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -9704,7 +9727,7 @@
       <c r="Y320" s="3"/>
       <c r="Z320" s="3"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -9732,7 +9755,7 @@
       <c r="Y321" s="3"/>
       <c r="Z321" s="3"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -9760,7 +9783,7 @@
       <c r="Y322" s="3"/>
       <c r="Z322" s="3"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -9788,7 +9811,7 @@
       <c r="Y323" s="3"/>
       <c r="Z323" s="3"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -9816,7 +9839,7 @@
       <c r="Y324" s="3"/>
       <c r="Z324" s="3"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -9844,7 +9867,7 @@
       <c r="Y325" s="3"/>
       <c r="Z325" s="3"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -9872,7 +9895,7 @@
       <c r="Y326" s="3"/>
       <c r="Z326" s="3"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -9900,7 +9923,7 @@
       <c r="Y327" s="3"/>
       <c r="Z327" s="3"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -9928,7 +9951,7 @@
       <c r="Y328" s="3"/>
       <c r="Z328" s="3"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -9956,7 +9979,7 @@
       <c r="Y329" s="3"/>
       <c r="Z329" s="3"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -9984,7 +10007,7 @@
       <c r="Y330" s="3"/>
       <c r="Z330" s="3"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -10012,7 +10035,7 @@
       <c r="Y331" s="3"/>
       <c r="Z331" s="3"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -10040,7 +10063,7 @@
       <c r="Y332" s="3"/>
       <c r="Z332" s="3"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -10068,7 +10091,7 @@
       <c r="Y333" s="3"/>
       <c r="Z333" s="3"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -10096,7 +10119,7 @@
       <c r="Y334" s="3"/>
       <c r="Z334" s="3"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -10124,7 +10147,7 @@
       <c r="Y335" s="3"/>
       <c r="Z335" s="3"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -10152,7 +10175,7 @@
       <c r="Y336" s="3"/>
       <c r="Z336" s="3"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -10180,7 +10203,7 @@
       <c r="Y337" s="3"/>
       <c r="Z337" s="3"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -10208,7 +10231,7 @@
       <c r="Y338" s="3"/>
       <c r="Z338" s="3"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -10236,7 +10259,7 @@
       <c r="Y339" s="3"/>
       <c r="Z339" s="3"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -10264,7 +10287,7 @@
       <c r="Y340" s="3"/>
       <c r="Z340" s="3"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -10292,7 +10315,7 @@
       <c r="Y341" s="3"/>
       <c r="Z341" s="3"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -10320,7 +10343,7 @@
       <c r="Y342" s="3"/>
       <c r="Z342" s="3"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -10348,7 +10371,7 @@
       <c r="Y343" s="3"/>
       <c r="Z343" s="3"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -10376,7 +10399,7 @@
       <c r="Y344" s="3"/>
       <c r="Z344" s="3"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -10404,7 +10427,7 @@
       <c r="Y345" s="3"/>
       <c r="Z345" s="3"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -10432,7 +10455,7 @@
       <c r="Y346" s="3"/>
       <c r="Z346" s="3"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -10460,7 +10483,7 @@
       <c r="Y347" s="3"/>
       <c r="Z347" s="3"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -10488,7 +10511,7 @@
       <c r="Y348" s="3"/>
       <c r="Z348" s="3"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -10516,7 +10539,7 @@
       <c r="Y349" s="3"/>
       <c r="Z349" s="3"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -10544,7 +10567,7 @@
       <c r="Y350" s="3"/>
       <c r="Z350" s="3"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -10572,7 +10595,7 @@
       <c r="Y351" s="3"/>
       <c r="Z351" s="3"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -10600,7 +10623,7 @@
       <c r="Y352" s="3"/>
       <c r="Z352" s="3"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -10628,7 +10651,7 @@
       <c r="Y353" s="3"/>
       <c r="Z353" s="3"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -10656,7 +10679,7 @@
       <c r="Y354" s="3"/>
       <c r="Z354" s="3"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -10684,7 +10707,7 @@
       <c r="Y355" s="3"/>
       <c r="Z355" s="3"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -10712,7 +10735,7 @@
       <c r="Y356" s="3"/>
       <c r="Z356" s="3"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -10740,7 +10763,7 @@
       <c r="Y357" s="3"/>
       <c r="Z357" s="3"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -10768,7 +10791,7 @@
       <c r="Y358" s="3"/>
       <c r="Z358" s="3"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -10796,7 +10819,7 @@
       <c r="Y359" s="3"/>
       <c r="Z359" s="3"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -10824,7 +10847,7 @@
       <c r="Y360" s="3"/>
       <c r="Z360" s="3"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -10852,7 +10875,7 @@
       <c r="Y361" s="3"/>
       <c r="Z361" s="3"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -10880,7 +10903,7 @@
       <c r="Y362" s="3"/>
       <c r="Z362" s="3"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -10908,7 +10931,7 @@
       <c r="Y363" s="3"/>
       <c r="Z363" s="3"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -10936,7 +10959,7 @@
       <c r="Y364" s="3"/>
       <c r="Z364" s="3"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -10964,7 +10987,7 @@
       <c r="Y365" s="3"/>
       <c r="Z365" s="3"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -10992,7 +11015,7 @@
       <c r="Y366" s="3"/>
       <c r="Z366" s="3"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -11020,7 +11043,7 @@
       <c r="Y367" s="3"/>
       <c r="Z367" s="3"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -11048,7 +11071,7 @@
       <c r="Y368" s="3"/>
       <c r="Z368" s="3"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -11076,7 +11099,7 @@
       <c r="Y369" s="3"/>
       <c r="Z369" s="3"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -11104,7 +11127,7 @@
       <c r="Y370" s="3"/>
       <c r="Z370" s="3"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -11132,7 +11155,7 @@
       <c r="Y371" s="3"/>
       <c r="Z371" s="3"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -11160,7 +11183,7 @@
       <c r="Y372" s="3"/>
       <c r="Z372" s="3"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -11188,7 +11211,7 @@
       <c r="Y373" s="3"/>
       <c r="Z373" s="3"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -11216,7 +11239,7 @@
       <c r="Y374" s="3"/>
       <c r="Z374" s="3"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -11244,7 +11267,7 @@
       <c r="Y375" s="3"/>
       <c r="Z375" s="3"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -11272,7 +11295,7 @@
       <c r="Y376" s="3"/>
       <c r="Z376" s="3"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -11300,7 +11323,7 @@
       <c r="Y377" s="3"/>
       <c r="Z377" s="3"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -11328,7 +11351,7 @@
       <c r="Y378" s="3"/>
       <c r="Z378" s="3"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -11356,7 +11379,7 @@
       <c r="Y379" s="3"/>
       <c r="Z379" s="3"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -11384,7 +11407,7 @@
       <c r="Y380" s="3"/>
       <c r="Z380" s="3"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -11412,7 +11435,7 @@
       <c r="Y381" s="3"/>
       <c r="Z381" s="3"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -11440,7 +11463,7 @@
       <c r="Y382" s="3"/>
       <c r="Z382" s="3"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -11468,7 +11491,7 @@
       <c r="Y383" s="3"/>
       <c r="Z383" s="3"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -11496,7 +11519,7 @@
       <c r="Y384" s="3"/>
       <c r="Z384" s="3"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -11524,7 +11547,7 @@
       <c r="Y385" s="3"/>
       <c r="Z385" s="3"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -11552,7 +11575,7 @@
       <c r="Y386" s="3"/>
       <c r="Z386" s="3"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -11580,7 +11603,7 @@
       <c r="Y387" s="3"/>
       <c r="Z387" s="3"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -11608,7 +11631,7 @@
       <c r="Y388" s="3"/>
       <c r="Z388" s="3"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -11636,7 +11659,7 @@
       <c r="Y389" s="3"/>
       <c r="Z389" s="3"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -11664,7 +11687,7 @@
       <c r="Y390" s="3"/>
       <c r="Z390" s="3"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -11692,7 +11715,7 @@
       <c r="Y391" s="3"/>
       <c r="Z391" s="3"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -11720,7 +11743,7 @@
       <c r="Y392" s="3"/>
       <c r="Z392" s="3"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -11748,7 +11771,7 @@
       <c r="Y393" s="3"/>
       <c r="Z393" s="3"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -11776,7 +11799,7 @@
       <c r="Y394" s="3"/>
       <c r="Z394" s="3"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -11804,7 +11827,7 @@
       <c r="Y395" s="3"/>
       <c r="Z395" s="3"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -11832,7 +11855,7 @@
       <c r="Y396" s="3"/>
       <c r="Z396" s="3"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -11860,7 +11883,7 @@
       <c r="Y397" s="3"/>
       <c r="Z397" s="3"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -11888,7 +11911,7 @@
       <c r="Y398" s="3"/>
       <c r="Z398" s="3"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -11916,7 +11939,7 @@
       <c r="Y399" s="3"/>
       <c r="Z399" s="3"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -11944,7 +11967,7 @@
       <c r="Y400" s="3"/>
       <c r="Z400" s="3"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -11972,7 +11995,7 @@
       <c r="Y401" s="3"/>
       <c r="Z401" s="3"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -12000,7 +12023,7 @@
       <c r="Y402" s="3"/>
       <c r="Z402" s="3"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -12028,7 +12051,7 @@
       <c r="Y403" s="3"/>
       <c r="Z403" s="3"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -12056,7 +12079,7 @@
       <c r="Y404" s="3"/>
       <c r="Z404" s="3"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -12084,7 +12107,7 @@
       <c r="Y405" s="3"/>
       <c r="Z405" s="3"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -12112,7 +12135,7 @@
       <c r="Y406" s="3"/>
       <c r="Z406" s="3"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -12140,7 +12163,7 @@
       <c r="Y407" s="3"/>
       <c r="Z407" s="3"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -12168,7 +12191,7 @@
       <c r="Y408" s="3"/>
       <c r="Z408" s="3"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -12196,7 +12219,7 @@
       <c r="Y409" s="3"/>
       <c r="Z409" s="3"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -12224,7 +12247,7 @@
       <c r="Y410" s="3"/>
       <c r="Z410" s="3"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -12252,7 +12275,7 @@
       <c r="Y411" s="3"/>
       <c r="Z411" s="3"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -12280,7 +12303,7 @@
       <c r="Y412" s="3"/>
       <c r="Z412" s="3"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -12308,7 +12331,7 @@
       <c r="Y413" s="3"/>
       <c r="Z413" s="3"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -12336,7 +12359,7 @@
       <c r="Y414" s="3"/>
       <c r="Z414" s="3"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -12364,7 +12387,7 @@
       <c r="Y415" s="3"/>
       <c r="Z415" s="3"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -12392,7 +12415,7 @@
       <c r="Y416" s="3"/>
       <c r="Z416" s="3"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -12420,7 +12443,7 @@
       <c r="Y417" s="3"/>
       <c r="Z417" s="3"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -12448,7 +12471,7 @@
       <c r="Y418" s="3"/>
       <c r="Z418" s="3"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -12476,7 +12499,7 @@
       <c r="Y419" s="3"/>
       <c r="Z419" s="3"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -12504,7 +12527,7 @@
       <c r="Y420" s="3"/>
       <c r="Z420" s="3"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -12532,7 +12555,7 @@
       <c r="Y421" s="3"/>
       <c r="Z421" s="3"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -12560,7 +12583,7 @@
       <c r="Y422" s="3"/>
       <c r="Z422" s="3"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -12588,7 +12611,7 @@
       <c r="Y423" s="3"/>
       <c r="Z423" s="3"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -12616,7 +12639,7 @@
       <c r="Y424" s="3"/>
       <c r="Z424" s="3"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -12644,7 +12667,7 @@
       <c r="Y425" s="3"/>
       <c r="Z425" s="3"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -12672,7 +12695,7 @@
       <c r="Y426" s="3"/>
       <c r="Z426" s="3"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -12700,7 +12723,7 @@
       <c r="Y427" s="3"/>
       <c r="Z427" s="3"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -12728,7 +12751,7 @@
       <c r="Y428" s="3"/>
       <c r="Z428" s="3"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -12756,7 +12779,7 @@
       <c r="Y429" s="3"/>
       <c r="Z429" s="3"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -12784,7 +12807,7 @@
       <c r="Y430" s="3"/>
       <c r="Z430" s="3"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -12812,7 +12835,7 @@
       <c r="Y431" s="3"/>
       <c r="Z431" s="3"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -12840,7 +12863,7 @@
       <c r="Y432" s="3"/>
       <c r="Z432" s="3"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -12868,7 +12891,7 @@
       <c r="Y433" s="3"/>
       <c r="Z433" s="3"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -12896,7 +12919,7 @@
       <c r="Y434" s="3"/>
       <c r="Z434" s="3"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -12924,7 +12947,7 @@
       <c r="Y435" s="3"/>
       <c r="Z435" s="3"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -12952,7 +12975,7 @@
       <c r="Y436" s="3"/>
       <c r="Z436" s="3"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -12980,7 +13003,7 @@
       <c r="Y437" s="3"/>
       <c r="Z437" s="3"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -13008,7 +13031,7 @@
       <c r="Y438" s="3"/>
       <c r="Z438" s="3"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -13036,7 +13059,7 @@
       <c r="Y439" s="3"/>
       <c r="Z439" s="3"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -13064,7 +13087,7 @@
       <c r="Y440" s="3"/>
       <c r="Z440" s="3"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -13092,7 +13115,7 @@
       <c r="Y441" s="3"/>
       <c r="Z441" s="3"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -13120,7 +13143,7 @@
       <c r="Y442" s="3"/>
       <c r="Z442" s="3"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -13148,7 +13171,7 @@
       <c r="Y443" s="3"/>
       <c r="Z443" s="3"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -13176,7 +13199,7 @@
       <c r="Y444" s="3"/>
       <c r="Z444" s="3"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -13204,7 +13227,7 @@
       <c r="Y445" s="3"/>
       <c r="Z445" s="3"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -13232,7 +13255,7 @@
       <c r="Y446" s="3"/>
       <c r="Z446" s="3"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -13260,7 +13283,7 @@
       <c r="Y447" s="3"/>
       <c r="Z447" s="3"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -13288,7 +13311,7 @@
       <c r="Y448" s="3"/>
       <c r="Z448" s="3"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -13316,7 +13339,7 @@
       <c r="Y449" s="3"/>
       <c r="Z449" s="3"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -13344,7 +13367,7 @@
       <c r="Y450" s="3"/>
       <c r="Z450" s="3"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -13372,7 +13395,7 @@
       <c r="Y451" s="3"/>
       <c r="Z451" s="3"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -13400,7 +13423,7 @@
       <c r="Y452" s="3"/>
       <c r="Z452" s="3"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -13428,7 +13451,7 @@
       <c r="Y453" s="3"/>
       <c r="Z453" s="3"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -13456,7 +13479,7 @@
       <c r="Y454" s="3"/>
       <c r="Z454" s="3"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -13484,7 +13507,7 @@
       <c r="Y455" s="3"/>
       <c r="Z455" s="3"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -13512,7 +13535,7 @@
       <c r="Y456" s="3"/>
       <c r="Z456" s="3"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -13540,7 +13563,7 @@
       <c r="Y457" s="3"/>
       <c r="Z457" s="3"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -13568,7 +13591,7 @@
       <c r="Y458" s="3"/>
       <c r="Z458" s="3"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -13596,7 +13619,7 @@
       <c r="Y459" s="3"/>
       <c r="Z459" s="3"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -13624,7 +13647,7 @@
       <c r="Y460" s="3"/>
       <c r="Z460" s="3"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -13652,7 +13675,7 @@
       <c r="Y461" s="3"/>
       <c r="Z461" s="3"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -13680,7 +13703,7 @@
       <c r="Y462" s="3"/>
       <c r="Z462" s="3"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -13708,7 +13731,7 @@
       <c r="Y463" s="3"/>
       <c r="Z463" s="3"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -13736,7 +13759,7 @@
       <c r="Y464" s="3"/>
       <c r="Z464" s="3"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -13764,7 +13787,7 @@
       <c r="Y465" s="3"/>
       <c r="Z465" s="3"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -13792,7 +13815,7 @@
       <c r="Y466" s="3"/>
       <c r="Z466" s="3"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -13820,7 +13843,7 @@
       <c r="Y467" s="3"/>
       <c r="Z467" s="3"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -13848,7 +13871,7 @@
       <c r="Y468" s="3"/>
       <c r="Z468" s="3"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -13876,7 +13899,7 @@
       <c r="Y469" s="3"/>
       <c r="Z469" s="3"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -13904,7 +13927,7 @@
       <c r="Y470" s="3"/>
       <c r="Z470" s="3"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -13932,7 +13955,7 @@
       <c r="Y471" s="3"/>
       <c r="Z471" s="3"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -13960,7 +13983,7 @@
       <c r="Y472" s="3"/>
       <c r="Z472" s="3"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -13988,7 +14011,7 @@
       <c r="Y473" s="3"/>
       <c r="Z473" s="3"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -14016,7 +14039,7 @@
       <c r="Y474" s="3"/>
       <c r="Z474" s="3"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -14044,7 +14067,7 @@
       <c r="Y475" s="3"/>
       <c r="Z475" s="3"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -14072,7 +14095,7 @@
       <c r="Y476" s="3"/>
       <c r="Z476" s="3"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -14100,7 +14123,7 @@
       <c r="Y477" s="3"/>
       <c r="Z477" s="3"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -14128,7 +14151,7 @@
       <c r="Y478" s="3"/>
       <c r="Z478" s="3"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -14156,7 +14179,7 @@
       <c r="Y479" s="3"/>
       <c r="Z479" s="3"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -14184,7 +14207,7 @@
       <c r="Y480" s="3"/>
       <c r="Z480" s="3"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -14212,7 +14235,7 @@
       <c r="Y481" s="3"/>
       <c r="Z481" s="3"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -14240,7 +14263,7 @@
       <c r="Y482" s="3"/>
       <c r="Z482" s="3"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -14268,7 +14291,7 @@
       <c r="Y483" s="3"/>
       <c r="Z483" s="3"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -14296,7 +14319,7 @@
       <c r="Y484" s="3"/>
       <c r="Z484" s="3"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -14324,7 +14347,7 @@
       <c r="Y485" s="3"/>
       <c r="Z485" s="3"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -14352,7 +14375,7 @@
       <c r="Y486" s="3"/>
       <c r="Z486" s="3"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -14380,7 +14403,7 @@
       <c r="Y487" s="3"/>
       <c r="Z487" s="3"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -14408,7 +14431,7 @@
       <c r="Y488" s="3"/>
       <c r="Z488" s="3"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -14436,7 +14459,7 @@
       <c r="Y489" s="3"/>
       <c r="Z489" s="3"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -14464,7 +14487,7 @@
       <c r="Y490" s="3"/>
       <c r="Z490" s="3"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -14492,7 +14515,7 @@
       <c r="Y491" s="3"/>
       <c r="Z491" s="3"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -14520,7 +14543,7 @@
       <c r="Y492" s="3"/>
       <c r="Z492" s="3"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -14548,7 +14571,7 @@
       <c r="Y493" s="3"/>
       <c r="Z493" s="3"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -14576,7 +14599,7 @@
       <c r="Y494" s="3"/>
       <c r="Z494" s="3"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -14604,7 +14627,7 @@
       <c r="Y495" s="3"/>
       <c r="Z495" s="3"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -14632,7 +14655,7 @@
       <c r="Y496" s="3"/>
       <c r="Z496" s="3"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -14660,7 +14683,7 @@
       <c r="Y497" s="3"/>
       <c r="Z497" s="3"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -14688,7 +14711,7 @@
       <c r="Y498" s="3"/>
       <c r="Z498" s="3"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -14716,7 +14739,7 @@
       <c r="Y499" s="3"/>
       <c r="Z499" s="3"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -14744,7 +14767,7 @@
       <c r="Y500" s="3"/>
       <c r="Z500" s="3"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -14772,7 +14795,7 @@
       <c r="Y501" s="3"/>
       <c r="Z501" s="3"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -14800,7 +14823,7 @@
       <c r="Y502" s="3"/>
       <c r="Z502" s="3"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -14828,7 +14851,7 @@
       <c r="Y503" s="3"/>
       <c r="Z503" s="3"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -14856,7 +14879,7 @@
       <c r="Y504" s="3"/>
       <c r="Z504" s="3"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -14884,7 +14907,7 @@
       <c r="Y505" s="3"/>
       <c r="Z505" s="3"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -14912,7 +14935,7 @@
       <c r="Y506" s="3"/>
       <c r="Z506" s="3"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -14940,7 +14963,7 @@
       <c r="Y507" s="3"/>
       <c r="Z507" s="3"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -14968,7 +14991,7 @@
       <c r="Y508" s="3"/>
       <c r="Z508" s="3"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -14996,7 +15019,7 @@
       <c r="Y509" s="3"/>
       <c r="Z509" s="3"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -15024,7 +15047,7 @@
       <c r="Y510" s="3"/>
       <c r="Z510" s="3"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -15052,7 +15075,7 @@
       <c r="Y511" s="3"/>
       <c r="Z511" s="3"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -15080,7 +15103,7 @@
       <c r="Y512" s="3"/>
       <c r="Z512" s="3"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -15108,7 +15131,7 @@
       <c r="Y513" s="3"/>
       <c r="Z513" s="3"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -15136,7 +15159,7 @@
       <c r="Y514" s="3"/>
       <c r="Z514" s="3"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -15164,7 +15187,7 @@
       <c r="Y515" s="3"/>
       <c r="Z515" s="3"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -15192,7 +15215,7 @@
       <c r="Y516" s="3"/>
       <c r="Z516" s="3"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -15220,7 +15243,7 @@
       <c r="Y517" s="3"/>
       <c r="Z517" s="3"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -15248,7 +15271,7 @@
       <c r="Y518" s="3"/>
       <c r="Z518" s="3"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -15276,7 +15299,7 @@
       <c r="Y519" s="3"/>
       <c r="Z519" s="3"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -15304,7 +15327,7 @@
       <c r="Y520" s="3"/>
       <c r="Z520" s="3"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -15332,7 +15355,7 @@
       <c r="Y521" s="3"/>
       <c r="Z521" s="3"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -15360,7 +15383,7 @@
       <c r="Y522" s="3"/>
       <c r="Z522" s="3"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -15388,7 +15411,7 @@
       <c r="Y523" s="3"/>
       <c r="Z523" s="3"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -15416,7 +15439,7 @@
       <c r="Y524" s="3"/>
       <c r="Z524" s="3"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -15444,7 +15467,7 @@
       <c r="Y525" s="3"/>
       <c r="Z525" s="3"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -15472,7 +15495,7 @@
       <c r="Y526" s="3"/>
       <c r="Z526" s="3"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -15500,7 +15523,7 @@
       <c r="Y527" s="3"/>
       <c r="Z527" s="3"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -15528,7 +15551,7 @@
       <c r="Y528" s="3"/>
       <c r="Z528" s="3"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -15556,7 +15579,7 @@
       <c r="Y529" s="3"/>
       <c r="Z529" s="3"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -15584,7 +15607,7 @@
       <c r="Y530" s="3"/>
       <c r="Z530" s="3"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -15612,7 +15635,7 @@
       <c r="Y531" s="3"/>
       <c r="Z531" s="3"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -15640,7 +15663,7 @@
       <c r="Y532" s="3"/>
       <c r="Z532" s="3"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -15668,7 +15691,7 @@
       <c r="Y533" s="3"/>
       <c r="Z533" s="3"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -15696,7 +15719,7 @@
       <c r="Y534" s="3"/>
       <c r="Z534" s="3"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -15724,7 +15747,7 @@
       <c r="Y535" s="3"/>
       <c r="Z535" s="3"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -15752,7 +15775,7 @@
       <c r="Y536" s="3"/>
       <c r="Z536" s="3"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -15780,7 +15803,7 @@
       <c r="Y537" s="3"/>
       <c r="Z537" s="3"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -15808,7 +15831,7 @@
       <c r="Y538" s="3"/>
       <c r="Z538" s="3"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -15836,7 +15859,7 @@
       <c r="Y539" s="3"/>
       <c r="Z539" s="3"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -15864,7 +15887,7 @@
       <c r="Y540" s="3"/>
       <c r="Z540" s="3"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -15892,7 +15915,7 @@
       <c r="Y541" s="3"/>
       <c r="Z541" s="3"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -15920,7 +15943,7 @@
       <c r="Y542" s="3"/>
       <c r="Z542" s="3"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -15948,7 +15971,7 @@
       <c r="Y543" s="3"/>
       <c r="Z543" s="3"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -15976,7 +15999,7 @@
       <c r="Y544" s="3"/>
       <c r="Z544" s="3"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -16004,7 +16027,7 @@
       <c r="Y545" s="3"/>
       <c r="Z545" s="3"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -16032,7 +16055,7 @@
       <c r="Y546" s="3"/>
       <c r="Z546" s="3"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -16060,7 +16083,7 @@
       <c r="Y547" s="3"/>
       <c r="Z547" s="3"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -16088,7 +16111,7 @@
       <c r="Y548" s="3"/>
       <c r="Z548" s="3"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -16116,7 +16139,7 @@
       <c r="Y549" s="3"/>
       <c r="Z549" s="3"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -16144,7 +16167,7 @@
       <c r="Y550" s="3"/>
       <c r="Z550" s="3"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -16172,7 +16195,7 @@
       <c r="Y551" s="3"/>
       <c r="Z551" s="3"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -16200,7 +16223,7 @@
       <c r="Y552" s="3"/>
       <c r="Z552" s="3"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -16228,7 +16251,7 @@
       <c r="Y553" s="3"/>
       <c r="Z553" s="3"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -16256,7 +16279,7 @@
       <c r="Y554" s="3"/>
       <c r="Z554" s="3"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -16284,7 +16307,7 @@
       <c r="Y555" s="3"/>
       <c r="Z555" s="3"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -16312,7 +16335,7 @@
       <c r="Y556" s="3"/>
       <c r="Z556" s="3"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -16340,7 +16363,7 @@
       <c r="Y557" s="3"/>
       <c r="Z557" s="3"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -16368,7 +16391,7 @@
       <c r="Y558" s="3"/>
       <c r="Z558" s="3"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -16396,7 +16419,7 @@
       <c r="Y559" s="3"/>
       <c r="Z559" s="3"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -16424,7 +16447,7 @@
       <c r="Y560" s="3"/>
       <c r="Z560" s="3"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -16452,7 +16475,7 @@
       <c r="Y561" s="3"/>
       <c r="Z561" s="3"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -16480,7 +16503,7 @@
       <c r="Y562" s="3"/>
       <c r="Z562" s="3"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -16508,7 +16531,7 @@
       <c r="Y563" s="3"/>
       <c r="Z563" s="3"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -16536,7 +16559,7 @@
       <c r="Y564" s="3"/>
       <c r="Z564" s="3"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -16564,7 +16587,7 @@
       <c r="Y565" s="3"/>
       <c r="Z565" s="3"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -16592,7 +16615,7 @@
       <c r="Y566" s="3"/>
       <c r="Z566" s="3"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -16620,7 +16643,7 @@
       <c r="Y567" s="3"/>
       <c r="Z567" s="3"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -16648,7 +16671,7 @@
       <c r="Y568" s="3"/>
       <c r="Z568" s="3"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -16676,7 +16699,7 @@
       <c r="Y569" s="3"/>
       <c r="Z569" s="3"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -16704,7 +16727,7 @@
       <c r="Y570" s="3"/>
       <c r="Z570" s="3"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
@@ -16732,7 +16755,7 @@
       <c r="Y571" s="3"/>
       <c r="Z571" s="3"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -16760,7 +16783,7 @@
       <c r="Y572" s="3"/>
       <c r="Z572" s="3"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
@@ -16788,7 +16811,7 @@
       <c r="Y573" s="3"/>
       <c r="Z573" s="3"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
@@ -16816,7 +16839,7 @@
       <c r="Y574" s="3"/>
       <c r="Z574" s="3"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
@@ -16844,7 +16867,7 @@
       <c r="Y575" s="3"/>
       <c r="Z575" s="3"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -16872,7 +16895,7 @@
       <c r="Y576" s="3"/>
       <c r="Z576" s="3"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
@@ -16900,7 +16923,7 @@
       <c r="Y577" s="3"/>
       <c r="Z577" s="3"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
@@ -16928,7 +16951,7 @@
       <c r="Y578" s="3"/>
       <c r="Z578" s="3"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -16956,7 +16979,7 @@
       <c r="Y579" s="3"/>
       <c r="Z579" s="3"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
@@ -16984,7 +17007,7 @@
       <c r="Y580" s="3"/>
       <c r="Z580" s="3"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
@@ -17012,7 +17035,7 @@
       <c r="Y581" s="3"/>
       <c r="Z581" s="3"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
@@ -17040,7 +17063,7 @@
       <c r="Y582" s="3"/>
       <c r="Z582" s="3"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
@@ -17068,7 +17091,7 @@
       <c r="Y583" s="3"/>
       <c r="Z583" s="3"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -17096,7 +17119,7 @@
       <c r="Y584" s="3"/>
       <c r="Z584" s="3"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -17124,7 +17147,7 @@
       <c r="Y585" s="3"/>
       <c r="Z585" s="3"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -17152,7 +17175,7 @@
       <c r="Y586" s="3"/>
       <c r="Z586" s="3"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -17180,7 +17203,7 @@
       <c r="Y587" s="3"/>
       <c r="Z587" s="3"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -17208,7 +17231,7 @@
       <c r="Y588" s="3"/>
       <c r="Z588" s="3"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
@@ -17236,7 +17259,7 @@
       <c r="Y589" s="3"/>
       <c r="Z589" s="3"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
@@ -17264,7 +17287,7 @@
       <c r="Y590" s="3"/>
       <c r="Z590" s="3"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -17292,7 +17315,7 @@
       <c r="Y591" s="3"/>
       <c r="Z591" s="3"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
@@ -17320,7 +17343,7 @@
       <c r="Y592" s="3"/>
       <c r="Z592" s="3"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
@@ -17348,7 +17371,7 @@
       <c r="Y593" s="3"/>
       <c r="Z593" s="3"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -17376,7 +17399,7 @@
       <c r="Y594" s="3"/>
       <c r="Z594" s="3"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
@@ -17404,7 +17427,7 @@
       <c r="Y595" s="3"/>
       <c r="Z595" s="3"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
@@ -17432,7 +17455,7 @@
       <c r="Y596" s="3"/>
       <c r="Z596" s="3"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -17460,7 +17483,7 @@
       <c r="Y597" s="3"/>
       <c r="Z597" s="3"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
@@ -17488,7 +17511,7 @@
       <c r="Y598" s="3"/>
       <c r="Z598" s="3"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
@@ -17516,7 +17539,7 @@
       <c r="Y599" s="3"/>
       <c r="Z599" s="3"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -17544,7 +17567,7 @@
       <c r="Y600" s="3"/>
       <c r="Z600" s="3"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
@@ -17572,7 +17595,7 @@
       <c r="Y601" s="3"/>
       <c r="Z601" s="3"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
@@ -17600,7 +17623,7 @@
       <c r="Y602" s="3"/>
       <c r="Z602" s="3"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
@@ -17628,7 +17651,7 @@
       <c r="Y603" s="3"/>
       <c r="Z603" s="3"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
@@ -17656,7 +17679,7 @@
       <c r="Y604" s="3"/>
       <c r="Z604" s="3"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
@@ -17684,7 +17707,7 @@
       <c r="Y605" s="3"/>
       <c r="Z605" s="3"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -17712,7 +17735,7 @@
       <c r="Y606" s="3"/>
       <c r="Z606" s="3"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
@@ -17740,7 +17763,7 @@
       <c r="Y607" s="3"/>
       <c r="Z607" s="3"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
@@ -17768,7 +17791,7 @@
       <c r="Y608" s="3"/>
       <c r="Z608" s="3"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
@@ -17796,7 +17819,7 @@
       <c r="Y609" s="3"/>
       <c r="Z609" s="3"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
@@ -17824,7 +17847,7 @@
       <c r="Y610" s="3"/>
       <c r="Z610" s="3"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -17852,7 +17875,7 @@
       <c r="Y611" s="3"/>
       <c r="Z611" s="3"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -17880,7 +17903,7 @@
       <c r="Y612" s="3"/>
       <c r="Z612" s="3"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -17908,7 +17931,7 @@
       <c r="Y613" s="3"/>
       <c r="Z613" s="3"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
@@ -17936,7 +17959,7 @@
       <c r="Y614" s="3"/>
       <c r="Z614" s="3"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
@@ -17964,7 +17987,7 @@
       <c r="Y615" s="3"/>
       <c r="Z615" s="3"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
@@ -17992,7 +18015,7 @@
       <c r="Y616" s="3"/>
       <c r="Z616" s="3"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
@@ -18020,7 +18043,7 @@
       <c r="Y617" s="3"/>
       <c r="Z617" s="3"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
@@ -18048,7 +18071,7 @@
       <c r="Y618" s="3"/>
       <c r="Z618" s="3"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
@@ -18076,7 +18099,7 @@
       <c r="Y619" s="3"/>
       <c r="Z619" s="3"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
@@ -18104,7 +18127,7 @@
       <c r="Y620" s="3"/>
       <c r="Z620" s="3"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
@@ -18132,7 +18155,7 @@
       <c r="Y621" s="3"/>
       <c r="Z621" s="3"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
@@ -18160,7 +18183,7 @@
       <c r="Y622" s="3"/>
       <c r="Z622" s="3"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
@@ -18188,7 +18211,7 @@
       <c r="Y623" s="3"/>
       <c r="Z623" s="3"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
@@ -18216,7 +18239,7 @@
       <c r="Y624" s="3"/>
       <c r="Z624" s="3"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
@@ -18244,7 +18267,7 @@
       <c r="Y625" s="3"/>
       <c r="Z625" s="3"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
@@ -18272,7 +18295,7 @@
       <c r="Y626" s="3"/>
       <c r="Z626" s="3"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
@@ -18300,7 +18323,7 @@
       <c r="Y627" s="3"/>
       <c r="Z627" s="3"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
@@ -18328,7 +18351,7 @@
       <c r="Y628" s="3"/>
       <c r="Z628" s="3"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
@@ -18356,7 +18379,7 @@
       <c r="Y629" s="3"/>
       <c r="Z629" s="3"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
@@ -18384,7 +18407,7 @@
       <c r="Y630" s="3"/>
       <c r="Z630" s="3"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
@@ -18412,7 +18435,7 @@
       <c r="Y631" s="3"/>
       <c r="Z631" s="3"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
@@ -18440,7 +18463,7 @@
       <c r="Y632" s="3"/>
       <c r="Z632" s="3"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
@@ -18468,7 +18491,7 @@
       <c r="Y633" s="3"/>
       <c r="Z633" s="3"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
@@ -18496,7 +18519,7 @@
       <c r="Y634" s="3"/>
       <c r="Z634" s="3"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
@@ -18524,7 +18547,7 @@
       <c r="Y635" s="3"/>
       <c r="Z635" s="3"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
@@ -18552,7 +18575,7 @@
       <c r="Y636" s="3"/>
       <c r="Z636" s="3"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
@@ -18580,7 +18603,7 @@
       <c r="Y637" s="3"/>
       <c r="Z637" s="3"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
@@ -18608,7 +18631,7 @@
       <c r="Y638" s="3"/>
       <c r="Z638" s="3"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -18636,7 +18659,7 @@
       <c r="Y639" s="3"/>
       <c r="Z639" s="3"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
@@ -18664,7 +18687,7 @@
       <c r="Y640" s="3"/>
       <c r="Z640" s="3"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -18692,7 +18715,7 @@
       <c r="Y641" s="3"/>
       <c r="Z641" s="3"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
@@ -18720,7 +18743,7 @@
       <c r="Y642" s="3"/>
       <c r="Z642" s="3"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
@@ -18748,7 +18771,7 @@
       <c r="Y643" s="3"/>
       <c r="Z643" s="3"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -18776,7 +18799,7 @@
       <c r="Y644" s="3"/>
       <c r="Z644" s="3"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
@@ -18804,7 +18827,7 @@
       <c r="Y645" s="3"/>
       <c r="Z645" s="3"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
@@ -18832,7 +18855,7 @@
       <c r="Y646" s="3"/>
       <c r="Z646" s="3"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
@@ -18860,7 +18883,7 @@
       <c r="Y647" s="3"/>
       <c r="Z647" s="3"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
@@ -18888,7 +18911,7 @@
       <c r="Y648" s="3"/>
       <c r="Z648" s="3"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
@@ -18916,7 +18939,7 @@
       <c r="Y649" s="3"/>
       <c r="Z649" s="3"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
@@ -18944,7 +18967,7 @@
       <c r="Y650" s="3"/>
       <c r="Z650" s="3"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
@@ -18972,7 +18995,7 @@
       <c r="Y651" s="3"/>
       <c r="Z651" s="3"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
@@ -19000,7 +19023,7 @@
       <c r="Y652" s="3"/>
       <c r="Z652" s="3"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
@@ -19028,7 +19051,7 @@
       <c r="Y653" s="3"/>
       <c r="Z653" s="3"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
@@ -19056,7 +19079,7 @@
       <c r="Y654" s="3"/>
       <c r="Z654" s="3"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
@@ -19084,7 +19107,7 @@
       <c r="Y655" s="3"/>
       <c r="Z655" s="3"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
@@ -19112,7 +19135,7 @@
       <c r="Y656" s="3"/>
       <c r="Z656" s="3"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
@@ -19140,7 +19163,7 @@
       <c r="Y657" s="3"/>
       <c r="Z657" s="3"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
@@ -19168,7 +19191,7 @@
       <c r="Y658" s="3"/>
       <c r="Z658" s="3"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
@@ -19196,7 +19219,7 @@
       <c r="Y659" s="3"/>
       <c r="Z659" s="3"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
@@ -19224,7 +19247,7 @@
       <c r="Y660" s="3"/>
       <c r="Z660" s="3"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
@@ -19252,7 +19275,7 @@
       <c r="Y661" s="3"/>
       <c r="Z661" s="3"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
@@ -19280,7 +19303,7 @@
       <c r="Y662" s="3"/>
       <c r="Z662" s="3"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
@@ -19308,7 +19331,7 @@
       <c r="Y663" s="3"/>
       <c r="Z663" s="3"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
@@ -19336,7 +19359,7 @@
       <c r="Y664" s="3"/>
       <c r="Z664" s="3"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
@@ -19364,7 +19387,7 @@
       <c r="Y665" s="3"/>
       <c r="Z665" s="3"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
@@ -19392,7 +19415,7 @@
       <c r="Y666" s="3"/>
       <c r="Z666" s="3"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
@@ -19420,7 +19443,7 @@
       <c r="Y667" s="3"/>
       <c r="Z667" s="3"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
@@ -19448,7 +19471,7 @@
       <c r="Y668" s="3"/>
       <c r="Z668" s="3"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
@@ -19476,7 +19499,7 @@
       <c r="Y669" s="3"/>
       <c r="Z669" s="3"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
@@ -19504,7 +19527,7 @@
       <c r="Y670" s="3"/>
       <c r="Z670" s="3"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
@@ -19532,7 +19555,7 @@
       <c r="Y671" s="3"/>
       <c r="Z671" s="3"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
@@ -19560,7 +19583,7 @@
       <c r="Y672" s="3"/>
       <c r="Z672" s="3"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
@@ -19588,7 +19611,7 @@
       <c r="Y673" s="3"/>
       <c r="Z673" s="3"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
@@ -19616,7 +19639,7 @@
       <c r="Y674" s="3"/>
       <c r="Z674" s="3"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
@@ -19644,7 +19667,7 @@
       <c r="Y675" s="3"/>
       <c r="Z675" s="3"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
@@ -19672,7 +19695,7 @@
       <c r="Y676" s="3"/>
       <c r="Z676" s="3"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
@@ -19700,7 +19723,7 @@
       <c r="Y677" s="3"/>
       <c r="Z677" s="3"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -19728,7 +19751,7 @@
       <c r="Y678" s="3"/>
       <c r="Z678" s="3"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
@@ -19756,7 +19779,7 @@
       <c r="Y679" s="3"/>
       <c r="Z679" s="3"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
@@ -19784,7 +19807,7 @@
       <c r="Y680" s="3"/>
       <c r="Z680" s="3"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -19812,7 +19835,7 @@
       <c r="Y681" s="3"/>
       <c r="Z681" s="3"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
@@ -19840,7 +19863,7 @@
       <c r="Y682" s="3"/>
       <c r="Z682" s="3"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -19868,7 +19891,7 @@
       <c r="Y683" s="3"/>
       <c r="Z683" s="3"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
@@ -19896,7 +19919,7 @@
       <c r="Y684" s="3"/>
       <c r="Z684" s="3"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
@@ -19924,7 +19947,7 @@
       <c r="Y685" s="3"/>
       <c r="Z685" s="3"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -19952,7 +19975,7 @@
       <c r="Y686" s="3"/>
       <c r="Z686" s="3"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
@@ -19980,7 +20003,7 @@
       <c r="Y687" s="3"/>
       <c r="Z687" s="3"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
@@ -20008,7 +20031,7 @@
       <c r="Y688" s="3"/>
       <c r="Z688" s="3"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
@@ -20036,7 +20059,7 @@
       <c r="Y689" s="3"/>
       <c r="Z689" s="3"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
@@ -20064,7 +20087,7 @@
       <c r="Y690" s="3"/>
       <c r="Z690" s="3"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
@@ -20092,7 +20115,7 @@
       <c r="Y691" s="3"/>
       <c r="Z691" s="3"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
@@ -20120,7 +20143,7 @@
       <c r="Y692" s="3"/>
       <c r="Z692" s="3"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
@@ -20148,7 +20171,7 @@
       <c r="Y693" s="3"/>
       <c r="Z693" s="3"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
@@ -20176,7 +20199,7 @@
       <c r="Y694" s="3"/>
       <c r="Z694" s="3"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
@@ -20204,7 +20227,7 @@
       <c r="Y695" s="3"/>
       <c r="Z695" s="3"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
@@ -20232,7 +20255,7 @@
       <c r="Y696" s="3"/>
       <c r="Z696" s="3"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
@@ -20260,7 +20283,7 @@
       <c r="Y697" s="3"/>
       <c r="Z697" s="3"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
@@ -20288,7 +20311,7 @@
       <c r="Y698" s="3"/>
       <c r="Z698" s="3"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
@@ -20316,7 +20339,7 @@
       <c r="Y699" s="3"/>
       <c r="Z699" s="3"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
@@ -20344,7 +20367,7 @@
       <c r="Y700" s="3"/>
       <c r="Z700" s="3"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
@@ -20372,7 +20395,7 @@
       <c r="Y701" s="3"/>
       <c r="Z701" s="3"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
@@ -20400,7 +20423,7 @@
       <c r="Y702" s="3"/>
       <c r="Z702" s="3"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
@@ -20428,7 +20451,7 @@
       <c r="Y703" s="3"/>
       <c r="Z703" s="3"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
@@ -20456,7 +20479,7 @@
       <c r="Y704" s="3"/>
       <c r="Z704" s="3"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
@@ -20484,7 +20507,7 @@
       <c r="Y705" s="3"/>
       <c r="Z705" s="3"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
@@ -20512,7 +20535,7 @@
       <c r="Y706" s="3"/>
       <c r="Z706" s="3"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
@@ -20540,7 +20563,7 @@
       <c r="Y707" s="3"/>
       <c r="Z707" s="3"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
@@ -20568,7 +20591,7 @@
       <c r="Y708" s="3"/>
       <c r="Z708" s="3"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
@@ -20596,7 +20619,7 @@
       <c r="Y709" s="3"/>
       <c r="Z709" s="3"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
@@ -20624,7 +20647,7 @@
       <c r="Y710" s="3"/>
       <c r="Z710" s="3"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
@@ -20652,7 +20675,7 @@
       <c r="Y711" s="3"/>
       <c r="Z711" s="3"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
@@ -20680,7 +20703,7 @@
       <c r="Y712" s="3"/>
       <c r="Z712" s="3"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
@@ -20708,7 +20731,7 @@
       <c r="Y713" s="3"/>
       <c r="Z713" s="3"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
@@ -20736,7 +20759,7 @@
       <c r="Y714" s="3"/>
       <c r="Z714" s="3"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
@@ -20764,7 +20787,7 @@
       <c r="Y715" s="3"/>
       <c r="Z715" s="3"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
@@ -20792,7 +20815,7 @@
       <c r="Y716" s="3"/>
       <c r="Z716" s="3"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
@@ -20820,7 +20843,7 @@
       <c r="Y717" s="3"/>
       <c r="Z717" s="3"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
@@ -20848,7 +20871,7 @@
       <c r="Y718" s="3"/>
       <c r="Z718" s="3"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
@@ -20876,7 +20899,7 @@
       <c r="Y719" s="3"/>
       <c r="Z719" s="3"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
@@ -20904,7 +20927,7 @@
       <c r="Y720" s="3"/>
       <c r="Z720" s="3"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
@@ -20932,7 +20955,7 @@
       <c r="Y721" s="3"/>
       <c r="Z721" s="3"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
@@ -20960,7 +20983,7 @@
       <c r="Y722" s="3"/>
       <c r="Z722" s="3"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
@@ -20988,7 +21011,7 @@
       <c r="Y723" s="3"/>
       <c r="Z723" s="3"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
@@ -21016,7 +21039,7 @@
       <c r="Y724" s="3"/>
       <c r="Z724" s="3"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
@@ -21044,7 +21067,7 @@
       <c r="Y725" s="3"/>
       <c r="Z725" s="3"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
@@ -21072,7 +21095,7 @@
       <c r="Y726" s="3"/>
       <c r="Z726" s="3"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
@@ -21100,7 +21123,7 @@
       <c r="Y727" s="3"/>
       <c r="Z727" s="3"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
@@ -21128,7 +21151,7 @@
       <c r="Y728" s="3"/>
       <c r="Z728" s="3"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
@@ -21156,7 +21179,7 @@
       <c r="Y729" s="3"/>
       <c r="Z729" s="3"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
@@ -21184,7 +21207,7 @@
       <c r="Y730" s="3"/>
       <c r="Z730" s="3"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
@@ -21212,7 +21235,7 @@
       <c r="Y731" s="3"/>
       <c r="Z731" s="3"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
@@ -21240,7 +21263,7 @@
       <c r="Y732" s="3"/>
       <c r="Z732" s="3"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
@@ -21268,7 +21291,7 @@
       <c r="Y733" s="3"/>
       <c r="Z733" s="3"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
@@ -21296,7 +21319,7 @@
       <c r="Y734" s="3"/>
       <c r="Z734" s="3"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
@@ -21324,7 +21347,7 @@
       <c r="Y735" s="3"/>
       <c r="Z735" s="3"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
@@ -21352,7 +21375,7 @@
       <c r="Y736" s="3"/>
       <c r="Z736" s="3"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
@@ -21380,7 +21403,7 @@
       <c r="Y737" s="3"/>
       <c r="Z737" s="3"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
@@ -21408,7 +21431,7 @@
       <c r="Y738" s="3"/>
       <c r="Z738" s="3"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
@@ -21436,7 +21459,7 @@
       <c r="Y739" s="3"/>
       <c r="Z739" s="3"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
@@ -21464,7 +21487,7 @@
       <c r="Y740" s="3"/>
       <c r="Z740" s="3"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
@@ -21492,7 +21515,7 @@
       <c r="Y741" s="3"/>
       <c r="Z741" s="3"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
@@ -21520,7 +21543,7 @@
       <c r="Y742" s="3"/>
       <c r="Z742" s="3"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
@@ -21548,7 +21571,7 @@
       <c r="Y743" s="3"/>
       <c r="Z743" s="3"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
@@ -21576,7 +21599,7 @@
       <c r="Y744" s="3"/>
       <c r="Z744" s="3"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
@@ -21604,7 +21627,7 @@
       <c r="Y745" s="3"/>
       <c r="Z745" s="3"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
@@ -21632,7 +21655,7 @@
       <c r="Y746" s="3"/>
       <c r="Z746" s="3"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
@@ -21660,7 +21683,7 @@
       <c r="Y747" s="3"/>
       <c r="Z747" s="3"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
@@ -21688,7 +21711,7 @@
       <c r="Y748" s="3"/>
       <c r="Z748" s="3"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
@@ -21716,7 +21739,7 @@
       <c r="Y749" s="3"/>
       <c r="Z749" s="3"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
@@ -21744,7 +21767,7 @@
       <c r="Y750" s="3"/>
       <c r="Z750" s="3"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
@@ -21772,7 +21795,7 @@
       <c r="Y751" s="3"/>
       <c r="Z751" s="3"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
@@ -21800,7 +21823,7 @@
       <c r="Y752" s="3"/>
       <c r="Z752" s="3"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
@@ -21828,7 +21851,7 @@
       <c r="Y753" s="3"/>
       <c r="Z753" s="3"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
@@ -21856,7 +21879,7 @@
       <c r="Y754" s="3"/>
       <c r="Z754" s="3"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
@@ -21884,7 +21907,7 @@
       <c r="Y755" s="3"/>
       <c r="Z755" s="3"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
@@ -21912,7 +21935,7 @@
       <c r="Y756" s="3"/>
       <c r="Z756" s="3"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
@@ -21940,7 +21963,7 @@
       <c r="Y757" s="3"/>
       <c r="Z757" s="3"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
@@ -21968,7 +21991,7 @@
       <c r="Y758" s="3"/>
       <c r="Z758" s="3"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
@@ -21996,7 +22019,7 @@
       <c r="Y759" s="3"/>
       <c r="Z759" s="3"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
@@ -22024,7 +22047,7 @@
       <c r="Y760" s="3"/>
       <c r="Z760" s="3"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
@@ -22052,7 +22075,7 @@
       <c r="Y761" s="3"/>
       <c r="Z761" s="3"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
@@ -22080,7 +22103,7 @@
       <c r="Y762" s="3"/>
       <c r="Z762" s="3"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
@@ -22108,7 +22131,7 @@
       <c r="Y763" s="3"/>
       <c r="Z763" s="3"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
@@ -22136,7 +22159,7 @@
       <c r="Y764" s="3"/>
       <c r="Z764" s="3"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
@@ -22164,7 +22187,7 @@
       <c r="Y765" s="3"/>
       <c r="Z765" s="3"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
@@ -22192,7 +22215,7 @@
       <c r="Y766" s="3"/>
       <c r="Z766" s="3"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
@@ -22220,7 +22243,7 @@
       <c r="Y767" s="3"/>
       <c r="Z767" s="3"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
@@ -22248,7 +22271,7 @@
       <c r="Y768" s="3"/>
       <c r="Z768" s="3"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
@@ -22276,7 +22299,7 @@
       <c r="Y769" s="3"/>
       <c r="Z769" s="3"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
@@ -22304,7 +22327,7 @@
       <c r="Y770" s="3"/>
       <c r="Z770" s="3"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
@@ -22332,7 +22355,7 @@
       <c r="Y771" s="3"/>
       <c r="Z771" s="3"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
@@ -22360,7 +22383,7 @@
       <c r="Y772" s="3"/>
       <c r="Z772" s="3"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
@@ -22388,7 +22411,7 @@
       <c r="Y773" s="3"/>
       <c r="Z773" s="3"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
@@ -22416,7 +22439,7 @@
       <c r="Y774" s="3"/>
       <c r="Z774" s="3"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
@@ -22444,7 +22467,7 @@
       <c r="Y775" s="3"/>
       <c r="Z775" s="3"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
@@ -22472,7 +22495,7 @@
       <c r="Y776" s="3"/>
       <c r="Z776" s="3"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
@@ -22500,7 +22523,7 @@
       <c r="Y777" s="3"/>
       <c r="Z777" s="3"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
@@ -22528,7 +22551,7 @@
       <c r="Y778" s="3"/>
       <c r="Z778" s="3"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
@@ -22556,7 +22579,7 @@
       <c r="Y779" s="3"/>
       <c r="Z779" s="3"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
@@ -22584,7 +22607,7 @@
       <c r="Y780" s="3"/>
       <c r="Z780" s="3"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
@@ -22612,7 +22635,7 @@
       <c r="Y781" s="3"/>
       <c r="Z781" s="3"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
@@ -22640,7 +22663,7 @@
       <c r="Y782" s="3"/>
       <c r="Z782" s="3"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
@@ -22668,7 +22691,7 @@
       <c r="Y783" s="3"/>
       <c r="Z783" s="3"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
@@ -22696,7 +22719,7 @@
       <c r="Y784" s="3"/>
       <c r="Z784" s="3"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
@@ -22724,7 +22747,7 @@
       <c r="Y785" s="3"/>
       <c r="Z785" s="3"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
@@ -22752,7 +22775,7 @@
       <c r="Y786" s="3"/>
       <c r="Z786" s="3"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
@@ -22780,7 +22803,7 @@
       <c r="Y787" s="3"/>
       <c r="Z787" s="3"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
@@ -22808,7 +22831,7 @@
       <c r="Y788" s="3"/>
       <c r="Z788" s="3"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
@@ -22836,7 +22859,7 @@
       <c r="Y789" s="3"/>
       <c r="Z789" s="3"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
@@ -22864,7 +22887,7 @@
       <c r="Y790" s="3"/>
       <c r="Z790" s="3"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
@@ -22892,7 +22915,7 @@
       <c r="Y791" s="3"/>
       <c r="Z791" s="3"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
@@ -22920,7 +22943,7 @@
       <c r="Y792" s="3"/>
       <c r="Z792" s="3"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
@@ -22948,7 +22971,7 @@
       <c r="Y793" s="3"/>
       <c r="Z793" s="3"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
@@ -22976,7 +22999,7 @@
       <c r="Y794" s="3"/>
       <c r="Z794" s="3"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
@@ -23004,7 +23027,7 @@
       <c r="Y795" s="3"/>
       <c r="Z795" s="3"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
@@ -23032,7 +23055,7 @@
       <c r="Y796" s="3"/>
       <c r="Z796" s="3"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
@@ -23060,7 +23083,7 @@
       <c r="Y797" s="3"/>
       <c r="Z797" s="3"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
@@ -23088,7 +23111,7 @@
       <c r="Y798" s="3"/>
       <c r="Z798" s="3"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
@@ -23116,7 +23139,7 @@
       <c r="Y799" s="3"/>
       <c r="Z799" s="3"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
@@ -23144,7 +23167,7 @@
       <c r="Y800" s="3"/>
       <c r="Z800" s="3"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
@@ -23172,7 +23195,7 @@
       <c r="Y801" s="3"/>
       <c r="Z801" s="3"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
@@ -23200,7 +23223,7 @@
       <c r="Y802" s="3"/>
       <c r="Z802" s="3"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
@@ -23228,7 +23251,7 @@
       <c r="Y803" s="3"/>
       <c r="Z803" s="3"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
@@ -23256,7 +23279,7 @@
       <c r="Y804" s="3"/>
       <c r="Z804" s="3"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
@@ -23284,7 +23307,7 @@
       <c r="Y805" s="3"/>
       <c r="Z805" s="3"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
@@ -23312,7 +23335,7 @@
       <c r="Y806" s="3"/>
       <c r="Z806" s="3"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
@@ -23340,7 +23363,7 @@
       <c r="Y807" s="3"/>
       <c r="Z807" s="3"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
@@ -23368,7 +23391,7 @@
       <c r="Y808" s="3"/>
       <c r="Z808" s="3"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
@@ -23396,7 +23419,7 @@
       <c r="Y809" s="3"/>
       <c r="Z809" s="3"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
@@ -23424,7 +23447,7 @@
       <c r="Y810" s="3"/>
       <c r="Z810" s="3"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
@@ -23452,7 +23475,7 @@
       <c r="Y811" s="3"/>
       <c r="Z811" s="3"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
@@ -23480,7 +23503,7 @@
       <c r="Y812" s="3"/>
       <c r="Z812" s="3"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
@@ -23508,7 +23531,7 @@
       <c r="Y813" s="3"/>
       <c r="Z813" s="3"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
@@ -23536,7 +23559,7 @@
       <c r="Y814" s="3"/>
       <c r="Z814" s="3"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
@@ -23564,7 +23587,7 @@
       <c r="Y815" s="3"/>
       <c r="Z815" s="3"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
@@ -23592,7 +23615,7 @@
       <c r="Y816" s="3"/>
       <c r="Z816" s="3"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
@@ -23620,7 +23643,7 @@
       <c r="Y817" s="3"/>
       <c r="Z817" s="3"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
@@ -23648,7 +23671,7 @@
       <c r="Y818" s="3"/>
       <c r="Z818" s="3"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
@@ -23676,7 +23699,7 @@
       <c r="Y819" s="3"/>
       <c r="Z819" s="3"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
@@ -23704,7 +23727,7 @@
       <c r="Y820" s="3"/>
       <c r="Z820" s="3"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
@@ -23732,7 +23755,7 @@
       <c r="Y821" s="3"/>
       <c r="Z821" s="3"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
@@ -23760,7 +23783,7 @@
       <c r="Y822" s="3"/>
       <c r="Z822" s="3"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
@@ -23788,7 +23811,7 @@
       <c r="Y823" s="3"/>
       <c r="Z823" s="3"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
@@ -23816,7 +23839,7 @@
       <c r="Y824" s="3"/>
       <c r="Z824" s="3"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
@@ -23844,7 +23867,7 @@
       <c r="Y825" s="3"/>
       <c r="Z825" s="3"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
@@ -23872,7 +23895,7 @@
       <c r="Y826" s="3"/>
       <c r="Z826" s="3"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
@@ -23900,7 +23923,7 @@
       <c r="Y827" s="3"/>
       <c r="Z827" s="3"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
@@ -23928,7 +23951,7 @@
       <c r="Y828" s="3"/>
       <c r="Z828" s="3"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
@@ -23956,7 +23979,7 @@
       <c r="Y829" s="3"/>
       <c r="Z829" s="3"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
@@ -23984,7 +24007,7 @@
       <c r="Y830" s="3"/>
       <c r="Z830" s="3"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
@@ -24012,7 +24035,7 @@
       <c r="Y831" s="3"/>
       <c r="Z831" s="3"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
@@ -24040,7 +24063,7 @@
       <c r="Y832" s="3"/>
       <c r="Z832" s="3"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
@@ -24068,7 +24091,7 @@
       <c r="Y833" s="3"/>
       <c r="Z833" s="3"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
@@ -24096,7 +24119,7 @@
       <c r="Y834" s="3"/>
       <c r="Z834" s="3"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
@@ -24124,7 +24147,7 @@
       <c r="Y835" s="3"/>
       <c r="Z835" s="3"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
@@ -24152,7 +24175,7 @@
       <c r="Y836" s="3"/>
       <c r="Z836" s="3"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
@@ -24180,7 +24203,7 @@
       <c r="Y837" s="3"/>
       <c r="Z837" s="3"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
@@ -24208,7 +24231,7 @@
       <c r="Y838" s="3"/>
       <c r="Z838" s="3"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
@@ -24236,7 +24259,7 @@
       <c r="Y839" s="3"/>
       <c r="Z839" s="3"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
@@ -24264,7 +24287,7 @@
       <c r="Y840" s="3"/>
       <c r="Z840" s="3"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
@@ -24292,7 +24315,7 @@
       <c r="Y841" s="3"/>
       <c r="Z841" s="3"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
@@ -24320,7 +24343,7 @@
       <c r="Y842" s="3"/>
       <c r="Z842" s="3"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
@@ -24348,7 +24371,7 @@
       <c r="Y843" s="3"/>
       <c r="Z843" s="3"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
@@ -24376,7 +24399,7 @@
       <c r="Y844" s="3"/>
       <c r="Z844" s="3"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
@@ -24404,7 +24427,7 @@
       <c r="Y845" s="3"/>
       <c r="Z845" s="3"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
@@ -24432,7 +24455,7 @@
       <c r="Y846" s="3"/>
       <c r="Z846" s="3"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
@@ -24460,7 +24483,7 @@
       <c r="Y847" s="3"/>
       <c r="Z847" s="3"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
@@ -24488,7 +24511,7 @@
       <c r="Y848" s="3"/>
       <c r="Z848" s="3"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
@@ -24516,7 +24539,7 @@
       <c r="Y849" s="3"/>
       <c r="Z849" s="3"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
@@ -24544,7 +24567,7 @@
       <c r="Y850" s="3"/>
       <c r="Z850" s="3"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
@@ -24572,7 +24595,7 @@
       <c r="Y851" s="3"/>
       <c r="Z851" s="3"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
@@ -24600,7 +24623,7 @@
       <c r="Y852" s="3"/>
       <c r="Z852" s="3"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
@@ -24628,7 +24651,7 @@
       <c r="Y853" s="3"/>
       <c r="Z853" s="3"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
@@ -24656,7 +24679,7 @@
       <c r="Y854" s="3"/>
       <c r="Z854" s="3"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
@@ -24684,7 +24707,7 @@
       <c r="Y855" s="3"/>
       <c r="Z855" s="3"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
@@ -24712,7 +24735,7 @@
       <c r="Y856" s="3"/>
       <c r="Z856" s="3"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
@@ -24740,7 +24763,7 @@
       <c r="Y857" s="3"/>
       <c r="Z857" s="3"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
@@ -24768,7 +24791,7 @@
       <c r="Y858" s="3"/>
       <c r="Z858" s="3"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="C859" s="3"/>
@@ -24796,7 +24819,7 @@
       <c r="Y859" s="3"/>
       <c r="Z859" s="3"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
@@ -24824,7 +24847,7 @@
       <c r="Y860" s="3"/>
       <c r="Z860" s="3"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
@@ -24852,7 +24875,7 @@
       <c r="Y861" s="3"/>
       <c r="Z861" s="3"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
@@ -24880,7 +24903,7 @@
       <c r="Y862" s="3"/>
       <c r="Z862" s="3"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
@@ -24908,7 +24931,7 @@
       <c r="Y863" s="3"/>
       <c r="Z863" s="3"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
@@ -24936,7 +24959,7 @@
       <c r="Y864" s="3"/>
       <c r="Z864" s="3"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
@@ -24964,7 +24987,7 @@
       <c r="Y865" s="3"/>
       <c r="Z865" s="3"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="C866" s="3"/>
@@ -24992,7 +25015,7 @@
       <c r="Y866" s="3"/>
       <c r="Z866" s="3"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="C867" s="3"/>
@@ -25020,7 +25043,7 @@
       <c r="Y867" s="3"/>
       <c r="Z867" s="3"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
@@ -25048,7 +25071,7 @@
       <c r="Y868" s="3"/>
       <c r="Z868" s="3"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
@@ -25076,7 +25099,7 @@
       <c r="Y869" s="3"/>
       <c r="Z869" s="3"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
@@ -25104,7 +25127,7 @@
       <c r="Y870" s="3"/>
       <c r="Z870" s="3"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
@@ -25132,7 +25155,7 @@
       <c r="Y871" s="3"/>
       <c r="Z871" s="3"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="C872" s="3"/>
@@ -25160,7 +25183,7 @@
       <c r="Y872" s="3"/>
       <c r="Z872" s="3"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
@@ -25188,7 +25211,7 @@
       <c r="Y873" s="3"/>
       <c r="Z873" s="3"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="C874" s="3"/>
@@ -25216,7 +25239,7 @@
       <c r="Y874" s="3"/>
       <c r="Z874" s="3"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="C875" s="3"/>
@@ -25244,7 +25267,7 @@
       <c r="Y875" s="3"/>
       <c r="Z875" s="3"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="C876" s="3"/>
@@ -25272,7 +25295,7 @@
       <c r="Y876" s="3"/>
       <c r="Z876" s="3"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="C877" s="3"/>
@@ -25300,7 +25323,7 @@
       <c r="Y877" s="3"/>
       <c r="Z877" s="3"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="C878" s="3"/>
@@ -25328,7 +25351,7 @@
       <c r="Y878" s="3"/>
       <c r="Z878" s="3"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="C879" s="3"/>
@@ -25356,7 +25379,7 @@
       <c r="Y879" s="3"/>
       <c r="Z879" s="3"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="C880" s="3"/>
@@ -25384,7 +25407,7 @@
       <c r="Y880" s="3"/>
       <c r="Z880" s="3"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="C881" s="3"/>
@@ -25412,7 +25435,7 @@
       <c r="Y881" s="3"/>
       <c r="Z881" s="3"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="C882" s="3"/>
@@ -25440,7 +25463,7 @@
       <c r="Y882" s="3"/>
       <c r="Z882" s="3"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="C883" s="3"/>
@@ -25468,7 +25491,7 @@
       <c r="Y883" s="3"/>
       <c r="Z883" s="3"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="C884" s="3"/>
@@ -25496,7 +25519,7 @@
       <c r="Y884" s="3"/>
       <c r="Z884" s="3"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
       <c r="C885" s="3"/>
@@ -25524,7 +25547,7 @@
       <c r="Y885" s="3"/>
       <c r="Z885" s="3"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
       <c r="C886" s="3"/>
@@ -25552,7 +25575,7 @@
       <c r="Y886" s="3"/>
       <c r="Z886" s="3"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
       <c r="C887" s="3"/>
@@ -25580,7 +25603,7 @@
       <c r="Y887" s="3"/>
       <c r="Z887" s="3"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
       <c r="C888" s="3"/>
@@ -25608,7 +25631,7 @@
       <c r="Y888" s="3"/>
       <c r="Z888" s="3"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="C889" s="3"/>
@@ -25636,7 +25659,7 @@
       <c r="Y889" s="3"/>
       <c r="Z889" s="3"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="C890" s="3"/>
@@ -25664,7 +25687,7 @@
       <c r="Y890" s="3"/>
       <c r="Z890" s="3"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
       <c r="C891" s="3"/>
@@ -25692,7 +25715,7 @@
       <c r="Y891" s="3"/>
       <c r="Z891" s="3"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
       <c r="C892" s="3"/>
@@ -25720,7 +25743,7 @@
       <c r="Y892" s="3"/>
       <c r="Z892" s="3"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="C893" s="3"/>
@@ -25748,7 +25771,7 @@
       <c r="Y893" s="3"/>
       <c r="Z893" s="3"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="C894" s="3"/>
@@ -25776,7 +25799,7 @@
       <c r="Y894" s="3"/>
       <c r="Z894" s="3"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
       <c r="C895" s="3"/>
@@ -25804,7 +25827,7 @@
       <c r="Y895" s="3"/>
       <c r="Z895" s="3"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
       <c r="C896" s="3"/>
@@ -25832,7 +25855,7 @@
       <c r="Y896" s="3"/>
       <c r="Z896" s="3"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="C897" s="3"/>
@@ -25860,7 +25883,7 @@
       <c r="Y897" s="3"/>
       <c r="Z897" s="3"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="C898" s="3"/>
@@ -25888,7 +25911,7 @@
       <c r="Y898" s="3"/>
       <c r="Z898" s="3"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
@@ -25916,7 +25939,7 @@
       <c r="Y899" s="3"/>
       <c r="Z899" s="3"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
       <c r="C900" s="3"/>
@@ -25944,7 +25967,7 @@
       <c r="Y900" s="3"/>
       <c r="Z900" s="3"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="C901" s="3"/>
@@ -25972,7 +25995,7 @@
       <c r="Y901" s="3"/>
       <c r="Z901" s="3"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="C902" s="3"/>
@@ -26000,7 +26023,7 @@
       <c r="Y902" s="3"/>
       <c r="Z902" s="3"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
       <c r="C903" s="3"/>
@@ -26028,7 +26051,7 @@
       <c r="Y903" s="3"/>
       <c r="Z903" s="3"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
       <c r="C904" s="3"/>
@@ -26056,7 +26079,7 @@
       <c r="Y904" s="3"/>
       <c r="Z904" s="3"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="C905" s="3"/>
@@ -26084,7 +26107,7 @@
       <c r="Y905" s="3"/>
       <c r="Z905" s="3"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="C906" s="3"/>
@@ -26112,7 +26135,7 @@
       <c r="Y906" s="3"/>
       <c r="Z906" s="3"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
       <c r="C907" s="3"/>
@@ -26140,7 +26163,7 @@
       <c r="Y907" s="3"/>
       <c r="Z907" s="3"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
       <c r="C908" s="3"/>
@@ -26168,7 +26191,7 @@
       <c r="Y908" s="3"/>
       <c r="Z908" s="3"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="C909" s="3"/>
@@ -26196,7 +26219,7 @@
       <c r="Y909" s="3"/>
       <c r="Z909" s="3"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="C910" s="3"/>
@@ -26224,7 +26247,7 @@
       <c r="Y910" s="3"/>
       <c r="Z910" s="3"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
       <c r="C911" s="3"/>
@@ -26252,7 +26275,7 @@
       <c r="Y911" s="3"/>
       <c r="Z911" s="3"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
       <c r="C912" s="3"/>
@@ -26280,7 +26303,7 @@
       <c r="Y912" s="3"/>
       <c r="Z912" s="3"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="C913" s="3"/>
@@ -26308,7 +26331,7 @@
       <c r="Y913" s="3"/>
       <c r="Z913" s="3"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="C914" s="3"/>
@@ -26336,7 +26359,7 @@
       <c r="Y914" s="3"/>
       <c r="Z914" s="3"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
       <c r="C915" s="3"/>
@@ -26364,7 +26387,7 @@
       <c r="Y915" s="3"/>
       <c r="Z915" s="3"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
       <c r="C916" s="3"/>
@@ -26392,7 +26415,7 @@
       <c r="Y916" s="3"/>
       <c r="Z916" s="3"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="C917" s="3"/>
@@ -26420,7 +26443,7 @@
       <c r="Y917" s="3"/>
       <c r="Z917" s="3"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="C918" s="3"/>
@@ -26448,7 +26471,7 @@
       <c r="Y918" s="3"/>
       <c r="Z918" s="3"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
       <c r="C919" s="3"/>
@@ -26476,7 +26499,7 @@
       <c r="Y919" s="3"/>
       <c r="Z919" s="3"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
       <c r="C920" s="3"/>
@@ -26504,7 +26527,7 @@
       <c r="Y920" s="3"/>
       <c r="Z920" s="3"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="C921" s="3"/>
@@ -26532,7 +26555,7 @@
       <c r="Y921" s="3"/>
       <c r="Z921" s="3"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="C922" s="3"/>
@@ -26560,7 +26583,7 @@
       <c r="Y922" s="3"/>
       <c r="Z922" s="3"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
       <c r="C923" s="3"/>
@@ -26588,7 +26611,7 @@
       <c r="Y923" s="3"/>
       <c r="Z923" s="3"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
       <c r="C924" s="3"/>
@@ -26616,7 +26639,7 @@
       <c r="Y924" s="3"/>
       <c r="Z924" s="3"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="C925" s="3"/>
@@ -26644,7 +26667,7 @@
       <c r="Y925" s="3"/>
       <c r="Z925" s="3"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="C926" s="3"/>
@@ -26672,7 +26695,7 @@
       <c r="Y926" s="3"/>
       <c r="Z926" s="3"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
       <c r="C927" s="3"/>
@@ -26700,7 +26723,7 @@
       <c r="Y927" s="3"/>
       <c r="Z927" s="3"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
       <c r="C928" s="3"/>
@@ -26728,7 +26751,7 @@
       <c r="Y928" s="3"/>
       <c r="Z928" s="3"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="C929" s="3"/>
@@ -26756,7 +26779,7 @@
       <c r="Y929" s="3"/>
       <c r="Z929" s="3"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="C930" s="3"/>
@@ -26784,7 +26807,7 @@
       <c r="Y930" s="3"/>
       <c r="Z930" s="3"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
       <c r="C931" s="3"/>
@@ -26812,7 +26835,7 @@
       <c r="Y931" s="3"/>
       <c r="Z931" s="3"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
       <c r="C932" s="3"/>
@@ -26840,7 +26863,7 @@
       <c r="Y932" s="3"/>
       <c r="Z932" s="3"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
@@ -26868,7 +26891,7 @@
       <c r="Y933" s="3"/>
       <c r="Z933" s="3"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
       <c r="C934" s="3"/>
@@ -26896,7 +26919,7 @@
       <c r="Y934" s="3"/>
       <c r="Z934" s="3"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
       <c r="C935" s="3"/>
@@ -26924,7 +26947,7 @@
       <c r="Y935" s="3"/>
       <c r="Z935" s="3"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
       <c r="C936" s="3"/>
@@ -26952,7 +26975,7 @@
       <c r="Y936" s="3"/>
       <c r="Z936" s="3"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="C937" s="3"/>
@@ -26980,7 +27003,7 @@
       <c r="Y937" s="3"/>
       <c r="Z937" s="3"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
       <c r="C938" s="3"/>
@@ -27008,7 +27031,7 @@
       <c r="Y938" s="3"/>
       <c r="Z938" s="3"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
       <c r="C939" s="3"/>
@@ -27036,7 +27059,7 @@
       <c r="Y939" s="3"/>
       <c r="Z939" s="3"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
       <c r="C940" s="3"/>
@@ -27064,7 +27087,7 @@
       <c r="Y940" s="3"/>
       <c r="Z940" s="3"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="C941" s="3"/>
@@ -27092,7 +27115,7 @@
       <c r="Y941" s="3"/>
       <c r="Z941" s="3"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="C942" s="3"/>
@@ -27120,7 +27143,7 @@
       <c r="Y942" s="3"/>
       <c r="Z942" s="3"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="C943" s="3"/>
@@ -27148,7 +27171,7 @@
       <c r="Y943" s="3"/>
       <c r="Z943" s="3"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
       <c r="C944" s="3"/>
@@ -27176,7 +27199,7 @@
       <c r="Y944" s="3"/>
       <c r="Z944" s="3"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
       <c r="C945" s="3"/>
@@ -27204,7 +27227,7 @@
       <c r="Y945" s="3"/>
       <c r="Z945" s="3"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
       <c r="C946" s="3"/>
@@ -27232,7 +27255,7 @@
       <c r="Y946" s="3"/>
       <c r="Z946" s="3"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="C947" s="3"/>
@@ -27260,7 +27283,7 @@
       <c r="Y947" s="3"/>
       <c r="Z947" s="3"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="C948" s="3"/>
@@ -27288,7 +27311,7 @@
       <c r="Y948" s="3"/>
       <c r="Z948" s="3"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
       <c r="C949" s="3"/>
@@ -27316,7 +27339,7 @@
       <c r="Y949" s="3"/>
       <c r="Z949" s="3"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="C950" s="3"/>
@@ -27344,7 +27367,7 @@
       <c r="Y950" s="3"/>
       <c r="Z950" s="3"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="C951" s="3"/>
@@ -27372,7 +27395,7 @@
       <c r="Y951" s="3"/>
       <c r="Z951" s="3"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="C952" s="3"/>
@@ -27400,7 +27423,7 @@
       <c r="Y952" s="3"/>
       <c r="Z952" s="3"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
       <c r="C953" s="3"/>
@@ -27428,7 +27451,7 @@
       <c r="Y953" s="3"/>
       <c r="Z953" s="3"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
       <c r="C954" s="3"/>
@@ -27456,7 +27479,7 @@
       <c r="Y954" s="3"/>
       <c r="Z954" s="3"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="C955" s="3"/>
@@ -27484,7 +27507,7 @@
       <c r="Y955" s="3"/>
       <c r="Z955" s="3"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="C956" s="3"/>
@@ -27512,7 +27535,7 @@
       <c r="Y956" s="3"/>
       <c r="Z956" s="3"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="C957" s="3"/>
@@ -27540,7 +27563,7 @@
       <c r="Y957" s="3"/>
       <c r="Z957" s="3"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
       <c r="C958" s="3"/>
@@ -27568,7 +27591,7 @@
       <c r="Y958" s="3"/>
       <c r="Z958" s="3"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
       <c r="C959" s="3"/>
@@ -27596,7 +27619,7 @@
       <c r="Y959" s="3"/>
       <c r="Z959" s="3"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="C960" s="3"/>
@@ -27624,7 +27647,7 @@
       <c r="Y960" s="3"/>
       <c r="Z960" s="3"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
       <c r="C961" s="3"/>
@@ -27652,7 +27675,7 @@
       <c r="Y961" s="3"/>
       <c r="Z961" s="3"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
       <c r="C962" s="3"/>
@@ -27680,7 +27703,7 @@
       <c r="Y962" s="3"/>
       <c r="Z962" s="3"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="C963" s="3"/>
@@ -27708,7 +27731,7 @@
       <c r="Y963" s="3"/>
       <c r="Z963" s="3"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="C964" s="3"/>
@@ -27736,7 +27759,7 @@
       <c r="Y964" s="3"/>
       <c r="Z964" s="3"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="C965" s="3"/>
@@ -27764,7 +27787,7 @@
       <c r="Y965" s="3"/>
       <c r="Z965" s="3"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="C966" s="3"/>
@@ -27792,7 +27815,7 @@
       <c r="Y966" s="3"/>
       <c r="Z966" s="3"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
@@ -27820,7 +27843,7 @@
       <c r="Y967" s="3"/>
       <c r="Z967" s="3"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="C968" s="3"/>
@@ -27848,7 +27871,7 @@
       <c r="Y968" s="3"/>
       <c r="Z968" s="3"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
       <c r="C969" s="3"/>
@@ -27876,7 +27899,7 @@
       <c r="Y969" s="3"/>
       <c r="Z969" s="3"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
       <c r="C970" s="3"/>
@@ -27904,7 +27927,7 @@
       <c r="Y970" s="3"/>
       <c r="Z970" s="3"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="C971" s="3"/>
@@ -27932,7 +27955,7 @@
       <c r="Y971" s="3"/>
       <c r="Z971" s="3"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="C972" s="3"/>
@@ -27960,7 +27983,7 @@
       <c r="Y972" s="3"/>
       <c r="Z972" s="3"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
       <c r="C973" s="3"/>
@@ -27988,7 +28011,7 @@
       <c r="Y973" s="3"/>
       <c r="Z973" s="3"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
       <c r="C974" s="3"/>
@@ -28016,7 +28039,7 @@
       <c r="Y974" s="3"/>
       <c r="Z974" s="3"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="C975" s="3"/>
@@ -28044,7 +28067,7 @@
       <c r="Y975" s="3"/>
       <c r="Z975" s="3"/>
     </row>
-    <row r="976">
+    <row r="976" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="C976" s="3"/>
@@ -28072,7 +28095,7 @@
       <c r="Y976" s="3"/>
       <c r="Z976" s="3"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
       <c r="C977" s="3"/>
@@ -28100,7 +28123,7 @@
       <c r="Y977" s="3"/>
       <c r="Z977" s="3"/>
     </row>
-    <row r="978">
+    <row r="978" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
       <c r="C978" s="3"/>
@@ -28128,7 +28151,7 @@
       <c r="Y978" s="3"/>
       <c r="Z978" s="3"/>
     </row>
-    <row r="979">
+    <row r="979" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
       <c r="C979" s="3"/>
@@ -28156,7 +28179,7 @@
       <c r="Y979" s="3"/>
       <c r="Z979" s="3"/>
     </row>
-    <row r="980">
+    <row r="980" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
       <c r="C980" s="3"/>
@@ -28184,7 +28207,7 @@
       <c r="Y980" s="3"/>
       <c r="Z980" s="3"/>
     </row>
-    <row r="981">
+    <row r="981" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
       <c r="C981" s="3"/>
@@ -28212,7 +28235,7 @@
       <c r="Y981" s="3"/>
       <c r="Z981" s="3"/>
     </row>
-    <row r="982">
+    <row r="982" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
       <c r="C982" s="3"/>
@@ -28240,7 +28263,7 @@
       <c r="Y982" s="3"/>
       <c r="Z982" s="3"/>
     </row>
-    <row r="983">
+    <row r="983" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
       <c r="C983" s="3"/>
@@ -28268,7 +28291,7 @@
       <c r="Y983" s="3"/>
       <c r="Z983" s="3"/>
     </row>
-    <row r="984">
+    <row r="984" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
       <c r="C984" s="3"/>
@@ -28296,7 +28319,7 @@
       <c r="Y984" s="3"/>
       <c r="Z984" s="3"/>
     </row>
-    <row r="985">
+    <row r="985" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
       <c r="C985" s="3"/>
@@ -28324,7 +28347,7 @@
       <c r="Y985" s="3"/>
       <c r="Z985" s="3"/>
     </row>
-    <row r="986">
+    <row r="986" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
       <c r="C986" s="3"/>
@@ -28352,7 +28375,7 @@
       <c r="Y986" s="3"/>
       <c r="Z986" s="3"/>
     </row>
-    <row r="987">
+    <row r="987" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
       <c r="C987" s="3"/>
@@ -28380,7 +28403,7 @@
       <c r="Y987" s="3"/>
       <c r="Z987" s="3"/>
     </row>
-    <row r="988">
+    <row r="988" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
       <c r="C988" s="3"/>
@@ -28408,7 +28431,7 @@
       <c r="Y988" s="3"/>
       <c r="Z988" s="3"/>
     </row>
-    <row r="989">
+    <row r="989" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
       <c r="C989" s="3"/>
@@ -28436,7 +28459,7 @@
       <c r="Y989" s="3"/>
       <c r="Z989" s="3"/>
     </row>
-    <row r="990">
+    <row r="990" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
       <c r="C990" s="3"/>
@@ -28464,7 +28487,7 @@
       <c r="Y990" s="3"/>
       <c r="Z990" s="3"/>
     </row>
-    <row r="991">
+    <row r="991" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
       <c r="C991" s="3"/>
@@ -28492,7 +28515,7 @@
       <c r="Y991" s="3"/>
       <c r="Z991" s="3"/>
     </row>
-    <row r="992">
+    <row r="992" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
       <c r="C992" s="3"/>
@@ -28520,7 +28543,7 @@
       <c r="Y992" s="3"/>
       <c r="Z992" s="3"/>
     </row>
-    <row r="993">
+    <row r="993" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
       <c r="C993" s="3"/>
@@ -28548,7 +28571,7 @@
       <c r="Y993" s="3"/>
       <c r="Z993" s="3"/>
     </row>
-    <row r="994">
+    <row r="994" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
       <c r="C994" s="3"/>
@@ -28576,7 +28599,7 @@
       <c r="Y994" s="3"/>
       <c r="Z994" s="3"/>
     </row>
-    <row r="995">
+    <row r="995" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
       <c r="C995" s="3"/>
@@ -28604,7 +28627,7 @@
       <c r="Y995" s="3"/>
       <c r="Z995" s="3"/>
     </row>
-    <row r="996">
+    <row r="996" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A996" s="3"/>
       <c r="B996" s="3"/>
       <c r="C996" s="3"/>
@@ -28632,7 +28655,7 @@
       <c r="Y996" s="3"/>
       <c r="Z996" s="3"/>
     </row>
-    <row r="997">
+    <row r="997" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A997" s="3"/>
       <c r="B997" s="3"/>
       <c r="C997" s="3"/>
@@ -28660,7 +28683,7 @@
       <c r="Y997" s="3"/>
       <c r="Z997" s="3"/>
     </row>
-    <row r="998">
+    <row r="998" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A998" s="3"/>
       <c r="B998" s="3"/>
       <c r="C998" s="3"/>
@@ -28688,7 +28711,7 @@
       <c r="Y998" s="3"/>
       <c r="Z998" s="3"/>
     </row>
-    <row r="999">
+    <row r="999" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A999" s="3"/>
       <c r="B999" s="3"/>
       <c r="C999" s="3"/>
@@ -28716,7 +28739,7 @@
       <c r="Y999" s="3"/>
       <c r="Z999" s="3"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A1000" s="3"/>
       <c r="B1000" s="3"/>
       <c r="C1000" s="3"/>
@@ -28745,6 +28768,6 @@
       <c r="Z1000" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/zonas_verdes.xlsx
+++ b/zonas_verdes.xlsx
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34644\Documents\Fuentes\Seminario-Fuentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BC89AC-DBB0-4C22-84FD-564C8F6F00CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87429826-D45A-48AE-A0D5-9EBF67AC0015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Ciudad</t>
   </si>
@@ -29,9 +37,6 @@
   </si>
   <si>
     <t>Parques m²/hab</t>
-  </si>
-  <si>
-    <t>Total (km²)</t>
   </si>
   <si>
     <t>León</t>
@@ -457,8 +462,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -473,9 +478,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -501,7 +504,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="5">
         <v>246976</v>
@@ -509,9 +512,7 @@
       <c r="C2" s="6">
         <v>26.76</v>
       </c>
-      <c r="D2" s="6">
-        <v>6.61</v>
-      </c>
+      <c r="D2" s="6"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -537,17 +538,15 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="5">
         <v>125317</v>
       </c>
       <c r="C3" s="6">
-        <v>17.96</v>
+        <v>24.11</v>
       </c>
-      <c r="D3" s="6">
-        <v>2.25</v>
-      </c>
+      <c r="D3" s="6"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -573,17 +572,15 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="5">
         <v>3182981</v>
       </c>
       <c r="C4" s="6">
-        <v>15.78</v>
+        <v>21</v>
       </c>
-      <c r="D4" s="6">
-        <v>50.23</v>
-      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -609,7 +606,7 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5">
         <v>197138</v>
@@ -617,9 +614,7 @@
       <c r="C5" s="6">
         <v>12.29</v>
       </c>
-      <c r="D5" s="6">
-        <v>2.42</v>
-      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -645,7 +640,7 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5">
         <v>689434</v>
@@ -653,9 +648,7 @@
       <c r="C6" s="6">
         <v>11.27</v>
       </c>
-      <c r="D6" s="6">
-        <v>7.77</v>
-      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -681,17 +674,15 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5">
         <v>299715</v>
       </c>
       <c r="C7" s="6">
-        <v>11</v>
+        <v>21.96</v>
       </c>
-      <c r="D7" s="6">
-        <v>3.3</v>
-      </c>
+      <c r="D7" s="6"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -717,7 +708,7 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="5">
         <v>171951</v>
@@ -725,9 +716,7 @@
       <c r="C8" s="6">
         <v>10.62</v>
       </c>
-      <c r="D8" s="6">
-        <v>1.83</v>
-      </c>
+      <c r="D8" s="6"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -753,7 +742,7 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="5">
         <v>138144</v>
@@ -761,9 +750,7 @@
       <c r="C9" s="6">
         <v>10.1</v>
       </c>
-      <c r="D9" s="6">
-        <v>1.4</v>
-      </c>
+      <c r="D9" s="6"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -789,7 +776,7 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5">
         <v>664938</v>
@@ -797,9 +784,7 @@
       <c r="C10" s="6">
         <v>9.02</v>
       </c>
-      <c r="D10" s="6">
-        <v>6</v>
-      </c>
+      <c r="D10" s="6"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -825,17 +810,15 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="5">
         <v>186370</v>
       </c>
       <c r="C11" s="6">
-        <v>8.17</v>
+        <v>18.239999999999998</v>
       </c>
-      <c r="D11" s="6">
-        <v>1.52</v>
-      </c>
+      <c r="D11" s="6"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -861,17 +844,15 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="5">
         <v>272365</v>
       </c>
       <c r="C12" s="6">
-        <v>7.85</v>
+        <v>12</v>
       </c>
-      <c r="D12" s="6">
-        <v>2.14</v>
-      </c>
+      <c r="D12" s="6"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -897,7 +878,7 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="5">
         <v>105893</v>
@@ -905,9 +886,7 @@
       <c r="C13" s="6">
         <v>7.45</v>
       </c>
-      <c r="D13" s="6">
-        <v>0.79</v>
-      </c>
+      <c r="D13" s="6"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -933,7 +912,7 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="5">
         <v>232770</v>
@@ -941,9 +920,7 @@
       <c r="C14" s="6">
         <v>7.39</v>
       </c>
-      <c r="D14" s="6">
-        <v>1.72</v>
-      </c>
+      <c r="D14" s="6"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -969,7 +946,7 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="5">
         <v>145115</v>
@@ -977,9 +954,7 @@
       <c r="C15" s="6">
         <v>7.39</v>
       </c>
-      <c r="D15" s="6">
-        <v>1.07</v>
-      </c>
+      <c r="D15" s="6"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1005,7 +980,7 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="5">
         <v>220301</v>
@@ -1013,9 +988,7 @@
       <c r="C16" s="6">
         <v>7.31</v>
       </c>
-      <c r="D16" s="6">
-        <v>1.61</v>
-      </c>
+      <c r="D16" s="6"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1041,7 +1014,7 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="5">
         <v>172816</v>
@@ -1049,9 +1022,7 @@
       <c r="C17" s="6">
         <v>7.16</v>
       </c>
-      <c r="D17" s="6">
-        <v>1.24</v>
-      </c>
+      <c r="D17" s="6"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1077,17 +1048,15 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="5">
         <v>144436</v>
       </c>
       <c r="C18" s="6">
-        <v>7.12</v>
+        <v>17.079999999999998</v>
       </c>
-      <c r="D18" s="6">
-        <v>1.03</v>
-      </c>
+      <c r="D18" s="6"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1113,7 +1082,7 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="5">
         <v>150543</v>
@@ -1121,9 +1090,7 @@
       <c r="C19" s="6">
         <v>6.75</v>
       </c>
-      <c r="D19" s="6">
-        <v>1.02</v>
-      </c>
+      <c r="D19" s="6"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1149,7 +1116,7 @@
     </row>
     <row r="20" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="5">
         <v>244099</v>
@@ -1157,9 +1124,7 @@
       <c r="C20" s="6">
         <v>6.58</v>
       </c>
-      <c r="D20" s="6">
-        <v>1.61</v>
-      </c>
+      <c r="D20" s="6"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1185,7 +1150,7 @@
     </row>
     <row r="21" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="5">
         <v>114238</v>
@@ -1193,9 +1158,7 @@
       <c r="C21" s="6">
         <v>6.55</v>
       </c>
-      <c r="D21" s="6">
-        <v>0.75</v>
-      </c>
+      <c r="D21" s="6"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1221,7 +1184,7 @@
     </row>
     <row r="22" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="5">
         <v>195389</v>
@@ -1229,9 +1192,7 @@
       <c r="C22" s="6">
         <v>6.5</v>
       </c>
-      <c r="D22" s="6">
-        <v>1.27</v>
-      </c>
+      <c r="D22" s="6"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1257,7 +1218,7 @@
     </row>
     <row r="23" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="5">
         <v>329988</v>
@@ -1265,9 +1226,7 @@
       <c r="C23" s="6">
         <v>6.12</v>
       </c>
-      <c r="D23" s="6">
-        <v>2.02</v>
-      </c>
+      <c r="D23" s="6"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1293,7 +1252,7 @@
     </row>
     <row r="24" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="5">
         <v>214177</v>
@@ -1301,9 +1260,7 @@
       <c r="C24" s="6">
         <v>5.97</v>
       </c>
-      <c r="D24" s="6">
-        <v>1.28</v>
-      </c>
+      <c r="D24" s="6"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1329,7 +1286,7 @@
     </row>
     <row r="25" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="5">
         <v>345110</v>
@@ -1337,9 +1294,7 @@
       <c r="C25" s="6">
         <v>5.73</v>
       </c>
-      <c r="D25" s="6">
-        <v>1.98</v>
-      </c>
+      <c r="D25" s="6"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1365,7 +1320,7 @@
     </row>
     <row r="26" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="5">
         <v>1620809</v>
@@ -1373,9 +1328,7 @@
       <c r="C26" s="6">
         <v>5.53</v>
       </c>
-      <c r="D26" s="6">
-        <v>8.9600000000000009</v>
-      </c>
+      <c r="D26" s="6"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1401,7 +1354,7 @@
     </row>
     <row r="27" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="5">
         <v>325916</v>
@@ -1409,9 +1362,7 @@
       <c r="C27" s="6">
         <v>5.34</v>
       </c>
-      <c r="D27" s="6">
-        <v>1.74</v>
-      </c>
+      <c r="D27" s="6"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1437,7 +1388,7 @@
     </row>
     <row r="28" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="5">
         <v>203692</v>
@@ -1445,9 +1396,7 @@
       <c r="C28" s="6">
         <v>4.3899999999999997</v>
       </c>
-      <c r="D28" s="6">
-        <v>0.89</v>
-      </c>
+      <c r="D28" s="6"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1473,7 +1422,7 @@
     </row>
     <row r="29" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="5">
         <v>377650</v>
@@ -1481,9 +1430,7 @@
       <c r="C29" s="6">
         <v>4.3099999999999996</v>
       </c>
-      <c r="D29" s="6">
-        <v>1.63</v>
-      </c>
+      <c r="D29" s="6"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1509,7 +1456,7 @@
     </row>
     <row r="30" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="5">
         <v>787808</v>
@@ -1517,9 +1464,7 @@
       <c r="C30" s="6">
         <v>4.18</v>
       </c>
-      <c r="D30" s="6">
-        <v>3.3</v>
-      </c>
+      <c r="D30" s="6"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1545,7 +1490,7 @@
     </row>
     <row r="31" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="5">
         <v>131507</v>
@@ -1553,9 +1498,7 @@
       <c r="C31" s="6">
         <v>4.01</v>
       </c>
-      <c r="D31" s="6">
-        <v>0.53</v>
-      </c>
+      <c r="D31" s="6"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -1581,7 +1524,7 @@
     </row>
     <row r="32" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="5">
         <v>292986</v>
@@ -1589,9 +1532,7 @@
       <c r="C32" s="6">
         <v>3.64</v>
       </c>
-      <c r="D32" s="6">
-        <v>1.07</v>
-      </c>
+      <c r="D32" s="6"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1617,7 +1558,7 @@
     </row>
     <row r="33" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" s="5">
         <v>406492</v>
@@ -1625,9 +1566,7 @@
       <c r="C33" s="6">
         <v>3.42</v>
       </c>
-      <c r="D33" s="6">
-        <v>1.39</v>
-      </c>
+      <c r="D33" s="6"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -1653,7 +1592,7 @@
     </row>
     <row r="34" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" s="5">
         <v>443243</v>
@@ -1661,9 +1600,7 @@
       <c r="C34" s="6">
         <v>3.38</v>
       </c>
-      <c r="D34" s="6">
-        <v>1.5</v>
-      </c>
+      <c r="D34" s="6"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1689,7 +1626,7 @@
     </row>
     <row r="35" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="5">
         <v>569002</v>
@@ -1697,9 +1634,7 @@
       <c r="C35" s="6">
         <v>2.92</v>
       </c>
-      <c r="D35" s="6">
-        <v>1.66</v>
-      </c>
+      <c r="D35" s="6"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -1725,17 +1660,15 @@
     </row>
     <row r="36" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A36" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" s="5">
         <v>175623</v>
       </c>
       <c r="C36" s="6">
-        <v>2.8</v>
+        <v>37.06</v>
       </c>
-      <c r="D36" s="6">
-        <v>0.49</v>
-      </c>
+      <c r="D36" s="6"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -1761,7 +1694,7 @@
     </row>
     <row r="37" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="5">
         <v>169498</v>
@@ -1769,9 +1702,7 @@
       <c r="C37" s="6">
         <v>2.73</v>
       </c>
-      <c r="D37" s="6">
-        <v>0.46</v>
-      </c>
+      <c r="D37" s="6"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -1797,7 +1728,7 @@
     </row>
     <row r="38" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A38" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38" s="5">
         <v>118048</v>
@@ -1805,9 +1736,7 @@
       <c r="C38" s="6">
         <v>1.8</v>
       </c>
-      <c r="D38" s="6">
-        <v>0.21</v>
-      </c>
+      <c r="D38" s="6"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -28769,5 +28698,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/zonas_verdes.xlsx
+++ b/zonas_verdes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34644\Documents\Fuentes\Seminario-Fuentes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacinto\Desktop\ING. Salud\3º Curso\1º CUATRIMESTRE\Fuentes de Datos\Prácticas\Seminario-Fuentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87429826-D45A-48AE-A0D5-9EBF67AC0015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D69EFD8-6A42-4EA1-B1C0-DDC8FC6A31F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3384" yWindow="1716" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
-  <si>
-    <t>Ciudad</t>
-  </si>
   <si>
     <t>Población</t>
   </si>
@@ -146,6 +143,9 @@
   <si>
     <t>Asturias</t>
   </si>
+  <si>
+    <t>Provincia</t>
+  </si>
 </sst>
 </file>
 
@@ -225,7 +225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -462,21 +462,19 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -502,9 +500,9 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="5">
         <v>246976</v>
@@ -536,9 +534,9 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5">
         <v>125317</v>
@@ -570,9 +568,9 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5">
         <v>3182981</v>
@@ -604,9 +602,9 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5">
         <v>197138</v>
@@ -638,9 +636,9 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5">
         <v>689434</v>
@@ -672,9 +670,9 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5">
         <v>299715</v>
@@ -706,9 +704,9 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5">
         <v>171951</v>
@@ -740,9 +738,9 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="5">
         <v>138144</v>
@@ -774,9 +772,9 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="5">
         <v>664938</v>
@@ -808,9 +806,9 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="5">
         <v>186370</v>
@@ -842,9 +840,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5">
         <v>272365</v>
@@ -876,9 +874,9 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="5">
         <v>105893</v>
@@ -910,9 +908,9 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="5">
         <v>232770</v>
@@ -944,9 +942,9 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="5">
         <v>145115</v>
@@ -978,9 +976,9 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="5">
         <v>220301</v>
@@ -1012,9 +1010,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="5">
         <v>172816</v>
@@ -1046,9 +1044,9 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="5">
         <v>144436</v>
@@ -1080,9 +1078,9 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="5">
         <v>150543</v>
@@ -1114,9 +1112,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="5">
         <v>244099</v>
@@ -1148,9 +1146,9 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="5">
         <v>114238</v>
@@ -1182,9 +1180,9 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="5">
         <v>195389</v>
@@ -1216,9 +1214,9 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="5">
         <v>329988</v>
@@ -1250,9 +1248,9 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="5">
         <v>214177</v>
@@ -1284,9 +1282,9 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="5">
         <v>345110</v>
@@ -1318,9 +1316,9 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="5">
         <v>1620809</v>
@@ -1352,9 +1350,9 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="5">
         <v>325916</v>
@@ -1386,9 +1384,9 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="5">
         <v>203692</v>
@@ -1420,9 +1418,9 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="5">
         <v>377650</v>
@@ -1454,9 +1452,9 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="5">
         <v>787808</v>
@@ -1488,9 +1486,9 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="5">
         <v>131507</v>
@@ -1522,9 +1520,9 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="5">
         <v>292986</v>
@@ -1556,9 +1554,9 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" s="5">
         <v>406492</v>
@@ -1590,9 +1588,9 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" s="5">
         <v>443243</v>
@@ -1624,9 +1622,9 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="5">
         <v>569002</v>
@@ -1658,9 +1656,9 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" s="5">
         <v>175623</v>
@@ -1692,9 +1690,9 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" s="5">
         <v>169498</v>
@@ -1726,9 +1724,9 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" s="5">
         <v>118048</v>
@@ -1760,7 +1758,7 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1788,7 +1786,7 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1816,7 +1814,7 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1844,7 +1842,7 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1872,7 +1870,7 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1900,7 +1898,7 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1928,7 +1926,7 @@
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1956,7 +1954,7 @@
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1984,7 +1982,7 @@
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2012,7 +2010,7 @@
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2040,7 +2038,7 @@
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2068,7 +2066,7 @@
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2096,7 +2094,7 @@
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
     </row>
-    <row r="51" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2124,7 +2122,7 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2152,7 +2150,7 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2180,7 +2178,7 @@
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2208,7 +2206,7 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2236,7 +2234,7 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2264,7 +2262,7 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2292,7 +2290,7 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2320,7 +2318,7 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2348,7 +2346,7 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2376,7 +2374,7 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2404,7 +2402,7 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2432,7 +2430,7 @@
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2460,7 +2458,7 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2488,7 +2486,7 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2516,7 +2514,7 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2544,7 +2542,7 @@
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2572,7 +2570,7 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2600,7 +2598,7 @@
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
     </row>
-    <row r="69" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2628,7 +2626,7 @@
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2656,7 +2654,7 @@
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2684,7 +2682,7 @@
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2712,7 +2710,7 @@
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2740,7 +2738,7 @@
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2768,7 +2766,7 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2796,7 +2794,7 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2824,7 +2822,7 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2852,7 +2850,7 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2880,7 +2878,7 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2908,7 +2906,7 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2936,7 +2934,7 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2964,7 +2962,7 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2992,7 +2990,7 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -3020,7 +3018,7 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -3048,7 +3046,7 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -3076,7 +3074,7 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3104,7 +3102,7 @@
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -3132,7 +3130,7 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3160,7 +3158,7 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3188,7 +3186,7 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3216,7 +3214,7 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3244,7 +3242,7 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3272,7 +3270,7 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3300,7 +3298,7 @@
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3328,7 +3326,7 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3356,7 +3354,7 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3384,7 +3382,7 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3412,7 +3410,7 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3440,7 +3438,7 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3468,7 +3466,7 @@
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3496,7 +3494,7 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -3524,7 +3522,7 @@
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -3552,7 +3550,7 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -3580,7 +3578,7 @@
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -3608,7 +3606,7 @@
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
     </row>
-    <row r="105" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -3636,7 +3634,7 @@
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -3664,7 +3662,7 @@
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3692,7 +3690,7 @@
       <c r="Y107" s="3"/>
       <c r="Z107" s="3"/>
     </row>
-    <row r="108" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -3720,7 +3718,7 @@
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="109" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -3748,7 +3746,7 @@
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -3776,7 +3774,7 @@
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -3804,7 +3802,7 @@
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
     </row>
-    <row r="112" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -3832,7 +3830,7 @@
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
     </row>
-    <row r="113" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -3860,7 +3858,7 @@
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -3888,7 +3886,7 @@
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -3916,7 +3914,7 @@
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
     </row>
-    <row r="116" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -3944,7 +3942,7 @@
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
     </row>
-    <row r="117" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -3972,7 +3970,7 @@
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
     </row>
-    <row r="118" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -4000,7 +3998,7 @@
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
     </row>
-    <row r="119" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -4028,7 +4026,7 @@
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
     </row>
-    <row r="120" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -4056,7 +4054,7 @@
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -4084,7 +4082,7 @@
       <c r="Y121" s="3"/>
       <c r="Z121" s="3"/>
     </row>
-    <row r="122" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -4112,7 +4110,7 @@
       <c r="Y122" s="3"/>
       <c r="Z122" s="3"/>
     </row>
-    <row r="123" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -4140,7 +4138,7 @@
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
     </row>
-    <row r="124" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -4168,7 +4166,7 @@
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
     </row>
-    <row r="125" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -4196,7 +4194,7 @@
       <c r="Y125" s="3"/>
       <c r="Z125" s="3"/>
     </row>
-    <row r="126" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -4224,7 +4222,7 @@
       <c r="Y126" s="3"/>
       <c r="Z126" s="3"/>
     </row>
-    <row r="127" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -4252,7 +4250,7 @@
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
     </row>
-    <row r="128" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -4280,7 +4278,7 @@
       <c r="Y128" s="3"/>
       <c r="Z128" s="3"/>
     </row>
-    <row r="129" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -4308,7 +4306,7 @@
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
     </row>
-    <row r="130" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -4336,7 +4334,7 @@
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
     </row>
-    <row r="131" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -4364,7 +4362,7 @@
       <c r="Y131" s="3"/>
       <c r="Z131" s="3"/>
     </row>
-    <row r="132" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -4392,7 +4390,7 @@
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
     </row>
-    <row r="133" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -4420,7 +4418,7 @@
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
     </row>
-    <row r="134" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -4448,7 +4446,7 @@
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -4476,7 +4474,7 @@
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
     </row>
-    <row r="136" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -4504,7 +4502,7 @@
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -4532,7 +4530,7 @@
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
     </row>
-    <row r="138" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -4560,7 +4558,7 @@
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -4588,7 +4586,7 @@
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
     </row>
-    <row r="140" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -4616,7 +4614,7 @@
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -4644,7 +4642,7 @@
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
     </row>
-    <row r="142" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -4672,7 +4670,7 @@
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
     </row>
-    <row r="143" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -4700,7 +4698,7 @@
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
     </row>
-    <row r="144" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -4728,7 +4726,7 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
     </row>
-    <row r="145" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -4756,7 +4754,7 @@
       <c r="Y145" s="3"/>
       <c r="Z145" s="3"/>
     </row>
-    <row r="146" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -4784,7 +4782,7 @@
       <c r="Y146" s="3"/>
       <c r="Z146" s="3"/>
     </row>
-    <row r="147" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -4812,7 +4810,7 @@
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
     </row>
-    <row r="148" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -4840,7 +4838,7 @@
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
     </row>
-    <row r="149" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -4868,7 +4866,7 @@
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
     </row>
-    <row r="150" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -4896,7 +4894,7 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -4924,7 +4922,7 @@
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
     </row>
-    <row r="152" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -4952,7 +4950,7 @@
       <c r="Y152" s="3"/>
       <c r="Z152" s="3"/>
     </row>
-    <row r="153" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -4980,7 +4978,7 @@
       <c r="Y153" s="3"/>
       <c r="Z153" s="3"/>
     </row>
-    <row r="154" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -5008,7 +5006,7 @@
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
     </row>
-    <row r="155" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -5036,7 +5034,7 @@
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
     </row>
-    <row r="156" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -5064,7 +5062,7 @@
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
     </row>
-    <row r="157" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -5092,7 +5090,7 @@
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
     </row>
-    <row r="158" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -5120,7 +5118,7 @@
       <c r="Y158" s="3"/>
       <c r="Z158" s="3"/>
     </row>
-    <row r="159" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -5148,7 +5146,7 @@
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
     </row>
-    <row r="160" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -5176,7 +5174,7 @@
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
     </row>
-    <row r="161" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -5204,7 +5202,7 @@
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
     </row>
-    <row r="162" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -5232,7 +5230,7 @@
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
     </row>
-    <row r="163" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -5260,7 +5258,7 @@
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
     </row>
-    <row r="164" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -5288,7 +5286,7 @@
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
     </row>
-    <row r="165" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -5316,7 +5314,7 @@
       <c r="Y165" s="3"/>
       <c r="Z165" s="3"/>
     </row>
-    <row r="166" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -5344,7 +5342,7 @@
       <c r="Y166" s="3"/>
       <c r="Z166" s="3"/>
     </row>
-    <row r="167" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -5372,7 +5370,7 @@
       <c r="Y167" s="3"/>
       <c r="Z167" s="3"/>
     </row>
-    <row r="168" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -5400,7 +5398,7 @@
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
     </row>
-    <row r="169" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -5428,7 +5426,7 @@
       <c r="Y169" s="3"/>
       <c r="Z169" s="3"/>
     </row>
-    <row r="170" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -5456,7 +5454,7 @@
       <c r="Y170" s="3"/>
       <c r="Z170" s="3"/>
     </row>
-    <row r="171" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -5484,7 +5482,7 @@
       <c r="Y171" s="3"/>
       <c r="Z171" s="3"/>
     </row>
-    <row r="172" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -5512,7 +5510,7 @@
       <c r="Y172" s="3"/>
       <c r="Z172" s="3"/>
     </row>
-    <row r="173" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -5540,7 +5538,7 @@
       <c r="Y173" s="3"/>
       <c r="Z173" s="3"/>
     </row>
-    <row r="174" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -5568,7 +5566,7 @@
       <c r="Y174" s="3"/>
       <c r="Z174" s="3"/>
     </row>
-    <row r="175" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -5596,7 +5594,7 @@
       <c r="Y175" s="3"/>
       <c r="Z175" s="3"/>
     </row>
-    <row r="176" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -5624,7 +5622,7 @@
       <c r="Y176" s="3"/>
       <c r="Z176" s="3"/>
     </row>
-    <row r="177" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -5652,7 +5650,7 @@
       <c r="Y177" s="3"/>
       <c r="Z177" s="3"/>
     </row>
-    <row r="178" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -5680,7 +5678,7 @@
       <c r="Y178" s="3"/>
       <c r="Z178" s="3"/>
     </row>
-    <row r="179" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -5708,7 +5706,7 @@
       <c r="Y179" s="3"/>
       <c r="Z179" s="3"/>
     </row>
-    <row r="180" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -5736,7 +5734,7 @@
       <c r="Y180" s="3"/>
       <c r="Z180" s="3"/>
     </row>
-    <row r="181" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -5764,7 +5762,7 @@
       <c r="Y181" s="3"/>
       <c r="Z181" s="3"/>
     </row>
-    <row r="182" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -5792,7 +5790,7 @@
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
     </row>
-    <row r="183" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -5820,7 +5818,7 @@
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
     </row>
-    <row r="184" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -5848,7 +5846,7 @@
       <c r="Y184" s="3"/>
       <c r="Z184" s="3"/>
     </row>
-    <row r="185" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -5876,7 +5874,7 @@
       <c r="Y185" s="3"/>
       <c r="Z185" s="3"/>
     </row>
-    <row r="186" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -5904,7 +5902,7 @@
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
     </row>
-    <row r="187" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -5932,7 +5930,7 @@
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
     </row>
-    <row r="188" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -5960,7 +5958,7 @@
       <c r="Y188" s="3"/>
       <c r="Z188" s="3"/>
     </row>
-    <row r="189" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -5988,7 +5986,7 @@
       <c r="Y189" s="3"/>
       <c r="Z189" s="3"/>
     </row>
-    <row r="190" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -6016,7 +6014,7 @@
       <c r="Y190" s="3"/>
       <c r="Z190" s="3"/>
     </row>
-    <row r="191" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -6044,7 +6042,7 @@
       <c r="Y191" s="3"/>
       <c r="Z191" s="3"/>
     </row>
-    <row r="192" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -6072,7 +6070,7 @@
       <c r="Y192" s="3"/>
       <c r="Z192" s="3"/>
     </row>
-    <row r="193" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -6100,7 +6098,7 @@
       <c r="Y193" s="3"/>
       <c r="Z193" s="3"/>
     </row>
-    <row r="194" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -6128,7 +6126,7 @@
       <c r="Y194" s="3"/>
       <c r="Z194" s="3"/>
     </row>
-    <row r="195" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -6156,7 +6154,7 @@
       <c r="Y195" s="3"/>
       <c r="Z195" s="3"/>
     </row>
-    <row r="196" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -6184,7 +6182,7 @@
       <c r="Y196" s="3"/>
       <c r="Z196" s="3"/>
     </row>
-    <row r="197" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -6212,7 +6210,7 @@
       <c r="Y197" s="3"/>
       <c r="Z197" s="3"/>
     </row>
-    <row r="198" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -6240,7 +6238,7 @@
       <c r="Y198" s="3"/>
       <c r="Z198" s="3"/>
     </row>
-    <row r="199" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -6268,7 +6266,7 @@
       <c r="Y199" s="3"/>
       <c r="Z199" s="3"/>
     </row>
-    <row r="200" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -6296,7 +6294,7 @@
       <c r="Y200" s="3"/>
       <c r="Z200" s="3"/>
     </row>
-    <row r="201" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -6324,7 +6322,7 @@
       <c r="Y201" s="3"/>
       <c r="Z201" s="3"/>
     </row>
-    <row r="202" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -6352,7 +6350,7 @@
       <c r="Y202" s="3"/>
       <c r="Z202" s="3"/>
     </row>
-    <row r="203" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -6380,7 +6378,7 @@
       <c r="Y203" s="3"/>
       <c r="Z203" s="3"/>
     </row>
-    <row r="204" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -6408,7 +6406,7 @@
       <c r="Y204" s="3"/>
       <c r="Z204" s="3"/>
     </row>
-    <row r="205" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -6436,7 +6434,7 @@
       <c r="Y205" s="3"/>
       <c r="Z205" s="3"/>
     </row>
-    <row r="206" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -6464,7 +6462,7 @@
       <c r="Y206" s="3"/>
       <c r="Z206" s="3"/>
     </row>
-    <row r="207" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -6492,7 +6490,7 @@
       <c r="Y207" s="3"/>
       <c r="Z207" s="3"/>
     </row>
-    <row r="208" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -6520,7 +6518,7 @@
       <c r="Y208" s="3"/>
       <c r="Z208" s="3"/>
     </row>
-    <row r="209" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -6548,7 +6546,7 @@
       <c r="Y209" s="3"/>
       <c r="Z209" s="3"/>
     </row>
-    <row r="210" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -6576,7 +6574,7 @@
       <c r="Y210" s="3"/>
       <c r="Z210" s="3"/>
     </row>
-    <row r="211" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -6604,7 +6602,7 @@
       <c r="Y211" s="3"/>
       <c r="Z211" s="3"/>
     </row>
-    <row r="212" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -6632,7 +6630,7 @@
       <c r="Y212" s="3"/>
       <c r="Z212" s="3"/>
     </row>
-    <row r="213" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -6660,7 +6658,7 @@
       <c r="Y213" s="3"/>
       <c r="Z213" s="3"/>
     </row>
-    <row r="214" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -6688,7 +6686,7 @@
       <c r="Y214" s="3"/>
       <c r="Z214" s="3"/>
     </row>
-    <row r="215" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -6716,7 +6714,7 @@
       <c r="Y215" s="3"/>
       <c r="Z215" s="3"/>
     </row>
-    <row r="216" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -6744,7 +6742,7 @@
       <c r="Y216" s="3"/>
       <c r="Z216" s="3"/>
     </row>
-    <row r="217" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -6772,7 +6770,7 @@
       <c r="Y217" s="3"/>
       <c r="Z217" s="3"/>
     </row>
-    <row r="218" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -6800,7 +6798,7 @@
       <c r="Y218" s="3"/>
       <c r="Z218" s="3"/>
     </row>
-    <row r="219" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -6828,7 +6826,7 @@
       <c r="Y219" s="3"/>
       <c r="Z219" s="3"/>
     </row>
-    <row r="220" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -6856,7 +6854,7 @@
       <c r="Y220" s="3"/>
       <c r="Z220" s="3"/>
     </row>
-    <row r="221" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -6884,7 +6882,7 @@
       <c r="Y221" s="3"/>
       <c r="Z221" s="3"/>
     </row>
-    <row r="222" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -6912,7 +6910,7 @@
       <c r="Y222" s="3"/>
       <c r="Z222" s="3"/>
     </row>
-    <row r="223" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -6940,7 +6938,7 @@
       <c r="Y223" s="3"/>
       <c r="Z223" s="3"/>
     </row>
-    <row r="224" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -6968,7 +6966,7 @@
       <c r="Y224" s="3"/>
       <c r="Z224" s="3"/>
     </row>
-    <row r="225" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -6996,7 +6994,7 @@
       <c r="Y225" s="3"/>
       <c r="Z225" s="3"/>
     </row>
-    <row r="226" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -7024,7 +7022,7 @@
       <c r="Y226" s="3"/>
       <c r="Z226" s="3"/>
     </row>
-    <row r="227" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -7052,7 +7050,7 @@
       <c r="Y227" s="3"/>
       <c r="Z227" s="3"/>
     </row>
-    <row r="228" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -7080,7 +7078,7 @@
       <c r="Y228" s="3"/>
       <c r="Z228" s="3"/>
     </row>
-    <row r="229" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -7108,7 +7106,7 @@
       <c r="Y229" s="3"/>
       <c r="Z229" s="3"/>
     </row>
-    <row r="230" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -7136,7 +7134,7 @@
       <c r="Y230" s="3"/>
       <c r="Z230" s="3"/>
     </row>
-    <row r="231" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -7164,7 +7162,7 @@
       <c r="Y231" s="3"/>
       <c r="Z231" s="3"/>
     </row>
-    <row r="232" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -7192,7 +7190,7 @@
       <c r="Y232" s="3"/>
       <c r="Z232" s="3"/>
     </row>
-    <row r="233" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -7220,7 +7218,7 @@
       <c r="Y233" s="3"/>
       <c r="Z233" s="3"/>
     </row>
-    <row r="234" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -7248,7 +7246,7 @@
       <c r="Y234" s="3"/>
       <c r="Z234" s="3"/>
     </row>
-    <row r="235" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -7276,7 +7274,7 @@
       <c r="Y235" s="3"/>
       <c r="Z235" s="3"/>
     </row>
-    <row r="236" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -7304,7 +7302,7 @@
       <c r="Y236" s="3"/>
       <c r="Z236" s="3"/>
     </row>
-    <row r="237" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -7332,7 +7330,7 @@
       <c r="Y237" s="3"/>
       <c r="Z237" s="3"/>
     </row>
-    <row r="238" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -7360,7 +7358,7 @@
       <c r="Y238" s="3"/>
       <c r="Z238" s="3"/>
     </row>
-    <row r="239" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -7388,7 +7386,7 @@
       <c r="Y239" s="3"/>
       <c r="Z239" s="3"/>
     </row>
-    <row r="240" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -7416,7 +7414,7 @@
       <c r="Y240" s="3"/>
       <c r="Z240" s="3"/>
     </row>
-    <row r="241" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -7444,7 +7442,7 @@
       <c r="Y241" s="3"/>
       <c r="Z241" s="3"/>
     </row>
-    <row r="242" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -7472,7 +7470,7 @@
       <c r="Y242" s="3"/>
       <c r="Z242" s="3"/>
     </row>
-    <row r="243" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -7500,7 +7498,7 @@
       <c r="Y243" s="3"/>
       <c r="Z243" s="3"/>
     </row>
-    <row r="244" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -7528,7 +7526,7 @@
       <c r="Y244" s="3"/>
       <c r="Z244" s="3"/>
     </row>
-    <row r="245" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -7556,7 +7554,7 @@
       <c r="Y245" s="3"/>
       <c r="Z245" s="3"/>
     </row>
-    <row r="246" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -7584,7 +7582,7 @@
       <c r="Y246" s="3"/>
       <c r="Z246" s="3"/>
     </row>
-    <row r="247" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -7612,7 +7610,7 @@
       <c r="Y247" s="3"/>
       <c r="Z247" s="3"/>
     </row>
-    <row r="248" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -7640,7 +7638,7 @@
       <c r="Y248" s="3"/>
       <c r="Z248" s="3"/>
     </row>
-    <row r="249" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -7668,7 +7666,7 @@
       <c r="Y249" s="3"/>
       <c r="Z249" s="3"/>
     </row>
-    <row r="250" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -7696,7 +7694,7 @@
       <c r="Y250" s="3"/>
       <c r="Z250" s="3"/>
     </row>
-    <row r="251" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -7724,7 +7722,7 @@
       <c r="Y251" s="3"/>
       <c r="Z251" s="3"/>
     </row>
-    <row r="252" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -7752,7 +7750,7 @@
       <c r="Y252" s="3"/>
       <c r="Z252" s="3"/>
     </row>
-    <row r="253" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -7780,7 +7778,7 @@
       <c r="Y253" s="3"/>
       <c r="Z253" s="3"/>
     </row>
-    <row r="254" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -7808,7 +7806,7 @@
       <c r="Y254" s="3"/>
       <c r="Z254" s="3"/>
     </row>
-    <row r="255" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -7836,7 +7834,7 @@
       <c r="Y255" s="3"/>
       <c r="Z255" s="3"/>
     </row>
-    <row r="256" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -7864,7 +7862,7 @@
       <c r="Y256" s="3"/>
       <c r="Z256" s="3"/>
     </row>
-    <row r="257" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -7892,7 +7890,7 @@
       <c r="Y257" s="3"/>
       <c r="Z257" s="3"/>
     </row>
-    <row r="258" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -7920,7 +7918,7 @@
       <c r="Y258" s="3"/>
       <c r="Z258" s="3"/>
     </row>
-    <row r="259" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -7948,7 +7946,7 @@
       <c r="Y259" s="3"/>
       <c r="Z259" s="3"/>
     </row>
-    <row r="260" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -7976,7 +7974,7 @@
       <c r="Y260" s="3"/>
       <c r="Z260" s="3"/>
     </row>
-    <row r="261" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -8004,7 +8002,7 @@
       <c r="Y261" s="3"/>
       <c r="Z261" s="3"/>
     </row>
-    <row r="262" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -8032,7 +8030,7 @@
       <c r="Y262" s="3"/>
       <c r="Z262" s="3"/>
     </row>
-    <row r="263" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -8060,7 +8058,7 @@
       <c r="Y263" s="3"/>
       <c r="Z263" s="3"/>
     </row>
-    <row r="264" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -8088,7 +8086,7 @@
       <c r="Y264" s="3"/>
       <c r="Z264" s="3"/>
     </row>
-    <row r="265" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -8116,7 +8114,7 @@
       <c r="Y265" s="3"/>
       <c r="Z265" s="3"/>
     </row>
-    <row r="266" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -8144,7 +8142,7 @@
       <c r="Y266" s="3"/>
       <c r="Z266" s="3"/>
     </row>
-    <row r="267" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -8172,7 +8170,7 @@
       <c r="Y267" s="3"/>
       <c r="Z267" s="3"/>
     </row>
-    <row r="268" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -8200,7 +8198,7 @@
       <c r="Y268" s="3"/>
       <c r="Z268" s="3"/>
     </row>
-    <row r="269" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -8228,7 +8226,7 @@
       <c r="Y269" s="3"/>
       <c r="Z269" s="3"/>
     </row>
-    <row r="270" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -8256,7 +8254,7 @@
       <c r="Y270" s="3"/>
       <c r="Z270" s="3"/>
     </row>
-    <row r="271" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -8284,7 +8282,7 @@
       <c r="Y271" s="3"/>
       <c r="Z271" s="3"/>
     </row>
-    <row r="272" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -8312,7 +8310,7 @@
       <c r="Y272" s="3"/>
       <c r="Z272" s="3"/>
     </row>
-    <row r="273" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -8340,7 +8338,7 @@
       <c r="Y273" s="3"/>
       <c r="Z273" s="3"/>
     </row>
-    <row r="274" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -8368,7 +8366,7 @@
       <c r="Y274" s="3"/>
       <c r="Z274" s="3"/>
     </row>
-    <row r="275" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -8396,7 +8394,7 @@
       <c r="Y275" s="3"/>
       <c r="Z275" s="3"/>
     </row>
-    <row r="276" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -8424,7 +8422,7 @@
       <c r="Y276" s="3"/>
       <c r="Z276" s="3"/>
     </row>
-    <row r="277" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -8452,7 +8450,7 @@
       <c r="Y277" s="3"/>
       <c r="Z277" s="3"/>
     </row>
-    <row r="278" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -8480,7 +8478,7 @@
       <c r="Y278" s="3"/>
       <c r="Z278" s="3"/>
     </row>
-    <row r="279" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -8508,7 +8506,7 @@
       <c r="Y279" s="3"/>
       <c r="Z279" s="3"/>
     </row>
-    <row r="280" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -8536,7 +8534,7 @@
       <c r="Y280" s="3"/>
       <c r="Z280" s="3"/>
     </row>
-    <row r="281" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -8564,7 +8562,7 @@
       <c r="Y281" s="3"/>
       <c r="Z281" s="3"/>
     </row>
-    <row r="282" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -8592,7 +8590,7 @@
       <c r="Y282" s="3"/>
       <c r="Z282" s="3"/>
     </row>
-    <row r="283" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -8620,7 +8618,7 @@
       <c r="Y283" s="3"/>
       <c r="Z283" s="3"/>
     </row>
-    <row r="284" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -8648,7 +8646,7 @@
       <c r="Y284" s="3"/>
       <c r="Z284" s="3"/>
     </row>
-    <row r="285" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -8676,7 +8674,7 @@
       <c r="Y285" s="3"/>
       <c r="Z285" s="3"/>
     </row>
-    <row r="286" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -8704,7 +8702,7 @@
       <c r="Y286" s="3"/>
       <c r="Z286" s="3"/>
     </row>
-    <row r="287" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -8732,7 +8730,7 @@
       <c r="Y287" s="3"/>
       <c r="Z287" s="3"/>
     </row>
-    <row r="288" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -8760,7 +8758,7 @@
       <c r="Y288" s="3"/>
       <c r="Z288" s="3"/>
     </row>
-    <row r="289" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -8788,7 +8786,7 @@
       <c r="Y289" s="3"/>
       <c r="Z289" s="3"/>
     </row>
-    <row r="290" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -8816,7 +8814,7 @@
       <c r="Y290" s="3"/>
       <c r="Z290" s="3"/>
     </row>
-    <row r="291" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -8844,7 +8842,7 @@
       <c r="Y291" s="3"/>
       <c r="Z291" s="3"/>
     </row>
-    <row r="292" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -8872,7 +8870,7 @@
       <c r="Y292" s="3"/>
       <c r="Z292" s="3"/>
     </row>
-    <row r="293" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -8900,7 +8898,7 @@
       <c r="Y293" s="3"/>
       <c r="Z293" s="3"/>
     </row>
-    <row r="294" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -8928,7 +8926,7 @@
       <c r="Y294" s="3"/>
       <c r="Z294" s="3"/>
     </row>
-    <row r="295" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -8956,7 +8954,7 @@
       <c r="Y295" s="3"/>
       <c r="Z295" s="3"/>
     </row>
-    <row r="296" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -8984,7 +8982,7 @@
       <c r="Y296" s="3"/>
       <c r="Z296" s="3"/>
     </row>
-    <row r="297" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -9012,7 +9010,7 @@
       <c r="Y297" s="3"/>
       <c r="Z297" s="3"/>
     </row>
-    <row r="298" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -9040,7 +9038,7 @@
       <c r="Y298" s="3"/>
       <c r="Z298" s="3"/>
     </row>
-    <row r="299" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -9068,7 +9066,7 @@
       <c r="Y299" s="3"/>
       <c r="Z299" s="3"/>
     </row>
-    <row r="300" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -9096,7 +9094,7 @@
       <c r="Y300" s="3"/>
       <c r="Z300" s="3"/>
     </row>
-    <row r="301" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -9124,7 +9122,7 @@
       <c r="Y301" s="3"/>
       <c r="Z301" s="3"/>
     </row>
-    <row r="302" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -9152,7 +9150,7 @@
       <c r="Y302" s="3"/>
       <c r="Z302" s="3"/>
     </row>
-    <row r="303" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -9180,7 +9178,7 @@
       <c r="Y303" s="3"/>
       <c r="Z303" s="3"/>
     </row>
-    <row r="304" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -9208,7 +9206,7 @@
       <c r="Y304" s="3"/>
       <c r="Z304" s="3"/>
     </row>
-    <row r="305" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -9236,7 +9234,7 @@
       <c r="Y305" s="3"/>
       <c r="Z305" s="3"/>
     </row>
-    <row r="306" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -9264,7 +9262,7 @@
       <c r="Y306" s="3"/>
       <c r="Z306" s="3"/>
     </row>
-    <row r="307" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -9292,7 +9290,7 @@
       <c r="Y307" s="3"/>
       <c r="Z307" s="3"/>
     </row>
-    <row r="308" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -9320,7 +9318,7 @@
       <c r="Y308" s="3"/>
       <c r="Z308" s="3"/>
     </row>
-    <row r="309" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -9348,7 +9346,7 @@
       <c r="Y309" s="3"/>
       <c r="Z309" s="3"/>
     </row>
-    <row r="310" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -9376,7 +9374,7 @@
       <c r="Y310" s="3"/>
       <c r="Z310" s="3"/>
     </row>
-    <row r="311" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -9404,7 +9402,7 @@
       <c r="Y311" s="3"/>
       <c r="Z311" s="3"/>
     </row>
-    <row r="312" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -9432,7 +9430,7 @@
       <c r="Y312" s="3"/>
       <c r="Z312" s="3"/>
     </row>
-    <row r="313" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -9460,7 +9458,7 @@
       <c r="Y313" s="3"/>
       <c r="Z313" s="3"/>
     </row>
-    <row r="314" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -9488,7 +9486,7 @@
       <c r="Y314" s="3"/>
       <c r="Z314" s="3"/>
     </row>
-    <row r="315" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -9516,7 +9514,7 @@
       <c r="Y315" s="3"/>
       <c r="Z315" s="3"/>
     </row>
-    <row r="316" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -9544,7 +9542,7 @@
       <c r="Y316" s="3"/>
       <c r="Z316" s="3"/>
     </row>
-    <row r="317" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -9572,7 +9570,7 @@
       <c r="Y317" s="3"/>
       <c r="Z317" s="3"/>
     </row>
-    <row r="318" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -9600,7 +9598,7 @@
       <c r="Y318" s="3"/>
       <c r="Z318" s="3"/>
     </row>
-    <row r="319" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -9628,7 +9626,7 @@
       <c r="Y319" s="3"/>
       <c r="Z319" s="3"/>
     </row>
-    <row r="320" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -9656,7 +9654,7 @@
       <c r="Y320" s="3"/>
       <c r="Z320" s="3"/>
     </row>
-    <row r="321" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -9684,7 +9682,7 @@
       <c r="Y321" s="3"/>
       <c r="Z321" s="3"/>
     </row>
-    <row r="322" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -9712,7 +9710,7 @@
       <c r="Y322" s="3"/>
       <c r="Z322" s="3"/>
     </row>
-    <row r="323" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -9740,7 +9738,7 @@
       <c r="Y323" s="3"/>
       <c r="Z323" s="3"/>
     </row>
-    <row r="324" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -9768,7 +9766,7 @@
       <c r="Y324" s="3"/>
       <c r="Z324" s="3"/>
     </row>
-    <row r="325" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -9796,7 +9794,7 @@
       <c r="Y325" s="3"/>
       <c r="Z325" s="3"/>
     </row>
-    <row r="326" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -9824,7 +9822,7 @@
       <c r="Y326" s="3"/>
       <c r="Z326" s="3"/>
     </row>
-    <row r="327" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -9852,7 +9850,7 @@
       <c r="Y327" s="3"/>
       <c r="Z327" s="3"/>
     </row>
-    <row r="328" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -9880,7 +9878,7 @@
       <c r="Y328" s="3"/>
       <c r="Z328" s="3"/>
     </row>
-    <row r="329" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -9908,7 +9906,7 @@
       <c r="Y329" s="3"/>
       <c r="Z329" s="3"/>
     </row>
-    <row r="330" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -9936,7 +9934,7 @@
       <c r="Y330" s="3"/>
       <c r="Z330" s="3"/>
     </row>
-    <row r="331" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -9964,7 +9962,7 @@
       <c r="Y331" s="3"/>
       <c r="Z331" s="3"/>
     </row>
-    <row r="332" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -9992,7 +9990,7 @@
       <c r="Y332" s="3"/>
       <c r="Z332" s="3"/>
     </row>
-    <row r="333" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -10020,7 +10018,7 @@
       <c r="Y333" s="3"/>
       <c r="Z333" s="3"/>
     </row>
-    <row r="334" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -10048,7 +10046,7 @@
       <c r="Y334" s="3"/>
       <c r="Z334" s="3"/>
     </row>
-    <row r="335" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -10076,7 +10074,7 @@
       <c r="Y335" s="3"/>
       <c r="Z335" s="3"/>
     </row>
-    <row r="336" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -10104,7 +10102,7 @@
       <c r="Y336" s="3"/>
       <c r="Z336" s="3"/>
     </row>
-    <row r="337" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -10132,7 +10130,7 @@
       <c r="Y337" s="3"/>
       <c r="Z337" s="3"/>
     </row>
-    <row r="338" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -10160,7 +10158,7 @@
       <c r="Y338" s="3"/>
       <c r="Z338" s="3"/>
     </row>
-    <row r="339" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -10188,7 +10186,7 @@
       <c r="Y339" s="3"/>
       <c r="Z339" s="3"/>
     </row>
-    <row r="340" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -10216,7 +10214,7 @@
       <c r="Y340" s="3"/>
       <c r="Z340" s="3"/>
     </row>
-    <row r="341" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -10244,7 +10242,7 @@
       <c r="Y341" s="3"/>
       <c r="Z341" s="3"/>
     </row>
-    <row r="342" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -10272,7 +10270,7 @@
       <c r="Y342" s="3"/>
       <c r="Z342" s="3"/>
     </row>
-    <row r="343" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -10300,7 +10298,7 @@
       <c r="Y343" s="3"/>
       <c r="Z343" s="3"/>
     </row>
-    <row r="344" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -10328,7 +10326,7 @@
       <c r="Y344" s="3"/>
       <c r="Z344" s="3"/>
     </row>
-    <row r="345" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -10356,7 +10354,7 @@
       <c r="Y345" s="3"/>
       <c r="Z345" s="3"/>
     </row>
-    <row r="346" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -10384,7 +10382,7 @@
       <c r="Y346" s="3"/>
       <c r="Z346" s="3"/>
     </row>
-    <row r="347" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -10412,7 +10410,7 @@
       <c r="Y347" s="3"/>
       <c r="Z347" s="3"/>
     </row>
-    <row r="348" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -10440,7 +10438,7 @@
       <c r="Y348" s="3"/>
       <c r="Z348" s="3"/>
     </row>
-    <row r="349" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -10468,7 +10466,7 @@
       <c r="Y349" s="3"/>
       <c r="Z349" s="3"/>
     </row>
-    <row r="350" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -10496,7 +10494,7 @@
       <c r="Y350" s="3"/>
       <c r="Z350" s="3"/>
     </row>
-    <row r="351" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -10524,7 +10522,7 @@
       <c r="Y351" s="3"/>
       <c r="Z351" s="3"/>
     </row>
-    <row r="352" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -10552,7 +10550,7 @@
       <c r="Y352" s="3"/>
       <c r="Z352" s="3"/>
     </row>
-    <row r="353" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -10580,7 +10578,7 @@
       <c r="Y353" s="3"/>
       <c r="Z353" s="3"/>
     </row>
-    <row r="354" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -10608,7 +10606,7 @@
       <c r="Y354" s="3"/>
       <c r="Z354" s="3"/>
     </row>
-    <row r="355" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -10636,7 +10634,7 @@
       <c r="Y355" s="3"/>
       <c r="Z355" s="3"/>
     </row>
-    <row r="356" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -10664,7 +10662,7 @@
       <c r="Y356" s="3"/>
       <c r="Z356" s="3"/>
     </row>
-    <row r="357" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -10692,7 +10690,7 @@
       <c r="Y357" s="3"/>
       <c r="Z357" s="3"/>
     </row>
-    <row r="358" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -10720,7 +10718,7 @@
       <c r="Y358" s="3"/>
       <c r="Z358" s="3"/>
     </row>
-    <row r="359" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -10748,7 +10746,7 @@
       <c r="Y359" s="3"/>
       <c r="Z359" s="3"/>
     </row>
-    <row r="360" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -10776,7 +10774,7 @@
       <c r="Y360" s="3"/>
       <c r="Z360" s="3"/>
     </row>
-    <row r="361" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -10804,7 +10802,7 @@
       <c r="Y361" s="3"/>
       <c r="Z361" s="3"/>
     </row>
-    <row r="362" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -10832,7 +10830,7 @@
       <c r="Y362" s="3"/>
       <c r="Z362" s="3"/>
     </row>
-    <row r="363" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -10860,7 +10858,7 @@
       <c r="Y363" s="3"/>
       <c r="Z363" s="3"/>
     </row>
-    <row r="364" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -10888,7 +10886,7 @@
       <c r="Y364" s="3"/>
       <c r="Z364" s="3"/>
     </row>
-    <row r="365" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -10916,7 +10914,7 @@
       <c r="Y365" s="3"/>
       <c r="Z365" s="3"/>
     </row>
-    <row r="366" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -10944,7 +10942,7 @@
       <c r="Y366" s="3"/>
       <c r="Z366" s="3"/>
     </row>
-    <row r="367" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -10972,7 +10970,7 @@
       <c r="Y367" s="3"/>
       <c r="Z367" s="3"/>
     </row>
-    <row r="368" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -11000,7 +10998,7 @@
       <c r="Y368" s="3"/>
       <c r="Z368" s="3"/>
     </row>
-    <row r="369" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -11028,7 +11026,7 @@
       <c r="Y369" s="3"/>
       <c r="Z369" s="3"/>
     </row>
-    <row r="370" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -11056,7 +11054,7 @@
       <c r="Y370" s="3"/>
       <c r="Z370" s="3"/>
     </row>
-    <row r="371" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -11084,7 +11082,7 @@
       <c r="Y371" s="3"/>
       <c r="Z371" s="3"/>
     </row>
-    <row r="372" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -11112,7 +11110,7 @@
       <c r="Y372" s="3"/>
       <c r="Z372" s="3"/>
     </row>
-    <row r="373" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -11140,7 +11138,7 @@
       <c r="Y373" s="3"/>
       <c r="Z373" s="3"/>
     </row>
-    <row r="374" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -11168,7 +11166,7 @@
       <c r="Y374" s="3"/>
       <c r="Z374" s="3"/>
     </row>
-    <row r="375" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -11196,7 +11194,7 @@
       <c r="Y375" s="3"/>
       <c r="Z375" s="3"/>
     </row>
-    <row r="376" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -11224,7 +11222,7 @@
       <c r="Y376" s="3"/>
       <c r="Z376" s="3"/>
     </row>
-    <row r="377" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -11252,7 +11250,7 @@
       <c r="Y377" s="3"/>
       <c r="Z377" s="3"/>
     </row>
-    <row r="378" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -11280,7 +11278,7 @@
       <c r="Y378" s="3"/>
       <c r="Z378" s="3"/>
     </row>
-    <row r="379" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -11308,7 +11306,7 @@
       <c r="Y379" s="3"/>
       <c r="Z379" s="3"/>
     </row>
-    <row r="380" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -11336,7 +11334,7 @@
       <c r="Y380" s="3"/>
       <c r="Z380" s="3"/>
     </row>
-    <row r="381" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -11364,7 +11362,7 @@
       <c r="Y381" s="3"/>
       <c r="Z381" s="3"/>
     </row>
-    <row r="382" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -11392,7 +11390,7 @@
       <c r="Y382" s="3"/>
       <c r="Z382" s="3"/>
     </row>
-    <row r="383" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -11420,7 +11418,7 @@
       <c r="Y383" s="3"/>
       <c r="Z383" s="3"/>
     </row>
-    <row r="384" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -11448,7 +11446,7 @@
       <c r="Y384" s="3"/>
       <c r="Z384" s="3"/>
     </row>
-    <row r="385" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -11476,7 +11474,7 @@
       <c r="Y385" s="3"/>
       <c r="Z385" s="3"/>
     </row>
-    <row r="386" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -11504,7 +11502,7 @@
       <c r="Y386" s="3"/>
       <c r="Z386" s="3"/>
     </row>
-    <row r="387" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -11532,7 +11530,7 @@
       <c r="Y387" s="3"/>
       <c r="Z387" s="3"/>
     </row>
-    <row r="388" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -11560,7 +11558,7 @@
       <c r="Y388" s="3"/>
       <c r="Z388" s="3"/>
     </row>
-    <row r="389" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -11588,7 +11586,7 @@
       <c r="Y389" s="3"/>
       <c r="Z389" s="3"/>
     </row>
-    <row r="390" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -11616,7 +11614,7 @@
       <c r="Y390" s="3"/>
       <c r="Z390" s="3"/>
     </row>
-    <row r="391" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -11644,7 +11642,7 @@
       <c r="Y391" s="3"/>
       <c r="Z391" s="3"/>
     </row>
-    <row r="392" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -11672,7 +11670,7 @@
       <c r="Y392" s="3"/>
       <c r="Z392" s="3"/>
     </row>
-    <row r="393" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -11700,7 +11698,7 @@
       <c r="Y393" s="3"/>
       <c r="Z393" s="3"/>
     </row>
-    <row r="394" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -11728,7 +11726,7 @@
       <c r="Y394" s="3"/>
       <c r="Z394" s="3"/>
     </row>
-    <row r="395" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -11756,7 +11754,7 @@
       <c r="Y395" s="3"/>
       <c r="Z395" s="3"/>
     </row>
-    <row r="396" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -11784,7 +11782,7 @@
       <c r="Y396" s="3"/>
       <c r="Z396" s="3"/>
     </row>
-    <row r="397" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -11812,7 +11810,7 @@
       <c r="Y397" s="3"/>
       <c r="Z397" s="3"/>
     </row>
-    <row r="398" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -11840,7 +11838,7 @@
       <c r="Y398" s="3"/>
       <c r="Z398" s="3"/>
     </row>
-    <row r="399" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -11868,7 +11866,7 @@
       <c r="Y399" s="3"/>
       <c r="Z399" s="3"/>
     </row>
-    <row r="400" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -11896,7 +11894,7 @@
       <c r="Y400" s="3"/>
       <c r="Z400" s="3"/>
     </row>
-    <row r="401" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -11924,7 +11922,7 @@
       <c r="Y401" s="3"/>
       <c r="Z401" s="3"/>
     </row>
-    <row r="402" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -11952,7 +11950,7 @@
       <c r="Y402" s="3"/>
       <c r="Z402" s="3"/>
     </row>
-    <row r="403" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -11980,7 +11978,7 @@
       <c r="Y403" s="3"/>
       <c r="Z403" s="3"/>
     </row>
-    <row r="404" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -12008,7 +12006,7 @@
       <c r="Y404" s="3"/>
       <c r="Z404" s="3"/>
     </row>
-    <row r="405" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -12036,7 +12034,7 @@
       <c r="Y405" s="3"/>
       <c r="Z405" s="3"/>
     </row>
-    <row r="406" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -12064,7 +12062,7 @@
       <c r="Y406" s="3"/>
       <c r="Z406" s="3"/>
     </row>
-    <row r="407" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -12092,7 +12090,7 @@
       <c r="Y407" s="3"/>
       <c r="Z407" s="3"/>
     </row>
-    <row r="408" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -12120,7 +12118,7 @@
       <c r="Y408" s="3"/>
       <c r="Z408" s="3"/>
     </row>
-    <row r="409" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -12148,7 +12146,7 @@
       <c r="Y409" s="3"/>
       <c r="Z409" s="3"/>
     </row>
-    <row r="410" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -12176,7 +12174,7 @@
       <c r="Y410" s="3"/>
       <c r="Z410" s="3"/>
     </row>
-    <row r="411" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -12204,7 +12202,7 @@
       <c r="Y411" s="3"/>
       <c r="Z411" s="3"/>
     </row>
-    <row r="412" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -12232,7 +12230,7 @@
       <c r="Y412" s="3"/>
       <c r="Z412" s="3"/>
     </row>
-    <row r="413" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -12260,7 +12258,7 @@
       <c r="Y413" s="3"/>
       <c r="Z413" s="3"/>
     </row>
-    <row r="414" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -12288,7 +12286,7 @@
       <c r="Y414" s="3"/>
       <c r="Z414" s="3"/>
     </row>
-    <row r="415" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -12316,7 +12314,7 @@
       <c r="Y415" s="3"/>
       <c r="Z415" s="3"/>
     </row>
-    <row r="416" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -12344,7 +12342,7 @@
       <c r="Y416" s="3"/>
       <c r="Z416" s="3"/>
     </row>
-    <row r="417" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -12372,7 +12370,7 @@
       <c r="Y417" s="3"/>
       <c r="Z417" s="3"/>
     </row>
-    <row r="418" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -12400,7 +12398,7 @@
       <c r="Y418" s="3"/>
       <c r="Z418" s="3"/>
     </row>
-    <row r="419" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -12428,7 +12426,7 @@
       <c r="Y419" s="3"/>
       <c r="Z419" s="3"/>
     </row>
-    <row r="420" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -12456,7 +12454,7 @@
       <c r="Y420" s="3"/>
       <c r="Z420" s="3"/>
     </row>
-    <row r="421" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -12484,7 +12482,7 @@
       <c r="Y421" s="3"/>
       <c r="Z421" s="3"/>
     </row>
-    <row r="422" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -12512,7 +12510,7 @@
       <c r="Y422" s="3"/>
       <c r="Z422" s="3"/>
     </row>
-    <row r="423" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -12540,7 +12538,7 @@
       <c r="Y423" s="3"/>
       <c r="Z423" s="3"/>
     </row>
-    <row r="424" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -12568,7 +12566,7 @@
       <c r="Y424" s="3"/>
       <c r="Z424" s="3"/>
     </row>
-    <row r="425" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -12596,7 +12594,7 @@
       <c r="Y425" s="3"/>
       <c r="Z425" s="3"/>
     </row>
-    <row r="426" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -12624,7 +12622,7 @@
       <c r="Y426" s="3"/>
       <c r="Z426" s="3"/>
     </row>
-    <row r="427" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -12652,7 +12650,7 @@
       <c r="Y427" s="3"/>
       <c r="Z427" s="3"/>
     </row>
-    <row r="428" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -12680,7 +12678,7 @@
       <c r="Y428" s="3"/>
       <c r="Z428" s="3"/>
     </row>
-    <row r="429" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -12708,7 +12706,7 @@
       <c r="Y429" s="3"/>
       <c r="Z429" s="3"/>
     </row>
-    <row r="430" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -12736,7 +12734,7 @@
       <c r="Y430" s="3"/>
       <c r="Z430" s="3"/>
     </row>
-    <row r="431" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -12764,7 +12762,7 @@
       <c r="Y431" s="3"/>
       <c r="Z431" s="3"/>
     </row>
-    <row r="432" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -12792,7 +12790,7 @@
       <c r="Y432" s="3"/>
       <c r="Z432" s="3"/>
     </row>
-    <row r="433" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -12820,7 +12818,7 @@
       <c r="Y433" s="3"/>
       <c r="Z433" s="3"/>
     </row>
-    <row r="434" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -12848,7 +12846,7 @@
       <c r="Y434" s="3"/>
       <c r="Z434" s="3"/>
     </row>
-    <row r="435" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -12876,7 +12874,7 @@
       <c r="Y435" s="3"/>
       <c r="Z435" s="3"/>
     </row>
-    <row r="436" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -12904,7 +12902,7 @@
       <c r="Y436" s="3"/>
       <c r="Z436" s="3"/>
     </row>
-    <row r="437" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -12932,7 +12930,7 @@
       <c r="Y437" s="3"/>
       <c r="Z437" s="3"/>
     </row>
-    <row r="438" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -12960,7 +12958,7 @@
       <c r="Y438" s="3"/>
       <c r="Z438" s="3"/>
     </row>
-    <row r="439" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -12988,7 +12986,7 @@
       <c r="Y439" s="3"/>
       <c r="Z439" s="3"/>
     </row>
-    <row r="440" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -13016,7 +13014,7 @@
       <c r="Y440" s="3"/>
       <c r="Z440" s="3"/>
     </row>
-    <row r="441" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -13044,7 +13042,7 @@
       <c r="Y441" s="3"/>
       <c r="Z441" s="3"/>
     </row>
-    <row r="442" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -13072,7 +13070,7 @@
       <c r="Y442" s="3"/>
       <c r="Z442" s="3"/>
     </row>
-    <row r="443" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -13100,7 +13098,7 @@
       <c r="Y443" s="3"/>
       <c r="Z443" s="3"/>
     </row>
-    <row r="444" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -13128,7 +13126,7 @@
       <c r="Y444" s="3"/>
       <c r="Z444" s="3"/>
     </row>
-    <row r="445" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -13156,7 +13154,7 @@
       <c r="Y445" s="3"/>
       <c r="Z445" s="3"/>
     </row>
-    <row r="446" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -13184,7 +13182,7 @@
       <c r="Y446" s="3"/>
       <c r="Z446" s="3"/>
     </row>
-    <row r="447" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -13212,7 +13210,7 @@
       <c r="Y447" s="3"/>
       <c r="Z447" s="3"/>
     </row>
-    <row r="448" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -13240,7 +13238,7 @@
       <c r="Y448" s="3"/>
       <c r="Z448" s="3"/>
     </row>
-    <row r="449" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -13268,7 +13266,7 @@
       <c r="Y449" s="3"/>
       <c r="Z449" s="3"/>
     </row>
-    <row r="450" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -13296,7 +13294,7 @@
       <c r="Y450" s="3"/>
       <c r="Z450" s="3"/>
     </row>
-    <row r="451" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -13324,7 +13322,7 @@
       <c r="Y451" s="3"/>
       <c r="Z451" s="3"/>
     </row>
-    <row r="452" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -13352,7 +13350,7 @@
       <c r="Y452" s="3"/>
       <c r="Z452" s="3"/>
     </row>
-    <row r="453" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -13380,7 +13378,7 @@
       <c r="Y453" s="3"/>
       <c r="Z453" s="3"/>
     </row>
-    <row r="454" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -13408,7 +13406,7 @@
       <c r="Y454" s="3"/>
       <c r="Z454" s="3"/>
     </row>
-    <row r="455" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -13436,7 +13434,7 @@
       <c r="Y455" s="3"/>
       <c r="Z455" s="3"/>
     </row>
-    <row r="456" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -13464,7 +13462,7 @@
       <c r="Y456" s="3"/>
       <c r="Z456" s="3"/>
     </row>
-    <row r="457" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -13492,7 +13490,7 @@
       <c r="Y457" s="3"/>
       <c r="Z457" s="3"/>
     </row>
-    <row r="458" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -13520,7 +13518,7 @@
       <c r="Y458" s="3"/>
       <c r="Z458" s="3"/>
     </row>
-    <row r="459" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -13548,7 +13546,7 @@
       <c r="Y459" s="3"/>
       <c r="Z459" s="3"/>
     </row>
-    <row r="460" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -13576,7 +13574,7 @@
       <c r="Y460" s="3"/>
       <c r="Z460" s="3"/>
     </row>
-    <row r="461" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -13604,7 +13602,7 @@
       <c r="Y461" s="3"/>
       <c r="Z461" s="3"/>
     </row>
-    <row r="462" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -13632,7 +13630,7 @@
       <c r="Y462" s="3"/>
       <c r="Z462" s="3"/>
     </row>
-    <row r="463" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -13660,7 +13658,7 @@
       <c r="Y463" s="3"/>
       <c r="Z463" s="3"/>
     </row>
-    <row r="464" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -13688,7 +13686,7 @@
       <c r="Y464" s="3"/>
       <c r="Z464" s="3"/>
     </row>
-    <row r="465" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -13716,7 +13714,7 @@
       <c r="Y465" s="3"/>
       <c r="Z465" s="3"/>
     </row>
-    <row r="466" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -13744,7 +13742,7 @@
       <c r="Y466" s="3"/>
       <c r="Z466" s="3"/>
     </row>
-    <row r="467" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -13772,7 +13770,7 @@
       <c r="Y467" s="3"/>
       <c r="Z467" s="3"/>
     </row>
-    <row r="468" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -13800,7 +13798,7 @@
       <c r="Y468" s="3"/>
       <c r="Z468" s="3"/>
     </row>
-    <row r="469" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -13828,7 +13826,7 @@
       <c r="Y469" s="3"/>
       <c r="Z469" s="3"/>
     </row>
-    <row r="470" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -13856,7 +13854,7 @@
       <c r="Y470" s="3"/>
       <c r="Z470" s="3"/>
     </row>
-    <row r="471" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -13884,7 +13882,7 @@
       <c r="Y471" s="3"/>
       <c r="Z471" s="3"/>
     </row>
-    <row r="472" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -13912,7 +13910,7 @@
       <c r="Y472" s="3"/>
       <c r="Z472" s="3"/>
     </row>
-    <row r="473" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -13940,7 +13938,7 @@
       <c r="Y473" s="3"/>
       <c r="Z473" s="3"/>
     </row>
-    <row r="474" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -13968,7 +13966,7 @@
       <c r="Y474" s="3"/>
       <c r="Z474" s="3"/>
     </row>
-    <row r="475" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -13996,7 +13994,7 @@
       <c r="Y475" s="3"/>
       <c r="Z475" s="3"/>
     </row>
-    <row r="476" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -14024,7 +14022,7 @@
       <c r="Y476" s="3"/>
       <c r="Z476" s="3"/>
     </row>
-    <row r="477" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -14052,7 +14050,7 @@
       <c r="Y477" s="3"/>
       <c r="Z477" s="3"/>
     </row>
-    <row r="478" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -14080,7 +14078,7 @@
       <c r="Y478" s="3"/>
       <c r="Z478" s="3"/>
     </row>
-    <row r="479" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -14108,7 +14106,7 @@
       <c r="Y479" s="3"/>
       <c r="Z479" s="3"/>
     </row>
-    <row r="480" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -14136,7 +14134,7 @@
       <c r="Y480" s="3"/>
       <c r="Z480" s="3"/>
     </row>
-    <row r="481" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -14164,7 +14162,7 @@
       <c r="Y481" s="3"/>
       <c r="Z481" s="3"/>
     </row>
-    <row r="482" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -14192,7 +14190,7 @@
       <c r="Y482" s="3"/>
       <c r="Z482" s="3"/>
     </row>
-    <row r="483" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -14220,7 +14218,7 @@
       <c r="Y483" s="3"/>
       <c r="Z483" s="3"/>
     </row>
-    <row r="484" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -14248,7 +14246,7 @@
       <c r="Y484" s="3"/>
       <c r="Z484" s="3"/>
     </row>
-    <row r="485" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -14276,7 +14274,7 @@
       <c r="Y485" s="3"/>
       <c r="Z485" s="3"/>
     </row>
-    <row r="486" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -14304,7 +14302,7 @@
       <c r="Y486" s="3"/>
       <c r="Z486" s="3"/>
     </row>
-    <row r="487" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -14332,7 +14330,7 @@
       <c r="Y487" s="3"/>
       <c r="Z487" s="3"/>
     </row>
-    <row r="488" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -14360,7 +14358,7 @@
       <c r="Y488" s="3"/>
       <c r="Z488" s="3"/>
     </row>
-    <row r="489" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -14388,7 +14386,7 @@
       <c r="Y489" s="3"/>
       <c r="Z489" s="3"/>
     </row>
-    <row r="490" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -14416,7 +14414,7 @@
       <c r="Y490" s="3"/>
       <c r="Z490" s="3"/>
     </row>
-    <row r="491" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -14444,7 +14442,7 @@
       <c r="Y491" s="3"/>
       <c r="Z491" s="3"/>
     </row>
-    <row r="492" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -14472,7 +14470,7 @@
       <c r="Y492" s="3"/>
       <c r="Z492" s="3"/>
     </row>
-    <row r="493" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -14500,7 +14498,7 @@
       <c r="Y493" s="3"/>
       <c r="Z493" s="3"/>
     </row>
-    <row r="494" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -14528,7 +14526,7 @@
       <c r="Y494" s="3"/>
       <c r="Z494" s="3"/>
     </row>
-    <row r="495" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -14556,7 +14554,7 @@
       <c r="Y495" s="3"/>
       <c r="Z495" s="3"/>
     </row>
-    <row r="496" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -14584,7 +14582,7 @@
       <c r="Y496" s="3"/>
       <c r="Z496" s="3"/>
     </row>
-    <row r="497" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -14612,7 +14610,7 @@
       <c r="Y497" s="3"/>
       <c r="Z497" s="3"/>
     </row>
-    <row r="498" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -14640,7 +14638,7 @@
       <c r="Y498" s="3"/>
       <c r="Z498" s="3"/>
     </row>
-    <row r="499" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -14668,7 +14666,7 @@
       <c r="Y499" s="3"/>
       <c r="Z499" s="3"/>
     </row>
-    <row r="500" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -14696,7 +14694,7 @@
       <c r="Y500" s="3"/>
       <c r="Z500" s="3"/>
     </row>
-    <row r="501" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -14724,7 +14722,7 @@
       <c r="Y501" s="3"/>
       <c r="Z501" s="3"/>
     </row>
-    <row r="502" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -14752,7 +14750,7 @@
       <c r="Y502" s="3"/>
       <c r="Z502" s="3"/>
     </row>
-    <row r="503" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -14780,7 +14778,7 @@
       <c r="Y503" s="3"/>
       <c r="Z503" s="3"/>
     </row>
-    <row r="504" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -14808,7 +14806,7 @@
       <c r="Y504" s="3"/>
       <c r="Z504" s="3"/>
     </row>
-    <row r="505" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -14836,7 +14834,7 @@
       <c r="Y505" s="3"/>
       <c r="Z505" s="3"/>
     </row>
-    <row r="506" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -14864,7 +14862,7 @@
       <c r="Y506" s="3"/>
       <c r="Z506" s="3"/>
     </row>
-    <row r="507" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -14892,7 +14890,7 @@
       <c r="Y507" s="3"/>
       <c r="Z507" s="3"/>
     </row>
-    <row r="508" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -14920,7 +14918,7 @@
       <c r="Y508" s="3"/>
       <c r="Z508" s="3"/>
     </row>
-    <row r="509" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -14948,7 +14946,7 @@
       <c r="Y509" s="3"/>
       <c r="Z509" s="3"/>
     </row>
-    <row r="510" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -14976,7 +14974,7 @@
       <c r="Y510" s="3"/>
       <c r="Z510" s="3"/>
     </row>
-    <row r="511" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -15004,7 +15002,7 @@
       <c r="Y511" s="3"/>
       <c r="Z511" s="3"/>
     </row>
-    <row r="512" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -15032,7 +15030,7 @@
       <c r="Y512" s="3"/>
       <c r="Z512" s="3"/>
     </row>
-    <row r="513" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -15060,7 +15058,7 @@
       <c r="Y513" s="3"/>
       <c r="Z513" s="3"/>
     </row>
-    <row r="514" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -15088,7 +15086,7 @@
       <c r="Y514" s="3"/>
       <c r="Z514" s="3"/>
     </row>
-    <row r="515" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -15116,7 +15114,7 @@
       <c r="Y515" s="3"/>
       <c r="Z515" s="3"/>
     </row>
-    <row r="516" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -15144,7 +15142,7 @@
       <c r="Y516" s="3"/>
       <c r="Z516" s="3"/>
     </row>
-    <row r="517" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -15172,7 +15170,7 @@
       <c r="Y517" s="3"/>
       <c r="Z517" s="3"/>
     </row>
-    <row r="518" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -15200,7 +15198,7 @@
       <c r="Y518" s="3"/>
       <c r="Z518" s="3"/>
     </row>
-    <row r="519" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -15228,7 +15226,7 @@
       <c r="Y519" s="3"/>
       <c r="Z519" s="3"/>
     </row>
-    <row r="520" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -15256,7 +15254,7 @@
       <c r="Y520" s="3"/>
       <c r="Z520" s="3"/>
     </row>
-    <row r="521" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -15284,7 +15282,7 @@
       <c r="Y521" s="3"/>
       <c r="Z521" s="3"/>
     </row>
-    <row r="522" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -15312,7 +15310,7 @@
       <c r="Y522" s="3"/>
       <c r="Z522" s="3"/>
     </row>
-    <row r="523" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -15340,7 +15338,7 @@
       <c r="Y523" s="3"/>
       <c r="Z523" s="3"/>
     </row>
-    <row r="524" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -15368,7 +15366,7 @@
       <c r="Y524" s="3"/>
       <c r="Z524" s="3"/>
     </row>
-    <row r="525" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -15396,7 +15394,7 @@
       <c r="Y525" s="3"/>
       <c r="Z525" s="3"/>
     </row>
-    <row r="526" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -15424,7 +15422,7 @@
       <c r="Y526" s="3"/>
       <c r="Z526" s="3"/>
     </row>
-    <row r="527" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -15452,7 +15450,7 @@
       <c r="Y527" s="3"/>
       <c r="Z527" s="3"/>
     </row>
-    <row r="528" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -15480,7 +15478,7 @@
       <c r="Y528" s="3"/>
       <c r="Z528" s="3"/>
     </row>
-    <row r="529" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -15508,7 +15506,7 @@
       <c r="Y529" s="3"/>
       <c r="Z529" s="3"/>
     </row>
-    <row r="530" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -15536,7 +15534,7 @@
       <c r="Y530" s="3"/>
       <c r="Z530" s="3"/>
     </row>
-    <row r="531" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -15564,7 +15562,7 @@
       <c r="Y531" s="3"/>
       <c r="Z531" s="3"/>
     </row>
-    <row r="532" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -15592,7 +15590,7 @@
       <c r="Y532" s="3"/>
       <c r="Z532" s="3"/>
     </row>
-    <row r="533" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -15620,7 +15618,7 @@
       <c r="Y533" s="3"/>
       <c r="Z533" s="3"/>
     </row>
-    <row r="534" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -15648,7 +15646,7 @@
       <c r="Y534" s="3"/>
       <c r="Z534" s="3"/>
     </row>
-    <row r="535" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -15676,7 +15674,7 @@
       <c r="Y535" s="3"/>
       <c r="Z535" s="3"/>
     </row>
-    <row r="536" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -15704,7 +15702,7 @@
       <c r="Y536" s="3"/>
       <c r="Z536" s="3"/>
     </row>
-    <row r="537" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -15732,7 +15730,7 @@
       <c r="Y537" s="3"/>
       <c r="Z537" s="3"/>
     </row>
-    <row r="538" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -15760,7 +15758,7 @@
       <c r="Y538" s="3"/>
       <c r="Z538" s="3"/>
     </row>
-    <row r="539" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -15788,7 +15786,7 @@
       <c r="Y539" s="3"/>
       <c r="Z539" s="3"/>
     </row>
-    <row r="540" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -15816,7 +15814,7 @@
       <c r="Y540" s="3"/>
       <c r="Z540" s="3"/>
     </row>
-    <row r="541" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -15844,7 +15842,7 @@
       <c r="Y541" s="3"/>
       <c r="Z541" s="3"/>
     </row>
-    <row r="542" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -15872,7 +15870,7 @@
       <c r="Y542" s="3"/>
       <c r="Z542" s="3"/>
     </row>
-    <row r="543" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -15900,7 +15898,7 @@
       <c r="Y543" s="3"/>
       <c r="Z543" s="3"/>
     </row>
-    <row r="544" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -15928,7 +15926,7 @@
       <c r="Y544" s="3"/>
       <c r="Z544" s="3"/>
     </row>
-    <row r="545" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -15956,7 +15954,7 @@
       <c r="Y545" s="3"/>
       <c r="Z545" s="3"/>
     </row>
-    <row r="546" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -15984,7 +15982,7 @@
       <c r="Y546" s="3"/>
       <c r="Z546" s="3"/>
     </row>
-    <row r="547" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -16012,7 +16010,7 @@
       <c r="Y547" s="3"/>
       <c r="Z547" s="3"/>
     </row>
-    <row r="548" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -16040,7 +16038,7 @@
       <c r="Y548" s="3"/>
       <c r="Z548" s="3"/>
     </row>
-    <row r="549" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -16068,7 +16066,7 @@
       <c r="Y549" s="3"/>
       <c r="Z549" s="3"/>
     </row>
-    <row r="550" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -16096,7 +16094,7 @@
       <c r="Y550" s="3"/>
       <c r="Z550" s="3"/>
     </row>
-    <row r="551" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -16124,7 +16122,7 @@
       <c r="Y551" s="3"/>
       <c r="Z551" s="3"/>
     </row>
-    <row r="552" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -16152,7 +16150,7 @@
       <c r="Y552" s="3"/>
       <c r="Z552" s="3"/>
     </row>
-    <row r="553" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -16180,7 +16178,7 @@
       <c r="Y553" s="3"/>
       <c r="Z553" s="3"/>
     </row>
-    <row r="554" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -16208,7 +16206,7 @@
       <c r="Y554" s="3"/>
       <c r="Z554" s="3"/>
     </row>
-    <row r="555" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -16236,7 +16234,7 @@
       <c r="Y555" s="3"/>
       <c r="Z555" s="3"/>
     </row>
-    <row r="556" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -16264,7 +16262,7 @@
       <c r="Y556" s="3"/>
       <c r="Z556" s="3"/>
     </row>
-    <row r="557" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -16292,7 +16290,7 @@
       <c r="Y557" s="3"/>
       <c r="Z557" s="3"/>
     </row>
-    <row r="558" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -16320,7 +16318,7 @@
       <c r="Y558" s="3"/>
       <c r="Z558" s="3"/>
     </row>
-    <row r="559" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -16348,7 +16346,7 @@
       <c r="Y559" s="3"/>
       <c r="Z559" s="3"/>
     </row>
-    <row r="560" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -16376,7 +16374,7 @@
       <c r="Y560" s="3"/>
       <c r="Z560" s="3"/>
     </row>
-    <row r="561" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -16404,7 +16402,7 @@
       <c r="Y561" s="3"/>
       <c r="Z561" s="3"/>
     </row>
-    <row r="562" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -16432,7 +16430,7 @@
       <c r="Y562" s="3"/>
       <c r="Z562" s="3"/>
     </row>
-    <row r="563" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -16460,7 +16458,7 @@
       <c r="Y563" s="3"/>
       <c r="Z563" s="3"/>
     </row>
-    <row r="564" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -16488,7 +16486,7 @@
       <c r="Y564" s="3"/>
       <c r="Z564" s="3"/>
     </row>
-    <row r="565" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -16516,7 +16514,7 @@
       <c r="Y565" s="3"/>
       <c r="Z565" s="3"/>
     </row>
-    <row r="566" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -16544,7 +16542,7 @@
       <c r="Y566" s="3"/>
       <c r="Z566" s="3"/>
     </row>
-    <row r="567" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -16572,7 +16570,7 @@
       <c r="Y567" s="3"/>
       <c r="Z567" s="3"/>
     </row>
-    <row r="568" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -16600,7 +16598,7 @@
       <c r="Y568" s="3"/>
       <c r="Z568" s="3"/>
     </row>
-    <row r="569" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -16628,7 +16626,7 @@
       <c r="Y569" s="3"/>
       <c r="Z569" s="3"/>
     </row>
-    <row r="570" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -16656,7 +16654,7 @@
       <c r="Y570" s="3"/>
       <c r="Z570" s="3"/>
     </row>
-    <row r="571" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
@@ -16684,7 +16682,7 @@
       <c r="Y571" s="3"/>
       <c r="Z571" s="3"/>
     </row>
-    <row r="572" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -16712,7 +16710,7 @@
       <c r="Y572" s="3"/>
       <c r="Z572" s="3"/>
     </row>
-    <row r="573" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
@@ -16740,7 +16738,7 @@
       <c r="Y573" s="3"/>
       <c r="Z573" s="3"/>
     </row>
-    <row r="574" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
@@ -16768,7 +16766,7 @@
       <c r="Y574" s="3"/>
       <c r="Z574" s="3"/>
     </row>
-    <row r="575" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
@@ -16796,7 +16794,7 @@
       <c r="Y575" s="3"/>
       <c r="Z575" s="3"/>
     </row>
-    <row r="576" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -16824,7 +16822,7 @@
       <c r="Y576" s="3"/>
       <c r="Z576" s="3"/>
     </row>
-    <row r="577" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
@@ -16852,7 +16850,7 @@
       <c r="Y577" s="3"/>
       <c r="Z577" s="3"/>
     </row>
-    <row r="578" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
@@ -16880,7 +16878,7 @@
       <c r="Y578" s="3"/>
       <c r="Z578" s="3"/>
     </row>
-    <row r="579" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -16908,7 +16906,7 @@
       <c r="Y579" s="3"/>
       <c r="Z579" s="3"/>
     </row>
-    <row r="580" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
@@ -16936,7 +16934,7 @@
       <c r="Y580" s="3"/>
       <c r="Z580" s="3"/>
     </row>
-    <row r="581" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
@@ -16964,7 +16962,7 @@
       <c r="Y581" s="3"/>
       <c r="Z581" s="3"/>
     </row>
-    <row r="582" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
@@ -16992,7 +16990,7 @@
       <c r="Y582" s="3"/>
       <c r="Z582" s="3"/>
     </row>
-    <row r="583" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
@@ -17020,7 +17018,7 @@
       <c r="Y583" s="3"/>
       <c r="Z583" s="3"/>
     </row>
-    <row r="584" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -17048,7 +17046,7 @@
       <c r="Y584" s="3"/>
       <c r="Z584" s="3"/>
     </row>
-    <row r="585" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -17076,7 +17074,7 @@
       <c r="Y585" s="3"/>
       <c r="Z585" s="3"/>
     </row>
-    <row r="586" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -17104,7 +17102,7 @@
       <c r="Y586" s="3"/>
       <c r="Z586" s="3"/>
     </row>
-    <row r="587" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -17132,7 +17130,7 @@
       <c r="Y587" s="3"/>
       <c r="Z587" s="3"/>
     </row>
-    <row r="588" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -17160,7 +17158,7 @@
       <c r="Y588" s="3"/>
       <c r="Z588" s="3"/>
     </row>
-    <row r="589" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
@@ -17188,7 +17186,7 @@
       <c r="Y589" s="3"/>
       <c r="Z589" s="3"/>
     </row>
-    <row r="590" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
@@ -17216,7 +17214,7 @@
       <c r="Y590" s="3"/>
       <c r="Z590" s="3"/>
     </row>
-    <row r="591" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -17244,7 +17242,7 @@
       <c r="Y591" s="3"/>
       <c r="Z591" s="3"/>
     </row>
-    <row r="592" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
@@ -17272,7 +17270,7 @@
       <c r="Y592" s="3"/>
       <c r="Z592" s="3"/>
     </row>
-    <row r="593" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
@@ -17300,7 +17298,7 @@
       <c r="Y593" s="3"/>
       <c r="Z593" s="3"/>
     </row>
-    <row r="594" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -17328,7 +17326,7 @@
       <c r="Y594" s="3"/>
       <c r="Z594" s="3"/>
     </row>
-    <row r="595" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
@@ -17356,7 +17354,7 @@
       <c r="Y595" s="3"/>
       <c r="Z595" s="3"/>
     </row>
-    <row r="596" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
@@ -17384,7 +17382,7 @@
       <c r="Y596" s="3"/>
       <c r="Z596" s="3"/>
     </row>
-    <row r="597" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -17412,7 +17410,7 @@
       <c r="Y597" s="3"/>
       <c r="Z597" s="3"/>
     </row>
-    <row r="598" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
@@ -17440,7 +17438,7 @@
       <c r="Y598" s="3"/>
       <c r="Z598" s="3"/>
     </row>
-    <row r="599" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
@@ -17468,7 +17466,7 @@
       <c r="Y599" s="3"/>
       <c r="Z599" s="3"/>
     </row>
-    <row r="600" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -17496,7 +17494,7 @@
       <c r="Y600" s="3"/>
       <c r="Z600" s="3"/>
     </row>
-    <row r="601" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
@@ -17524,7 +17522,7 @@
       <c r="Y601" s="3"/>
       <c r="Z601" s="3"/>
     </row>
-    <row r="602" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
@@ -17552,7 +17550,7 @@
       <c r="Y602" s="3"/>
       <c r="Z602" s="3"/>
     </row>
-    <row r="603" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
@@ -17580,7 +17578,7 @@
       <c r="Y603" s="3"/>
       <c r="Z603" s="3"/>
     </row>
-    <row r="604" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
@@ -17608,7 +17606,7 @@
       <c r="Y604" s="3"/>
       <c r="Z604" s="3"/>
     </row>
-    <row r="605" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
@@ -17636,7 +17634,7 @@
       <c r="Y605" s="3"/>
       <c r="Z605" s="3"/>
     </row>
-    <row r="606" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -17664,7 +17662,7 @@
       <c r="Y606" s="3"/>
       <c r="Z606" s="3"/>
     </row>
-    <row r="607" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
@@ -17692,7 +17690,7 @@
       <c r="Y607" s="3"/>
       <c r="Z607" s="3"/>
     </row>
-    <row r="608" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
@@ -17720,7 +17718,7 @@
       <c r="Y608" s="3"/>
       <c r="Z608" s="3"/>
     </row>
-    <row r="609" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
@@ -17748,7 +17746,7 @@
       <c r="Y609" s="3"/>
       <c r="Z609" s="3"/>
     </row>
-    <row r="610" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
@@ -17776,7 +17774,7 @@
       <c r="Y610" s="3"/>
       <c r="Z610" s="3"/>
     </row>
-    <row r="611" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -17804,7 +17802,7 @@
       <c r="Y611" s="3"/>
       <c r="Z611" s="3"/>
     </row>
-    <row r="612" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -17832,7 +17830,7 @@
       <c r="Y612" s="3"/>
       <c r="Z612" s="3"/>
     </row>
-    <row r="613" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -17860,7 +17858,7 @@
       <c r="Y613" s="3"/>
       <c r="Z613" s="3"/>
     </row>
-    <row r="614" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
@@ -17888,7 +17886,7 @@
       <c r="Y614" s="3"/>
       <c r="Z614" s="3"/>
     </row>
-    <row r="615" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
@@ -17916,7 +17914,7 @@
       <c r="Y615" s="3"/>
       <c r="Z615" s="3"/>
     </row>
-    <row r="616" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
@@ -17944,7 +17942,7 @@
       <c r="Y616" s="3"/>
       <c r="Z616" s="3"/>
     </row>
-    <row r="617" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
@@ -17972,7 +17970,7 @@
       <c r="Y617" s="3"/>
       <c r="Z617" s="3"/>
     </row>
-    <row r="618" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
@@ -18000,7 +17998,7 @@
       <c r="Y618" s="3"/>
       <c r="Z618" s="3"/>
     </row>
-    <row r="619" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
@@ -18028,7 +18026,7 @@
       <c r="Y619" s="3"/>
       <c r="Z619" s="3"/>
     </row>
-    <row r="620" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
@@ -18056,7 +18054,7 @@
       <c r="Y620" s="3"/>
       <c r="Z620" s="3"/>
     </row>
-    <row r="621" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
@@ -18084,7 +18082,7 @@
       <c r="Y621" s="3"/>
       <c r="Z621" s="3"/>
     </row>
-    <row r="622" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
@@ -18112,7 +18110,7 @@
       <c r="Y622" s="3"/>
       <c r="Z622" s="3"/>
     </row>
-    <row r="623" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
@@ -18140,7 +18138,7 @@
       <c r="Y623" s="3"/>
       <c r="Z623" s="3"/>
     </row>
-    <row r="624" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
@@ -18168,7 +18166,7 @@
       <c r="Y624" s="3"/>
       <c r="Z624" s="3"/>
     </row>
-    <row r="625" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
@@ -18196,7 +18194,7 @@
       <c r="Y625" s="3"/>
       <c r="Z625" s="3"/>
     </row>
-    <row r="626" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
@@ -18224,7 +18222,7 @@
       <c r="Y626" s="3"/>
       <c r="Z626" s="3"/>
     </row>
-    <row r="627" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
@@ -18252,7 +18250,7 @@
       <c r="Y627" s="3"/>
       <c r="Z627" s="3"/>
     </row>
-    <row r="628" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
@@ -18280,7 +18278,7 @@
       <c r="Y628" s="3"/>
       <c r="Z628" s="3"/>
     </row>
-    <row r="629" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
@@ -18308,7 +18306,7 @@
       <c r="Y629" s="3"/>
       <c r="Z629" s="3"/>
     </row>
-    <row r="630" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
@@ -18336,7 +18334,7 @@
       <c r="Y630" s="3"/>
       <c r="Z630" s="3"/>
     </row>
-    <row r="631" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
@@ -18364,7 +18362,7 @@
       <c r="Y631" s="3"/>
       <c r="Z631" s="3"/>
     </row>
-    <row r="632" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
@@ -18392,7 +18390,7 @@
       <c r="Y632" s="3"/>
       <c r="Z632" s="3"/>
     </row>
-    <row r="633" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
@@ -18420,7 +18418,7 @@
       <c r="Y633" s="3"/>
       <c r="Z633" s="3"/>
     </row>
-    <row r="634" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
@@ -18448,7 +18446,7 @@
       <c r="Y634" s="3"/>
       <c r="Z634" s="3"/>
     </row>
-    <row r="635" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
@@ -18476,7 +18474,7 @@
       <c r="Y635" s="3"/>
       <c r="Z635" s="3"/>
     </row>
-    <row r="636" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
@@ -18504,7 +18502,7 @@
       <c r="Y636" s="3"/>
       <c r="Z636" s="3"/>
     </row>
-    <row r="637" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
@@ -18532,7 +18530,7 @@
       <c r="Y637" s="3"/>
       <c r="Z637" s="3"/>
     </row>
-    <row r="638" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
@@ -18560,7 +18558,7 @@
       <c r="Y638" s="3"/>
       <c r="Z638" s="3"/>
     </row>
-    <row r="639" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -18588,7 +18586,7 @@
       <c r="Y639" s="3"/>
       <c r="Z639" s="3"/>
     </row>
-    <row r="640" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
@@ -18616,7 +18614,7 @@
       <c r="Y640" s="3"/>
       <c r="Z640" s="3"/>
     </row>
-    <row r="641" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -18644,7 +18642,7 @@
       <c r="Y641" s="3"/>
       <c r="Z641" s="3"/>
     </row>
-    <row r="642" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
@@ -18672,7 +18670,7 @@
       <c r="Y642" s="3"/>
       <c r="Z642" s="3"/>
     </row>
-    <row r="643" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
@@ -18700,7 +18698,7 @@
       <c r="Y643" s="3"/>
       <c r="Z643" s="3"/>
     </row>
-    <row r="644" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -18728,7 +18726,7 @@
       <c r="Y644" s="3"/>
       <c r="Z644" s="3"/>
     </row>
-    <row r="645" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
@@ -18756,7 +18754,7 @@
       <c r="Y645" s="3"/>
       <c r="Z645" s="3"/>
     </row>
-    <row r="646" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
@@ -18784,7 +18782,7 @@
       <c r="Y646" s="3"/>
       <c r="Z646" s="3"/>
     </row>
-    <row r="647" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
@@ -18812,7 +18810,7 @@
       <c r="Y647" s="3"/>
       <c r="Z647" s="3"/>
     </row>
-    <row r="648" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
@@ -18840,7 +18838,7 @@
       <c r="Y648" s="3"/>
       <c r="Z648" s="3"/>
     </row>
-    <row r="649" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
@@ -18868,7 +18866,7 @@
       <c r="Y649" s="3"/>
       <c r="Z649" s="3"/>
     </row>
-    <row r="650" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
@@ -18896,7 +18894,7 @@
       <c r="Y650" s="3"/>
       <c r="Z650" s="3"/>
     </row>
-    <row r="651" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
@@ -18924,7 +18922,7 @@
       <c r="Y651" s="3"/>
       <c r="Z651" s="3"/>
     </row>
-    <row r="652" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
@@ -18952,7 +18950,7 @@
       <c r="Y652" s="3"/>
       <c r="Z652" s="3"/>
     </row>
-    <row r="653" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
@@ -18980,7 +18978,7 @@
       <c r="Y653" s="3"/>
       <c r="Z653" s="3"/>
     </row>
-    <row r="654" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
@@ -19008,7 +19006,7 @@
       <c r="Y654" s="3"/>
       <c r="Z654" s="3"/>
     </row>
-    <row r="655" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
@@ -19036,7 +19034,7 @@
       <c r="Y655" s="3"/>
       <c r="Z655" s="3"/>
     </row>
-    <row r="656" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
@@ -19064,7 +19062,7 @@
       <c r="Y656" s="3"/>
       <c r="Z656" s="3"/>
     </row>
-    <row r="657" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
@@ -19092,7 +19090,7 @@
       <c r="Y657" s="3"/>
       <c r="Z657" s="3"/>
     </row>
-    <row r="658" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
@@ -19120,7 +19118,7 @@
       <c r="Y658" s="3"/>
       <c r="Z658" s="3"/>
     </row>
-    <row r="659" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
@@ -19148,7 +19146,7 @@
       <c r="Y659" s="3"/>
       <c r="Z659" s="3"/>
     </row>
-    <row r="660" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
@@ -19176,7 +19174,7 @@
       <c r="Y660" s="3"/>
       <c r="Z660" s="3"/>
     </row>
-    <row r="661" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
@@ -19204,7 +19202,7 @@
       <c r="Y661" s="3"/>
       <c r="Z661" s="3"/>
     </row>
-    <row r="662" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
@@ -19232,7 +19230,7 @@
       <c r="Y662" s="3"/>
       <c r="Z662" s="3"/>
     </row>
-    <row r="663" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
@@ -19260,7 +19258,7 @@
       <c r="Y663" s="3"/>
       <c r="Z663" s="3"/>
     </row>
-    <row r="664" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
@@ -19288,7 +19286,7 @@
       <c r="Y664" s="3"/>
       <c r="Z664" s="3"/>
     </row>
-    <row r="665" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
@@ -19316,7 +19314,7 @@
       <c r="Y665" s="3"/>
       <c r="Z665" s="3"/>
     </row>
-    <row r="666" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
@@ -19344,7 +19342,7 @@
       <c r="Y666" s="3"/>
       <c r="Z666" s="3"/>
     </row>
-    <row r="667" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
@@ -19372,7 +19370,7 @@
       <c r="Y667" s="3"/>
       <c r="Z667" s="3"/>
     </row>
-    <row r="668" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
@@ -19400,7 +19398,7 @@
       <c r="Y668" s="3"/>
       <c r="Z668" s="3"/>
     </row>
-    <row r="669" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
@@ -19428,7 +19426,7 @@
       <c r="Y669" s="3"/>
       <c r="Z669" s="3"/>
     </row>
-    <row r="670" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
@@ -19456,7 +19454,7 @@
       <c r="Y670" s="3"/>
       <c r="Z670" s="3"/>
     </row>
-    <row r="671" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
@@ -19484,7 +19482,7 @@
       <c r="Y671" s="3"/>
       <c r="Z671" s="3"/>
     </row>
-    <row r="672" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
@@ -19512,7 +19510,7 @@
       <c r="Y672" s="3"/>
       <c r="Z672" s="3"/>
     </row>
-    <row r="673" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
@@ -19540,7 +19538,7 @@
       <c r="Y673" s="3"/>
       <c r="Z673" s="3"/>
     </row>
-    <row r="674" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
@@ -19568,7 +19566,7 @@
       <c r="Y674" s="3"/>
       <c r="Z674" s="3"/>
     </row>
-    <row r="675" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
@@ -19596,7 +19594,7 @@
       <c r="Y675" s="3"/>
       <c r="Z675" s="3"/>
     </row>
-    <row r="676" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
@@ -19624,7 +19622,7 @@
       <c r="Y676" s="3"/>
       <c r="Z676" s="3"/>
     </row>
-    <row r="677" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
@@ -19652,7 +19650,7 @@
       <c r="Y677" s="3"/>
       <c r="Z677" s="3"/>
     </row>
-    <row r="678" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -19680,7 +19678,7 @@
       <c r="Y678" s="3"/>
       <c r="Z678" s="3"/>
     </row>
-    <row r="679" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
@@ -19708,7 +19706,7 @@
       <c r="Y679" s="3"/>
       <c r="Z679" s="3"/>
     </row>
-    <row r="680" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
@@ -19736,7 +19734,7 @@
       <c r="Y680" s="3"/>
       <c r="Z680" s="3"/>
     </row>
-    <row r="681" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -19764,7 +19762,7 @@
       <c r="Y681" s="3"/>
       <c r="Z681" s="3"/>
     </row>
-    <row r="682" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
@@ -19792,7 +19790,7 @@
       <c r="Y682" s="3"/>
       <c r="Z682" s="3"/>
     </row>
-    <row r="683" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -19820,7 +19818,7 @@
       <c r="Y683" s="3"/>
       <c r="Z683" s="3"/>
     </row>
-    <row r="684" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
@@ -19848,7 +19846,7 @@
       <c r="Y684" s="3"/>
       <c r="Z684" s="3"/>
     </row>
-    <row r="685" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
@@ -19876,7 +19874,7 @@
       <c r="Y685" s="3"/>
       <c r="Z685" s="3"/>
     </row>
-    <row r="686" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -19904,7 +19902,7 @@
       <c r="Y686" s="3"/>
       <c r="Z686" s="3"/>
     </row>
-    <row r="687" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
@@ -19932,7 +19930,7 @@
       <c r="Y687" s="3"/>
       <c r="Z687" s="3"/>
     </row>
-    <row r="688" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
@@ -19960,7 +19958,7 @@
       <c r="Y688" s="3"/>
       <c r="Z688" s="3"/>
     </row>
-    <row r="689" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
@@ -19988,7 +19986,7 @@
       <c r="Y689" s="3"/>
       <c r="Z689" s="3"/>
     </row>
-    <row r="690" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
@@ -20016,7 +20014,7 @@
       <c r="Y690" s="3"/>
       <c r="Z690" s="3"/>
     </row>
-    <row r="691" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
@@ -20044,7 +20042,7 @@
       <c r="Y691" s="3"/>
       <c r="Z691" s="3"/>
     </row>
-    <row r="692" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
@@ -20072,7 +20070,7 @@
       <c r="Y692" s="3"/>
       <c r="Z692" s="3"/>
     </row>
-    <row r="693" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
@@ -20100,7 +20098,7 @@
       <c r="Y693" s="3"/>
       <c r="Z693" s="3"/>
     </row>
-    <row r="694" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
@@ -20128,7 +20126,7 @@
       <c r="Y694" s="3"/>
       <c r="Z694" s="3"/>
     </row>
-    <row r="695" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
@@ -20156,7 +20154,7 @@
       <c r="Y695" s="3"/>
       <c r="Z695" s="3"/>
     </row>
-    <row r="696" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
@@ -20184,7 +20182,7 @@
       <c r="Y696" s="3"/>
       <c r="Z696" s="3"/>
     </row>
-    <row r="697" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
@@ -20212,7 +20210,7 @@
       <c r="Y697" s="3"/>
       <c r="Z697" s="3"/>
     </row>
-    <row r="698" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
@@ -20240,7 +20238,7 @@
       <c r="Y698" s="3"/>
       <c r="Z698" s="3"/>
     </row>
-    <row r="699" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
@@ -20268,7 +20266,7 @@
       <c r="Y699" s="3"/>
       <c r="Z699" s="3"/>
     </row>
-    <row r="700" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
@@ -20296,7 +20294,7 @@
       <c r="Y700" s="3"/>
       <c r="Z700" s="3"/>
     </row>
-    <row r="701" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
@@ -20324,7 +20322,7 @@
       <c r="Y701" s="3"/>
       <c r="Z701" s="3"/>
     </row>
-    <row r="702" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
@@ -20352,7 +20350,7 @@
       <c r="Y702" s="3"/>
       <c r="Z702" s="3"/>
     </row>
-    <row r="703" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
@@ -20380,7 +20378,7 @@
       <c r="Y703" s="3"/>
       <c r="Z703" s="3"/>
     </row>
-    <row r="704" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
@@ -20408,7 +20406,7 @@
       <c r="Y704" s="3"/>
       <c r="Z704" s="3"/>
     </row>
-    <row r="705" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
@@ -20436,7 +20434,7 @@
       <c r="Y705" s="3"/>
       <c r="Z705" s="3"/>
     </row>
-    <row r="706" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
@@ -20464,7 +20462,7 @@
       <c r="Y706" s="3"/>
       <c r="Z706" s="3"/>
     </row>
-    <row r="707" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
@@ -20492,7 +20490,7 @@
       <c r="Y707" s="3"/>
       <c r="Z707" s="3"/>
     </row>
-    <row r="708" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
@@ -20520,7 +20518,7 @@
       <c r="Y708" s="3"/>
       <c r="Z708" s="3"/>
     </row>
-    <row r="709" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
@@ -20548,7 +20546,7 @@
       <c r="Y709" s="3"/>
       <c r="Z709" s="3"/>
     </row>
-    <row r="710" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
@@ -20576,7 +20574,7 @@
       <c r="Y710" s="3"/>
       <c r="Z710" s="3"/>
     </row>
-    <row r="711" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
@@ -20604,7 +20602,7 @@
       <c r="Y711" s="3"/>
       <c r="Z711" s="3"/>
     </row>
-    <row r="712" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
@@ -20632,7 +20630,7 @@
       <c r="Y712" s="3"/>
       <c r="Z712" s="3"/>
     </row>
-    <row r="713" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
@@ -20660,7 +20658,7 @@
       <c r="Y713" s="3"/>
       <c r="Z713" s="3"/>
     </row>
-    <row r="714" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
@@ -20688,7 +20686,7 @@
       <c r="Y714" s="3"/>
       <c r="Z714" s="3"/>
     </row>
-    <row r="715" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
@@ -20716,7 +20714,7 @@
       <c r="Y715" s="3"/>
       <c r="Z715" s="3"/>
     </row>
-    <row r="716" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
@@ -20744,7 +20742,7 @@
       <c r="Y716" s="3"/>
       <c r="Z716" s="3"/>
     </row>
-    <row r="717" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
@@ -20772,7 +20770,7 @@
       <c r="Y717" s="3"/>
       <c r="Z717" s="3"/>
     </row>
-    <row r="718" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
@@ -20800,7 +20798,7 @@
       <c r="Y718" s="3"/>
       <c r="Z718" s="3"/>
     </row>
-    <row r="719" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
@@ -20828,7 +20826,7 @@
       <c r="Y719" s="3"/>
       <c r="Z719" s="3"/>
     </row>
-    <row r="720" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
@@ -20856,7 +20854,7 @@
       <c r="Y720" s="3"/>
       <c r="Z720" s="3"/>
     </row>
-    <row r="721" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
@@ -20884,7 +20882,7 @@
       <c r="Y721" s="3"/>
       <c r="Z721" s="3"/>
     </row>
-    <row r="722" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
@@ -20912,7 +20910,7 @@
       <c r="Y722" s="3"/>
       <c r="Z722" s="3"/>
     </row>
-    <row r="723" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
@@ -20940,7 +20938,7 @@
       <c r="Y723" s="3"/>
       <c r="Z723" s="3"/>
     </row>
-    <row r="724" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
@@ -20968,7 +20966,7 @@
       <c r="Y724" s="3"/>
       <c r="Z724" s="3"/>
     </row>
-    <row r="725" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
@@ -20996,7 +20994,7 @@
       <c r="Y725" s="3"/>
       <c r="Z725" s="3"/>
     </row>
-    <row r="726" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
@@ -21024,7 +21022,7 @@
       <c r="Y726" s="3"/>
       <c r="Z726" s="3"/>
     </row>
-    <row r="727" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
@@ -21052,7 +21050,7 @@
       <c r="Y727" s="3"/>
       <c r="Z727" s="3"/>
     </row>
-    <row r="728" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
@@ -21080,7 +21078,7 @@
       <c r="Y728" s="3"/>
       <c r="Z728" s="3"/>
     </row>
-    <row r="729" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
@@ -21108,7 +21106,7 @@
       <c r="Y729" s="3"/>
       <c r="Z729" s="3"/>
     </row>
-    <row r="730" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
@@ -21136,7 +21134,7 @@
       <c r="Y730" s="3"/>
       <c r="Z730" s="3"/>
     </row>
-    <row r="731" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
@@ -21164,7 +21162,7 @@
       <c r="Y731" s="3"/>
       <c r="Z731" s="3"/>
     </row>
-    <row r="732" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
@@ -21192,7 +21190,7 @@
       <c r="Y732" s="3"/>
       <c r="Z732" s="3"/>
     </row>
-    <row r="733" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
@@ -21220,7 +21218,7 @@
       <c r="Y733" s="3"/>
       <c r="Z733" s="3"/>
     </row>
-    <row r="734" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
@@ -21248,7 +21246,7 @@
       <c r="Y734" s="3"/>
       <c r="Z734" s="3"/>
     </row>
-    <row r="735" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
@@ -21276,7 +21274,7 @@
       <c r="Y735" s="3"/>
       <c r="Z735" s="3"/>
     </row>
-    <row r="736" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
@@ -21304,7 +21302,7 @@
       <c r="Y736" s="3"/>
       <c r="Z736" s="3"/>
     </row>
-    <row r="737" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
@@ -21332,7 +21330,7 @@
       <c r="Y737" s="3"/>
       <c r="Z737" s="3"/>
     </row>
-    <row r="738" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
@@ -21360,7 +21358,7 @@
       <c r="Y738" s="3"/>
       <c r="Z738" s="3"/>
     </row>
-    <row r="739" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
@@ -21388,7 +21386,7 @@
       <c r="Y739" s="3"/>
       <c r="Z739" s="3"/>
     </row>
-    <row r="740" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
@@ -21416,7 +21414,7 @@
       <c r="Y740" s="3"/>
       <c r="Z740" s="3"/>
     </row>
-    <row r="741" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
@@ -21444,7 +21442,7 @@
       <c r="Y741" s="3"/>
       <c r="Z741" s="3"/>
     </row>
-    <row r="742" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
@@ -21472,7 +21470,7 @@
       <c r="Y742" s="3"/>
       <c r="Z742" s="3"/>
     </row>
-    <row r="743" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
@@ -21500,7 +21498,7 @@
       <c r="Y743" s="3"/>
       <c r="Z743" s="3"/>
     </row>
-    <row r="744" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
@@ -21528,7 +21526,7 @@
       <c r="Y744" s="3"/>
       <c r="Z744" s="3"/>
     </row>
-    <row r="745" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
@@ -21556,7 +21554,7 @@
       <c r="Y745" s="3"/>
       <c r="Z745" s="3"/>
     </row>
-    <row r="746" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
@@ -21584,7 +21582,7 @@
       <c r="Y746" s="3"/>
       <c r="Z746" s="3"/>
     </row>
-    <row r="747" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
@@ -21612,7 +21610,7 @@
       <c r="Y747" s="3"/>
       <c r="Z747" s="3"/>
     </row>
-    <row r="748" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
@@ -21640,7 +21638,7 @@
       <c r="Y748" s="3"/>
       <c r="Z748" s="3"/>
     </row>
-    <row r="749" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
@@ -21668,7 +21666,7 @@
       <c r="Y749" s="3"/>
       <c r="Z749" s="3"/>
     </row>
-    <row r="750" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
@@ -21696,7 +21694,7 @@
       <c r="Y750" s="3"/>
       <c r="Z750" s="3"/>
     </row>
-    <row r="751" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
@@ -21724,7 +21722,7 @@
       <c r="Y751" s="3"/>
       <c r="Z751" s="3"/>
     </row>
-    <row r="752" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
@@ -21752,7 +21750,7 @@
       <c r="Y752" s="3"/>
       <c r="Z752" s="3"/>
     </row>
-    <row r="753" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
@@ -21780,7 +21778,7 @@
       <c r="Y753" s="3"/>
       <c r="Z753" s="3"/>
     </row>
-    <row r="754" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
@@ -21808,7 +21806,7 @@
       <c r="Y754" s="3"/>
       <c r="Z754" s="3"/>
     </row>
-    <row r="755" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
@@ -21836,7 +21834,7 @@
       <c r="Y755" s="3"/>
       <c r="Z755" s="3"/>
     </row>
-    <row r="756" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
@@ -21864,7 +21862,7 @@
       <c r="Y756" s="3"/>
       <c r="Z756" s="3"/>
     </row>
-    <row r="757" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
@@ -21892,7 +21890,7 @@
       <c r="Y757" s="3"/>
       <c r="Z757" s="3"/>
     </row>
-    <row r="758" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
@@ -21920,7 +21918,7 @@
       <c r="Y758" s="3"/>
       <c r="Z758" s="3"/>
     </row>
-    <row r="759" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
@@ -21948,7 +21946,7 @@
       <c r="Y759" s="3"/>
       <c r="Z759" s="3"/>
     </row>
-    <row r="760" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
@@ -21976,7 +21974,7 @@
       <c r="Y760" s="3"/>
       <c r="Z760" s="3"/>
     </row>
-    <row r="761" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
@@ -22004,7 +22002,7 @@
       <c r="Y761" s="3"/>
       <c r="Z761" s="3"/>
     </row>
-    <row r="762" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
@@ -22032,7 +22030,7 @@
       <c r="Y762" s="3"/>
       <c r="Z762" s="3"/>
     </row>
-    <row r="763" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
@@ -22060,7 +22058,7 @@
       <c r="Y763" s="3"/>
       <c r="Z763" s="3"/>
     </row>
-    <row r="764" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
@@ -22088,7 +22086,7 @@
       <c r="Y764" s="3"/>
       <c r="Z764" s="3"/>
     </row>
-    <row r="765" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
@@ -22116,7 +22114,7 @@
       <c r="Y765" s="3"/>
       <c r="Z765" s="3"/>
     </row>
-    <row r="766" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
@@ -22144,7 +22142,7 @@
       <c r="Y766" s="3"/>
       <c r="Z766" s="3"/>
     </row>
-    <row r="767" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
@@ -22172,7 +22170,7 @@
       <c r="Y767" s="3"/>
       <c r="Z767" s="3"/>
     </row>
-    <row r="768" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
@@ -22200,7 +22198,7 @@
       <c r="Y768" s="3"/>
       <c r="Z768" s="3"/>
     </row>
-    <row r="769" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
@@ -22228,7 +22226,7 @@
       <c r="Y769" s="3"/>
       <c r="Z769" s="3"/>
     </row>
-    <row r="770" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
@@ -22256,7 +22254,7 @@
       <c r="Y770" s="3"/>
       <c r="Z770" s="3"/>
     </row>
-    <row r="771" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
@@ -22284,7 +22282,7 @@
       <c r="Y771" s="3"/>
       <c r="Z771" s="3"/>
     </row>
-    <row r="772" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
@@ -22312,7 +22310,7 @@
       <c r="Y772" s="3"/>
       <c r="Z772" s="3"/>
     </row>
-    <row r="773" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
@@ -22340,7 +22338,7 @@
       <c r="Y773" s="3"/>
       <c r="Z773" s="3"/>
     </row>
-    <row r="774" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
@@ -22368,7 +22366,7 @@
       <c r="Y774" s="3"/>
       <c r="Z774" s="3"/>
     </row>
-    <row r="775" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
@@ -22396,7 +22394,7 @@
       <c r="Y775" s="3"/>
       <c r="Z775" s="3"/>
     </row>
-    <row r="776" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
@@ -22424,7 +22422,7 @@
       <c r="Y776" s="3"/>
       <c r="Z776" s="3"/>
     </row>
-    <row r="777" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
@@ -22452,7 +22450,7 @@
       <c r="Y777" s="3"/>
       <c r="Z777" s="3"/>
     </row>
-    <row r="778" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
@@ -22480,7 +22478,7 @@
       <c r="Y778" s="3"/>
       <c r="Z778" s="3"/>
     </row>
-    <row r="779" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
@@ -22508,7 +22506,7 @@
       <c r="Y779" s="3"/>
       <c r="Z779" s="3"/>
     </row>
-    <row r="780" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
@@ -22536,7 +22534,7 @@
       <c r="Y780" s="3"/>
       <c r="Z780" s="3"/>
     </row>
-    <row r="781" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
@@ -22564,7 +22562,7 @@
       <c r="Y781" s="3"/>
       <c r="Z781" s="3"/>
     </row>
-    <row r="782" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
@@ -22592,7 +22590,7 @@
       <c r="Y782" s="3"/>
       <c r="Z782" s="3"/>
     </row>
-    <row r="783" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
@@ -22620,7 +22618,7 @@
       <c r="Y783" s="3"/>
       <c r="Z783" s="3"/>
     </row>
-    <row r="784" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
@@ -22648,7 +22646,7 @@
       <c r="Y784" s="3"/>
       <c r="Z784" s="3"/>
     </row>
-    <row r="785" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
@@ -22676,7 +22674,7 @@
       <c r="Y785" s="3"/>
       <c r="Z785" s="3"/>
     </row>
-    <row r="786" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
@@ -22704,7 +22702,7 @@
       <c r="Y786" s="3"/>
       <c r="Z786" s="3"/>
     </row>
-    <row r="787" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
@@ -22732,7 +22730,7 @@
       <c r="Y787" s="3"/>
       <c r="Z787" s="3"/>
     </row>
-    <row r="788" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
@@ -22760,7 +22758,7 @@
       <c r="Y788" s="3"/>
       <c r="Z788" s="3"/>
     </row>
-    <row r="789" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
@@ -22788,7 +22786,7 @@
       <c r="Y789" s="3"/>
       <c r="Z789" s="3"/>
     </row>
-    <row r="790" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
@@ -22816,7 +22814,7 @@
       <c r="Y790" s="3"/>
       <c r="Z790" s="3"/>
     </row>
-    <row r="791" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
@@ -22844,7 +22842,7 @@
       <c r="Y791" s="3"/>
       <c r="Z791" s="3"/>
     </row>
-    <row r="792" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
@@ -22872,7 +22870,7 @@
       <c r="Y792" s="3"/>
       <c r="Z792" s="3"/>
     </row>
-    <row r="793" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
@@ -22900,7 +22898,7 @@
       <c r="Y793" s="3"/>
       <c r="Z793" s="3"/>
     </row>
-    <row r="794" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
@@ -22928,7 +22926,7 @@
       <c r="Y794" s="3"/>
       <c r="Z794" s="3"/>
     </row>
-    <row r="795" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
@@ -22956,7 +22954,7 @@
       <c r="Y795" s="3"/>
       <c r="Z795" s="3"/>
     </row>
-    <row r="796" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
@@ -22984,7 +22982,7 @@
       <c r="Y796" s="3"/>
       <c r="Z796" s="3"/>
     </row>
-    <row r="797" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
@@ -23012,7 +23010,7 @@
       <c r="Y797" s="3"/>
       <c r="Z797" s="3"/>
     </row>
-    <row r="798" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
@@ -23040,7 +23038,7 @@
       <c r="Y798" s="3"/>
       <c r="Z798" s="3"/>
     </row>
-    <row r="799" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
@@ -23068,7 +23066,7 @@
       <c r="Y799" s="3"/>
       <c r="Z799" s="3"/>
     </row>
-    <row r="800" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
@@ -23096,7 +23094,7 @@
       <c r="Y800" s="3"/>
       <c r="Z800" s="3"/>
     </row>
-    <row r="801" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
@@ -23124,7 +23122,7 @@
       <c r="Y801" s="3"/>
       <c r="Z801" s="3"/>
     </row>
-    <row r="802" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
@@ -23152,7 +23150,7 @@
       <c r="Y802" s="3"/>
       <c r="Z802" s="3"/>
     </row>
-    <row r="803" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
@@ -23180,7 +23178,7 @@
       <c r="Y803" s="3"/>
       <c r="Z803" s="3"/>
     </row>
-    <row r="804" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
@@ -23208,7 +23206,7 @@
       <c r="Y804" s="3"/>
       <c r="Z804" s="3"/>
     </row>
-    <row r="805" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
@@ -23236,7 +23234,7 @@
       <c r="Y805" s="3"/>
       <c r="Z805" s="3"/>
     </row>
-    <row r="806" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
@@ -23264,7 +23262,7 @@
       <c r="Y806" s="3"/>
       <c r="Z806" s="3"/>
     </row>
-    <row r="807" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
@@ -23292,7 +23290,7 @@
       <c r="Y807" s="3"/>
       <c r="Z807" s="3"/>
     </row>
-    <row r="808" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
@@ -23320,7 +23318,7 @@
       <c r="Y808" s="3"/>
       <c r="Z808" s="3"/>
     </row>
-    <row r="809" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
@@ -23348,7 +23346,7 @@
       <c r="Y809" s="3"/>
       <c r="Z809" s="3"/>
     </row>
-    <row r="810" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
@@ -23376,7 +23374,7 @@
       <c r="Y810" s="3"/>
       <c r="Z810" s="3"/>
     </row>
-    <row r="811" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
@@ -23404,7 +23402,7 @@
       <c r="Y811" s="3"/>
       <c r="Z811" s="3"/>
     </row>
-    <row r="812" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
@@ -23432,7 +23430,7 @@
       <c r="Y812" s="3"/>
       <c r="Z812" s="3"/>
     </row>
-    <row r="813" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
@@ -23460,7 +23458,7 @@
       <c r="Y813" s="3"/>
       <c r="Z813" s="3"/>
     </row>
-    <row r="814" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
@@ -23488,7 +23486,7 @@
       <c r="Y814" s="3"/>
       <c r="Z814" s="3"/>
     </row>
-    <row r="815" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
@@ -23516,7 +23514,7 @@
       <c r="Y815" s="3"/>
       <c r="Z815" s="3"/>
     </row>
-    <row r="816" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
@@ -23544,7 +23542,7 @@
       <c r="Y816" s="3"/>
       <c r="Z816" s="3"/>
     </row>
-    <row r="817" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
@@ -23572,7 +23570,7 @@
       <c r="Y817" s="3"/>
       <c r="Z817" s="3"/>
     </row>
-    <row r="818" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
@@ -23600,7 +23598,7 @@
       <c r="Y818" s="3"/>
       <c r="Z818" s="3"/>
     </row>
-    <row r="819" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
@@ -23628,7 +23626,7 @@
       <c r="Y819" s="3"/>
       <c r="Z819" s="3"/>
     </row>
-    <row r="820" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
@@ -23656,7 +23654,7 @@
       <c r="Y820" s="3"/>
       <c r="Z820" s="3"/>
     </row>
-    <row r="821" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
@@ -23684,7 +23682,7 @@
       <c r="Y821" s="3"/>
       <c r="Z821" s="3"/>
     </row>
-    <row r="822" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
@@ -23712,7 +23710,7 @@
       <c r="Y822" s="3"/>
       <c r="Z822" s="3"/>
     </row>
-    <row r="823" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
@@ -23740,7 +23738,7 @@
       <c r="Y823" s="3"/>
       <c r="Z823" s="3"/>
     </row>
-    <row r="824" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
@@ -23768,7 +23766,7 @@
       <c r="Y824" s="3"/>
       <c r="Z824" s="3"/>
     </row>
-    <row r="825" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
@@ -23796,7 +23794,7 @@
       <c r="Y825" s="3"/>
       <c r="Z825" s="3"/>
     </row>
-    <row r="826" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
@@ -23824,7 +23822,7 @@
       <c r="Y826" s="3"/>
       <c r="Z826" s="3"/>
     </row>
-    <row r="827" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
@@ -23852,7 +23850,7 @@
       <c r="Y827" s="3"/>
       <c r="Z827" s="3"/>
     </row>
-    <row r="828" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
@@ -23880,7 +23878,7 @@
       <c r="Y828" s="3"/>
       <c r="Z828" s="3"/>
     </row>
-    <row r="829" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
@@ -23908,7 +23906,7 @@
       <c r="Y829" s="3"/>
       <c r="Z829" s="3"/>
     </row>
-    <row r="830" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
@@ -23936,7 +23934,7 @@
       <c r="Y830" s="3"/>
       <c r="Z830" s="3"/>
     </row>
-    <row r="831" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
@@ -23964,7 +23962,7 @@
       <c r="Y831" s="3"/>
       <c r="Z831" s="3"/>
     </row>
-    <row r="832" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
@@ -23992,7 +23990,7 @@
       <c r="Y832" s="3"/>
       <c r="Z832" s="3"/>
     </row>
-    <row r="833" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
@@ -24020,7 +24018,7 @@
       <c r="Y833" s="3"/>
       <c r="Z833" s="3"/>
     </row>
-    <row r="834" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
@@ -24048,7 +24046,7 @@
       <c r="Y834" s="3"/>
       <c r="Z834" s="3"/>
     </row>
-    <row r="835" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
@@ -24076,7 +24074,7 @@
       <c r="Y835" s="3"/>
       <c r="Z835" s="3"/>
     </row>
-    <row r="836" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
@@ -24104,7 +24102,7 @@
       <c r="Y836" s="3"/>
       <c r="Z836" s="3"/>
     </row>
-    <row r="837" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
@@ -24132,7 +24130,7 @@
       <c r="Y837" s="3"/>
       <c r="Z837" s="3"/>
     </row>
-    <row r="838" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
@@ -24160,7 +24158,7 @@
       <c r="Y838" s="3"/>
       <c r="Z838" s="3"/>
     </row>
-    <row r="839" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
@@ -24188,7 +24186,7 @@
       <c r="Y839" s="3"/>
       <c r="Z839" s="3"/>
     </row>
-    <row r="840" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
@@ -24216,7 +24214,7 @@
       <c r="Y840" s="3"/>
       <c r="Z840" s="3"/>
     </row>
-    <row r="841" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
@@ -24244,7 +24242,7 @@
       <c r="Y841" s="3"/>
       <c r="Z841" s="3"/>
     </row>
-    <row r="842" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
@@ -24272,7 +24270,7 @@
       <c r="Y842" s="3"/>
       <c r="Z842" s="3"/>
     </row>
-    <row r="843" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
@@ -24300,7 +24298,7 @@
       <c r="Y843" s="3"/>
       <c r="Z843" s="3"/>
     </row>
-    <row r="844" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
@@ -24328,7 +24326,7 @@
       <c r="Y844" s="3"/>
       <c r="Z844" s="3"/>
     </row>
-    <row r="845" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
@@ -24356,7 +24354,7 @@
       <c r="Y845" s="3"/>
       <c r="Z845" s="3"/>
     </row>
-    <row r="846" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
@@ -24384,7 +24382,7 @@
       <c r="Y846" s="3"/>
       <c r="Z846" s="3"/>
     </row>
-    <row r="847" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
@@ -24412,7 +24410,7 @@
       <c r="Y847" s="3"/>
       <c r="Z847" s="3"/>
     </row>
-    <row r="848" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
@@ -24440,7 +24438,7 @@
       <c r="Y848" s="3"/>
       <c r="Z848" s="3"/>
     </row>
-    <row r="849" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
@@ -24468,7 +24466,7 @@
       <c r="Y849" s="3"/>
       <c r="Z849" s="3"/>
     </row>
-    <row r="850" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
@@ -24496,7 +24494,7 @@
       <c r="Y850" s="3"/>
       <c r="Z850" s="3"/>
     </row>
-    <row r="851" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
@@ -24524,7 +24522,7 @@
       <c r="Y851" s="3"/>
       <c r="Z851" s="3"/>
     </row>
-    <row r="852" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
@@ -24552,7 +24550,7 @@
       <c r="Y852" s="3"/>
       <c r="Z852" s="3"/>
     </row>
-    <row r="853" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
@@ -24580,7 +24578,7 @@
       <c r="Y853" s="3"/>
       <c r="Z853" s="3"/>
     </row>
-    <row r="854" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
@@ -24608,7 +24606,7 @@
       <c r="Y854" s="3"/>
       <c r="Z854" s="3"/>
     </row>
-    <row r="855" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
@@ -24636,7 +24634,7 @@
       <c r="Y855" s="3"/>
       <c r="Z855" s="3"/>
     </row>
-    <row r="856" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
@@ -24664,7 +24662,7 @@
       <c r="Y856" s="3"/>
       <c r="Z856" s="3"/>
     </row>
-    <row r="857" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
@@ -24692,7 +24690,7 @@
       <c r="Y857" s="3"/>
       <c r="Z857" s="3"/>
     </row>
-    <row r="858" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
@@ -24720,7 +24718,7 @@
       <c r="Y858" s="3"/>
       <c r="Z858" s="3"/>
     </row>
-    <row r="859" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="C859" s="3"/>
@@ -24748,7 +24746,7 @@
       <c r="Y859" s="3"/>
       <c r="Z859" s="3"/>
     </row>
-    <row r="860" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
@@ -24776,7 +24774,7 @@
       <c r="Y860" s="3"/>
       <c r="Z860" s="3"/>
     </row>
-    <row r="861" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
@@ -24804,7 +24802,7 @@
       <c r="Y861" s="3"/>
       <c r="Z861" s="3"/>
     </row>
-    <row r="862" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
@@ -24832,7 +24830,7 @@
       <c r="Y862" s="3"/>
       <c r="Z862" s="3"/>
     </row>
-    <row r="863" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
@@ -24860,7 +24858,7 @@
       <c r="Y863" s="3"/>
       <c r="Z863" s="3"/>
     </row>
-    <row r="864" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
@@ -24888,7 +24886,7 @@
       <c r="Y864" s="3"/>
       <c r="Z864" s="3"/>
     </row>
-    <row r="865" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
@@ -24916,7 +24914,7 @@
       <c r="Y865" s="3"/>
       <c r="Z865" s="3"/>
     </row>
-    <row r="866" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="C866" s="3"/>
@@ -24944,7 +24942,7 @@
       <c r="Y866" s="3"/>
       <c r="Z866" s="3"/>
     </row>
-    <row r="867" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="C867" s="3"/>
@@ -24972,7 +24970,7 @@
       <c r="Y867" s="3"/>
       <c r="Z867" s="3"/>
     </row>
-    <row r="868" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
@@ -25000,7 +24998,7 @@
       <c r="Y868" s="3"/>
       <c r="Z868" s="3"/>
     </row>
-    <row r="869" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
@@ -25028,7 +25026,7 @@
       <c r="Y869" s="3"/>
       <c r="Z869" s="3"/>
     </row>
-    <row r="870" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
@@ -25056,7 +25054,7 @@
       <c r="Y870" s="3"/>
       <c r="Z870" s="3"/>
     </row>
-    <row r="871" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
@@ -25084,7 +25082,7 @@
       <c r="Y871" s="3"/>
       <c r="Z871" s="3"/>
     </row>
-    <row r="872" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="C872" s="3"/>
@@ -25112,7 +25110,7 @@
       <c r="Y872" s="3"/>
       <c r="Z872" s="3"/>
     </row>
-    <row r="873" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
@@ -25140,7 +25138,7 @@
       <c r="Y873" s="3"/>
       <c r="Z873" s="3"/>
     </row>
-    <row r="874" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="C874" s="3"/>
@@ -25168,7 +25166,7 @@
       <c r="Y874" s="3"/>
       <c r="Z874" s="3"/>
     </row>
-    <row r="875" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="C875" s="3"/>
@@ -25196,7 +25194,7 @@
       <c r="Y875" s="3"/>
       <c r="Z875" s="3"/>
     </row>
-    <row r="876" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="C876" s="3"/>
@@ -25224,7 +25222,7 @@
       <c r="Y876" s="3"/>
       <c r="Z876" s="3"/>
     </row>
-    <row r="877" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="C877" s="3"/>
@@ -25252,7 +25250,7 @@
       <c r="Y877" s="3"/>
       <c r="Z877" s="3"/>
     </row>
-    <row r="878" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="C878" s="3"/>
@@ -25280,7 +25278,7 @@
       <c r="Y878" s="3"/>
       <c r="Z878" s="3"/>
     </row>
-    <row r="879" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="C879" s="3"/>
@@ -25308,7 +25306,7 @@
       <c r="Y879" s="3"/>
       <c r="Z879" s="3"/>
     </row>
-    <row r="880" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="C880" s="3"/>
@@ -25336,7 +25334,7 @@
       <c r="Y880" s="3"/>
       <c r="Z880" s="3"/>
     </row>
-    <row r="881" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="C881" s="3"/>
@@ -25364,7 +25362,7 @@
       <c r="Y881" s="3"/>
       <c r="Z881" s="3"/>
     </row>
-    <row r="882" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="C882" s="3"/>
@@ -25392,7 +25390,7 @@
       <c r="Y882" s="3"/>
       <c r="Z882" s="3"/>
     </row>
-    <row r="883" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="C883" s="3"/>
@@ -25420,7 +25418,7 @@
       <c r="Y883" s="3"/>
       <c r="Z883" s="3"/>
     </row>
-    <row r="884" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="C884" s="3"/>
@@ -25448,7 +25446,7 @@
       <c r="Y884" s="3"/>
       <c r="Z884" s="3"/>
     </row>
-    <row r="885" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
       <c r="C885" s="3"/>
@@ -25476,7 +25474,7 @@
       <c r="Y885" s="3"/>
       <c r="Z885" s="3"/>
     </row>
-    <row r="886" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
       <c r="C886" s="3"/>
@@ -25504,7 +25502,7 @@
       <c r="Y886" s="3"/>
       <c r="Z886" s="3"/>
     </row>
-    <row r="887" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
       <c r="C887" s="3"/>
@@ -25532,7 +25530,7 @@
       <c r="Y887" s="3"/>
       <c r="Z887" s="3"/>
     </row>
-    <row r="888" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
       <c r="C888" s="3"/>
@@ -25560,7 +25558,7 @@
       <c r="Y888" s="3"/>
       <c r="Z888" s="3"/>
     </row>
-    <row r="889" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="C889" s="3"/>
@@ -25588,7 +25586,7 @@
       <c r="Y889" s="3"/>
       <c r="Z889" s="3"/>
     </row>
-    <row r="890" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="C890" s="3"/>
@@ -25616,7 +25614,7 @@
       <c r="Y890" s="3"/>
       <c r="Z890" s="3"/>
     </row>
-    <row r="891" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
       <c r="C891" s="3"/>
@@ -25644,7 +25642,7 @@
       <c r="Y891" s="3"/>
       <c r="Z891" s="3"/>
     </row>
-    <row r="892" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
       <c r="C892" s="3"/>
@@ -25672,7 +25670,7 @@
       <c r="Y892" s="3"/>
       <c r="Z892" s="3"/>
     </row>
-    <row r="893" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="C893" s="3"/>
@@ -25700,7 +25698,7 @@
       <c r="Y893" s="3"/>
       <c r="Z893" s="3"/>
     </row>
-    <row r="894" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="C894" s="3"/>
@@ -25728,7 +25726,7 @@
       <c r="Y894" s="3"/>
       <c r="Z894" s="3"/>
     </row>
-    <row r="895" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
       <c r="C895" s="3"/>
@@ -25756,7 +25754,7 @@
       <c r="Y895" s="3"/>
       <c r="Z895" s="3"/>
     </row>
-    <row r="896" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
       <c r="C896" s="3"/>
@@ -25784,7 +25782,7 @@
       <c r="Y896" s="3"/>
       <c r="Z896" s="3"/>
     </row>
-    <row r="897" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="C897" s="3"/>
@@ -25812,7 +25810,7 @@
       <c r="Y897" s="3"/>
       <c r="Z897" s="3"/>
     </row>
-    <row r="898" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="C898" s="3"/>
@@ -25840,7 +25838,7 @@
       <c r="Y898" s="3"/>
       <c r="Z898" s="3"/>
     </row>
-    <row r="899" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
@@ -25868,7 +25866,7 @@
       <c r="Y899" s="3"/>
       <c r="Z899" s="3"/>
     </row>
-    <row r="900" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
       <c r="C900" s="3"/>
@@ -25896,7 +25894,7 @@
       <c r="Y900" s="3"/>
       <c r="Z900" s="3"/>
     </row>
-    <row r="901" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="C901" s="3"/>
@@ -25924,7 +25922,7 @@
       <c r="Y901" s="3"/>
       <c r="Z901" s="3"/>
     </row>
-    <row r="902" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="C902" s="3"/>
@@ -25952,7 +25950,7 @@
       <c r="Y902" s="3"/>
       <c r="Z902" s="3"/>
     </row>
-    <row r="903" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
       <c r="C903" s="3"/>
@@ -25980,7 +25978,7 @@
       <c r="Y903" s="3"/>
       <c r="Z903" s="3"/>
     </row>
-    <row r="904" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
       <c r="C904" s="3"/>
@@ -26008,7 +26006,7 @@
       <c r="Y904" s="3"/>
       <c r="Z904" s="3"/>
     </row>
-    <row r="905" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="C905" s="3"/>
@@ -26036,7 +26034,7 @@
       <c r="Y905" s="3"/>
       <c r="Z905" s="3"/>
     </row>
-    <row r="906" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="C906" s="3"/>
@@ -26064,7 +26062,7 @@
       <c r="Y906" s="3"/>
       <c r="Z906" s="3"/>
     </row>
-    <row r="907" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
       <c r="C907" s="3"/>
@@ -26092,7 +26090,7 @@
       <c r="Y907" s="3"/>
       <c r="Z907" s="3"/>
     </row>
-    <row r="908" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
       <c r="C908" s="3"/>
@@ -26120,7 +26118,7 @@
       <c r="Y908" s="3"/>
       <c r="Z908" s="3"/>
     </row>
-    <row r="909" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="C909" s="3"/>
@@ -26148,7 +26146,7 @@
       <c r="Y909" s="3"/>
       <c r="Z909" s="3"/>
     </row>
-    <row r="910" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="C910" s="3"/>
@@ -26176,7 +26174,7 @@
       <c r="Y910" s="3"/>
       <c r="Z910" s="3"/>
     </row>
-    <row r="911" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
       <c r="C911" s="3"/>
@@ -26204,7 +26202,7 @@
       <c r="Y911" s="3"/>
       <c r="Z911" s="3"/>
     </row>
-    <row r="912" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
       <c r="C912" s="3"/>
@@ -26232,7 +26230,7 @@
       <c r="Y912" s="3"/>
       <c r="Z912" s="3"/>
     </row>
-    <row r="913" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="C913" s="3"/>
@@ -26260,7 +26258,7 @@
       <c r="Y913" s="3"/>
       <c r="Z913" s="3"/>
     </row>
-    <row r="914" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="C914" s="3"/>
@@ -26288,7 +26286,7 @@
       <c r="Y914" s="3"/>
       <c r="Z914" s="3"/>
     </row>
-    <row r="915" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
       <c r="C915" s="3"/>
@@ -26316,7 +26314,7 @@
       <c r="Y915" s="3"/>
       <c r="Z915" s="3"/>
     </row>
-    <row r="916" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
       <c r="C916" s="3"/>
@@ -26344,7 +26342,7 @@
       <c r="Y916" s="3"/>
       <c r="Z916" s="3"/>
     </row>
-    <row r="917" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="C917" s="3"/>
@@ -26372,7 +26370,7 @@
       <c r="Y917" s="3"/>
       <c r="Z917" s="3"/>
     </row>
-    <row r="918" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="C918" s="3"/>
@@ -26400,7 +26398,7 @@
       <c r="Y918" s="3"/>
       <c r="Z918" s="3"/>
     </row>
-    <row r="919" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
       <c r="C919" s="3"/>
@@ -26428,7 +26426,7 @@
       <c r="Y919" s="3"/>
       <c r="Z919" s="3"/>
     </row>
-    <row r="920" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
       <c r="C920" s="3"/>
@@ -26456,7 +26454,7 @@
       <c r="Y920" s="3"/>
       <c r="Z920" s="3"/>
     </row>
-    <row r="921" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="C921" s="3"/>
@@ -26484,7 +26482,7 @@
       <c r="Y921" s="3"/>
       <c r="Z921" s="3"/>
     </row>
-    <row r="922" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="C922" s="3"/>
@@ -26512,7 +26510,7 @@
       <c r="Y922" s="3"/>
       <c r="Z922" s="3"/>
     </row>
-    <row r="923" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
       <c r="C923" s="3"/>
@@ -26540,7 +26538,7 @@
       <c r="Y923" s="3"/>
       <c r="Z923" s="3"/>
     </row>
-    <row r="924" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
       <c r="C924" s="3"/>
@@ -26568,7 +26566,7 @@
       <c r="Y924" s="3"/>
       <c r="Z924" s="3"/>
     </row>
-    <row r="925" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="C925" s="3"/>
@@ -26596,7 +26594,7 @@
       <c r="Y925" s="3"/>
       <c r="Z925" s="3"/>
     </row>
-    <row r="926" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="C926" s="3"/>
@@ -26624,7 +26622,7 @@
       <c r="Y926" s="3"/>
       <c r="Z926" s="3"/>
     </row>
-    <row r="927" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
       <c r="C927" s="3"/>
@@ -26652,7 +26650,7 @@
       <c r="Y927" s="3"/>
       <c r="Z927" s="3"/>
     </row>
-    <row r="928" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
       <c r="C928" s="3"/>
@@ -26680,7 +26678,7 @@
       <c r="Y928" s="3"/>
       <c r="Z928" s="3"/>
     </row>
-    <row r="929" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="C929" s="3"/>
@@ -26708,7 +26706,7 @@
       <c r="Y929" s="3"/>
       <c r="Z929" s="3"/>
     </row>
-    <row r="930" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="C930" s="3"/>
@@ -26736,7 +26734,7 @@
       <c r="Y930" s="3"/>
       <c r="Z930" s="3"/>
     </row>
-    <row r="931" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
       <c r="C931" s="3"/>
@@ -26764,7 +26762,7 @@
       <c r="Y931" s="3"/>
       <c r="Z931" s="3"/>
     </row>
-    <row r="932" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
       <c r="C932" s="3"/>
@@ -26792,7 +26790,7 @@
       <c r="Y932" s="3"/>
       <c r="Z932" s="3"/>
     </row>
-    <row r="933" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
@@ -26820,7 +26818,7 @@
       <c r="Y933" s="3"/>
       <c r="Z933" s="3"/>
     </row>
-    <row r="934" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
       <c r="C934" s="3"/>
@@ -26848,7 +26846,7 @@
       <c r="Y934" s="3"/>
       <c r="Z934" s="3"/>
     </row>
-    <row r="935" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
       <c r="C935" s="3"/>
@@ -26876,7 +26874,7 @@
       <c r="Y935" s="3"/>
       <c r="Z935" s="3"/>
     </row>
-    <row r="936" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
       <c r="C936" s="3"/>
@@ -26904,7 +26902,7 @@
       <c r="Y936" s="3"/>
       <c r="Z936" s="3"/>
     </row>
-    <row r="937" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="C937" s="3"/>
@@ -26932,7 +26930,7 @@
       <c r="Y937" s="3"/>
       <c r="Z937" s="3"/>
     </row>
-    <row r="938" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
       <c r="C938" s="3"/>
@@ -26960,7 +26958,7 @@
       <c r="Y938" s="3"/>
       <c r="Z938" s="3"/>
     </row>
-    <row r="939" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
       <c r="C939" s="3"/>
@@ -26988,7 +26986,7 @@
       <c r="Y939" s="3"/>
       <c r="Z939" s="3"/>
     </row>
-    <row r="940" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
       <c r="C940" s="3"/>
@@ -27016,7 +27014,7 @@
       <c r="Y940" s="3"/>
       <c r="Z940" s="3"/>
     </row>
-    <row r="941" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="C941" s="3"/>
@@ -27044,7 +27042,7 @@
       <c r="Y941" s="3"/>
       <c r="Z941" s="3"/>
     </row>
-    <row r="942" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="C942" s="3"/>
@@ -27072,7 +27070,7 @@
       <c r="Y942" s="3"/>
       <c r="Z942" s="3"/>
     </row>
-    <row r="943" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="C943" s="3"/>
@@ -27100,7 +27098,7 @@
       <c r="Y943" s="3"/>
       <c r="Z943" s="3"/>
     </row>
-    <row r="944" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
       <c r="C944" s="3"/>
@@ -27128,7 +27126,7 @@
       <c r="Y944" s="3"/>
       <c r="Z944" s="3"/>
     </row>
-    <row r="945" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
       <c r="C945" s="3"/>
@@ -27156,7 +27154,7 @@
       <c r="Y945" s="3"/>
       <c r="Z945" s="3"/>
     </row>
-    <row r="946" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
       <c r="C946" s="3"/>
@@ -27184,7 +27182,7 @@
       <c r="Y946" s="3"/>
       <c r="Z946" s="3"/>
     </row>
-    <row r="947" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="C947" s="3"/>
@@ -27212,7 +27210,7 @@
       <c r="Y947" s="3"/>
       <c r="Z947" s="3"/>
     </row>
-    <row r="948" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="C948" s="3"/>
@@ -27240,7 +27238,7 @@
       <c r="Y948" s="3"/>
       <c r="Z948" s="3"/>
     </row>
-    <row r="949" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
       <c r="C949" s="3"/>
@@ -27268,7 +27266,7 @@
       <c r="Y949" s="3"/>
       <c r="Z949" s="3"/>
     </row>
-    <row r="950" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="C950" s="3"/>
@@ -27296,7 +27294,7 @@
       <c r="Y950" s="3"/>
       <c r="Z950" s="3"/>
     </row>
-    <row r="951" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="C951" s="3"/>
@@ -27324,7 +27322,7 @@
       <c r="Y951" s="3"/>
       <c r="Z951" s="3"/>
     </row>
-    <row r="952" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="C952" s="3"/>
@@ -27352,7 +27350,7 @@
       <c r="Y952" s="3"/>
       <c r="Z952" s="3"/>
     </row>
-    <row r="953" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
       <c r="C953" s="3"/>
@@ -27380,7 +27378,7 @@
       <c r="Y953" s="3"/>
       <c r="Z953" s="3"/>
     </row>
-    <row r="954" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
       <c r="C954" s="3"/>
@@ -27408,7 +27406,7 @@
       <c r="Y954" s="3"/>
       <c r="Z954" s="3"/>
     </row>
-    <row r="955" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="C955" s="3"/>
@@ -27436,7 +27434,7 @@
       <c r="Y955" s="3"/>
       <c r="Z955" s="3"/>
     </row>
-    <row r="956" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="C956" s="3"/>
@@ -27464,7 +27462,7 @@
       <c r="Y956" s="3"/>
       <c r="Z956" s="3"/>
     </row>
-    <row r="957" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="C957" s="3"/>
@@ -27492,7 +27490,7 @@
       <c r="Y957" s="3"/>
       <c r="Z957" s="3"/>
     </row>
-    <row r="958" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
       <c r="C958" s="3"/>
@@ -27520,7 +27518,7 @@
       <c r="Y958" s="3"/>
       <c r="Z958" s="3"/>
     </row>
-    <row r="959" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
       <c r="C959" s="3"/>
@@ -27548,7 +27546,7 @@
       <c r="Y959" s="3"/>
       <c r="Z959" s="3"/>
     </row>
-    <row r="960" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="C960" s="3"/>
@@ -27576,7 +27574,7 @@
       <c r="Y960" s="3"/>
       <c r="Z960" s="3"/>
     </row>
-    <row r="961" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
       <c r="C961" s="3"/>
@@ -27604,7 +27602,7 @@
       <c r="Y961" s="3"/>
       <c r="Z961" s="3"/>
     </row>
-    <row r="962" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
       <c r="C962" s="3"/>
@@ -27632,7 +27630,7 @@
       <c r="Y962" s="3"/>
       <c r="Z962" s="3"/>
     </row>
-    <row r="963" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="C963" s="3"/>
@@ -27660,7 +27658,7 @@
       <c r="Y963" s="3"/>
       <c r="Z963" s="3"/>
     </row>
-    <row r="964" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="C964" s="3"/>
@@ -27688,7 +27686,7 @@
       <c r="Y964" s="3"/>
       <c r="Z964" s="3"/>
     </row>
-    <row r="965" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="C965" s="3"/>
@@ -27716,7 +27714,7 @@
       <c r="Y965" s="3"/>
       <c r="Z965" s="3"/>
     </row>
-    <row r="966" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="C966" s="3"/>
@@ -27744,7 +27742,7 @@
       <c r="Y966" s="3"/>
       <c r="Z966" s="3"/>
     </row>
-    <row r="967" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
@@ -27772,7 +27770,7 @@
       <c r="Y967" s="3"/>
       <c r="Z967" s="3"/>
     </row>
-    <row r="968" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="C968" s="3"/>
@@ -27800,7 +27798,7 @@
       <c r="Y968" s="3"/>
       <c r="Z968" s="3"/>
     </row>
-    <row r="969" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
       <c r="C969" s="3"/>
@@ -27828,7 +27826,7 @@
       <c r="Y969" s="3"/>
       <c r="Z969" s="3"/>
     </row>
-    <row r="970" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
       <c r="C970" s="3"/>
@@ -27856,7 +27854,7 @@
       <c r="Y970" s="3"/>
       <c r="Z970" s="3"/>
     </row>
-    <row r="971" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="C971" s="3"/>
@@ -27884,7 +27882,7 @@
       <c r="Y971" s="3"/>
       <c r="Z971" s="3"/>
     </row>
-    <row r="972" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="C972" s="3"/>
@@ -27912,7 +27910,7 @@
       <c r="Y972" s="3"/>
       <c r="Z972" s="3"/>
     </row>
-    <row r="973" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
       <c r="C973" s="3"/>
@@ -27940,7 +27938,7 @@
       <c r="Y973" s="3"/>
       <c r="Z973" s="3"/>
     </row>
-    <row r="974" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
       <c r="C974" s="3"/>
@@ -27968,7 +27966,7 @@
       <c r="Y974" s="3"/>
       <c r="Z974" s="3"/>
     </row>
-    <row r="975" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="C975" s="3"/>
@@ -27996,7 +27994,7 @@
       <c r="Y975" s="3"/>
       <c r="Z975" s="3"/>
     </row>
-    <row r="976" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="C976" s="3"/>
@@ -28024,7 +28022,7 @@
       <c r="Y976" s="3"/>
       <c r="Z976" s="3"/>
     </row>
-    <row r="977" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
       <c r="C977" s="3"/>
@@ -28052,7 +28050,7 @@
       <c r="Y977" s="3"/>
       <c r="Z977" s="3"/>
     </row>
-    <row r="978" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
       <c r="C978" s="3"/>
@@ -28080,7 +28078,7 @@
       <c r="Y978" s="3"/>
       <c r="Z978" s="3"/>
     </row>
-    <row r="979" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
       <c r="C979" s="3"/>
@@ -28108,7 +28106,7 @@
       <c r="Y979" s="3"/>
       <c r="Z979" s="3"/>
     </row>
-    <row r="980" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
       <c r="C980" s="3"/>
@@ -28136,7 +28134,7 @@
       <c r="Y980" s="3"/>
       <c r="Z980" s="3"/>
     </row>
-    <row r="981" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
       <c r="C981" s="3"/>
@@ -28164,7 +28162,7 @@
       <c r="Y981" s="3"/>
       <c r="Z981" s="3"/>
     </row>
-    <row r="982" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
       <c r="C982" s="3"/>
@@ -28192,7 +28190,7 @@
       <c r="Y982" s="3"/>
       <c r="Z982" s="3"/>
     </row>
-    <row r="983" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
       <c r="C983" s="3"/>
@@ -28220,7 +28218,7 @@
       <c r="Y983" s="3"/>
       <c r="Z983" s="3"/>
     </row>
-    <row r="984" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
       <c r="C984" s="3"/>
@@ -28248,7 +28246,7 @@
       <c r="Y984" s="3"/>
       <c r="Z984" s="3"/>
     </row>
-    <row r="985" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
       <c r="C985" s="3"/>
@@ -28276,7 +28274,7 @@
       <c r="Y985" s="3"/>
       <c r="Z985" s="3"/>
     </row>
-    <row r="986" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
       <c r="C986" s="3"/>
@@ -28304,7 +28302,7 @@
       <c r="Y986" s="3"/>
       <c r="Z986" s="3"/>
     </row>
-    <row r="987" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
       <c r="C987" s="3"/>
@@ -28332,7 +28330,7 @@
       <c r="Y987" s="3"/>
       <c r="Z987" s="3"/>
     </row>
-    <row r="988" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
       <c r="C988" s="3"/>
@@ -28360,7 +28358,7 @@
       <c r="Y988" s="3"/>
       <c r="Z988" s="3"/>
     </row>
-    <row r="989" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
       <c r="C989" s="3"/>
@@ -28388,7 +28386,7 @@
       <c r="Y989" s="3"/>
       <c r="Z989" s="3"/>
     </row>
-    <row r="990" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
       <c r="C990" s="3"/>
@@ -28416,7 +28414,7 @@
       <c r="Y990" s="3"/>
       <c r="Z990" s="3"/>
     </row>
-    <row r="991" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
       <c r="C991" s="3"/>
@@ -28444,7 +28442,7 @@
       <c r="Y991" s="3"/>
       <c r="Z991" s="3"/>
     </row>
-    <row r="992" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
       <c r="C992" s="3"/>
@@ -28472,7 +28470,7 @@
       <c r="Y992" s="3"/>
       <c r="Z992" s="3"/>
     </row>
-    <row r="993" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
       <c r="C993" s="3"/>
@@ -28500,7 +28498,7 @@
       <c r="Y993" s="3"/>
       <c r="Z993" s="3"/>
     </row>
-    <row r="994" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
       <c r="C994" s="3"/>
@@ -28528,7 +28526,7 @@
       <c r="Y994" s="3"/>
       <c r="Z994" s="3"/>
     </row>
-    <row r="995" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
       <c r="C995" s="3"/>
@@ -28556,7 +28554,7 @@
       <c r="Y995" s="3"/>
       <c r="Z995" s="3"/>
     </row>
-    <row r="996" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A996" s="3"/>
       <c r="B996" s="3"/>
       <c r="C996" s="3"/>
@@ -28584,7 +28582,7 @@
       <c r="Y996" s="3"/>
       <c r="Z996" s="3"/>
     </row>
-    <row r="997" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A997" s="3"/>
       <c r="B997" s="3"/>
       <c r="C997" s="3"/>
@@ -28612,7 +28610,7 @@
       <c r="Y997" s="3"/>
       <c r="Z997" s="3"/>
     </row>
-    <row r="998" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A998" s="3"/>
       <c r="B998" s="3"/>
       <c r="C998" s="3"/>
@@ -28640,7 +28638,7 @@
       <c r="Y998" s="3"/>
       <c r="Z998" s="3"/>
     </row>
-    <row r="999" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A999" s="3"/>
       <c r="B999" s="3"/>
       <c r="C999" s="3"/>
@@ -28668,7 +28666,7 @@
       <c r="Y999" s="3"/>
       <c r="Z999" s="3"/>
     </row>
-    <row r="1000" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1000" s="3"/>
       <c r="B1000" s="3"/>
       <c r="C1000" s="3"/>

--- a/zonas_verdes.xlsx
+++ b/zonas_verdes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacinto\Desktop\ING. Salud\3º Curso\1º CUATRIMESTRE\Fuentes de Datos\Prácticas\Seminario-Fuentes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34644\Documents\Fuentes\Seminario-Fuentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D69EFD8-6A42-4EA1-B1C0-DDC8FC6A31F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587ED3A5-320F-4EFC-AFA7-7C67B5250616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3384" yWindow="1716" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Población</t>
   </si>
@@ -42,16 +42,10 @@
     <t>Madrid</t>
   </si>
   <si>
-    <t>Pamplona</t>
-  </si>
-  <si>
     <t>Sevilla</t>
   </si>
   <si>
     <t>Valladolid</t>
-  </si>
-  <si>
-    <t>Santander</t>
   </si>
   <si>
     <t>Zaragoza</t>
@@ -64,9 +58,6 @@
   </si>
   <si>
     <t>Huelva</t>
-  </si>
-  <si>
-    <t>Oviedo</t>
   </si>
   <si>
     <t>Albacete</t>
@@ -84,16 +75,10 @@
     <t>Almería</t>
   </si>
   <si>
-    <t>Bilbao</t>
-  </si>
-  <si>
     <t>Barcelona</t>
   </si>
   <si>
     <t>Córdoba</t>
-  </si>
-  <si>
-    <t>Valencia</t>
   </si>
   <si>
     <t>Tarragona</t>
@@ -146,12 +131,30 @@
   <si>
     <t>Provincia</t>
   </si>
+  <si>
+    <t>Navarra</t>
+  </si>
+  <si>
+    <t>Bizkaia</t>
+  </si>
+  <si>
+    <t>#mirar aproximado</t>
+  </si>
+  <si>
+    <t>Cantabria</t>
+  </si>
+  <si>
+    <t>Valencia/València</t>
+  </si>
+  <si>
+    <t>Balears, Illes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -187,6 +190,20 @@
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -224,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -240,6 +257,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -462,13 +483,15 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -500,9 +523,9 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2" s="5">
         <v>246976</v>
@@ -534,7 +557,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -568,7 +591,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -602,15 +625,15 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B5" s="5">
-        <v>197138</v>
+        <v>649946</v>
       </c>
       <c r="C5" s="6">
-        <v>12.29</v>
+        <v>25</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="3"/>
@@ -636,9 +659,9 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="5">
         <v>689434</v>
@@ -670,9 +693,9 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="5">
         <v>299715</v>
@@ -704,12 +727,12 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5">
-        <v>171951</v>
+        <v>581641</v>
       </c>
       <c r="C8" s="6">
         <v>10.62</v>
@@ -738,9 +761,9 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B9" s="5">
         <v>138144</v>
@@ -772,9 +795,9 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="5">
         <v>664938</v>
@@ -806,9 +829,9 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B11" s="5">
         <v>186370</v>
@@ -840,9 +863,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B12" s="5">
         <v>272365</v>
@@ -874,9 +897,9 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B13" s="5">
         <v>105893</v>
@@ -908,9 +931,9 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" s="5">
         <v>232770</v>
@@ -942,9 +965,9 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15" s="5">
         <v>145115</v>
@@ -976,15 +999,15 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16" s="5">
-        <v>220301</v>
+        <v>172816</v>
       </c>
       <c r="C16" s="6">
-        <v>7.31</v>
+        <v>7.16</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="3"/>
@@ -1010,15 +1033,15 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17" s="5">
-        <v>172816</v>
+        <v>144436</v>
       </c>
       <c r="C17" s="6">
-        <v>7.16</v>
+        <v>17.079999999999998</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="3"/>
@@ -1044,15 +1067,15 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18" s="5">
-        <v>144436</v>
+        <v>150543</v>
       </c>
       <c r="C18" s="6">
-        <v>17.079999999999998</v>
+        <v>6.75</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="3"/>
@@ -1078,15 +1101,15 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B19" s="5">
-        <v>150543</v>
+        <v>244099</v>
       </c>
       <c r="C19" s="6">
-        <v>6.75</v>
+        <v>6.58</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="3"/>
@@ -1112,15 +1135,15 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B20" s="5">
-        <v>244099</v>
+        <v>114238</v>
       </c>
       <c r="C20" s="6">
-        <v>6.58</v>
+        <v>6.55</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="3"/>
@@ -1146,15 +1169,15 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21" s="5">
-        <v>114238</v>
+        <v>195389</v>
       </c>
       <c r="C21" s="6">
-        <v>6.55</v>
+        <v>6.5</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="3"/>
@@ -1180,15 +1203,15 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B22" s="5">
-        <v>195389</v>
+        <v>329988</v>
       </c>
       <c r="C22" s="6">
-        <v>6.5</v>
+        <v>6.12</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="3"/>
@@ -1214,15 +1237,15 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B23" s="5">
-        <v>329988</v>
+        <v>214177</v>
       </c>
       <c r="C23" s="6">
-        <v>6.12</v>
+        <v>5.97</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="3"/>
@@ -1248,18 +1271,20 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B24" s="5">
-        <v>214177</v>
+        <v>345110</v>
       </c>
       <c r="C24" s="6">
-        <v>5.97</v>
+        <v>25.6</v>
       </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1282,15 +1307,15 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B25" s="5">
-        <v>345110</v>
+        <v>1620809</v>
       </c>
       <c r="C25" s="6">
-        <v>5.73</v>
+        <v>7</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="3"/>
@@ -1316,15 +1341,15 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B26" s="5">
-        <v>1620809</v>
+        <v>325916</v>
       </c>
       <c r="C26" s="6">
-        <v>5.53</v>
+        <v>5.34</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="3"/>
@@ -1350,18 +1375,18 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>20</v>
+    <row r="27" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+      <c r="A27" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B27" s="5">
-        <v>325916</v>
+        <v>949471</v>
       </c>
       <c r="C27" s="6">
-        <v>5.34</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="3"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -1384,15 +1409,15 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B28" s="5">
-        <v>203692</v>
+        <v>377650</v>
       </c>
       <c r="C28" s="6">
-        <v>4.3899999999999997</v>
+        <v>22</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="3"/>
@@ -1418,15 +1443,15 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>30</v>
+    <row r="29" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+      <c r="A29" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="B29" s="5">
-        <v>377650</v>
+        <v>787808</v>
       </c>
       <c r="C29" s="6">
-        <v>4.3099999999999996</v>
+        <v>4.18</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="3"/>
@@ -1452,15 +1477,15 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B30" s="5">
-        <v>787808</v>
+        <v>131507</v>
       </c>
       <c r="C30" s="6">
-        <v>4.18</v>
+        <v>4.01</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="3"/>
@@ -1486,23 +1511,29 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="5">
-        <v>131507</v>
+        <v>569002</v>
       </c>
       <c r="C31" s="6">
-        <v>4.01</v>
+        <v>2.92</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="G31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="5">
+        <v>292986</v>
+      </c>
+      <c r="I31" s="6">
+        <v>3.64</v>
+      </c>
+      <c r="J31" s="6"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -1520,23 +1551,29 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" s="5">
-        <v>292986</v>
+        <v>175623</v>
       </c>
       <c r="C32" s="6">
-        <v>3.64</v>
+        <v>37.06</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="G32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="5">
+        <v>406492</v>
+      </c>
+      <c r="I32" s="6">
+        <v>3.42</v>
+      </c>
+      <c r="J32" s="6"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -1554,15 +1591,15 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B33" s="5">
-        <v>406492</v>
+        <v>169498</v>
       </c>
       <c r="C33" s="6">
-        <v>3.42</v>
+        <v>2.73</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="3"/>
@@ -1588,15 +1625,15 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34" s="5">
-        <v>443243</v>
+        <v>118048</v>
       </c>
       <c r="C34" s="6">
-        <v>3.38</v>
+        <v>1.8</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="3"/>
@@ -1622,17 +1659,16 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>26</v>
+    <row r="35" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+      <c r="A35" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="B35" s="5">
-        <v>569002</v>
+        <v>1220739</v>
       </c>
       <c r="C35" s="6">
-        <v>2.92</v>
+        <v>1.4510000000000001</v>
       </c>
-      <c r="D35" s="6"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -1656,17 +1692,11 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="5">
-        <v>175623</v>
-      </c>
-      <c r="C36" s="6">
-        <v>37.06</v>
-      </c>
-      <c r="D36" s="6"/>
+    <row r="36" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -1690,18 +1720,7 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="5">
-        <v>169498</v>
-      </c>
-      <c r="C37" s="6">
-        <v>2.73</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="3"/>
+    <row r="37" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -1724,18 +1743,7 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" spans="1:26" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="5">
-        <v>118048</v>
-      </c>
-      <c r="C38" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="3"/>
+    <row r="38" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -1758,7 +1766,7 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1786,7 +1794,7 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1814,7 +1822,7 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1842,7 +1850,7 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1870,7 +1878,7 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1898,7 +1906,7 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1926,7 +1934,7 @@
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1954,7 +1962,7 @@
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1982,7 +1990,7 @@
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2010,7 +2018,7 @@
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2038,7 +2046,7 @@
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2066,7 +2074,7 @@
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2094,12 +2102,7 @@
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
     </row>
-    <row r="51" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
+    <row r="51" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -2122,7 +2125,7 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2150,7 +2153,7 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2178,7 +2181,7 @@
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2206,7 +2209,7 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2234,7 +2237,7 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2262,7 +2265,7 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2290,7 +2293,7 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2318,7 +2321,7 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2346,7 +2349,7 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2374,7 +2377,7 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2402,7 +2405,7 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2430,7 +2433,7 @@
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2458,7 +2461,7 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2486,7 +2489,7 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2514,7 +2517,7 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2542,7 +2545,7 @@
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2570,7 +2573,7 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2598,7 +2601,7 @@
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
     </row>
-    <row r="69" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2626,7 +2629,7 @@
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2654,7 +2657,7 @@
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2682,7 +2685,7 @@
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2710,7 +2713,7 @@
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2738,7 +2741,7 @@
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2766,7 +2769,7 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2794,7 +2797,7 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2822,7 +2825,7 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2850,7 +2853,7 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2878,7 +2881,7 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2906,7 +2909,7 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2934,7 +2937,7 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2962,7 +2965,7 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2990,7 +2993,7 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -3018,7 +3021,7 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -3046,7 +3049,7 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -3074,7 +3077,7 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3102,7 +3105,7 @@
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -3130,7 +3133,7 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3158,7 +3161,7 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3186,7 +3189,7 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3214,7 +3217,7 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3242,7 +3245,7 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3270,7 +3273,7 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3298,7 +3301,7 @@
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3326,7 +3329,7 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3354,7 +3357,7 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3382,7 +3385,7 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3410,7 +3413,7 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3438,7 +3441,7 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3466,7 +3469,7 @@
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3494,7 +3497,7 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -3522,7 +3525,7 @@
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -3550,7 +3553,7 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -3578,7 +3581,7 @@
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -3606,7 +3609,7 @@
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
     </row>
-    <row r="105" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -3634,7 +3637,7 @@
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -3662,7 +3665,7 @@
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3690,7 +3693,7 @@
       <c r="Y107" s="3"/>
       <c r="Z107" s="3"/>
     </row>
-    <row r="108" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -3718,7 +3721,7 @@
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="109" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -3746,7 +3749,7 @@
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -3774,7 +3777,7 @@
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -3802,7 +3805,7 @@
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
     </row>
-    <row r="112" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -3830,7 +3833,7 @@
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
     </row>
-    <row r="113" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -3858,7 +3861,7 @@
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -3886,7 +3889,7 @@
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -3914,7 +3917,7 @@
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
     </row>
-    <row r="116" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -3942,7 +3945,7 @@
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
     </row>
-    <row r="117" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -3970,7 +3973,7 @@
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
     </row>
-    <row r="118" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -3998,7 +4001,7 @@
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
     </row>
-    <row r="119" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -4026,7 +4029,7 @@
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
     </row>
-    <row r="120" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -4054,7 +4057,7 @@
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -4082,7 +4085,7 @@
       <c r="Y121" s="3"/>
       <c r="Z121" s="3"/>
     </row>
-    <row r="122" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -4110,7 +4113,7 @@
       <c r="Y122" s="3"/>
       <c r="Z122" s="3"/>
     </row>
-    <row r="123" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -4138,7 +4141,7 @@
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
     </row>
-    <row r="124" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -4166,7 +4169,7 @@
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
     </row>
-    <row r="125" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -4194,7 +4197,7 @@
       <c r="Y125" s="3"/>
       <c r="Z125" s="3"/>
     </row>
-    <row r="126" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -4222,7 +4225,7 @@
       <c r="Y126" s="3"/>
       <c r="Z126" s="3"/>
     </row>
-    <row r="127" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -4250,7 +4253,7 @@
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
     </row>
-    <row r="128" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -4278,7 +4281,7 @@
       <c r="Y128" s="3"/>
       <c r="Z128" s="3"/>
     </row>
-    <row r="129" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -4306,7 +4309,7 @@
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
     </row>
-    <row r="130" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -4334,7 +4337,7 @@
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
     </row>
-    <row r="131" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -4362,7 +4365,7 @@
       <c r="Y131" s="3"/>
       <c r="Z131" s="3"/>
     </row>
-    <row r="132" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -4390,7 +4393,7 @@
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
     </row>
-    <row r="133" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -4418,7 +4421,7 @@
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
     </row>
-    <row r="134" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -4446,7 +4449,7 @@
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -4474,7 +4477,7 @@
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
     </row>
-    <row r="136" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -4502,7 +4505,7 @@
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -4530,7 +4533,7 @@
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
     </row>
-    <row r="138" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -4558,7 +4561,7 @@
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -4586,7 +4589,7 @@
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
     </row>
-    <row r="140" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -4614,7 +4617,7 @@
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -4642,7 +4645,7 @@
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
     </row>
-    <row r="142" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -4670,7 +4673,7 @@
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
     </row>
-    <row r="143" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -4698,7 +4701,7 @@
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
     </row>
-    <row r="144" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -4726,7 +4729,7 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
     </row>
-    <row r="145" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -4754,7 +4757,7 @@
       <c r="Y145" s="3"/>
       <c r="Z145" s="3"/>
     </row>
-    <row r="146" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -4782,7 +4785,7 @@
       <c r="Y146" s="3"/>
       <c r="Z146" s="3"/>
     </row>
-    <row r="147" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -4810,7 +4813,7 @@
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
     </row>
-    <row r="148" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -4838,7 +4841,7 @@
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
     </row>
-    <row r="149" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -4866,7 +4869,7 @@
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
     </row>
-    <row r="150" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -4894,7 +4897,7 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -4922,7 +4925,7 @@
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
     </row>
-    <row r="152" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -4950,7 +4953,7 @@
       <c r="Y152" s="3"/>
       <c r="Z152" s="3"/>
     </row>
-    <row r="153" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -4978,7 +4981,7 @@
       <c r="Y153" s="3"/>
       <c r="Z153" s="3"/>
     </row>
-    <row r="154" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -5006,7 +5009,7 @@
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
     </row>
-    <row r="155" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -5034,7 +5037,7 @@
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
     </row>
-    <row r="156" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -5062,7 +5065,7 @@
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
     </row>
-    <row r="157" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -5090,7 +5093,7 @@
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
     </row>
-    <row r="158" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -5118,7 +5121,7 @@
       <c r="Y158" s="3"/>
       <c r="Z158" s="3"/>
     </row>
-    <row r="159" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -5146,7 +5149,7 @@
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
     </row>
-    <row r="160" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -5174,7 +5177,7 @@
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
     </row>
-    <row r="161" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -5202,7 +5205,7 @@
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
     </row>
-    <row r="162" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -5230,7 +5233,7 @@
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
     </row>
-    <row r="163" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -5258,7 +5261,7 @@
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
     </row>
-    <row r="164" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -5286,7 +5289,7 @@
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
     </row>
-    <row r="165" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -5314,7 +5317,7 @@
       <c r="Y165" s="3"/>
       <c r="Z165" s="3"/>
     </row>
-    <row r="166" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -5342,7 +5345,7 @@
       <c r="Y166" s="3"/>
       <c r="Z166" s="3"/>
     </row>
-    <row r="167" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -5370,7 +5373,7 @@
       <c r="Y167" s="3"/>
       <c r="Z167" s="3"/>
     </row>
-    <row r="168" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -5398,7 +5401,7 @@
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
     </row>
-    <row r="169" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -5426,7 +5429,7 @@
       <c r="Y169" s="3"/>
       <c r="Z169" s="3"/>
     </row>
-    <row r="170" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -5454,7 +5457,7 @@
       <c r="Y170" s="3"/>
       <c r="Z170" s="3"/>
     </row>
-    <row r="171" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -5482,7 +5485,7 @@
       <c r="Y171" s="3"/>
       <c r="Z171" s="3"/>
     </row>
-    <row r="172" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -5510,7 +5513,7 @@
       <c r="Y172" s="3"/>
       <c r="Z172" s="3"/>
     </row>
-    <row r="173" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -5538,7 +5541,7 @@
       <c r="Y173" s="3"/>
       <c r="Z173" s="3"/>
     </row>
-    <row r="174" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -5566,7 +5569,7 @@
       <c r="Y174" s="3"/>
       <c r="Z174" s="3"/>
     </row>
-    <row r="175" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -5594,7 +5597,7 @@
       <c r="Y175" s="3"/>
       <c r="Z175" s="3"/>
     </row>
-    <row r="176" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -5622,7 +5625,7 @@
       <c r="Y176" s="3"/>
       <c r="Z176" s="3"/>
     </row>
-    <row r="177" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -5650,7 +5653,7 @@
       <c r="Y177" s="3"/>
       <c r="Z177" s="3"/>
     </row>
-    <row r="178" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -5678,7 +5681,7 @@
       <c r="Y178" s="3"/>
       <c r="Z178" s="3"/>
     </row>
-    <row r="179" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -5706,7 +5709,7 @@
       <c r="Y179" s="3"/>
       <c r="Z179" s="3"/>
     </row>
-    <row r="180" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -5734,7 +5737,7 @@
       <c r="Y180" s="3"/>
       <c r="Z180" s="3"/>
     </row>
-    <row r="181" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -5762,7 +5765,7 @@
       <c r="Y181" s="3"/>
       <c r="Z181" s="3"/>
     </row>
-    <row r="182" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -5790,7 +5793,7 @@
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
     </row>
-    <row r="183" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -5818,7 +5821,7 @@
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
     </row>
-    <row r="184" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -5846,7 +5849,7 @@
       <c r="Y184" s="3"/>
       <c r="Z184" s="3"/>
     </row>
-    <row r="185" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -5874,7 +5877,7 @@
       <c r="Y185" s="3"/>
       <c r="Z185" s="3"/>
     </row>
-    <row r="186" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -5902,7 +5905,7 @@
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
     </row>
-    <row r="187" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -5930,7 +5933,7 @@
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
     </row>
-    <row r="188" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -5958,7 +5961,7 @@
       <c r="Y188" s="3"/>
       <c r="Z188" s="3"/>
     </row>
-    <row r="189" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -5986,7 +5989,7 @@
       <c r="Y189" s="3"/>
       <c r="Z189" s="3"/>
     </row>
-    <row r="190" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -6014,7 +6017,7 @@
       <c r="Y190" s="3"/>
       <c r="Z190" s="3"/>
     </row>
-    <row r="191" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -6042,7 +6045,7 @@
       <c r="Y191" s="3"/>
       <c r="Z191" s="3"/>
     </row>
-    <row r="192" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -6070,7 +6073,7 @@
       <c r="Y192" s="3"/>
       <c r="Z192" s="3"/>
     </row>
-    <row r="193" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -6098,7 +6101,7 @@
       <c r="Y193" s="3"/>
       <c r="Z193" s="3"/>
     </row>
-    <row r="194" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -6126,7 +6129,7 @@
       <c r="Y194" s="3"/>
       <c r="Z194" s="3"/>
     </row>
-    <row r="195" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -6154,7 +6157,7 @@
       <c r="Y195" s="3"/>
       <c r="Z195" s="3"/>
     </row>
-    <row r="196" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -6182,7 +6185,7 @@
       <c r="Y196" s="3"/>
       <c r="Z196" s="3"/>
     </row>
-    <row r="197" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -6210,7 +6213,7 @@
       <c r="Y197" s="3"/>
       <c r="Z197" s="3"/>
     </row>
-    <row r="198" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -6238,7 +6241,7 @@
       <c r="Y198" s="3"/>
       <c r="Z198" s="3"/>
     </row>
-    <row r="199" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -6266,7 +6269,7 @@
       <c r="Y199" s="3"/>
       <c r="Z199" s="3"/>
     </row>
-    <row r="200" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -6294,7 +6297,7 @@
       <c r="Y200" s="3"/>
       <c r="Z200" s="3"/>
     </row>
-    <row r="201" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -6322,7 +6325,7 @@
       <c r="Y201" s="3"/>
       <c r="Z201" s="3"/>
     </row>
-    <row r="202" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -6350,7 +6353,7 @@
       <c r="Y202" s="3"/>
       <c r="Z202" s="3"/>
     </row>
-    <row r="203" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -6378,7 +6381,7 @@
       <c r="Y203" s="3"/>
       <c r="Z203" s="3"/>
     </row>
-    <row r="204" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -6406,7 +6409,7 @@
       <c r="Y204" s="3"/>
       <c r="Z204" s="3"/>
     </row>
-    <row r="205" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -6434,7 +6437,7 @@
       <c r="Y205" s="3"/>
       <c r="Z205" s="3"/>
     </row>
-    <row r="206" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -6462,7 +6465,7 @@
       <c r="Y206" s="3"/>
       <c r="Z206" s="3"/>
     </row>
-    <row r="207" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -6490,7 +6493,7 @@
       <c r="Y207" s="3"/>
       <c r="Z207" s="3"/>
     </row>
-    <row r="208" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -6518,7 +6521,7 @@
       <c r="Y208" s="3"/>
       <c r="Z208" s="3"/>
     </row>
-    <row r="209" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -6546,7 +6549,7 @@
       <c r="Y209" s="3"/>
       <c r="Z209" s="3"/>
     </row>
-    <row r="210" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -6574,7 +6577,7 @@
       <c r="Y210" s="3"/>
       <c r="Z210" s="3"/>
     </row>
-    <row r="211" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -6602,7 +6605,7 @@
       <c r="Y211" s="3"/>
       <c r="Z211" s="3"/>
     </row>
-    <row r="212" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -6630,7 +6633,7 @@
       <c r="Y212" s="3"/>
       <c r="Z212" s="3"/>
     </row>
-    <row r="213" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -6658,7 +6661,7 @@
       <c r="Y213" s="3"/>
       <c r="Z213" s="3"/>
     </row>
-    <row r="214" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -6686,7 +6689,7 @@
       <c r="Y214" s="3"/>
       <c r="Z214" s="3"/>
     </row>
-    <row r="215" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -6714,7 +6717,7 @@
       <c r="Y215" s="3"/>
       <c r="Z215" s="3"/>
     </row>
-    <row r="216" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -6742,7 +6745,7 @@
       <c r="Y216" s="3"/>
       <c r="Z216" s="3"/>
     </row>
-    <row r="217" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -6770,7 +6773,7 @@
       <c r="Y217" s="3"/>
       <c r="Z217" s="3"/>
     </row>
-    <row r="218" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -6798,7 +6801,7 @@
       <c r="Y218" s="3"/>
       <c r="Z218" s="3"/>
     </row>
-    <row r="219" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -6826,7 +6829,7 @@
       <c r="Y219" s="3"/>
       <c r="Z219" s="3"/>
     </row>
-    <row r="220" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -6854,7 +6857,7 @@
       <c r="Y220" s="3"/>
       <c r="Z220" s="3"/>
     </row>
-    <row r="221" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -6882,7 +6885,7 @@
       <c r="Y221" s="3"/>
       <c r="Z221" s="3"/>
     </row>
-    <row r="222" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -6910,7 +6913,7 @@
       <c r="Y222" s="3"/>
       <c r="Z222" s="3"/>
     </row>
-    <row r="223" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -6938,7 +6941,7 @@
       <c r="Y223" s="3"/>
       <c r="Z223" s="3"/>
     </row>
-    <row r="224" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -6966,7 +6969,7 @@
       <c r="Y224" s="3"/>
       <c r="Z224" s="3"/>
     </row>
-    <row r="225" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -6994,7 +6997,7 @@
       <c r="Y225" s="3"/>
       <c r="Z225" s="3"/>
     </row>
-    <row r="226" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -7022,7 +7025,7 @@
       <c r="Y226" s="3"/>
       <c r="Z226" s="3"/>
     </row>
-    <row r="227" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -7050,7 +7053,7 @@
       <c r="Y227" s="3"/>
       <c r="Z227" s="3"/>
     </row>
-    <row r="228" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -7078,7 +7081,7 @@
       <c r="Y228" s="3"/>
       <c r="Z228" s="3"/>
     </row>
-    <row r="229" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -7106,7 +7109,7 @@
       <c r="Y229" s="3"/>
       <c r="Z229" s="3"/>
     </row>
-    <row r="230" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -7134,7 +7137,7 @@
       <c r="Y230" s="3"/>
       <c r="Z230" s="3"/>
     </row>
-    <row r="231" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -7162,7 +7165,7 @@
       <c r="Y231" s="3"/>
       <c r="Z231" s="3"/>
     </row>
-    <row r="232" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -7190,7 +7193,7 @@
       <c r="Y232" s="3"/>
       <c r="Z232" s="3"/>
     </row>
-    <row r="233" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -7218,7 +7221,7 @@
       <c r="Y233" s="3"/>
       <c r="Z233" s="3"/>
     </row>
-    <row r="234" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -7246,7 +7249,7 @@
       <c r="Y234" s="3"/>
       <c r="Z234" s="3"/>
     </row>
-    <row r="235" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -7274,7 +7277,7 @@
       <c r="Y235" s="3"/>
       <c r="Z235" s="3"/>
     </row>
-    <row r="236" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -7302,7 +7305,7 @@
       <c r="Y236" s="3"/>
       <c r="Z236" s="3"/>
     </row>
-    <row r="237" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -7330,7 +7333,7 @@
       <c r="Y237" s="3"/>
       <c r="Z237" s="3"/>
     </row>
-    <row r="238" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -7358,7 +7361,7 @@
       <c r="Y238" s="3"/>
       <c r="Z238" s="3"/>
     </row>
-    <row r="239" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -7386,7 +7389,7 @@
       <c r="Y239" s="3"/>
       <c r="Z239" s="3"/>
     </row>
-    <row r="240" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -7414,7 +7417,7 @@
       <c r="Y240" s="3"/>
       <c r="Z240" s="3"/>
     </row>
-    <row r="241" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -7442,7 +7445,7 @@
       <c r="Y241" s="3"/>
       <c r="Z241" s="3"/>
     </row>
-    <row r="242" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -7470,7 +7473,7 @@
       <c r="Y242" s="3"/>
       <c r="Z242" s="3"/>
     </row>
-    <row r="243" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -7498,7 +7501,7 @@
       <c r="Y243" s="3"/>
       <c r="Z243" s="3"/>
     </row>
-    <row r="244" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -7526,7 +7529,7 @@
       <c r="Y244" s="3"/>
       <c r="Z244" s="3"/>
     </row>
-    <row r="245" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -7554,7 +7557,7 @@
       <c r="Y245" s="3"/>
       <c r="Z245" s="3"/>
     </row>
-    <row r="246" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -7582,7 +7585,7 @@
       <c r="Y246" s="3"/>
       <c r="Z246" s="3"/>
     </row>
-    <row r="247" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -7610,7 +7613,7 @@
       <c r="Y247" s="3"/>
       <c r="Z247" s="3"/>
     </row>
-    <row r="248" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -7638,7 +7641,7 @@
       <c r="Y248" s="3"/>
       <c r="Z248" s="3"/>
     </row>
-    <row r="249" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -7666,7 +7669,7 @@
       <c r="Y249" s="3"/>
       <c r="Z249" s="3"/>
     </row>
-    <row r="250" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -7694,7 +7697,7 @@
       <c r="Y250" s="3"/>
       <c r="Z250" s="3"/>
     </row>
-    <row r="251" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -7722,7 +7725,7 @@
       <c r="Y251" s="3"/>
       <c r="Z251" s="3"/>
     </row>
-    <row r="252" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -7750,7 +7753,7 @@
       <c r="Y252" s="3"/>
       <c r="Z252" s="3"/>
     </row>
-    <row r="253" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -7778,7 +7781,7 @@
       <c r="Y253" s="3"/>
       <c r="Z253" s="3"/>
     </row>
-    <row r="254" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -7806,7 +7809,7 @@
       <c r="Y254" s="3"/>
       <c r="Z254" s="3"/>
     </row>
-    <row r="255" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -7834,7 +7837,7 @@
       <c r="Y255" s="3"/>
       <c r="Z255" s="3"/>
     </row>
-    <row r="256" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -7862,7 +7865,7 @@
       <c r="Y256" s="3"/>
       <c r="Z256" s="3"/>
     </row>
-    <row r="257" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -7890,7 +7893,7 @@
       <c r="Y257" s="3"/>
       <c r="Z257" s="3"/>
     </row>
-    <row r="258" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -7918,7 +7921,7 @@
       <c r="Y258" s="3"/>
       <c r="Z258" s="3"/>
     </row>
-    <row r="259" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -7946,7 +7949,7 @@
       <c r="Y259" s="3"/>
       <c r="Z259" s="3"/>
     </row>
-    <row r="260" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -7974,7 +7977,7 @@
       <c r="Y260" s="3"/>
       <c r="Z260" s="3"/>
     </row>
-    <row r="261" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -8002,7 +8005,7 @@
       <c r="Y261" s="3"/>
       <c r="Z261" s="3"/>
     </row>
-    <row r="262" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -8030,7 +8033,7 @@
       <c r="Y262" s="3"/>
       <c r="Z262" s="3"/>
     </row>
-    <row r="263" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -8058,7 +8061,7 @@
       <c r="Y263" s="3"/>
       <c r="Z263" s="3"/>
     </row>
-    <row r="264" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -8086,7 +8089,7 @@
       <c r="Y264" s="3"/>
       <c r="Z264" s="3"/>
     </row>
-    <row r="265" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -8114,7 +8117,7 @@
       <c r="Y265" s="3"/>
       <c r="Z265" s="3"/>
     </row>
-    <row r="266" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -8142,7 +8145,7 @@
       <c r="Y266" s="3"/>
       <c r="Z266" s="3"/>
     </row>
-    <row r="267" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -8170,7 +8173,7 @@
       <c r="Y267" s="3"/>
       <c r="Z267" s="3"/>
     </row>
-    <row r="268" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -8198,7 +8201,7 @@
       <c r="Y268" s="3"/>
       <c r="Z268" s="3"/>
     </row>
-    <row r="269" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -8226,7 +8229,7 @@
       <c r="Y269" s="3"/>
       <c r="Z269" s="3"/>
     </row>
-    <row r="270" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -8254,7 +8257,7 @@
       <c r="Y270" s="3"/>
       <c r="Z270" s="3"/>
     </row>
-    <row r="271" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -8282,7 +8285,7 @@
       <c r="Y271" s="3"/>
       <c r="Z271" s="3"/>
     </row>
-    <row r="272" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -8310,7 +8313,7 @@
       <c r="Y272" s="3"/>
       <c r="Z272" s="3"/>
     </row>
-    <row r="273" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -8338,7 +8341,7 @@
       <c r="Y273" s="3"/>
       <c r="Z273" s="3"/>
     </row>
-    <row r="274" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -8366,7 +8369,7 @@
       <c r="Y274" s="3"/>
       <c r="Z274" s="3"/>
     </row>
-    <row r="275" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -8394,7 +8397,7 @@
       <c r="Y275" s="3"/>
       <c r="Z275" s="3"/>
     </row>
-    <row r="276" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -8422,7 +8425,7 @@
       <c r="Y276" s="3"/>
       <c r="Z276" s="3"/>
     </row>
-    <row r="277" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -8450,7 +8453,7 @@
       <c r="Y277" s="3"/>
       <c r="Z277" s="3"/>
     </row>
-    <row r="278" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -8478,7 +8481,7 @@
       <c r="Y278" s="3"/>
       <c r="Z278" s="3"/>
     </row>
-    <row r="279" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -8506,7 +8509,7 @@
       <c r="Y279" s="3"/>
       <c r="Z279" s="3"/>
     </row>
-    <row r="280" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -8534,7 +8537,7 @@
       <c r="Y280" s="3"/>
       <c r="Z280" s="3"/>
     </row>
-    <row r="281" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -8562,7 +8565,7 @@
       <c r="Y281" s="3"/>
       <c r="Z281" s="3"/>
     </row>
-    <row r="282" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -8590,7 +8593,7 @@
       <c r="Y282" s="3"/>
       <c r="Z282" s="3"/>
     </row>
-    <row r="283" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -8618,7 +8621,7 @@
       <c r="Y283" s="3"/>
       <c r="Z283" s="3"/>
     </row>
-    <row r="284" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -8646,7 +8649,7 @@
       <c r="Y284" s="3"/>
       <c r="Z284" s="3"/>
     </row>
-    <row r="285" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -8674,7 +8677,7 @@
       <c r="Y285" s="3"/>
       <c r="Z285" s="3"/>
     </row>
-    <row r="286" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -8702,7 +8705,7 @@
       <c r="Y286" s="3"/>
       <c r="Z286" s="3"/>
     </row>
-    <row r="287" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -8730,7 +8733,7 @@
       <c r="Y287" s="3"/>
       <c r="Z287" s="3"/>
     </row>
-    <row r="288" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -8758,7 +8761,7 @@
       <c r="Y288" s="3"/>
       <c r="Z288" s="3"/>
     </row>
-    <row r="289" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -8786,7 +8789,7 @@
       <c r="Y289" s="3"/>
       <c r="Z289" s="3"/>
     </row>
-    <row r="290" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -8814,7 +8817,7 @@
       <c r="Y290" s="3"/>
       <c r="Z290" s="3"/>
     </row>
-    <row r="291" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -8842,7 +8845,7 @@
       <c r="Y291" s="3"/>
       <c r="Z291" s="3"/>
     </row>
-    <row r="292" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -8870,7 +8873,7 @@
       <c r="Y292" s="3"/>
       <c r="Z292" s="3"/>
     </row>
-    <row r="293" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -8898,7 +8901,7 @@
       <c r="Y293" s="3"/>
       <c r="Z293" s="3"/>
     </row>
-    <row r="294" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -8926,7 +8929,7 @@
       <c r="Y294" s="3"/>
       <c r="Z294" s="3"/>
     </row>
-    <row r="295" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -8954,7 +8957,7 @@
       <c r="Y295" s="3"/>
       <c r="Z295" s="3"/>
     </row>
-    <row r="296" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -8982,7 +8985,7 @@
       <c r="Y296" s="3"/>
       <c r="Z296" s="3"/>
     </row>
-    <row r="297" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -9010,7 +9013,7 @@
       <c r="Y297" s="3"/>
       <c r="Z297" s="3"/>
     </row>
-    <row r="298" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -9038,7 +9041,7 @@
       <c r="Y298" s="3"/>
       <c r="Z298" s="3"/>
     </row>
-    <row r="299" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -9066,7 +9069,7 @@
       <c r="Y299" s="3"/>
       <c r="Z299" s="3"/>
     </row>
-    <row r="300" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -9094,7 +9097,7 @@
       <c r="Y300" s="3"/>
       <c r="Z300" s="3"/>
     </row>
-    <row r="301" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -9122,7 +9125,7 @@
       <c r="Y301" s="3"/>
       <c r="Z301" s="3"/>
     </row>
-    <row r="302" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -9150,7 +9153,7 @@
       <c r="Y302" s="3"/>
       <c r="Z302" s="3"/>
     </row>
-    <row r="303" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -9178,7 +9181,7 @@
       <c r="Y303" s="3"/>
       <c r="Z303" s="3"/>
     </row>
-    <row r="304" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -9206,7 +9209,7 @@
       <c r="Y304" s="3"/>
       <c r="Z304" s="3"/>
     </row>
-    <row r="305" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -9234,7 +9237,7 @@
       <c r="Y305" s="3"/>
       <c r="Z305" s="3"/>
     </row>
-    <row r="306" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -9262,7 +9265,7 @@
       <c r="Y306" s="3"/>
       <c r="Z306" s="3"/>
     </row>
-    <row r="307" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -9290,7 +9293,7 @@
       <c r="Y307" s="3"/>
       <c r="Z307" s="3"/>
     </row>
-    <row r="308" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -9318,7 +9321,7 @@
       <c r="Y308" s="3"/>
       <c r="Z308" s="3"/>
     </row>
-    <row r="309" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -9346,7 +9349,7 @@
       <c r="Y309" s="3"/>
       <c r="Z309" s="3"/>
     </row>
-    <row r="310" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -9374,7 +9377,7 @@
       <c r="Y310" s="3"/>
       <c r="Z310" s="3"/>
     </row>
-    <row r="311" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -9402,7 +9405,7 @@
       <c r="Y311" s="3"/>
       <c r="Z311" s="3"/>
     </row>
-    <row r="312" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -9430,7 +9433,7 @@
       <c r="Y312" s="3"/>
       <c r="Z312" s="3"/>
     </row>
-    <row r="313" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -9458,7 +9461,7 @@
       <c r="Y313" s="3"/>
       <c r="Z313" s="3"/>
     </row>
-    <row r="314" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -9486,7 +9489,7 @@
       <c r="Y314" s="3"/>
       <c r="Z314" s="3"/>
     </row>
-    <row r="315" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -9514,7 +9517,7 @@
       <c r="Y315" s="3"/>
       <c r="Z315" s="3"/>
     </row>
-    <row r="316" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -9542,7 +9545,7 @@
       <c r="Y316" s="3"/>
       <c r="Z316" s="3"/>
     </row>
-    <row r="317" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -9570,7 +9573,7 @@
       <c r="Y317" s="3"/>
       <c r="Z317" s="3"/>
     </row>
-    <row r="318" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -9598,7 +9601,7 @@
       <c r="Y318" s="3"/>
       <c r="Z318" s="3"/>
     </row>
-    <row r="319" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -9626,7 +9629,7 @@
       <c r="Y319" s="3"/>
       <c r="Z319" s="3"/>
     </row>
-    <row r="320" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -9654,7 +9657,7 @@
       <c r="Y320" s="3"/>
       <c r="Z320" s="3"/>
     </row>
-    <row r="321" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -9682,7 +9685,7 @@
       <c r="Y321" s="3"/>
       <c r="Z321" s="3"/>
     </row>
-    <row r="322" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -9710,7 +9713,7 @@
       <c r="Y322" s="3"/>
       <c r="Z322" s="3"/>
     </row>
-    <row r="323" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -9738,7 +9741,7 @@
       <c r="Y323" s="3"/>
       <c r="Z323" s="3"/>
     </row>
-    <row r="324" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -9766,7 +9769,7 @@
       <c r="Y324" s="3"/>
       <c r="Z324" s="3"/>
     </row>
-    <row r="325" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -9794,7 +9797,7 @@
       <c r="Y325" s="3"/>
       <c r="Z325" s="3"/>
     </row>
-    <row r="326" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -9822,7 +9825,7 @@
       <c r="Y326" s="3"/>
       <c r="Z326" s="3"/>
     </row>
-    <row r="327" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -9850,7 +9853,7 @@
       <c r="Y327" s="3"/>
       <c r="Z327" s="3"/>
     </row>
-    <row r="328" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -9878,7 +9881,7 @@
       <c r="Y328" s="3"/>
       <c r="Z328" s="3"/>
     </row>
-    <row r="329" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -9906,7 +9909,7 @@
       <c r="Y329" s="3"/>
       <c r="Z329" s="3"/>
     </row>
-    <row r="330" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -9934,7 +9937,7 @@
       <c r="Y330" s="3"/>
       <c r="Z330" s="3"/>
     </row>
-    <row r="331" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -9962,7 +9965,7 @@
       <c r="Y331" s="3"/>
       <c r="Z331" s="3"/>
     </row>
-    <row r="332" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -9990,7 +9993,7 @@
       <c r="Y332" s="3"/>
       <c r="Z332" s="3"/>
     </row>
-    <row r="333" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -10018,7 +10021,7 @@
       <c r="Y333" s="3"/>
       <c r="Z333" s="3"/>
     </row>
-    <row r="334" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -10046,7 +10049,7 @@
       <c r="Y334" s="3"/>
       <c r="Z334" s="3"/>
     </row>
-    <row r="335" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -10074,7 +10077,7 @@
       <c r="Y335" s="3"/>
       <c r="Z335" s="3"/>
     </row>
-    <row r="336" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -10102,7 +10105,7 @@
       <c r="Y336" s="3"/>
       <c r="Z336" s="3"/>
     </row>
-    <row r="337" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -10130,7 +10133,7 @@
       <c r="Y337" s="3"/>
       <c r="Z337" s="3"/>
     </row>
-    <row r="338" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -10158,7 +10161,7 @@
       <c r="Y338" s="3"/>
       <c r="Z338" s="3"/>
     </row>
-    <row r="339" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -10186,7 +10189,7 @@
       <c r="Y339" s="3"/>
       <c r="Z339" s="3"/>
     </row>
-    <row r="340" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -10214,7 +10217,7 @@
       <c r="Y340" s="3"/>
       <c r="Z340" s="3"/>
     </row>
-    <row r="341" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -10242,7 +10245,7 @@
       <c r="Y341" s="3"/>
       <c r="Z341" s="3"/>
     </row>
-    <row r="342" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -10270,7 +10273,7 @@
       <c r="Y342" s="3"/>
       <c r="Z342" s="3"/>
     </row>
-    <row r="343" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -10298,7 +10301,7 @@
       <c r="Y343" s="3"/>
       <c r="Z343" s="3"/>
     </row>
-    <row r="344" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -10326,7 +10329,7 @@
       <c r="Y344" s="3"/>
       <c r="Z344" s="3"/>
     </row>
-    <row r="345" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -10354,7 +10357,7 @@
       <c r="Y345" s="3"/>
       <c r="Z345" s="3"/>
     </row>
-    <row r="346" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -10382,7 +10385,7 @@
       <c r="Y346" s="3"/>
       <c r="Z346" s="3"/>
     </row>
-    <row r="347" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -10410,7 +10413,7 @@
       <c r="Y347" s="3"/>
       <c r="Z347" s="3"/>
     </row>
-    <row r="348" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -10438,7 +10441,7 @@
       <c r="Y348" s="3"/>
       <c r="Z348" s="3"/>
     </row>
-    <row r="349" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -10466,7 +10469,7 @@
       <c r="Y349" s="3"/>
       <c r="Z349" s="3"/>
     </row>
-    <row r="350" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -10494,7 +10497,7 @@
       <c r="Y350" s="3"/>
       <c r="Z350" s="3"/>
     </row>
-    <row r="351" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -10522,7 +10525,7 @@
       <c r="Y351" s="3"/>
       <c r="Z351" s="3"/>
     </row>
-    <row r="352" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -10550,7 +10553,7 @@
       <c r="Y352" s="3"/>
       <c r="Z352" s="3"/>
     </row>
-    <row r="353" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -10578,7 +10581,7 @@
       <c r="Y353" s="3"/>
       <c r="Z353" s="3"/>
     </row>
-    <row r="354" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -10606,7 +10609,7 @@
       <c r="Y354" s="3"/>
       <c r="Z354" s="3"/>
     </row>
-    <row r="355" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -10634,7 +10637,7 @@
       <c r="Y355" s="3"/>
       <c r="Z355" s="3"/>
     </row>
-    <row r="356" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -10662,7 +10665,7 @@
       <c r="Y356" s="3"/>
       <c r="Z356" s="3"/>
     </row>
-    <row r="357" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -10690,7 +10693,7 @@
       <c r="Y357" s="3"/>
       <c r="Z357" s="3"/>
     </row>
-    <row r="358" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -10718,7 +10721,7 @@
       <c r="Y358" s="3"/>
       <c r="Z358" s="3"/>
     </row>
-    <row r="359" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -10746,7 +10749,7 @@
       <c r="Y359" s="3"/>
       <c r="Z359" s="3"/>
     </row>
-    <row r="360" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -10774,7 +10777,7 @@
       <c r="Y360" s="3"/>
       <c r="Z360" s="3"/>
     </row>
-    <row r="361" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -10802,7 +10805,7 @@
       <c r="Y361" s="3"/>
       <c r="Z361" s="3"/>
     </row>
-    <row r="362" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -10830,7 +10833,7 @@
       <c r="Y362" s="3"/>
       <c r="Z362" s="3"/>
     </row>
-    <row r="363" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -10858,7 +10861,7 @@
       <c r="Y363" s="3"/>
       <c r="Z363" s="3"/>
     </row>
-    <row r="364" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -10886,7 +10889,7 @@
       <c r="Y364" s="3"/>
       <c r="Z364" s="3"/>
     </row>
-    <row r="365" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -10914,7 +10917,7 @@
       <c r="Y365" s="3"/>
       <c r="Z365" s="3"/>
     </row>
-    <row r="366" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -10942,7 +10945,7 @@
       <c r="Y366" s="3"/>
       <c r="Z366" s="3"/>
     </row>
-    <row r="367" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -10970,7 +10973,7 @@
       <c r="Y367" s="3"/>
       <c r="Z367" s="3"/>
     </row>
-    <row r="368" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -10998,7 +11001,7 @@
       <c r="Y368" s="3"/>
       <c r="Z368" s="3"/>
     </row>
-    <row r="369" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -11026,7 +11029,7 @@
       <c r="Y369" s="3"/>
       <c r="Z369" s="3"/>
     </row>
-    <row r="370" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -11054,7 +11057,7 @@
       <c r="Y370" s="3"/>
       <c r="Z370" s="3"/>
     </row>
-    <row r="371" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -11082,7 +11085,7 @@
       <c r="Y371" s="3"/>
       <c r="Z371" s="3"/>
     </row>
-    <row r="372" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -11110,7 +11113,7 @@
       <c r="Y372" s="3"/>
       <c r="Z372" s="3"/>
     </row>
-    <row r="373" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -11138,7 +11141,7 @@
       <c r="Y373" s="3"/>
       <c r="Z373" s="3"/>
     </row>
-    <row r="374" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -11166,7 +11169,7 @@
       <c r="Y374" s="3"/>
       <c r="Z374" s="3"/>
     </row>
-    <row r="375" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -11194,7 +11197,7 @@
       <c r="Y375" s="3"/>
       <c r="Z375" s="3"/>
     </row>
-    <row r="376" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -11222,7 +11225,7 @@
       <c r="Y376" s="3"/>
       <c r="Z376" s="3"/>
     </row>
-    <row r="377" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -11250,7 +11253,7 @@
       <c r="Y377" s="3"/>
       <c r="Z377" s="3"/>
     </row>
-    <row r="378" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -11278,7 +11281,7 @@
       <c r="Y378" s="3"/>
       <c r="Z378" s="3"/>
     </row>
-    <row r="379" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -11306,7 +11309,7 @@
       <c r="Y379" s="3"/>
       <c r="Z379" s="3"/>
     </row>
-    <row r="380" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -11334,7 +11337,7 @@
       <c r="Y380" s="3"/>
       <c r="Z380" s="3"/>
     </row>
-    <row r="381" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -11362,7 +11365,7 @@
       <c r="Y381" s="3"/>
       <c r="Z381" s="3"/>
     </row>
-    <row r="382" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -11390,7 +11393,7 @@
       <c r="Y382" s="3"/>
       <c r="Z382" s="3"/>
     </row>
-    <row r="383" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -11418,7 +11421,7 @@
       <c r="Y383" s="3"/>
       <c r="Z383" s="3"/>
     </row>
-    <row r="384" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -11446,7 +11449,7 @@
       <c r="Y384" s="3"/>
       <c r="Z384" s="3"/>
     </row>
-    <row r="385" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -11474,7 +11477,7 @@
       <c r="Y385" s="3"/>
       <c r="Z385" s="3"/>
     </row>
-    <row r="386" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -11502,7 +11505,7 @@
       <c r="Y386" s="3"/>
       <c r="Z386" s="3"/>
     </row>
-    <row r="387" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -11530,7 +11533,7 @@
       <c r="Y387" s="3"/>
       <c r="Z387" s="3"/>
     </row>
-    <row r="388" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -11558,7 +11561,7 @@
       <c r="Y388" s="3"/>
       <c r="Z388" s="3"/>
     </row>
-    <row r="389" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -11586,7 +11589,7 @@
       <c r="Y389" s="3"/>
       <c r="Z389" s="3"/>
     </row>
-    <row r="390" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -11614,7 +11617,7 @@
       <c r="Y390" s="3"/>
       <c r="Z390" s="3"/>
     </row>
-    <row r="391" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -11642,7 +11645,7 @@
       <c r="Y391" s="3"/>
       <c r="Z391" s="3"/>
     </row>
-    <row r="392" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -11670,7 +11673,7 @@
       <c r="Y392" s="3"/>
       <c r="Z392" s="3"/>
     </row>
-    <row r="393" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -11698,7 +11701,7 @@
       <c r="Y393" s="3"/>
       <c r="Z393" s="3"/>
     </row>
-    <row r="394" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -11726,7 +11729,7 @@
       <c r="Y394" s="3"/>
       <c r="Z394" s="3"/>
     </row>
-    <row r="395" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -11754,7 +11757,7 @@
       <c r="Y395" s="3"/>
       <c r="Z395" s="3"/>
     </row>
-    <row r="396" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -11782,7 +11785,7 @@
       <c r="Y396" s="3"/>
       <c r="Z396" s="3"/>
     </row>
-    <row r="397" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -11810,7 +11813,7 @@
       <c r="Y397" s="3"/>
       <c r="Z397" s="3"/>
     </row>
-    <row r="398" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -11838,7 +11841,7 @@
       <c r="Y398" s="3"/>
       <c r="Z398" s="3"/>
     </row>
-    <row r="399" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -11866,7 +11869,7 @@
       <c r="Y399" s="3"/>
       <c r="Z399" s="3"/>
     </row>
-    <row r="400" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -11894,7 +11897,7 @@
       <c r="Y400" s="3"/>
       <c r="Z400" s="3"/>
     </row>
-    <row r="401" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -11922,7 +11925,7 @@
       <c r="Y401" s="3"/>
       <c r="Z401" s="3"/>
     </row>
-    <row r="402" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -11950,7 +11953,7 @@
       <c r="Y402" s="3"/>
       <c r="Z402" s="3"/>
     </row>
-    <row r="403" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -11978,7 +11981,7 @@
       <c r="Y403" s="3"/>
       <c r="Z403" s="3"/>
     </row>
-    <row r="404" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -12006,7 +12009,7 @@
       <c r="Y404" s="3"/>
       <c r="Z404" s="3"/>
     </row>
-    <row r="405" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -12034,7 +12037,7 @@
       <c r="Y405" s="3"/>
       <c r="Z405" s="3"/>
     </row>
-    <row r="406" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -12062,7 +12065,7 @@
       <c r="Y406" s="3"/>
       <c r="Z406" s="3"/>
     </row>
-    <row r="407" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -12090,7 +12093,7 @@
       <c r="Y407" s="3"/>
       <c r="Z407" s="3"/>
     </row>
-    <row r="408" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -12118,7 +12121,7 @@
       <c r="Y408" s="3"/>
       <c r="Z408" s="3"/>
     </row>
-    <row r="409" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -12146,7 +12149,7 @@
       <c r="Y409" s="3"/>
       <c r="Z409" s="3"/>
     </row>
-    <row r="410" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -12174,7 +12177,7 @@
       <c r="Y410" s="3"/>
       <c r="Z410" s="3"/>
     </row>
-    <row r="411" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -12202,7 +12205,7 @@
       <c r="Y411" s="3"/>
       <c r="Z411" s="3"/>
     </row>
-    <row r="412" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -12230,7 +12233,7 @@
       <c r="Y412" s="3"/>
       <c r="Z412" s="3"/>
     </row>
-    <row r="413" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -12258,7 +12261,7 @@
       <c r="Y413" s="3"/>
       <c r="Z413" s="3"/>
     </row>
-    <row r="414" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -12286,7 +12289,7 @@
       <c r="Y414" s="3"/>
       <c r="Z414" s="3"/>
     </row>
-    <row r="415" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -12314,7 +12317,7 @@
       <c r="Y415" s="3"/>
       <c r="Z415" s="3"/>
     </row>
-    <row r="416" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -12342,7 +12345,7 @@
       <c r="Y416" s="3"/>
       <c r="Z416" s="3"/>
     </row>
-    <row r="417" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -12370,7 +12373,7 @@
       <c r="Y417" s="3"/>
       <c r="Z417" s="3"/>
     </row>
-    <row r="418" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -12398,7 +12401,7 @@
       <c r="Y418" s="3"/>
       <c r="Z418" s="3"/>
     </row>
-    <row r="419" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -12426,7 +12429,7 @@
       <c r="Y419" s="3"/>
       <c r="Z419" s="3"/>
     </row>
-    <row r="420" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -12454,7 +12457,7 @@
       <c r="Y420" s="3"/>
       <c r="Z420" s="3"/>
     </row>
-    <row r="421" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -12482,7 +12485,7 @@
       <c r="Y421" s="3"/>
       <c r="Z421" s="3"/>
     </row>
-    <row r="422" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -12510,7 +12513,7 @@
       <c r="Y422" s="3"/>
       <c r="Z422" s="3"/>
     </row>
-    <row r="423" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -12538,7 +12541,7 @@
       <c r="Y423" s="3"/>
       <c r="Z423" s="3"/>
     </row>
-    <row r="424" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -12566,7 +12569,7 @@
       <c r="Y424" s="3"/>
       <c r="Z424" s="3"/>
     </row>
-    <row r="425" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -12594,7 +12597,7 @@
       <c r="Y425" s="3"/>
       <c r="Z425" s="3"/>
     </row>
-    <row r="426" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -12622,7 +12625,7 @@
       <c r="Y426" s="3"/>
       <c r="Z426" s="3"/>
     </row>
-    <row r="427" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -12650,7 +12653,7 @@
       <c r="Y427" s="3"/>
       <c r="Z427" s="3"/>
     </row>
-    <row r="428" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -12678,7 +12681,7 @@
       <c r="Y428" s="3"/>
       <c r="Z428" s="3"/>
     </row>
-    <row r="429" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -12706,7 +12709,7 @@
       <c r="Y429" s="3"/>
       <c r="Z429" s="3"/>
     </row>
-    <row r="430" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -12734,7 +12737,7 @@
       <c r="Y430" s="3"/>
       <c r="Z430" s="3"/>
     </row>
-    <row r="431" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -12762,7 +12765,7 @@
       <c r="Y431" s="3"/>
       <c r="Z431" s="3"/>
     </row>
-    <row r="432" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -12790,7 +12793,7 @@
       <c r="Y432" s="3"/>
       <c r="Z432" s="3"/>
     </row>
-    <row r="433" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -12818,7 +12821,7 @@
       <c r="Y433" s="3"/>
       <c r="Z433" s="3"/>
     </row>
-    <row r="434" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -12846,7 +12849,7 @@
       <c r="Y434" s="3"/>
       <c r="Z434" s="3"/>
     </row>
-    <row r="435" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -12874,7 +12877,7 @@
       <c r="Y435" s="3"/>
       <c r="Z435" s="3"/>
     </row>
-    <row r="436" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -12902,7 +12905,7 @@
       <c r="Y436" s="3"/>
       <c r="Z436" s="3"/>
     </row>
-    <row r="437" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -12930,7 +12933,7 @@
       <c r="Y437" s="3"/>
       <c r="Z437" s="3"/>
     </row>
-    <row r="438" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -12958,7 +12961,7 @@
       <c r="Y438" s="3"/>
       <c r="Z438" s="3"/>
     </row>
-    <row r="439" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -12986,7 +12989,7 @@
       <c r="Y439" s="3"/>
       <c r="Z439" s="3"/>
     </row>
-    <row r="440" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -13014,7 +13017,7 @@
       <c r="Y440" s="3"/>
       <c r="Z440" s="3"/>
     </row>
-    <row r="441" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -13042,7 +13045,7 @@
       <c r="Y441" s="3"/>
       <c r="Z441" s="3"/>
     </row>
-    <row r="442" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -13070,7 +13073,7 @@
       <c r="Y442" s="3"/>
       <c r="Z442" s="3"/>
     </row>
-    <row r="443" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -13098,7 +13101,7 @@
       <c r="Y443" s="3"/>
       <c r="Z443" s="3"/>
     </row>
-    <row r="444" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -13126,7 +13129,7 @@
       <c r="Y444" s="3"/>
       <c r="Z444" s="3"/>
     </row>
-    <row r="445" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -13154,7 +13157,7 @@
       <c r="Y445" s="3"/>
       <c r="Z445" s="3"/>
     </row>
-    <row r="446" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -13182,7 +13185,7 @@
       <c r="Y446" s="3"/>
       <c r="Z446" s="3"/>
     </row>
-    <row r="447" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -13210,7 +13213,7 @@
       <c r="Y447" s="3"/>
       <c r="Z447" s="3"/>
     </row>
-    <row r="448" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -13238,7 +13241,7 @@
       <c r="Y448" s="3"/>
       <c r="Z448" s="3"/>
     </row>
-    <row r="449" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -13266,7 +13269,7 @@
       <c r="Y449" s="3"/>
       <c r="Z449" s="3"/>
     </row>
-    <row r="450" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -13294,7 +13297,7 @@
       <c r="Y450" s="3"/>
       <c r="Z450" s="3"/>
     </row>
-    <row r="451" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -13322,7 +13325,7 @@
       <c r="Y451" s="3"/>
       <c r="Z451" s="3"/>
     </row>
-    <row r="452" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -13350,7 +13353,7 @@
       <c r="Y452" s="3"/>
       <c r="Z452" s="3"/>
     </row>
-    <row r="453" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -13378,7 +13381,7 @@
       <c r="Y453" s="3"/>
       <c r="Z453" s="3"/>
     </row>
-    <row r="454" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -13406,7 +13409,7 @@
       <c r="Y454" s="3"/>
       <c r="Z454" s="3"/>
     </row>
-    <row r="455" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -13434,7 +13437,7 @@
       <c r="Y455" s="3"/>
       <c r="Z455" s="3"/>
     </row>
-    <row r="456" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -13462,7 +13465,7 @@
       <c r="Y456" s="3"/>
       <c r="Z456" s="3"/>
     </row>
-    <row r="457" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -13490,7 +13493,7 @@
       <c r="Y457" s="3"/>
       <c r="Z457" s="3"/>
     </row>
-    <row r="458" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -13518,7 +13521,7 @@
       <c r="Y458" s="3"/>
       <c r="Z458" s="3"/>
     </row>
-    <row r="459" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -13546,7 +13549,7 @@
       <c r="Y459" s="3"/>
       <c r="Z459" s="3"/>
     </row>
-    <row r="460" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -13574,7 +13577,7 @@
       <c r="Y460" s="3"/>
       <c r="Z460" s="3"/>
     </row>
-    <row r="461" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -13602,7 +13605,7 @@
       <c r="Y461" s="3"/>
       <c r="Z461" s="3"/>
     </row>
-    <row r="462" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -13630,7 +13633,7 @@
       <c r="Y462" s="3"/>
       <c r="Z462" s="3"/>
     </row>
-    <row r="463" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -13658,7 +13661,7 @@
       <c r="Y463" s="3"/>
       <c r="Z463" s="3"/>
     </row>
-    <row r="464" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -13686,7 +13689,7 @@
       <c r="Y464" s="3"/>
       <c r="Z464" s="3"/>
     </row>
-    <row r="465" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -13714,7 +13717,7 @@
       <c r="Y465" s="3"/>
       <c r="Z465" s="3"/>
     </row>
-    <row r="466" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -13742,7 +13745,7 @@
       <c r="Y466" s="3"/>
       <c r="Z466" s="3"/>
     </row>
-    <row r="467" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -13770,7 +13773,7 @@
       <c r="Y467" s="3"/>
       <c r="Z467" s="3"/>
     </row>
-    <row r="468" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -13798,7 +13801,7 @@
       <c r="Y468" s="3"/>
       <c r="Z468" s="3"/>
     </row>
-    <row r="469" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -13826,7 +13829,7 @@
       <c r="Y469" s="3"/>
       <c r="Z469" s="3"/>
     </row>
-    <row r="470" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -13854,7 +13857,7 @@
       <c r="Y470" s="3"/>
       <c r="Z470" s="3"/>
     </row>
-    <row r="471" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -13882,7 +13885,7 @@
       <c r="Y471" s="3"/>
       <c r="Z471" s="3"/>
     </row>
-    <row r="472" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -13910,7 +13913,7 @@
       <c r="Y472" s="3"/>
       <c r="Z472" s="3"/>
     </row>
-    <row r="473" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -13938,7 +13941,7 @@
       <c r="Y473" s="3"/>
       <c r="Z473" s="3"/>
     </row>
-    <row r="474" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -13966,7 +13969,7 @@
       <c r="Y474" s="3"/>
       <c r="Z474" s="3"/>
     </row>
-    <row r="475" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -13994,7 +13997,7 @@
       <c r="Y475" s="3"/>
       <c r="Z475" s="3"/>
     </row>
-    <row r="476" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -14022,7 +14025,7 @@
       <c r="Y476" s="3"/>
       <c r="Z476" s="3"/>
     </row>
-    <row r="477" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -14050,7 +14053,7 @@
       <c r="Y477" s="3"/>
       <c r="Z477" s="3"/>
     </row>
-    <row r="478" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -14078,7 +14081,7 @@
       <c r="Y478" s="3"/>
       <c r="Z478" s="3"/>
     </row>
-    <row r="479" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -14106,7 +14109,7 @@
       <c r="Y479" s="3"/>
       <c r="Z479" s="3"/>
     </row>
-    <row r="480" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -14134,7 +14137,7 @@
       <c r="Y480" s="3"/>
       <c r="Z480" s="3"/>
     </row>
-    <row r="481" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -14162,7 +14165,7 @@
       <c r="Y481" s="3"/>
       <c r="Z481" s="3"/>
     </row>
-    <row r="482" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -14190,7 +14193,7 @@
       <c r="Y482" s="3"/>
       <c r="Z482" s="3"/>
     </row>
-    <row r="483" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -14218,7 +14221,7 @@
       <c r="Y483" s="3"/>
       <c r="Z483" s="3"/>
     </row>
-    <row r="484" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -14246,7 +14249,7 @@
       <c r="Y484" s="3"/>
       <c r="Z484" s="3"/>
     </row>
-    <row r="485" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -14274,7 +14277,7 @@
       <c r="Y485" s="3"/>
       <c r="Z485" s="3"/>
     </row>
-    <row r="486" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -14302,7 +14305,7 @@
       <c r="Y486" s="3"/>
       <c r="Z486" s="3"/>
     </row>
-    <row r="487" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -14330,7 +14333,7 @@
       <c r="Y487" s="3"/>
       <c r="Z487" s="3"/>
     </row>
-    <row r="488" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -14358,7 +14361,7 @@
       <c r="Y488" s="3"/>
       <c r="Z488" s="3"/>
     </row>
-    <row r="489" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -14386,7 +14389,7 @@
       <c r="Y489" s="3"/>
       <c r="Z489" s="3"/>
     </row>
-    <row r="490" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -14414,7 +14417,7 @@
       <c r="Y490" s="3"/>
       <c r="Z490" s="3"/>
     </row>
-    <row r="491" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -14442,7 +14445,7 @@
       <c r="Y491" s="3"/>
       <c r="Z491" s="3"/>
     </row>
-    <row r="492" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -14470,7 +14473,7 @@
       <c r="Y492" s="3"/>
       <c r="Z492" s="3"/>
     </row>
-    <row r="493" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -14498,7 +14501,7 @@
       <c r="Y493" s="3"/>
       <c r="Z493" s="3"/>
     </row>
-    <row r="494" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -14526,7 +14529,7 @@
       <c r="Y494" s="3"/>
       <c r="Z494" s="3"/>
     </row>
-    <row r="495" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -14554,7 +14557,7 @@
       <c r="Y495" s="3"/>
       <c r="Z495" s="3"/>
     </row>
-    <row r="496" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -14582,7 +14585,7 @@
       <c r="Y496" s="3"/>
       <c r="Z496" s="3"/>
     </row>
-    <row r="497" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -14610,7 +14613,7 @@
       <c r="Y497" s="3"/>
       <c r="Z497" s="3"/>
     </row>
-    <row r="498" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -14638,7 +14641,7 @@
       <c r="Y498" s="3"/>
       <c r="Z498" s="3"/>
     </row>
-    <row r="499" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -14666,7 +14669,7 @@
       <c r="Y499" s="3"/>
       <c r="Z499" s="3"/>
     </row>
-    <row r="500" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -14694,7 +14697,7 @@
       <c r="Y500" s="3"/>
       <c r="Z500" s="3"/>
     </row>
-    <row r="501" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -14722,7 +14725,7 @@
       <c r="Y501" s="3"/>
       <c r="Z501" s="3"/>
     </row>
-    <row r="502" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -14750,7 +14753,7 @@
       <c r="Y502" s="3"/>
       <c r="Z502" s="3"/>
     </row>
-    <row r="503" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -14778,7 +14781,7 @@
       <c r="Y503" s="3"/>
       <c r="Z503" s="3"/>
     </row>
-    <row r="504" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -14806,7 +14809,7 @@
       <c r="Y504" s="3"/>
       <c r="Z504" s="3"/>
     </row>
-    <row r="505" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -14834,7 +14837,7 @@
       <c r="Y505" s="3"/>
       <c r="Z505" s="3"/>
     </row>
-    <row r="506" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -14862,7 +14865,7 @@
       <c r="Y506" s="3"/>
       <c r="Z506" s="3"/>
     </row>
-    <row r="507" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -14890,7 +14893,7 @@
       <c r="Y507" s="3"/>
       <c r="Z507" s="3"/>
     </row>
-    <row r="508" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -14918,7 +14921,7 @@
       <c r="Y508" s="3"/>
       <c r="Z508" s="3"/>
     </row>
-    <row r="509" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -14946,7 +14949,7 @@
       <c r="Y509" s="3"/>
       <c r="Z509" s="3"/>
     </row>
-    <row r="510" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -14974,7 +14977,7 @@
       <c r="Y510" s="3"/>
       <c r="Z510" s="3"/>
     </row>
-    <row r="511" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -15002,7 +15005,7 @@
       <c r="Y511" s="3"/>
       <c r="Z511" s="3"/>
     </row>
-    <row r="512" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -15030,7 +15033,7 @@
       <c r="Y512" s="3"/>
       <c r="Z512" s="3"/>
     </row>
-    <row r="513" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -15058,7 +15061,7 @@
       <c r="Y513" s="3"/>
       <c r="Z513" s="3"/>
     </row>
-    <row r="514" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -15086,7 +15089,7 @@
       <c r="Y514" s="3"/>
       <c r="Z514" s="3"/>
     </row>
-    <row r="515" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -15114,7 +15117,7 @@
       <c r="Y515" s="3"/>
       <c r="Z515" s="3"/>
     </row>
-    <row r="516" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -15142,7 +15145,7 @@
       <c r="Y516" s="3"/>
       <c r="Z516" s="3"/>
     </row>
-    <row r="517" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -15170,7 +15173,7 @@
       <c r="Y517" s="3"/>
       <c r="Z517" s="3"/>
     </row>
-    <row r="518" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -15198,7 +15201,7 @@
       <c r="Y518" s="3"/>
       <c r="Z518" s="3"/>
     </row>
-    <row r="519" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -15226,7 +15229,7 @@
       <c r="Y519" s="3"/>
       <c r="Z519" s="3"/>
     </row>
-    <row r="520" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -15254,7 +15257,7 @@
       <c r="Y520" s="3"/>
       <c r="Z520" s="3"/>
     </row>
-    <row r="521" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -15282,7 +15285,7 @@
       <c r="Y521" s="3"/>
       <c r="Z521" s="3"/>
     </row>
-    <row r="522" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -15310,7 +15313,7 @@
       <c r="Y522" s="3"/>
       <c r="Z522" s="3"/>
     </row>
-    <row r="523" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -15338,7 +15341,7 @@
       <c r="Y523" s="3"/>
       <c r="Z523" s="3"/>
     </row>
-    <row r="524" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -15366,7 +15369,7 @@
       <c r="Y524" s="3"/>
       <c r="Z524" s="3"/>
     </row>
-    <row r="525" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -15394,7 +15397,7 @@
       <c r="Y525" s="3"/>
       <c r="Z525" s="3"/>
     </row>
-    <row r="526" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -15422,7 +15425,7 @@
       <c r="Y526" s="3"/>
       <c r="Z526" s="3"/>
     </row>
-    <row r="527" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -15450,7 +15453,7 @@
       <c r="Y527" s="3"/>
       <c r="Z527" s="3"/>
     </row>
-    <row r="528" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -15478,7 +15481,7 @@
       <c r="Y528" s="3"/>
       <c r="Z528" s="3"/>
     </row>
-    <row r="529" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -15506,7 +15509,7 @@
       <c r="Y529" s="3"/>
       <c r="Z529" s="3"/>
     </row>
-    <row r="530" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -15534,7 +15537,7 @@
       <c r="Y530" s="3"/>
       <c r="Z530" s="3"/>
     </row>
-    <row r="531" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -15562,7 +15565,7 @@
       <c r="Y531" s="3"/>
       <c r="Z531" s="3"/>
     </row>
-    <row r="532" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -15590,7 +15593,7 @@
       <c r="Y532" s="3"/>
       <c r="Z532" s="3"/>
     </row>
-    <row r="533" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -15618,7 +15621,7 @@
       <c r="Y533" s="3"/>
       <c r="Z533" s="3"/>
     </row>
-    <row r="534" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -15646,7 +15649,7 @@
       <c r="Y534" s="3"/>
       <c r="Z534" s="3"/>
     </row>
-    <row r="535" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -15674,7 +15677,7 @@
       <c r="Y535" s="3"/>
       <c r="Z535" s="3"/>
     </row>
-    <row r="536" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -15702,7 +15705,7 @@
       <c r="Y536" s="3"/>
       <c r="Z536" s="3"/>
     </row>
-    <row r="537" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -15730,7 +15733,7 @@
       <c r="Y537" s="3"/>
       <c r="Z537" s="3"/>
     </row>
-    <row r="538" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -15758,7 +15761,7 @@
       <c r="Y538" s="3"/>
       <c r="Z538" s="3"/>
     </row>
-    <row r="539" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -15786,7 +15789,7 @@
       <c r="Y539" s="3"/>
       <c r="Z539" s="3"/>
     </row>
-    <row r="540" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -15814,7 +15817,7 @@
       <c r="Y540" s="3"/>
       <c r="Z540" s="3"/>
     </row>
-    <row r="541" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -15842,7 +15845,7 @@
       <c r="Y541" s="3"/>
       <c r="Z541" s="3"/>
     </row>
-    <row r="542" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -15870,7 +15873,7 @@
       <c r="Y542" s="3"/>
       <c r="Z542" s="3"/>
     </row>
-    <row r="543" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -15898,7 +15901,7 @@
       <c r="Y543" s="3"/>
       <c r="Z543" s="3"/>
     </row>
-    <row r="544" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -15926,7 +15929,7 @@
       <c r="Y544" s="3"/>
       <c r="Z544" s="3"/>
     </row>
-    <row r="545" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -15954,7 +15957,7 @@
       <c r="Y545" s="3"/>
       <c r="Z545" s="3"/>
     </row>
-    <row r="546" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -15982,7 +15985,7 @@
       <c r="Y546" s="3"/>
       <c r="Z546" s="3"/>
     </row>
-    <row r="547" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -16010,7 +16013,7 @@
       <c r="Y547" s="3"/>
       <c r="Z547" s="3"/>
     </row>
-    <row r="548" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -16038,7 +16041,7 @@
       <c r="Y548" s="3"/>
       <c r="Z548" s="3"/>
     </row>
-    <row r="549" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -16066,7 +16069,7 @@
       <c r="Y549" s="3"/>
       <c r="Z549" s="3"/>
     </row>
-    <row r="550" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -16094,7 +16097,7 @@
       <c r="Y550" s="3"/>
       <c r="Z550" s="3"/>
     </row>
-    <row r="551" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -16122,7 +16125,7 @@
       <c r="Y551" s="3"/>
       <c r="Z551" s="3"/>
     </row>
-    <row r="552" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -16150,7 +16153,7 @@
       <c r="Y552" s="3"/>
       <c r="Z552" s="3"/>
     </row>
-    <row r="553" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -16178,7 +16181,7 @@
       <c r="Y553" s="3"/>
       <c r="Z553" s="3"/>
     </row>
-    <row r="554" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -16206,7 +16209,7 @@
       <c r="Y554" s="3"/>
       <c r="Z554" s="3"/>
     </row>
-    <row r="555" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -16234,7 +16237,7 @@
       <c r="Y555" s="3"/>
       <c r="Z555" s="3"/>
     </row>
-    <row r="556" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -16262,7 +16265,7 @@
       <c r="Y556" s="3"/>
       <c r="Z556" s="3"/>
     </row>
-    <row r="557" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -16290,7 +16293,7 @@
       <c r="Y557" s="3"/>
       <c r="Z557" s="3"/>
     </row>
-    <row r="558" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -16318,7 +16321,7 @@
       <c r="Y558" s="3"/>
       <c r="Z558" s="3"/>
     </row>
-    <row r="559" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -16346,7 +16349,7 @@
       <c r="Y559" s="3"/>
       <c r="Z559" s="3"/>
     </row>
-    <row r="560" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -16374,7 +16377,7 @@
       <c r="Y560" s="3"/>
       <c r="Z560" s="3"/>
     </row>
-    <row r="561" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -16402,7 +16405,7 @@
       <c r="Y561" s="3"/>
       <c r="Z561" s="3"/>
     </row>
-    <row r="562" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -16430,7 +16433,7 @@
       <c r="Y562" s="3"/>
       <c r="Z562" s="3"/>
     </row>
-    <row r="563" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -16458,7 +16461,7 @@
       <c r="Y563" s="3"/>
       <c r="Z563" s="3"/>
     </row>
-    <row r="564" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -16486,7 +16489,7 @@
       <c r="Y564" s="3"/>
       <c r="Z564" s="3"/>
     </row>
-    <row r="565" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -16514,7 +16517,7 @@
       <c r="Y565" s="3"/>
       <c r="Z565" s="3"/>
     </row>
-    <row r="566" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -16542,7 +16545,7 @@
       <c r="Y566" s="3"/>
       <c r="Z566" s="3"/>
     </row>
-    <row r="567" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -16570,7 +16573,7 @@
       <c r="Y567" s="3"/>
       <c r="Z567" s="3"/>
     </row>
-    <row r="568" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -16598,7 +16601,7 @@
       <c r="Y568" s="3"/>
       <c r="Z568" s="3"/>
     </row>
-    <row r="569" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -16626,7 +16629,7 @@
       <c r="Y569" s="3"/>
       <c r="Z569" s="3"/>
     </row>
-    <row r="570" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -16654,7 +16657,7 @@
       <c r="Y570" s="3"/>
       <c r="Z570" s="3"/>
     </row>
-    <row r="571" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
@@ -16682,7 +16685,7 @@
       <c r="Y571" s="3"/>
       <c r="Z571" s="3"/>
     </row>
-    <row r="572" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -16710,7 +16713,7 @@
       <c r="Y572" s="3"/>
       <c r="Z572" s="3"/>
     </row>
-    <row r="573" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
@@ -16738,7 +16741,7 @@
       <c r="Y573" s="3"/>
       <c r="Z573" s="3"/>
     </row>
-    <row r="574" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
@@ -16766,7 +16769,7 @@
       <c r="Y574" s="3"/>
       <c r="Z574" s="3"/>
     </row>
-    <row r="575" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
@@ -16794,7 +16797,7 @@
       <c r="Y575" s="3"/>
       <c r="Z575" s="3"/>
     </row>
-    <row r="576" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -16822,7 +16825,7 @@
       <c r="Y576" s="3"/>
       <c r="Z576" s="3"/>
     </row>
-    <row r="577" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
@@ -16850,7 +16853,7 @@
       <c r="Y577" s="3"/>
       <c r="Z577" s="3"/>
     </row>
-    <row r="578" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
@@ -16878,7 +16881,7 @@
       <c r="Y578" s="3"/>
       <c r="Z578" s="3"/>
     </row>
-    <row r="579" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -16906,7 +16909,7 @@
       <c r="Y579" s="3"/>
       <c r="Z579" s="3"/>
     </row>
-    <row r="580" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
@@ -16934,7 +16937,7 @@
       <c r="Y580" s="3"/>
       <c r="Z580" s="3"/>
     </row>
-    <row r="581" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
@@ -16962,7 +16965,7 @@
       <c r="Y581" s="3"/>
       <c r="Z581" s="3"/>
     </row>
-    <row r="582" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
@@ -16990,7 +16993,7 @@
       <c r="Y582" s="3"/>
       <c r="Z582" s="3"/>
     </row>
-    <row r="583" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
@@ -17018,7 +17021,7 @@
       <c r="Y583" s="3"/>
       <c r="Z583" s="3"/>
     </row>
-    <row r="584" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -17046,7 +17049,7 @@
       <c r="Y584" s="3"/>
       <c r="Z584" s="3"/>
     </row>
-    <row r="585" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -17074,7 +17077,7 @@
       <c r="Y585" s="3"/>
       <c r="Z585" s="3"/>
     </row>
-    <row r="586" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -17102,7 +17105,7 @@
       <c r="Y586" s="3"/>
       <c r="Z586" s="3"/>
     </row>
-    <row r="587" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -17130,7 +17133,7 @@
       <c r="Y587" s="3"/>
       <c r="Z587" s="3"/>
     </row>
-    <row r="588" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -17158,7 +17161,7 @@
       <c r="Y588" s="3"/>
       <c r="Z588" s="3"/>
     </row>
-    <row r="589" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
@@ -17186,7 +17189,7 @@
       <c r="Y589" s="3"/>
       <c r="Z589" s="3"/>
     </row>
-    <row r="590" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
@@ -17214,7 +17217,7 @@
       <c r="Y590" s="3"/>
       <c r="Z590" s="3"/>
     </row>
-    <row r="591" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -17242,7 +17245,7 @@
       <c r="Y591" s="3"/>
       <c r="Z591" s="3"/>
     </row>
-    <row r="592" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
@@ -17270,7 +17273,7 @@
       <c r="Y592" s="3"/>
       <c r="Z592" s="3"/>
     </row>
-    <row r="593" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
@@ -17298,7 +17301,7 @@
       <c r="Y593" s="3"/>
       <c r="Z593" s="3"/>
     </row>
-    <row r="594" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -17326,7 +17329,7 @@
       <c r="Y594" s="3"/>
       <c r="Z594" s="3"/>
     </row>
-    <row r="595" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
@@ -17354,7 +17357,7 @@
       <c r="Y595" s="3"/>
       <c r="Z595" s="3"/>
     </row>
-    <row r="596" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
@@ -17382,7 +17385,7 @@
       <c r="Y596" s="3"/>
       <c r="Z596" s="3"/>
     </row>
-    <row r="597" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -17410,7 +17413,7 @@
       <c r="Y597" s="3"/>
       <c r="Z597" s="3"/>
     </row>
-    <row r="598" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
@@ -17438,7 +17441,7 @@
       <c r="Y598" s="3"/>
       <c r="Z598" s="3"/>
     </row>
-    <row r="599" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
@@ -17466,7 +17469,7 @@
       <c r="Y599" s="3"/>
       <c r="Z599" s="3"/>
     </row>
-    <row r="600" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -17494,7 +17497,7 @@
       <c r="Y600" s="3"/>
       <c r="Z600" s="3"/>
     </row>
-    <row r="601" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
@@ -17522,7 +17525,7 @@
       <c r="Y601" s="3"/>
       <c r="Z601" s="3"/>
     </row>
-    <row r="602" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
@@ -17550,7 +17553,7 @@
       <c r="Y602" s="3"/>
       <c r="Z602" s="3"/>
     </row>
-    <row r="603" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
@@ -17578,7 +17581,7 @@
       <c r="Y603" s="3"/>
       <c r="Z603" s="3"/>
     </row>
-    <row r="604" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
@@ -17606,7 +17609,7 @@
       <c r="Y604" s="3"/>
       <c r="Z604" s="3"/>
     </row>
-    <row r="605" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
@@ -17634,7 +17637,7 @@
       <c r="Y605" s="3"/>
       <c r="Z605" s="3"/>
     </row>
-    <row r="606" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -17662,7 +17665,7 @@
       <c r="Y606" s="3"/>
       <c r="Z606" s="3"/>
     </row>
-    <row r="607" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
@@ -17690,7 +17693,7 @@
       <c r="Y607" s="3"/>
       <c r="Z607" s="3"/>
     </row>
-    <row r="608" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
@@ -17718,7 +17721,7 @@
       <c r="Y608" s="3"/>
       <c r="Z608" s="3"/>
     </row>
-    <row r="609" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
@@ -17746,7 +17749,7 @@
       <c r="Y609" s="3"/>
       <c r="Z609" s="3"/>
     </row>
-    <row r="610" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
@@ -17774,7 +17777,7 @@
       <c r="Y610" s="3"/>
       <c r="Z610" s="3"/>
     </row>
-    <row r="611" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -17802,7 +17805,7 @@
       <c r="Y611" s="3"/>
       <c r="Z611" s="3"/>
     </row>
-    <row r="612" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -17830,7 +17833,7 @@
       <c r="Y612" s="3"/>
       <c r="Z612" s="3"/>
     </row>
-    <row r="613" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -17858,7 +17861,7 @@
       <c r="Y613" s="3"/>
       <c r="Z613" s="3"/>
     </row>
-    <row r="614" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
@@ -17886,7 +17889,7 @@
       <c r="Y614" s="3"/>
       <c r="Z614" s="3"/>
     </row>
-    <row r="615" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
@@ -17914,7 +17917,7 @@
       <c r="Y615" s="3"/>
       <c r="Z615" s="3"/>
     </row>
-    <row r="616" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
@@ -17942,7 +17945,7 @@
       <c r="Y616" s="3"/>
       <c r="Z616" s="3"/>
     </row>
-    <row r="617" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
@@ -17970,7 +17973,7 @@
       <c r="Y617" s="3"/>
       <c r="Z617" s="3"/>
     </row>
-    <row r="618" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
@@ -17998,7 +18001,7 @@
       <c r="Y618" s="3"/>
       <c r="Z618" s="3"/>
     </row>
-    <row r="619" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
@@ -18026,7 +18029,7 @@
       <c r="Y619" s="3"/>
       <c r="Z619" s="3"/>
     </row>
-    <row r="620" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
@@ -18054,7 +18057,7 @@
       <c r="Y620" s="3"/>
       <c r="Z620" s="3"/>
     </row>
-    <row r="621" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
@@ -18082,7 +18085,7 @@
       <c r="Y621" s="3"/>
       <c r="Z621" s="3"/>
     </row>
-    <row r="622" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
@@ -18110,7 +18113,7 @@
       <c r="Y622" s="3"/>
       <c r="Z622" s="3"/>
     </row>
-    <row r="623" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
@@ -18138,7 +18141,7 @@
       <c r="Y623" s="3"/>
       <c r="Z623" s="3"/>
     </row>
-    <row r="624" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
@@ -18166,7 +18169,7 @@
       <c r="Y624" s="3"/>
       <c r="Z624" s="3"/>
     </row>
-    <row r="625" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
@@ -18194,7 +18197,7 @@
       <c r="Y625" s="3"/>
       <c r="Z625" s="3"/>
     </row>
-    <row r="626" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
@@ -18222,7 +18225,7 @@
       <c r="Y626" s="3"/>
       <c r="Z626" s="3"/>
     </row>
-    <row r="627" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
@@ -18250,7 +18253,7 @@
       <c r="Y627" s="3"/>
       <c r="Z627" s="3"/>
     </row>
-    <row r="628" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
@@ -18278,7 +18281,7 @@
       <c r="Y628" s="3"/>
       <c r="Z628" s="3"/>
     </row>
-    <row r="629" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
@@ -18306,7 +18309,7 @@
       <c r="Y629" s="3"/>
       <c r="Z629" s="3"/>
     </row>
-    <row r="630" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
@@ -18334,7 +18337,7 @@
       <c r="Y630" s="3"/>
       <c r="Z630" s="3"/>
     </row>
-    <row r="631" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
@@ -18362,7 +18365,7 @@
       <c r="Y631" s="3"/>
       <c r="Z631" s="3"/>
     </row>
-    <row r="632" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
@@ -18390,7 +18393,7 @@
       <c r="Y632" s="3"/>
       <c r="Z632" s="3"/>
     </row>
-    <row r="633" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
@@ -18418,7 +18421,7 @@
       <c r="Y633" s="3"/>
       <c r="Z633" s="3"/>
     </row>
-    <row r="634" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
@@ -18446,7 +18449,7 @@
       <c r="Y634" s="3"/>
       <c r="Z634" s="3"/>
     </row>
-    <row r="635" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
@@ -18474,7 +18477,7 @@
       <c r="Y635" s="3"/>
       <c r="Z635" s="3"/>
     </row>
-    <row r="636" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
@@ -18502,7 +18505,7 @@
       <c r="Y636" s="3"/>
       <c r="Z636" s="3"/>
     </row>
-    <row r="637" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
@@ -18530,7 +18533,7 @@
       <c r="Y637" s="3"/>
       <c r="Z637" s="3"/>
     </row>
-    <row r="638" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
@@ -18558,7 +18561,7 @@
       <c r="Y638" s="3"/>
       <c r="Z638" s="3"/>
     </row>
-    <row r="639" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -18586,7 +18589,7 @@
       <c r="Y639" s="3"/>
       <c r="Z639" s="3"/>
     </row>
-    <row r="640" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
@@ -18614,7 +18617,7 @@
       <c r="Y640" s="3"/>
       <c r="Z640" s="3"/>
     </row>
-    <row r="641" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -18642,7 +18645,7 @@
       <c r="Y641" s="3"/>
       <c r="Z641" s="3"/>
     </row>
-    <row r="642" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
@@ -18670,7 +18673,7 @@
       <c r="Y642" s="3"/>
       <c r="Z642" s="3"/>
     </row>
-    <row r="643" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
@@ -18698,7 +18701,7 @@
       <c r="Y643" s="3"/>
       <c r="Z643" s="3"/>
     </row>
-    <row r="644" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -18726,7 +18729,7 @@
       <c r="Y644" s="3"/>
       <c r="Z644" s="3"/>
     </row>
-    <row r="645" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
@@ -18754,7 +18757,7 @@
       <c r="Y645" s="3"/>
       <c r="Z645" s="3"/>
     </row>
-    <row r="646" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
@@ -18782,7 +18785,7 @@
       <c r="Y646" s="3"/>
       <c r="Z646" s="3"/>
     </row>
-    <row r="647" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
@@ -18810,7 +18813,7 @@
       <c r="Y647" s="3"/>
       <c r="Z647" s="3"/>
     </row>
-    <row r="648" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
@@ -18838,7 +18841,7 @@
       <c r="Y648" s="3"/>
       <c r="Z648" s="3"/>
     </row>
-    <row r="649" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
@@ -18866,7 +18869,7 @@
       <c r="Y649" s="3"/>
       <c r="Z649" s="3"/>
     </row>
-    <row r="650" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
@@ -18894,7 +18897,7 @@
       <c r="Y650" s="3"/>
       <c r="Z650" s="3"/>
     </row>
-    <row r="651" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
@@ -18922,7 +18925,7 @@
       <c r="Y651" s="3"/>
       <c r="Z651" s="3"/>
     </row>
-    <row r="652" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
@@ -18950,7 +18953,7 @@
       <c r="Y652" s="3"/>
       <c r="Z652" s="3"/>
     </row>
-    <row r="653" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
@@ -18978,7 +18981,7 @@
       <c r="Y653" s="3"/>
       <c r="Z653" s="3"/>
     </row>
-    <row r="654" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
@@ -19006,7 +19009,7 @@
       <c r="Y654" s="3"/>
       <c r="Z654" s="3"/>
     </row>
-    <row r="655" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
@@ -19034,7 +19037,7 @@
       <c r="Y655" s="3"/>
       <c r="Z655" s="3"/>
     </row>
-    <row r="656" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
@@ -19062,7 +19065,7 @@
       <c r="Y656" s="3"/>
       <c r="Z656" s="3"/>
     </row>
-    <row r="657" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
@@ -19090,7 +19093,7 @@
       <c r="Y657" s="3"/>
       <c r="Z657" s="3"/>
     </row>
-    <row r="658" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
@@ -19118,7 +19121,7 @@
       <c r="Y658" s="3"/>
       <c r="Z658" s="3"/>
     </row>
-    <row r="659" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
@@ -19146,7 +19149,7 @@
       <c r="Y659" s="3"/>
       <c r="Z659" s="3"/>
     </row>
-    <row r="660" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
@@ -19174,7 +19177,7 @@
       <c r="Y660" s="3"/>
       <c r="Z660" s="3"/>
     </row>
-    <row r="661" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
@@ -19202,7 +19205,7 @@
       <c r="Y661" s="3"/>
       <c r="Z661" s="3"/>
     </row>
-    <row r="662" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
@@ -19230,7 +19233,7 @@
       <c r="Y662" s="3"/>
       <c r="Z662" s="3"/>
     </row>
-    <row r="663" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
@@ -19258,7 +19261,7 @@
       <c r="Y663" s="3"/>
       <c r="Z663" s="3"/>
     </row>
-    <row r="664" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
@@ -19286,7 +19289,7 @@
       <c r="Y664" s="3"/>
       <c r="Z664" s="3"/>
     </row>
-    <row r="665" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
@@ -19314,7 +19317,7 @@
       <c r="Y665" s="3"/>
       <c r="Z665" s="3"/>
     </row>
-    <row r="666" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
@@ -19342,7 +19345,7 @@
       <c r="Y666" s="3"/>
       <c r="Z666" s="3"/>
     </row>
-    <row r="667" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
@@ -19370,7 +19373,7 @@
       <c r="Y667" s="3"/>
       <c r="Z667" s="3"/>
     </row>
-    <row r="668" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
@@ -19398,7 +19401,7 @@
       <c r="Y668" s="3"/>
       <c r="Z668" s="3"/>
     </row>
-    <row r="669" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
@@ -19426,7 +19429,7 @@
       <c r="Y669" s="3"/>
       <c r="Z669" s="3"/>
     </row>
-    <row r="670" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
@@ -19454,7 +19457,7 @@
       <c r="Y670" s="3"/>
       <c r="Z670" s="3"/>
     </row>
-    <row r="671" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
@@ -19482,7 +19485,7 @@
       <c r="Y671" s="3"/>
       <c r="Z671" s="3"/>
     </row>
-    <row r="672" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
@@ -19510,7 +19513,7 @@
       <c r="Y672" s="3"/>
       <c r="Z672" s="3"/>
     </row>
-    <row r="673" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
@@ -19538,7 +19541,7 @@
       <c r="Y673" s="3"/>
       <c r="Z673" s="3"/>
     </row>
-    <row r="674" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
@@ -19566,7 +19569,7 @@
       <c r="Y674" s="3"/>
       <c r="Z674" s="3"/>
     </row>
-    <row r="675" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
@@ -19594,7 +19597,7 @@
       <c r="Y675" s="3"/>
       <c r="Z675" s="3"/>
     </row>
-    <row r="676" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
@@ -19622,7 +19625,7 @@
       <c r="Y676" s="3"/>
       <c r="Z676" s="3"/>
     </row>
-    <row r="677" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
@@ -19650,7 +19653,7 @@
       <c r="Y677" s="3"/>
       <c r="Z677" s="3"/>
     </row>
-    <row r="678" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -19678,7 +19681,7 @@
       <c r="Y678" s="3"/>
       <c r="Z678" s="3"/>
     </row>
-    <row r="679" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
@@ -19706,7 +19709,7 @@
       <c r="Y679" s="3"/>
       <c r="Z679" s="3"/>
     </row>
-    <row r="680" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
@@ -19734,7 +19737,7 @@
       <c r="Y680" s="3"/>
       <c r="Z680" s="3"/>
     </row>
-    <row r="681" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -19762,7 +19765,7 @@
       <c r="Y681" s="3"/>
       <c r="Z681" s="3"/>
     </row>
-    <row r="682" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
@@ -19790,7 +19793,7 @@
       <c r="Y682" s="3"/>
       <c r="Z682" s="3"/>
     </row>
-    <row r="683" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -19818,7 +19821,7 @@
       <c r="Y683" s="3"/>
       <c r="Z683" s="3"/>
     </row>
-    <row r="684" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
@@ -19846,7 +19849,7 @@
       <c r="Y684" s="3"/>
       <c r="Z684" s="3"/>
     </row>
-    <row r="685" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
@@ -19874,7 +19877,7 @@
       <c r="Y685" s="3"/>
       <c r="Z685" s="3"/>
     </row>
-    <row r="686" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -19902,7 +19905,7 @@
       <c r="Y686" s="3"/>
       <c r="Z686" s="3"/>
     </row>
-    <row r="687" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
@@ -19930,7 +19933,7 @@
       <c r="Y687" s="3"/>
       <c r="Z687" s="3"/>
     </row>
-    <row r="688" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
@@ -19958,7 +19961,7 @@
       <c r="Y688" s="3"/>
       <c r="Z688" s="3"/>
     </row>
-    <row r="689" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
@@ -19986,7 +19989,7 @@
       <c r="Y689" s="3"/>
       <c r="Z689" s="3"/>
     </row>
-    <row r="690" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
@@ -20014,7 +20017,7 @@
       <c r="Y690" s="3"/>
       <c r="Z690" s="3"/>
     </row>
-    <row r="691" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
@@ -20042,7 +20045,7 @@
       <c r="Y691" s="3"/>
       <c r="Z691" s="3"/>
     </row>
-    <row r="692" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
@@ -20070,7 +20073,7 @@
       <c r="Y692" s="3"/>
       <c r="Z692" s="3"/>
     </row>
-    <row r="693" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
@@ -20098,7 +20101,7 @@
       <c r="Y693" s="3"/>
       <c r="Z693" s="3"/>
     </row>
-    <row r="694" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
@@ -20126,7 +20129,7 @@
       <c r="Y694" s="3"/>
       <c r="Z694" s="3"/>
     </row>
-    <row r="695" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
@@ -20154,7 +20157,7 @@
       <c r="Y695" s="3"/>
       <c r="Z695" s="3"/>
     </row>
-    <row r="696" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
@@ -20182,7 +20185,7 @@
       <c r="Y696" s="3"/>
       <c r="Z696" s="3"/>
     </row>
-    <row r="697" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
@@ -20210,7 +20213,7 @@
       <c r="Y697" s="3"/>
       <c r="Z697" s="3"/>
     </row>
-    <row r="698" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
@@ -20238,7 +20241,7 @@
       <c r="Y698" s="3"/>
       <c r="Z698" s="3"/>
     </row>
-    <row r="699" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
@@ -20266,7 +20269,7 @@
       <c r="Y699" s="3"/>
       <c r="Z699" s="3"/>
     </row>
-    <row r="700" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
@@ -20294,7 +20297,7 @@
       <c r="Y700" s="3"/>
       <c r="Z700" s="3"/>
     </row>
-    <row r="701" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
@@ -20322,7 +20325,7 @@
       <c r="Y701" s="3"/>
       <c r="Z701" s="3"/>
     </row>
-    <row r="702" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
@@ -20350,7 +20353,7 @@
       <c r="Y702" s="3"/>
       <c r="Z702" s="3"/>
     </row>
-    <row r="703" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
@@ -20378,7 +20381,7 @@
       <c r="Y703" s="3"/>
       <c r="Z703" s="3"/>
     </row>
-    <row r="704" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
@@ -20406,7 +20409,7 @@
       <c r="Y704" s="3"/>
       <c r="Z704" s="3"/>
     </row>
-    <row r="705" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
@@ -20434,7 +20437,7 @@
       <c r="Y705" s="3"/>
       <c r="Z705" s="3"/>
     </row>
-    <row r="706" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
@@ -20462,7 +20465,7 @@
       <c r="Y706" s="3"/>
       <c r="Z706" s="3"/>
     </row>
-    <row r="707" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
@@ -20490,7 +20493,7 @@
       <c r="Y707" s="3"/>
       <c r="Z707" s="3"/>
     </row>
-    <row r="708" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
@@ -20518,7 +20521,7 @@
       <c r="Y708" s="3"/>
       <c r="Z708" s="3"/>
     </row>
-    <row r="709" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
@@ -20546,7 +20549,7 @@
       <c r="Y709" s="3"/>
       <c r="Z709" s="3"/>
     </row>
-    <row r="710" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
@@ -20574,7 +20577,7 @@
       <c r="Y710" s="3"/>
       <c r="Z710" s="3"/>
     </row>
-    <row r="711" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
@@ -20602,7 +20605,7 @@
       <c r="Y711" s="3"/>
       <c r="Z711" s="3"/>
     </row>
-    <row r="712" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
@@ -20630,7 +20633,7 @@
       <c r="Y712" s="3"/>
       <c r="Z712" s="3"/>
     </row>
-    <row r="713" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
@@ -20658,7 +20661,7 @@
       <c r="Y713" s="3"/>
       <c r="Z713" s="3"/>
     </row>
-    <row r="714" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
@@ -20686,7 +20689,7 @@
       <c r="Y714" s="3"/>
       <c r="Z714" s="3"/>
     </row>
-    <row r="715" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
@@ -20714,7 +20717,7 @@
       <c r="Y715" s="3"/>
       <c r="Z715" s="3"/>
     </row>
-    <row r="716" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
@@ -20742,7 +20745,7 @@
       <c r="Y716" s="3"/>
       <c r="Z716" s="3"/>
     </row>
-    <row r="717" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
@@ -20770,7 +20773,7 @@
       <c r="Y717" s="3"/>
       <c r="Z717" s="3"/>
     </row>
-    <row r="718" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
@@ -20798,7 +20801,7 @@
       <c r="Y718" s="3"/>
       <c r="Z718" s="3"/>
     </row>
-    <row r="719" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
@@ -20826,7 +20829,7 @@
       <c r="Y719" s="3"/>
       <c r="Z719" s="3"/>
     </row>
-    <row r="720" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
@@ -20854,7 +20857,7 @@
       <c r="Y720" s="3"/>
       <c r="Z720" s="3"/>
     </row>
-    <row r="721" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
@@ -20882,7 +20885,7 @@
       <c r="Y721" s="3"/>
       <c r="Z721" s="3"/>
     </row>
-    <row r="722" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
@@ -20910,7 +20913,7 @@
       <c r="Y722" s="3"/>
       <c r="Z722" s="3"/>
     </row>
-    <row r="723" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
@@ -20938,7 +20941,7 @@
       <c r="Y723" s="3"/>
       <c r="Z723" s="3"/>
     </row>
-    <row r="724" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
@@ -20966,7 +20969,7 @@
       <c r="Y724" s="3"/>
       <c r="Z724" s="3"/>
     </row>
-    <row r="725" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
@@ -20994,7 +20997,7 @@
       <c r="Y725" s="3"/>
       <c r="Z725" s="3"/>
     </row>
-    <row r="726" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
@@ -21022,7 +21025,7 @@
       <c r="Y726" s="3"/>
       <c r="Z726" s="3"/>
     </row>
-    <row r="727" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
@@ -21050,7 +21053,7 @@
       <c r="Y727" s="3"/>
       <c r="Z727" s="3"/>
     </row>
-    <row r="728" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
@@ -21078,7 +21081,7 @@
       <c r="Y728" s="3"/>
       <c r="Z728" s="3"/>
     </row>
-    <row r="729" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
@@ -21106,7 +21109,7 @@
       <c r="Y729" s="3"/>
       <c r="Z729" s="3"/>
     </row>
-    <row r="730" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
@@ -21134,7 +21137,7 @@
       <c r="Y730" s="3"/>
       <c r="Z730" s="3"/>
     </row>
-    <row r="731" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
@@ -21162,7 +21165,7 @@
       <c r="Y731" s="3"/>
       <c r="Z731" s="3"/>
     </row>
-    <row r="732" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
@@ -21190,7 +21193,7 @@
       <c r="Y732" s="3"/>
       <c r="Z732" s="3"/>
     </row>
-    <row r="733" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
@@ -21218,7 +21221,7 @@
       <c r="Y733" s="3"/>
       <c r="Z733" s="3"/>
     </row>
-    <row r="734" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
@@ -21246,7 +21249,7 @@
       <c r="Y734" s="3"/>
       <c r="Z734" s="3"/>
     </row>
-    <row r="735" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
@@ -21274,7 +21277,7 @@
       <c r="Y735" s="3"/>
       <c r="Z735" s="3"/>
     </row>
-    <row r="736" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
@@ -21302,7 +21305,7 @@
       <c r="Y736" s="3"/>
       <c r="Z736" s="3"/>
     </row>
-    <row r="737" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
@@ -21330,7 +21333,7 @@
       <c r="Y737" s="3"/>
       <c r="Z737" s="3"/>
     </row>
-    <row r="738" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
@@ -21358,7 +21361,7 @@
       <c r="Y738" s="3"/>
       <c r="Z738" s="3"/>
     </row>
-    <row r="739" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
@@ -21386,7 +21389,7 @@
       <c r="Y739" s="3"/>
       <c r="Z739" s="3"/>
     </row>
-    <row r="740" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
@@ -21414,7 +21417,7 @@
       <c r="Y740" s="3"/>
       <c r="Z740" s="3"/>
     </row>
-    <row r="741" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
@@ -21442,7 +21445,7 @@
       <c r="Y741" s="3"/>
       <c r="Z741" s="3"/>
     </row>
-    <row r="742" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
@@ -21470,7 +21473,7 @@
       <c r="Y742" s="3"/>
       <c r="Z742" s="3"/>
     </row>
-    <row r="743" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
@@ -21498,7 +21501,7 @@
       <c r="Y743" s="3"/>
       <c r="Z743" s="3"/>
     </row>
-    <row r="744" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
@@ -21526,7 +21529,7 @@
       <c r="Y744" s="3"/>
       <c r="Z744" s="3"/>
     </row>
-    <row r="745" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
@@ -21554,7 +21557,7 @@
       <c r="Y745" s="3"/>
       <c r="Z745" s="3"/>
     </row>
-    <row r="746" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
@@ -21582,7 +21585,7 @@
       <c r="Y746" s="3"/>
       <c r="Z746" s="3"/>
     </row>
-    <row r="747" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
@@ -21610,7 +21613,7 @@
       <c r="Y747" s="3"/>
       <c r="Z747" s="3"/>
     </row>
-    <row r="748" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
@@ -21638,7 +21641,7 @@
       <c r="Y748" s="3"/>
       <c r="Z748" s="3"/>
     </row>
-    <row r="749" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
@@ -21666,7 +21669,7 @@
       <c r="Y749" s="3"/>
       <c r="Z749" s="3"/>
     </row>
-    <row r="750" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
@@ -21694,7 +21697,7 @@
       <c r="Y750" s="3"/>
       <c r="Z750" s="3"/>
     </row>
-    <row r="751" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
@@ -21722,7 +21725,7 @@
       <c r="Y751" s="3"/>
       <c r="Z751" s="3"/>
     </row>
-    <row r="752" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
@@ -21750,7 +21753,7 @@
       <c r="Y752" s="3"/>
       <c r="Z752" s="3"/>
     </row>
-    <row r="753" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
@@ -21778,7 +21781,7 @@
       <c r="Y753" s="3"/>
       <c r="Z753" s="3"/>
     </row>
-    <row r="754" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
@@ -21806,7 +21809,7 @@
       <c r="Y754" s="3"/>
       <c r="Z754" s="3"/>
     </row>
-    <row r="755" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
@@ -21834,7 +21837,7 @@
       <c r="Y755" s="3"/>
       <c r="Z755" s="3"/>
     </row>
-    <row r="756" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
@@ -21862,7 +21865,7 @@
       <c r="Y756" s="3"/>
       <c r="Z756" s="3"/>
     </row>
-    <row r="757" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
@@ -21890,7 +21893,7 @@
       <c r="Y757" s="3"/>
       <c r="Z757" s="3"/>
     </row>
-    <row r="758" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
@@ -21918,7 +21921,7 @@
       <c r="Y758" s="3"/>
       <c r="Z758" s="3"/>
     </row>
-    <row r="759" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
@@ -21946,7 +21949,7 @@
       <c r="Y759" s="3"/>
       <c r="Z759" s="3"/>
     </row>
-    <row r="760" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
@@ -21974,7 +21977,7 @@
       <c r="Y760" s="3"/>
       <c r="Z760" s="3"/>
     </row>
-    <row r="761" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
@@ -22002,7 +22005,7 @@
       <c r="Y761" s="3"/>
       <c r="Z761" s="3"/>
     </row>
-    <row r="762" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
@@ -22030,7 +22033,7 @@
       <c r="Y762" s="3"/>
       <c r="Z762" s="3"/>
     </row>
-    <row r="763" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
@@ -22058,7 +22061,7 @@
       <c r="Y763" s="3"/>
       <c r="Z763" s="3"/>
     </row>
-    <row r="764" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
@@ -22086,7 +22089,7 @@
       <c r="Y764" s="3"/>
       <c r="Z764" s="3"/>
     </row>
-    <row r="765" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
@@ -22114,7 +22117,7 @@
       <c r="Y765" s="3"/>
       <c r="Z765" s="3"/>
     </row>
-    <row r="766" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
@@ -22142,7 +22145,7 @@
       <c r="Y766" s="3"/>
       <c r="Z766" s="3"/>
     </row>
-    <row r="767" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
@@ -22170,7 +22173,7 @@
       <c r="Y767" s="3"/>
       <c r="Z767" s="3"/>
     </row>
-    <row r="768" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
@@ -22198,7 +22201,7 @@
       <c r="Y768" s="3"/>
       <c r="Z768" s="3"/>
     </row>
-    <row r="769" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
@@ -22226,7 +22229,7 @@
       <c r="Y769" s="3"/>
       <c r="Z769" s="3"/>
     </row>
-    <row r="770" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
@@ -22254,7 +22257,7 @@
       <c r="Y770" s="3"/>
       <c r="Z770" s="3"/>
     </row>
-    <row r="771" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
@@ -22282,7 +22285,7 @@
       <c r="Y771" s="3"/>
       <c r="Z771" s="3"/>
     </row>
-    <row r="772" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
@@ -22310,7 +22313,7 @@
       <c r="Y772" s="3"/>
       <c r="Z772" s="3"/>
     </row>
-    <row r="773" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
@@ -22338,7 +22341,7 @@
       <c r="Y773" s="3"/>
       <c r="Z773" s="3"/>
     </row>
-    <row r="774" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
@@ -22366,7 +22369,7 @@
       <c r="Y774" s="3"/>
       <c r="Z774" s="3"/>
     </row>
-    <row r="775" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
@@ -22394,7 +22397,7 @@
       <c r="Y775" s="3"/>
       <c r="Z775" s="3"/>
     </row>
-    <row r="776" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
@@ -22422,7 +22425,7 @@
       <c r="Y776" s="3"/>
       <c r="Z776" s="3"/>
     </row>
-    <row r="777" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
@@ -22450,7 +22453,7 @@
       <c r="Y777" s="3"/>
       <c r="Z777" s="3"/>
     </row>
-    <row r="778" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
@@ -22478,7 +22481,7 @@
       <c r="Y778" s="3"/>
       <c r="Z778" s="3"/>
     </row>
-    <row r="779" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
@@ -22506,7 +22509,7 @@
       <c r="Y779" s="3"/>
       <c r="Z779" s="3"/>
     </row>
-    <row r="780" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
@@ -22534,7 +22537,7 @@
       <c r="Y780" s="3"/>
       <c r="Z780" s="3"/>
     </row>
-    <row r="781" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
@@ -22562,7 +22565,7 @@
       <c r="Y781" s="3"/>
       <c r="Z781" s="3"/>
     </row>
-    <row r="782" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
@@ -22590,7 +22593,7 @@
       <c r="Y782" s="3"/>
       <c r="Z782" s="3"/>
     </row>
-    <row r="783" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
@@ -22618,7 +22621,7 @@
       <c r="Y783" s="3"/>
       <c r="Z783" s="3"/>
     </row>
-    <row r="784" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
@@ -22646,7 +22649,7 @@
       <c r="Y784" s="3"/>
       <c r="Z784" s="3"/>
     </row>
-    <row r="785" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
@@ -22674,7 +22677,7 @@
       <c r="Y785" s="3"/>
       <c r="Z785" s="3"/>
     </row>
-    <row r="786" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
@@ -22702,7 +22705,7 @@
       <c r="Y786" s="3"/>
       <c r="Z786" s="3"/>
     </row>
-    <row r="787" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
@@ -22730,7 +22733,7 @@
       <c r="Y787" s="3"/>
       <c r="Z787" s="3"/>
     </row>
-    <row r="788" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
@@ -22758,7 +22761,7 @@
       <c r="Y788" s="3"/>
       <c r="Z788" s="3"/>
     </row>
-    <row r="789" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
@@ -22786,7 +22789,7 @@
       <c r="Y789" s="3"/>
       <c r="Z789" s="3"/>
     </row>
-    <row r="790" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
@@ -22814,7 +22817,7 @@
       <c r="Y790" s="3"/>
       <c r="Z790" s="3"/>
     </row>
-    <row r="791" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
@@ -22842,7 +22845,7 @@
       <c r="Y791" s="3"/>
       <c r="Z791" s="3"/>
     </row>
-    <row r="792" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
@@ -22870,7 +22873,7 @@
       <c r="Y792" s="3"/>
       <c r="Z792" s="3"/>
     </row>
-    <row r="793" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
@@ -22898,7 +22901,7 @@
       <c r="Y793" s="3"/>
       <c r="Z793" s="3"/>
     </row>
-    <row r="794" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
@@ -22926,7 +22929,7 @@
       <c r="Y794" s="3"/>
       <c r="Z794" s="3"/>
     </row>
-    <row r="795" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
@@ -22954,7 +22957,7 @@
       <c r="Y795" s="3"/>
       <c r="Z795" s="3"/>
     </row>
-    <row r="796" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
@@ -22982,7 +22985,7 @@
       <c r="Y796" s="3"/>
       <c r="Z796" s="3"/>
     </row>
-    <row r="797" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
@@ -23010,7 +23013,7 @@
       <c r="Y797" s="3"/>
       <c r="Z797" s="3"/>
     </row>
-    <row r="798" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
@@ -23038,7 +23041,7 @@
       <c r="Y798" s="3"/>
       <c r="Z798" s="3"/>
     </row>
-    <row r="799" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
@@ -23066,7 +23069,7 @@
       <c r="Y799" s="3"/>
       <c r="Z799" s="3"/>
     </row>
-    <row r="800" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
@@ -23094,7 +23097,7 @@
       <c r="Y800" s="3"/>
       <c r="Z800" s="3"/>
     </row>
-    <row r="801" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
@@ -23122,7 +23125,7 @@
       <c r="Y801" s="3"/>
       <c r="Z801" s="3"/>
     </row>
-    <row r="802" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
@@ -23150,7 +23153,7 @@
       <c r="Y802" s="3"/>
       <c r="Z802" s="3"/>
     </row>
-    <row r="803" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
@@ -23178,7 +23181,7 @@
       <c r="Y803" s="3"/>
       <c r="Z803" s="3"/>
     </row>
-    <row r="804" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
@@ -23206,7 +23209,7 @@
       <c r="Y804" s="3"/>
       <c r="Z804" s="3"/>
     </row>
-    <row r="805" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
@@ -23234,7 +23237,7 @@
       <c r="Y805" s="3"/>
       <c r="Z805" s="3"/>
     </row>
-    <row r="806" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
@@ -23262,7 +23265,7 @@
       <c r="Y806" s="3"/>
       <c r="Z806" s="3"/>
     </row>
-    <row r="807" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
@@ -23290,7 +23293,7 @@
       <c r="Y807" s="3"/>
       <c r="Z807" s="3"/>
     </row>
-    <row r="808" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
@@ -23318,7 +23321,7 @@
       <c r="Y808" s="3"/>
       <c r="Z808" s="3"/>
     </row>
-    <row r="809" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
@@ -23346,7 +23349,7 @@
       <c r="Y809" s="3"/>
       <c r="Z809" s="3"/>
     </row>
-    <row r="810" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
@@ -23374,7 +23377,7 @@
       <c r="Y810" s="3"/>
       <c r="Z810" s="3"/>
     </row>
-    <row r="811" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
@@ -23402,7 +23405,7 @@
       <c r="Y811" s="3"/>
       <c r="Z811" s="3"/>
     </row>
-    <row r="812" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
@@ -23430,7 +23433,7 @@
       <c r="Y812" s="3"/>
       <c r="Z812" s="3"/>
     </row>
-    <row r="813" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
@@ -23458,7 +23461,7 @@
       <c r="Y813" s="3"/>
       <c r="Z813" s="3"/>
     </row>
-    <row r="814" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
@@ -23486,7 +23489,7 @@
       <c r="Y814" s="3"/>
       <c r="Z814" s="3"/>
     </row>
-    <row r="815" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
@@ -23514,7 +23517,7 @@
       <c r="Y815" s="3"/>
       <c r="Z815" s="3"/>
     </row>
-    <row r="816" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
@@ -23542,7 +23545,7 @@
       <c r="Y816" s="3"/>
       <c r="Z816" s="3"/>
     </row>
-    <row r="817" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
@@ -23570,7 +23573,7 @@
       <c r="Y817" s="3"/>
       <c r="Z817" s="3"/>
     </row>
-    <row r="818" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
@@ -23598,7 +23601,7 @@
       <c r="Y818" s="3"/>
       <c r="Z818" s="3"/>
     </row>
-    <row r="819" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
@@ -23626,7 +23629,7 @@
       <c r="Y819" s="3"/>
       <c r="Z819" s="3"/>
     </row>
-    <row r="820" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
@@ -23654,7 +23657,7 @@
       <c r="Y820" s="3"/>
       <c r="Z820" s="3"/>
     </row>
-    <row r="821" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
@@ -23682,7 +23685,7 @@
       <c r="Y821" s="3"/>
       <c r="Z821" s="3"/>
     </row>
-    <row r="822" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
@@ -23710,7 +23713,7 @@
       <c r="Y822" s="3"/>
       <c r="Z822" s="3"/>
     </row>
-    <row r="823" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
@@ -23738,7 +23741,7 @@
       <c r="Y823" s="3"/>
       <c r="Z823" s="3"/>
     </row>
-    <row r="824" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
@@ -23766,7 +23769,7 @@
       <c r="Y824" s="3"/>
       <c r="Z824" s="3"/>
     </row>
-    <row r="825" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
@@ -23794,7 +23797,7 @@
       <c r="Y825" s="3"/>
       <c r="Z825" s="3"/>
     </row>
-    <row r="826" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
@@ -23822,7 +23825,7 @@
       <c r="Y826" s="3"/>
       <c r="Z826" s="3"/>
     </row>
-    <row r="827" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
@@ -23850,7 +23853,7 @@
       <c r="Y827" s="3"/>
       <c r="Z827" s="3"/>
     </row>
-    <row r="828" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
@@ -23878,7 +23881,7 @@
       <c r="Y828" s="3"/>
       <c r="Z828" s="3"/>
     </row>
-    <row r="829" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
@@ -23906,7 +23909,7 @@
       <c r="Y829" s="3"/>
       <c r="Z829" s="3"/>
     </row>
-    <row r="830" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
@@ -23934,7 +23937,7 @@
       <c r="Y830" s="3"/>
       <c r="Z830" s="3"/>
     </row>
-    <row r="831" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
@@ -23962,7 +23965,7 @@
       <c r="Y831" s="3"/>
       <c r="Z831" s="3"/>
     </row>
-    <row r="832" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
@@ -23990,7 +23993,7 @@
       <c r="Y832" s="3"/>
       <c r="Z832" s="3"/>
     </row>
-    <row r="833" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
@@ -24018,7 +24021,7 @@
       <c r="Y833" s="3"/>
       <c r="Z833" s="3"/>
     </row>
-    <row r="834" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
@@ -24046,7 +24049,7 @@
       <c r="Y834" s="3"/>
       <c r="Z834" s="3"/>
     </row>
-    <row r="835" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
@@ -24074,7 +24077,7 @@
       <c r="Y835" s="3"/>
       <c r="Z835" s="3"/>
     </row>
-    <row r="836" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
@@ -24102,7 +24105,7 @@
       <c r="Y836" s="3"/>
       <c r="Z836" s="3"/>
     </row>
-    <row r="837" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
@@ -24130,7 +24133,7 @@
       <c r="Y837" s="3"/>
       <c r="Z837" s="3"/>
     </row>
-    <row r="838" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
@@ -24158,7 +24161,7 @@
       <c r="Y838" s="3"/>
       <c r="Z838" s="3"/>
     </row>
-    <row r="839" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
@@ -24186,7 +24189,7 @@
       <c r="Y839" s="3"/>
       <c r="Z839" s="3"/>
     </row>
-    <row r="840" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
@@ -24214,7 +24217,7 @@
       <c r="Y840" s="3"/>
       <c r="Z840" s="3"/>
     </row>
-    <row r="841" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
@@ -24242,7 +24245,7 @@
       <c r="Y841" s="3"/>
       <c r="Z841" s="3"/>
     </row>
-    <row r="842" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
@@ -24270,7 +24273,7 @@
       <c r="Y842" s="3"/>
       <c r="Z842" s="3"/>
     </row>
-    <row r="843" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
@@ -24298,7 +24301,7 @@
       <c r="Y843" s="3"/>
       <c r="Z843" s="3"/>
     </row>
-    <row r="844" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
@@ -24326,7 +24329,7 @@
       <c r="Y844" s="3"/>
       <c r="Z844" s="3"/>
     </row>
-    <row r="845" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
@@ -24354,7 +24357,7 @@
       <c r="Y845" s="3"/>
       <c r="Z845" s="3"/>
     </row>
-    <row r="846" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
@@ -24382,7 +24385,7 @@
       <c r="Y846" s="3"/>
       <c r="Z846" s="3"/>
     </row>
-    <row r="847" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
@@ -24410,7 +24413,7 @@
       <c r="Y847" s="3"/>
       <c r="Z847" s="3"/>
     </row>
-    <row r="848" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
@@ -24438,7 +24441,7 @@
       <c r="Y848" s="3"/>
       <c r="Z848" s="3"/>
     </row>
-    <row r="849" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
@@ -24466,7 +24469,7 @@
       <c r="Y849" s="3"/>
       <c r="Z849" s="3"/>
     </row>
-    <row r="850" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
@@ -24494,7 +24497,7 @@
       <c r="Y850" s="3"/>
       <c r="Z850" s="3"/>
     </row>
-    <row r="851" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
@@ -24522,7 +24525,7 @@
       <c r="Y851" s="3"/>
       <c r="Z851" s="3"/>
     </row>
-    <row r="852" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
@@ -24550,7 +24553,7 @@
       <c r="Y852" s="3"/>
       <c r="Z852" s="3"/>
     </row>
-    <row r="853" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
@@ -24578,7 +24581,7 @@
       <c r="Y853" s="3"/>
       <c r="Z853" s="3"/>
     </row>
-    <row r="854" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
@@ -24606,7 +24609,7 @@
       <c r="Y854" s="3"/>
       <c r="Z854" s="3"/>
     </row>
-    <row r="855" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
@@ -24634,7 +24637,7 @@
       <c r="Y855" s="3"/>
       <c r="Z855" s="3"/>
     </row>
-    <row r="856" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
@@ -24662,7 +24665,7 @@
       <c r="Y856" s="3"/>
       <c r="Z856" s="3"/>
     </row>
-    <row r="857" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
@@ -24690,7 +24693,7 @@
       <c r="Y857" s="3"/>
       <c r="Z857" s="3"/>
     </row>
-    <row r="858" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
@@ -24718,7 +24721,7 @@
       <c r="Y858" s="3"/>
       <c r="Z858" s="3"/>
     </row>
-    <row r="859" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="C859" s="3"/>
@@ -24746,7 +24749,7 @@
       <c r="Y859" s="3"/>
       <c r="Z859" s="3"/>
     </row>
-    <row r="860" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
@@ -24774,7 +24777,7 @@
       <c r="Y860" s="3"/>
       <c r="Z860" s="3"/>
     </row>
-    <row r="861" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
@@ -24802,7 +24805,7 @@
       <c r="Y861" s="3"/>
       <c r="Z861" s="3"/>
     </row>
-    <row r="862" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
@@ -24830,7 +24833,7 @@
       <c r="Y862" s="3"/>
       <c r="Z862" s="3"/>
     </row>
-    <row r="863" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
@@ -24858,7 +24861,7 @@
       <c r="Y863" s="3"/>
       <c r="Z863" s="3"/>
     </row>
-    <row r="864" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
@@ -24886,7 +24889,7 @@
       <c r="Y864" s="3"/>
       <c r="Z864" s="3"/>
     </row>
-    <row r="865" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
@@ -24914,7 +24917,7 @@
       <c r="Y865" s="3"/>
       <c r="Z865" s="3"/>
     </row>
-    <row r="866" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="C866" s="3"/>
@@ -24942,7 +24945,7 @@
       <c r="Y866" s="3"/>
       <c r="Z866" s="3"/>
     </row>
-    <row r="867" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="C867" s="3"/>
@@ -24970,7 +24973,7 @@
       <c r="Y867" s="3"/>
       <c r="Z867" s="3"/>
     </row>
-    <row r="868" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
@@ -24998,7 +25001,7 @@
       <c r="Y868" s="3"/>
       <c r="Z868" s="3"/>
     </row>
-    <row r="869" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
@@ -25026,7 +25029,7 @@
       <c r="Y869" s="3"/>
       <c r="Z869" s="3"/>
     </row>
-    <row r="870" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
@@ -25054,7 +25057,7 @@
       <c r="Y870" s="3"/>
       <c r="Z870" s="3"/>
     </row>
-    <row r="871" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
@@ -25082,7 +25085,7 @@
       <c r="Y871" s="3"/>
       <c r="Z871" s="3"/>
     </row>
-    <row r="872" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="C872" s="3"/>
@@ -25110,7 +25113,7 @@
       <c r="Y872" s="3"/>
       <c r="Z872" s="3"/>
     </row>
-    <row r="873" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
@@ -25138,7 +25141,7 @@
       <c r="Y873" s="3"/>
       <c r="Z873" s="3"/>
     </row>
-    <row r="874" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="C874" s="3"/>
@@ -25166,7 +25169,7 @@
       <c r="Y874" s="3"/>
       <c r="Z874" s="3"/>
     </row>
-    <row r="875" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="C875" s="3"/>
@@ -25194,7 +25197,7 @@
       <c r="Y875" s="3"/>
       <c r="Z875" s="3"/>
     </row>
-    <row r="876" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="C876" s="3"/>
@@ -25222,7 +25225,7 @@
       <c r="Y876" s="3"/>
       <c r="Z876" s="3"/>
     </row>
-    <row r="877" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="C877" s="3"/>
@@ -25250,7 +25253,7 @@
       <c r="Y877" s="3"/>
       <c r="Z877" s="3"/>
     </row>
-    <row r="878" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="C878" s="3"/>
@@ -25278,7 +25281,7 @@
       <c r="Y878" s="3"/>
       <c r="Z878" s="3"/>
     </row>
-    <row r="879" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="C879" s="3"/>
@@ -25306,7 +25309,7 @@
       <c r="Y879" s="3"/>
       <c r="Z879" s="3"/>
     </row>
-    <row r="880" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="C880" s="3"/>
@@ -25334,7 +25337,7 @@
       <c r="Y880" s="3"/>
       <c r="Z880" s="3"/>
     </row>
-    <row r="881" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="C881" s="3"/>
@@ -25362,7 +25365,7 @@
       <c r="Y881" s="3"/>
       <c r="Z881" s="3"/>
     </row>
-    <row r="882" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="C882" s="3"/>
@@ -25390,7 +25393,7 @@
       <c r="Y882" s="3"/>
       <c r="Z882" s="3"/>
     </row>
-    <row r="883" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="C883" s="3"/>
@@ -25418,7 +25421,7 @@
       <c r="Y883" s="3"/>
       <c r="Z883" s="3"/>
     </row>
-    <row r="884" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="C884" s="3"/>
@@ -25446,7 +25449,7 @@
       <c r="Y884" s="3"/>
       <c r="Z884" s="3"/>
     </row>
-    <row r="885" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
       <c r="C885" s="3"/>
@@ -25474,7 +25477,7 @@
       <c r="Y885" s="3"/>
       <c r="Z885" s="3"/>
     </row>
-    <row r="886" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
       <c r="C886" s="3"/>
@@ -25502,7 +25505,7 @@
       <c r="Y886" s="3"/>
       <c r="Z886" s="3"/>
     </row>
-    <row r="887" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
       <c r="C887" s="3"/>
@@ -25530,7 +25533,7 @@
       <c r="Y887" s="3"/>
       <c r="Z887" s="3"/>
     </row>
-    <row r="888" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
       <c r="C888" s="3"/>
@@ -25558,7 +25561,7 @@
       <c r="Y888" s="3"/>
       <c r="Z888" s="3"/>
     </row>
-    <row r="889" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="C889" s="3"/>
@@ -25586,7 +25589,7 @@
       <c r="Y889" s="3"/>
       <c r="Z889" s="3"/>
     </row>
-    <row r="890" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="C890" s="3"/>
@@ -25614,7 +25617,7 @@
       <c r="Y890" s="3"/>
       <c r="Z890" s="3"/>
     </row>
-    <row r="891" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
       <c r="C891" s="3"/>
@@ -25642,7 +25645,7 @@
       <c r="Y891" s="3"/>
       <c r="Z891" s="3"/>
     </row>
-    <row r="892" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
       <c r="C892" s="3"/>
@@ -25670,7 +25673,7 @@
       <c r="Y892" s="3"/>
       <c r="Z892" s="3"/>
     </row>
-    <row r="893" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="C893" s="3"/>
@@ -25698,7 +25701,7 @@
       <c r="Y893" s="3"/>
       <c r="Z893" s="3"/>
     </row>
-    <row r="894" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="C894" s="3"/>
@@ -25726,7 +25729,7 @@
       <c r="Y894" s="3"/>
       <c r="Z894" s="3"/>
     </row>
-    <row r="895" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
       <c r="C895" s="3"/>
@@ -25754,7 +25757,7 @@
       <c r="Y895" s="3"/>
       <c r="Z895" s="3"/>
     </row>
-    <row r="896" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
       <c r="C896" s="3"/>
@@ -25782,7 +25785,7 @@
       <c r="Y896" s="3"/>
       <c r="Z896" s="3"/>
     </row>
-    <row r="897" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="C897" s="3"/>
@@ -25810,7 +25813,7 @@
       <c r="Y897" s="3"/>
       <c r="Z897" s="3"/>
     </row>
-    <row r="898" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="C898" s="3"/>
@@ -25838,7 +25841,7 @@
       <c r="Y898" s="3"/>
       <c r="Z898" s="3"/>
     </row>
-    <row r="899" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
@@ -25866,7 +25869,7 @@
       <c r="Y899" s="3"/>
       <c r="Z899" s="3"/>
     </row>
-    <row r="900" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
       <c r="C900" s="3"/>
@@ -25894,7 +25897,7 @@
       <c r="Y900" s="3"/>
       <c r="Z900" s="3"/>
     </row>
-    <row r="901" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="C901" s="3"/>
@@ -25922,7 +25925,7 @@
       <c r="Y901" s="3"/>
       <c r="Z901" s="3"/>
     </row>
-    <row r="902" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="C902" s="3"/>
@@ -25950,7 +25953,7 @@
       <c r="Y902" s="3"/>
       <c r="Z902" s="3"/>
     </row>
-    <row r="903" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
       <c r="C903" s="3"/>
@@ -25978,7 +25981,7 @@
       <c r="Y903" s="3"/>
       <c r="Z903" s="3"/>
     </row>
-    <row r="904" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
       <c r="C904" s="3"/>
@@ -26006,7 +26009,7 @@
       <c r="Y904" s="3"/>
       <c r="Z904" s="3"/>
     </row>
-    <row r="905" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="C905" s="3"/>
@@ -26034,7 +26037,7 @@
       <c r="Y905" s="3"/>
       <c r="Z905" s="3"/>
     </row>
-    <row r="906" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="C906" s="3"/>
@@ -26062,7 +26065,7 @@
       <c r="Y906" s="3"/>
       <c r="Z906" s="3"/>
     </row>
-    <row r="907" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
       <c r="C907" s="3"/>
@@ -26090,7 +26093,7 @@
       <c r="Y907" s="3"/>
       <c r="Z907" s="3"/>
     </row>
-    <row r="908" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
       <c r="C908" s="3"/>
@@ -26118,7 +26121,7 @@
       <c r="Y908" s="3"/>
       <c r="Z908" s="3"/>
     </row>
-    <row r="909" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="C909" s="3"/>
@@ -26146,7 +26149,7 @@
       <c r="Y909" s="3"/>
       <c r="Z909" s="3"/>
     </row>
-    <row r="910" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="C910" s="3"/>
@@ -26174,7 +26177,7 @@
       <c r="Y910" s="3"/>
       <c r="Z910" s="3"/>
     </row>
-    <row r="911" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
       <c r="C911" s="3"/>
@@ -26202,7 +26205,7 @@
       <c r="Y911" s="3"/>
       <c r="Z911" s="3"/>
     </row>
-    <row r="912" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
       <c r="C912" s="3"/>
@@ -26230,7 +26233,7 @@
       <c r="Y912" s="3"/>
       <c r="Z912" s="3"/>
     </row>
-    <row r="913" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="C913" s="3"/>
@@ -26258,7 +26261,7 @@
       <c r="Y913" s="3"/>
       <c r="Z913" s="3"/>
     </row>
-    <row r="914" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="C914" s="3"/>
@@ -26286,7 +26289,7 @@
       <c r="Y914" s="3"/>
       <c r="Z914" s="3"/>
     </row>
-    <row r="915" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
       <c r="C915" s="3"/>
@@ -26314,7 +26317,7 @@
       <c r="Y915" s="3"/>
       <c r="Z915" s="3"/>
     </row>
-    <row r="916" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
       <c r="C916" s="3"/>
@@ -26342,7 +26345,7 @@
       <c r="Y916" s="3"/>
       <c r="Z916" s="3"/>
     </row>
-    <row r="917" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="C917" s="3"/>
@@ -26370,7 +26373,7 @@
       <c r="Y917" s="3"/>
       <c r="Z917" s="3"/>
     </row>
-    <row r="918" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="C918" s="3"/>
@@ -26398,7 +26401,7 @@
       <c r="Y918" s="3"/>
       <c r="Z918" s="3"/>
     </row>
-    <row r="919" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
       <c r="C919" s="3"/>
@@ -26426,7 +26429,7 @@
       <c r="Y919" s="3"/>
       <c r="Z919" s="3"/>
     </row>
-    <row r="920" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
       <c r="C920" s="3"/>
@@ -26454,7 +26457,7 @@
       <c r="Y920" s="3"/>
       <c r="Z920" s="3"/>
     </row>
-    <row r="921" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="C921" s="3"/>
@@ -26482,7 +26485,7 @@
       <c r="Y921" s="3"/>
       <c r="Z921" s="3"/>
     </row>
-    <row r="922" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="C922" s="3"/>
@@ -26510,7 +26513,7 @@
       <c r="Y922" s="3"/>
       <c r="Z922" s="3"/>
     </row>
-    <row r="923" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
       <c r="C923" s="3"/>
@@ -26538,7 +26541,7 @@
       <c r="Y923" s="3"/>
       <c r="Z923" s="3"/>
     </row>
-    <row r="924" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
       <c r="C924" s="3"/>
@@ -26566,7 +26569,7 @@
       <c r="Y924" s="3"/>
       <c r="Z924" s="3"/>
     </row>
-    <row r="925" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="C925" s="3"/>
@@ -26594,7 +26597,7 @@
       <c r="Y925" s="3"/>
       <c r="Z925" s="3"/>
     </row>
-    <row r="926" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="C926" s="3"/>
@@ -26622,7 +26625,7 @@
       <c r="Y926" s="3"/>
       <c r="Z926" s="3"/>
     </row>
-    <row r="927" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
       <c r="C927" s="3"/>
@@ -26650,7 +26653,7 @@
       <c r="Y927" s="3"/>
       <c r="Z927" s="3"/>
     </row>
-    <row r="928" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
       <c r="C928" s="3"/>
@@ -26678,7 +26681,7 @@
       <c r="Y928" s="3"/>
       <c r="Z928" s="3"/>
     </row>
-    <row r="929" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="C929" s="3"/>
@@ -26706,7 +26709,7 @@
       <c r="Y929" s="3"/>
       <c r="Z929" s="3"/>
     </row>
-    <row r="930" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="C930" s="3"/>
@@ -26734,7 +26737,7 @@
       <c r="Y930" s="3"/>
       <c r="Z930" s="3"/>
     </row>
-    <row r="931" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
       <c r="C931" s="3"/>
@@ -26762,7 +26765,7 @@
       <c r="Y931" s="3"/>
       <c r="Z931" s="3"/>
     </row>
-    <row r="932" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
       <c r="C932" s="3"/>
@@ -26790,7 +26793,7 @@
       <c r="Y932" s="3"/>
       <c r="Z932" s="3"/>
     </row>
-    <row r="933" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
@@ -26818,7 +26821,7 @@
       <c r="Y933" s="3"/>
       <c r="Z933" s="3"/>
     </row>
-    <row r="934" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
       <c r="C934" s="3"/>
@@ -26846,7 +26849,7 @@
       <c r="Y934" s="3"/>
       <c r="Z934" s="3"/>
     </row>
-    <row r="935" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
       <c r="C935" s="3"/>
@@ -26874,7 +26877,7 @@
       <c r="Y935" s="3"/>
       <c r="Z935" s="3"/>
     </row>
-    <row r="936" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
       <c r="C936" s="3"/>
@@ -26902,7 +26905,7 @@
       <c r="Y936" s="3"/>
       <c r="Z936" s="3"/>
     </row>
-    <row r="937" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="C937" s="3"/>
@@ -26930,7 +26933,7 @@
       <c r="Y937" s="3"/>
       <c r="Z937" s="3"/>
     </row>
-    <row r="938" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
       <c r="C938" s="3"/>
@@ -26958,7 +26961,7 @@
       <c r="Y938" s="3"/>
       <c r="Z938" s="3"/>
     </row>
-    <row r="939" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
       <c r="C939" s="3"/>
@@ -26986,7 +26989,7 @@
       <c r="Y939" s="3"/>
       <c r="Z939" s="3"/>
     </row>
-    <row r="940" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
       <c r="C940" s="3"/>
@@ -27014,7 +27017,7 @@
       <c r="Y940" s="3"/>
       <c r="Z940" s="3"/>
     </row>
-    <row r="941" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="C941" s="3"/>
@@ -27042,7 +27045,7 @@
       <c r="Y941" s="3"/>
       <c r="Z941" s="3"/>
     </row>
-    <row r="942" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="C942" s="3"/>
@@ -27070,7 +27073,7 @@
       <c r="Y942" s="3"/>
       <c r="Z942" s="3"/>
     </row>
-    <row r="943" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="C943" s="3"/>
@@ -27098,7 +27101,7 @@
       <c r="Y943" s="3"/>
       <c r="Z943" s="3"/>
     </row>
-    <row r="944" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
       <c r="C944" s="3"/>
@@ -27126,7 +27129,7 @@
       <c r="Y944" s="3"/>
       <c r="Z944" s="3"/>
     </row>
-    <row r="945" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
       <c r="C945" s="3"/>
@@ -27154,7 +27157,7 @@
       <c r="Y945" s="3"/>
       <c r="Z945" s="3"/>
     </row>
-    <row r="946" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
       <c r="C946" s="3"/>
@@ -27182,7 +27185,7 @@
       <c r="Y946" s="3"/>
       <c r="Z946" s="3"/>
     </row>
-    <row r="947" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="C947" s="3"/>
@@ -27210,7 +27213,7 @@
       <c r="Y947" s="3"/>
       <c r="Z947" s="3"/>
     </row>
-    <row r="948" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="C948" s="3"/>
@@ -27238,7 +27241,7 @@
       <c r="Y948" s="3"/>
       <c r="Z948" s="3"/>
     </row>
-    <row r="949" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
       <c r="C949" s="3"/>
@@ -27266,7 +27269,7 @@
       <c r="Y949" s="3"/>
       <c r="Z949" s="3"/>
     </row>
-    <row r="950" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="C950" s="3"/>
@@ -27294,7 +27297,7 @@
       <c r="Y950" s="3"/>
       <c r="Z950" s="3"/>
     </row>
-    <row r="951" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="C951" s="3"/>
@@ -27322,7 +27325,7 @@
       <c r="Y951" s="3"/>
       <c r="Z951" s="3"/>
     </row>
-    <row r="952" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="C952" s="3"/>
@@ -27350,7 +27353,7 @@
       <c r="Y952" s="3"/>
       <c r="Z952" s="3"/>
     </row>
-    <row r="953" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
       <c r="C953" s="3"/>
@@ -27378,7 +27381,7 @@
       <c r="Y953" s="3"/>
       <c r="Z953" s="3"/>
     </row>
-    <row r="954" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
       <c r="C954" s="3"/>
@@ -27406,7 +27409,7 @@
       <c r="Y954" s="3"/>
       <c r="Z954" s="3"/>
     </row>
-    <row r="955" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="C955" s="3"/>
@@ -27434,7 +27437,7 @@
       <c r="Y955" s="3"/>
       <c r="Z955" s="3"/>
     </row>
-    <row r="956" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="C956" s="3"/>
@@ -27462,7 +27465,7 @@
       <c r="Y956" s="3"/>
       <c r="Z956" s="3"/>
     </row>
-    <row r="957" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="C957" s="3"/>
@@ -27490,7 +27493,7 @@
       <c r="Y957" s="3"/>
       <c r="Z957" s="3"/>
     </row>
-    <row r="958" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
       <c r="C958" s="3"/>
@@ -27518,7 +27521,7 @@
       <c r="Y958" s="3"/>
       <c r="Z958" s="3"/>
     </row>
-    <row r="959" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
       <c r="C959" s="3"/>
@@ -27546,7 +27549,7 @@
       <c r="Y959" s="3"/>
       <c r="Z959" s="3"/>
     </row>
-    <row r="960" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="C960" s="3"/>
@@ -27574,7 +27577,7 @@
       <c r="Y960" s="3"/>
       <c r="Z960" s="3"/>
     </row>
-    <row r="961" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
       <c r="C961" s="3"/>
@@ -27602,7 +27605,7 @@
       <c r="Y961" s="3"/>
       <c r="Z961" s="3"/>
     </row>
-    <row r="962" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
       <c r="C962" s="3"/>
@@ -27630,7 +27633,7 @@
       <c r="Y962" s="3"/>
       <c r="Z962" s="3"/>
     </row>
-    <row r="963" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="C963" s="3"/>
@@ -27658,7 +27661,7 @@
       <c r="Y963" s="3"/>
       <c r="Z963" s="3"/>
     </row>
-    <row r="964" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="C964" s="3"/>
@@ -27686,7 +27689,7 @@
       <c r="Y964" s="3"/>
       <c r="Z964" s="3"/>
     </row>
-    <row r="965" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="C965" s="3"/>
@@ -27714,7 +27717,7 @@
       <c r="Y965" s="3"/>
       <c r="Z965" s="3"/>
     </row>
-    <row r="966" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="C966" s="3"/>
@@ -27742,7 +27745,7 @@
       <c r="Y966" s="3"/>
       <c r="Z966" s="3"/>
     </row>
-    <row r="967" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
@@ -27770,7 +27773,7 @@
       <c r="Y967" s="3"/>
       <c r="Z967" s="3"/>
     </row>
-    <row r="968" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="C968" s="3"/>
@@ -27798,7 +27801,7 @@
       <c r="Y968" s="3"/>
       <c r="Z968" s="3"/>
     </row>
-    <row r="969" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
       <c r="C969" s="3"/>
@@ -27826,7 +27829,7 @@
       <c r="Y969" s="3"/>
       <c r="Z969" s="3"/>
     </row>
-    <row r="970" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
       <c r="C970" s="3"/>
@@ -27854,7 +27857,7 @@
       <c r="Y970" s="3"/>
       <c r="Z970" s="3"/>
     </row>
-    <row r="971" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="C971" s="3"/>
@@ -27882,7 +27885,7 @@
       <c r="Y971" s="3"/>
       <c r="Z971" s="3"/>
     </row>
-    <row r="972" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="C972" s="3"/>
@@ -27910,7 +27913,7 @@
       <c r="Y972" s="3"/>
       <c r="Z972" s="3"/>
     </row>
-    <row r="973" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
       <c r="C973" s="3"/>
@@ -27938,7 +27941,7 @@
       <c r="Y973" s="3"/>
       <c r="Z973" s="3"/>
     </row>
-    <row r="974" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
       <c r="C974" s="3"/>
@@ -27966,7 +27969,7 @@
       <c r="Y974" s="3"/>
       <c r="Z974" s="3"/>
     </row>
-    <row r="975" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="C975" s="3"/>
@@ -27994,7 +27997,7 @@
       <c r="Y975" s="3"/>
       <c r="Z975" s="3"/>
     </row>
-    <row r="976" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="C976" s="3"/>
@@ -28022,7 +28025,7 @@
       <c r="Y976" s="3"/>
       <c r="Z976" s="3"/>
     </row>
-    <row r="977" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
       <c r="C977" s="3"/>
@@ -28050,7 +28053,7 @@
       <c r="Y977" s="3"/>
       <c r="Z977" s="3"/>
     </row>
-    <row r="978" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
       <c r="C978" s="3"/>
@@ -28078,7 +28081,7 @@
       <c r="Y978" s="3"/>
       <c r="Z978" s="3"/>
     </row>
-    <row r="979" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
       <c r="C979" s="3"/>
@@ -28106,7 +28109,7 @@
       <c r="Y979" s="3"/>
       <c r="Z979" s="3"/>
     </row>
-    <row r="980" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
       <c r="C980" s="3"/>
@@ -28134,7 +28137,7 @@
       <c r="Y980" s="3"/>
       <c r="Z980" s="3"/>
     </row>
-    <row r="981" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
       <c r="C981" s="3"/>
@@ -28162,7 +28165,7 @@
       <c r="Y981" s="3"/>
       <c r="Z981" s="3"/>
     </row>
-    <row r="982" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
       <c r="C982" s="3"/>
@@ -28190,7 +28193,7 @@
       <c r="Y982" s="3"/>
       <c r="Z982" s="3"/>
     </row>
-    <row r="983" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
       <c r="C983" s="3"/>
@@ -28218,7 +28221,7 @@
       <c r="Y983" s="3"/>
       <c r="Z983" s="3"/>
     </row>
-    <row r="984" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
       <c r="C984" s="3"/>
@@ -28246,7 +28249,7 @@
       <c r="Y984" s="3"/>
       <c r="Z984" s="3"/>
     </row>
-    <row r="985" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
       <c r="C985" s="3"/>
@@ -28274,7 +28277,7 @@
       <c r="Y985" s="3"/>
       <c r="Z985" s="3"/>
     </row>
-    <row r="986" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
       <c r="C986" s="3"/>
@@ -28302,7 +28305,7 @@
       <c r="Y986" s="3"/>
       <c r="Z986" s="3"/>
     </row>
-    <row r="987" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
       <c r="C987" s="3"/>
@@ -28330,7 +28333,7 @@
       <c r="Y987" s="3"/>
       <c r="Z987" s="3"/>
     </row>
-    <row r="988" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
       <c r="C988" s="3"/>
@@ -28358,7 +28361,7 @@
       <c r="Y988" s="3"/>
       <c r="Z988" s="3"/>
     </row>
-    <row r="989" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
       <c r="C989" s="3"/>
@@ -28386,7 +28389,7 @@
       <c r="Y989" s="3"/>
       <c r="Z989" s="3"/>
     </row>
-    <row r="990" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
       <c r="C990" s="3"/>
@@ -28414,7 +28417,7 @@
       <c r="Y990" s="3"/>
       <c r="Z990" s="3"/>
     </row>
-    <row r="991" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
       <c r="C991" s="3"/>
@@ -28442,7 +28445,7 @@
       <c r="Y991" s="3"/>
       <c r="Z991" s="3"/>
     </row>
-    <row r="992" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
       <c r="C992" s="3"/>
@@ -28470,7 +28473,7 @@
       <c r="Y992" s="3"/>
       <c r="Z992" s="3"/>
     </row>
-    <row r="993" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
       <c r="C993" s="3"/>
@@ -28498,7 +28501,7 @@
       <c r="Y993" s="3"/>
       <c r="Z993" s="3"/>
     </row>
-    <row r="994" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
       <c r="C994" s="3"/>
@@ -28526,7 +28529,7 @@
       <c r="Y994" s="3"/>
       <c r="Z994" s="3"/>
     </row>
-    <row r="995" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
       <c r="C995" s="3"/>
@@ -28554,7 +28557,7 @@
       <c r="Y995" s="3"/>
       <c r="Z995" s="3"/>
     </row>
-    <row r="996" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A996" s="3"/>
       <c r="B996" s="3"/>
       <c r="C996" s="3"/>
@@ -28582,7 +28585,7 @@
       <c r="Y996" s="3"/>
       <c r="Z996" s="3"/>
     </row>
-    <row r="997" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A997" s="3"/>
       <c r="B997" s="3"/>
       <c r="C997" s="3"/>
@@ -28610,7 +28613,7 @@
       <c r="Y997" s="3"/>
       <c r="Z997" s="3"/>
     </row>
-    <row r="998" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A998" s="3"/>
       <c r="B998" s="3"/>
       <c r="C998" s="3"/>
@@ -28638,7 +28641,7 @@
       <c r="Y998" s="3"/>
       <c r="Z998" s="3"/>
     </row>
-    <row r="999" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A999" s="3"/>
       <c r="B999" s="3"/>
       <c r="C999" s="3"/>
@@ -28666,7 +28669,7 @@
       <c r="Y999" s="3"/>
       <c r="Z999" s="3"/>
     </row>
-    <row r="1000" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A1000" s="3"/>
       <c r="B1000" s="3"/>
       <c r="C1000" s="3"/>

--- a/zonas_verdes.xlsx
+++ b/zonas_verdes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34644\Documents\Fuentes\Seminario-Fuentes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/59eae136725f9a0b/Documentos/FUENTES DE DATOS/Seminario-Fuentes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587ED3A5-320F-4EFC-AFA7-7C67B5250616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{587ED3A5-320F-4EFC-AFA7-7C67B5250616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71DBCC0E-B645-445B-BD29-4B193CE61A3C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Población</t>
   </si>
@@ -149,12 +149,51 @@
   <si>
     <t>Balears, Illes</t>
   </si>
+  <si>
+    <t xml:space="preserve">Palma </t>
+  </si>
+  <si>
+    <t>Lugo</t>
+  </si>
+  <si>
+    <t>Huesca</t>
+  </si>
+  <si>
+    <t>Palencia</t>
+  </si>
+  <si>
+    <t>Zamora</t>
+  </si>
+  <si>
+    <t>Cuenca</t>
+  </si>
+  <si>
+    <t>Guadalajara</t>
+  </si>
+  <si>
+    <t>Ciudad Real</t>
+  </si>
+  <si>
+    <t>Cáceres</t>
+  </si>
+  <si>
+    <t>Soria</t>
+  </si>
+  <si>
+    <t>Rioja, La</t>
+  </si>
+  <si>
+    <t>Segovia</t>
+  </si>
+  <si>
+    <t>Ávila</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -205,6 +244,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -241,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -263,6 +315,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -278,6 +337,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -481,10 +544,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1692,12 +1755,16 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" spans="1:26" ht="13" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+    <row r="36" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+      <c r="A36" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="10">
+        <v>406492</v>
+      </c>
+      <c r="C36" s="9">
+        <v>3.42</v>
+      </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -1720,7 +1787,16 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+      <c r="A37" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="10">
+        <v>97211</v>
+      </c>
+      <c r="C37" s="9">
+        <v>6.17</v>
+      </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -1743,7 +1819,18 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+      <c r="A38" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="10">
+        <v>52421</v>
+      </c>
+      <c r="C38" s="9">
+        <v>23.78</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -1766,10 +1853,16 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" spans="1:26" ht="13" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+    <row r="39" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+      <c r="A39" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="10">
+        <v>76302</v>
+      </c>
+      <c r="C39" s="9">
+        <v>16.7</v>
+      </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1794,10 +1887,16 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" spans="1:26" ht="13" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+    <row r="40" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+      <c r="A40" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="10">
+        <v>166307</v>
+      </c>
+      <c r="C40" s="9">
+        <v>21</v>
+      </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1822,10 +1921,16 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41" spans="1:26" ht="13" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+    <row r="41" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+      <c r="A41" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="10">
+        <v>198626</v>
+      </c>
+      <c r="C41" s="9">
+        <v>10.46</v>
+      </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1850,11 +1955,17 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" spans="1:26" ht="13" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+    <row r="42" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+      <c r="A42" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="10">
+        <v>89169</v>
+      </c>
+      <c r="C42" s="9">
+        <v>29</v>
+      </c>
+      <c r="D42" s="11"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -1878,12 +1989,18 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" spans="1:26" ht="13" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+    <row r="43" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+      <c r="A43" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="10">
+        <v>491117</v>
+      </c>
+      <c r="C43" s="9">
+        <v>17.8</v>
+      </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
+      <c r="E43" s="11"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -1906,10 +2023,16 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" spans="1:26" ht="13" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+    <row r="44" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+      <c r="A44" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="10">
+        <v>95456</v>
+      </c>
+      <c r="C44" s="9">
+        <v>20</v>
+      </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1934,10 +2057,16 @@
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45" spans="1:26" ht="13" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+    <row r="45" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+      <c r="A45" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="10">
+        <v>88377</v>
+      </c>
+      <c r="C45" s="9">
+        <v>29.49</v>
+      </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1962,10 +2091,16 @@
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46" spans="1:26" ht="13" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
+    <row r="46" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+      <c r="A46" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="10">
+        <v>319485</v>
+      </c>
+      <c r="C46" s="9">
+        <v>11.27</v>
+      </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1990,10 +2125,16 @@
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" spans="1:26" ht="13" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+    <row r="47" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+      <c r="A47" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="10">
+        <v>153803</v>
+      </c>
+      <c r="C47" s="9">
+        <v>24.05</v>
+      </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -2018,10 +2159,16 @@
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48" spans="1:26" ht="13" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+    <row r="48" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+      <c r="A48" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="10">
+        <v>161771</v>
+      </c>
+      <c r="C48" s="9">
+        <v>25.25</v>
+      </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -2075,11 +2222,6 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50" spans="1:26" ht="13" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -2103,6 +2245,11 @@
       <c r="Z50" s="3"/>
     </row>
     <row r="51" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -28669,34 +28816,6 @@
       <c r="Y999" s="3"/>
       <c r="Z999" s="3"/>
     </row>
-    <row r="1000" spans="1:26" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1000" s="3"/>
-      <c r="B1000" s="3"/>
-      <c r="C1000" s="3"/>
-      <c r="D1000" s="3"/>
-      <c r="E1000" s="3"/>
-      <c r="F1000" s="3"/>
-      <c r="G1000" s="3"/>
-      <c r="H1000" s="3"/>
-      <c r="I1000" s="3"/>
-      <c r="J1000" s="3"/>
-      <c r="K1000" s="3"/>
-      <c r="L1000" s="3"/>
-      <c r="M1000" s="3"/>
-      <c r="N1000" s="3"/>
-      <c r="O1000" s="3"/>
-      <c r="P1000" s="3"/>
-      <c r="Q1000" s="3"/>
-      <c r="R1000" s="3"/>
-      <c r="S1000" s="3"/>
-      <c r="T1000" s="3"/>
-      <c r="U1000" s="3"/>
-      <c r="V1000" s="3"/>
-      <c r="W1000" s="3"/>
-      <c r="X1000" s="3"/>
-      <c r="Y1000" s="3"/>
-      <c r="Z1000" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/zonas_verdes.xlsx
+++ b/zonas_verdes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/59eae136725f9a0b/Documentos/FUENTES DE DATOS/Seminario-Fuentes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34644\Documents\Fuentes\Seminario-Fuentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{587ED3A5-320F-4EFC-AFA7-7C67B5250616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71DBCC0E-B645-445B-BD29-4B193CE61A3C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2A7965-991A-472C-B547-29373010CEFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Población</t>
   </si>
@@ -84,12 +84,6 @@
     <t>Tarragona</t>
   </si>
   <si>
-    <t>Vigo</t>
-  </si>
-  <si>
-    <t>Palma</t>
-  </si>
-  <si>
     <t>Murcia</t>
   </si>
   <si>
@@ -136,9 +130,6 @@
   </si>
   <si>
     <t>Bizkaia</t>
-  </si>
-  <si>
-    <t>#mirar aproximado</t>
   </si>
   <si>
     <t>Cantabria</t>
@@ -337,10 +328,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -546,15 +533,15 @@
   </sheetPr>
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -588,7 +575,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="5">
         <v>246976</v>
@@ -690,7 +677,7 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="5">
         <v>649946</v>
@@ -792,7 +779,7 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5">
         <v>581641</v>
@@ -826,7 +813,7 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5">
         <v>138144</v>
@@ -894,7 +881,7 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="5">
         <v>186370</v>
@@ -928,7 +915,7 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="5">
         <v>272365</v>
@@ -1166,7 +1153,7 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" s="5">
         <v>244099</v>
@@ -1268,7 +1255,7 @@
     </row>
     <row r="22" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="5">
         <v>329988</v>
@@ -1302,7 +1289,7 @@
     </row>
     <row r="23" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23" s="5">
         <v>214177</v>
@@ -1336,7 +1323,7 @@
     </row>
     <row r="24" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24" s="5">
         <v>345110</v>
@@ -1345,9 +1332,7 @@
         <v>25.6</v>
       </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1440,7 +1425,7 @@
     </row>
     <row r="27" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A27" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="5">
         <v>949471</v>
@@ -1474,7 +1459,7 @@
     </row>
     <row r="28" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28" s="5">
         <v>377650</v>
@@ -1508,7 +1493,7 @@
     </row>
     <row r="29" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A29" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B29" s="5">
         <v>787808</v>
@@ -1576,7 +1561,7 @@
     </row>
     <row r="31" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B31" s="5">
         <v>569002</v>
@@ -1587,15 +1572,9 @@
       <c r="D31" s="6"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="5">
-        <v>292986</v>
-      </c>
-      <c r="I31" s="6">
-        <v>3.64</v>
-      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -1616,7 +1595,7 @@
     </row>
     <row r="32" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B32" s="5">
         <v>175623</v>
@@ -1627,15 +1606,9 @@
       <c r="D32" s="6"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="5">
-        <v>406492</v>
-      </c>
-      <c r="I32" s="6">
-        <v>3.42</v>
-      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -1656,7 +1629,7 @@
     </row>
     <row r="33" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B33" s="5">
         <v>169498</v>
@@ -1690,7 +1663,7 @@
     </row>
     <row r="34" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B34" s="5">
         <v>118048</v>
@@ -1724,7 +1697,7 @@
     </row>
     <row r="35" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A35" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B35" s="5">
         <v>1220739</v>
@@ -1757,7 +1730,7 @@
     </row>
     <row r="36" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A36" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B36" s="10">
         <v>406492</v>
@@ -1789,7 +1762,7 @@
     </row>
     <row r="37" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A37" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B37" s="10">
         <v>97211</v>
@@ -1821,7 +1794,7 @@
     </row>
     <row r="38" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A38" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B38" s="10">
         <v>52421</v>
@@ -1855,7 +1828,7 @@
     </row>
     <row r="39" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A39" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B39" s="10">
         <v>76302</v>
@@ -1889,7 +1862,7 @@
     </row>
     <row r="40" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A40" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B40" s="10">
         <v>166307</v>
@@ -1923,7 +1896,7 @@
     </row>
     <row r="41" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A41" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B41" s="10">
         <v>198626</v>
@@ -1957,7 +1930,7 @@
     </row>
     <row r="42" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A42" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B42" s="10">
         <v>89169</v>
@@ -1991,7 +1964,7 @@
     </row>
     <row r="43" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A43" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B43" s="10">
         <v>491117</v>
@@ -2025,7 +1998,7 @@
     </row>
     <row r="44" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A44" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B44" s="10">
         <v>95456</v>
@@ -2059,7 +2032,7 @@
     </row>
     <row r="45" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A45" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B45" s="10">
         <v>88377</v>
@@ -2093,7 +2066,7 @@
     </row>
     <row r="46" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A46" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B46" s="10">
         <v>319485</v>
@@ -2127,7 +2100,7 @@
     </row>
     <row r="47" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A47" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B47" s="10">
         <v>153803</v>
@@ -2161,7 +2134,7 @@
     </row>
     <row r="48" spans="1:26" ht="19" x14ac:dyDescent="0.4">
       <c r="A48" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B48" s="10">
         <v>161771</v>

--- a/zonas_verdes.xlsx
+++ b/zonas_verdes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34644\Documents\Fuentes\Seminario-Fuentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2A7965-991A-472C-B547-29373010CEFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643C1C30-9418-4CBD-B984-F32883E5797B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Población</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Ávila</t>
+  </si>
+  <si>
+    <t>Toledo</t>
   </si>
 </sst>
 </file>
@@ -533,8 +536,8 @@
   </sheetPr>
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2166,10 +2169,16 @@
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49" spans="1:26" ht="13" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+    <row r="49" spans="1:26" ht="19" x14ac:dyDescent="0.4">
+      <c r="A49" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="10">
+        <v>691725</v>
+      </c>
+      <c r="C49" s="9">
+        <v>1.88</v>
+      </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
